--- a/docs/mobile-attack-v13.1/mobile-attack-v13.1-techniques.xlsx
+++ b/docs/mobile-attack-v13.1/mobile-attack-v13.1-techniques.xlsx
@@ -2140,49 +2140,49 @@
     <t>,</t>
   </si>
   <si>
-    <t>(Citation: Bitdefender Mandrake),(Citation: Check Point-Joker),(Citation: proofpoint_flubot_0421),(Citation: Talos-WolfRAT),(Citation: threatfabric_sova_0921),(Citation: lookout_abstractemu_1021),(Citation: nccgroup_sharkbot_0322),(Citation: TrendMicro Coronavirus Updates),(Citation: Android Notification Listeners)</t>
+    <t>(Citation: TrendMicro Coronavirus Updates),(Citation: threatfabric_sova_0921),(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),(Citation: Talos-WolfRAT),(Citation: Check Point-Joker),(Citation: lookout_abstractemu_1021),(Citation: Bitdefender Mandrake),(Citation: Android Notification Listeners)</t>
   </si>
   <si>
     <t>(Citation: Lookout-Monokle),</t>
   </si>
   <si>
-    <t>(Citation: Xiao-KeyRaider),(Citation: threatfabric_sova_0921),(Citation: Skycure-Profiles),</t>
+    <t>(Citation: Xiao-KeyRaider),(Citation: Skycure-Profiles),(Citation: threatfabric_sova_0921),</t>
   </si>
   <si>
     <t>(Citation: Lookout Uyghur Campaign),(Citation: cyble_drinik_1022),</t>
   </si>
   <si>
-    <t>(Citation: Lookout FrozenCell),(Citation: Lookout Desert Scorpion),(Citation: SWB Exodus March 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Symantec GoldenCup),(Citation: Google Triada June 2019),(Citation: Cofense Anubis),(Citation: Securelist Asacub),</t>
-  </si>
-  <si>
-    <t>(Citation: proofpoint_flubot_0421),(Citation: Lookout eSurv),(Citation: Lookout Uyghur Campaign),(Citation: nccgroup_sharkbot_0322),(Citation: CYBERWARCON CHEMISTGAMES),</t>
-  </si>
-  <si>
-    <t>(Citation: Zscaler TikTok Spyware),(Citation: Lookout eSurv),(Citation: lookout_abstractemu_1021),(Citation: Zscaler-SpyNote),(Citation: Zscaler-SuperMarioRun),(Citation: TrendMicro-RCSAndroid),(Citation: Bitdefender - Triout 2018),(Citation: Lookout-StealthMango),(Citation: Palo Alto HenBox),(Citation: SWB Exodus March 2019),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Monokle),(Citation: Wandera-RedDrop),(Citation: SecureList - ViceLeaker 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-Pegasus),(Citation: Lookout Uyghur Campaign),(Citation: Symantec GoldenCup),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-EnterpriseApps),(Citation: Lookout-Dendroid),(Citation: SecureList BusyGasper),(Citation: Lookout FrozenCell),(Citation: Kaspersky-Skygofree),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout Dark Caracal Jan 2018),(Citation: TrendMicro-XLoader),(Citation: Lookout Desert Scorpion),(Citation: PaloAlto-SpyDealer),(Citation: Lookout ViperRAT),(Citation: Talos-WolfRAT),(Citation: Cofense Anubis),(Citation: TrendMicro Coronavirus Updates),(Citation: BlackBerry Bahamut),(Citation: Android Capture Sensor 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),</t>
+    <t>(Citation: Lookout FrozenCell),(Citation: Symantec GoldenCup),(Citation: Google Triada June 2019),(Citation: Cofense Anubis),(Citation: SWB Exodus March 2019),(Citation: Lookout Desert Scorpion),(Citation: Securelist Asacub),(Citation: Trend Micro Bouncing Golf 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout eSurv),(Citation: Lookout Uyghur Campaign),(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),(Citation: CYBERWARCON CHEMISTGAMES),</t>
+  </si>
+  <si>
+    <t>(Citation: Palo Alto HenBox),(Citation: Lookout-Dendroid),(Citation: Lookout-PegasusAndroid),(Citation: CyberMerchants-FlexiSpy),(Citation: lookout_abstractemu_1021),(Citation: Lookout Dark Caracal Jan 2018),(Citation: TrendMicro-RCSAndroid),(Citation: Symantec GoldenCup),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout-StealthMango),(Citation: Lookout Uyghur Campaign),(Citation: Cofense Anubis),(Citation: Lookout Desert Scorpion),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Zscaler-SpyNote),(Citation: Bitdefender - Triout 2018),(Citation: Lookout ViperRAT),(Citation: Lookout-EnterpriseApps),(Citation: Lookout eSurv),(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList - ViceLeaker 2019),(Citation: TrendMicro-XLoader),(Citation: BlackBerry Bahamut),(Citation: PaloAlto-SpyDealer),(Citation: Zscaler TikTok Spyware),(Citation: Wandera-RedDrop),(Citation: Lookout-Pegasus),(Citation: Lookout FrozenCell),(Citation: Talos-WolfRAT),(Citation: cloudmark_tanglebot_0921),(Citation: SWB Exodus March 2019),(Citation: Kaspersky-Skygofree),(Citation: Lookout-Monokle),(Citation: SecureList BusyGasper),(Citation: Android Capture Sensor 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: WhiteOps TERRACOTTA),(Citation: SecureList BusyGasper),(Citation: Bitdefender Mandrake),</t>
   </si>
   <si>
     <t>(Citation: HackerNews-OldBoot),</t>
   </si>
   <si>
-    <t>(Citation: ESET DEFENSOR ID),(Citation: Lookout-PegasusAndroid),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Zscaler TikTok Spyware),(Citation: Talos GPlayed),(Citation: PaloAlto-SpyDealer),(Citation: CheckPoint SimBad 2019),(Citation: Cybereason FakeSpy),(Citation: FortiGuard-FlexiSpy),(Citation: Microsoft MalLockerB),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Zscaler-SpyNote),(Citation: SecurityIntelligence TrickMo),(Citation: Cybereason EventBot),(Citation: Palo Alto HenBox),(Citation: WhiteOps TERRACOTTA),(Citation: Threat Fabric Exobot),(Citation: Android Changes to System Broadcasts)</t>
-  </si>
-  <si>
-    <t>(Citation: SWB Exodus March 2019),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Monokle),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-StealthMango),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: Lookout-Monokle),(Citation: cyble_drinik_1022),(Citation: Lookout Uyghur Campaign),(Citation: cloudmark_tanglebot_0921),(Citation: Cofense Anubis),</t>
-  </si>
-  <si>
-    <t>(Citation: Zscaler TikTok Spyware),(Citation: Google Project Zero Insomnia),(Citation: lookout_abstractemu_1021),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout-StealthMango),(Citation: Palo Alto HenBox),(Citation: Kaspersky-WUC),(Citation: SWB Exodus March 2019),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Monokle),(Citation: SecureList - ViceLeaker 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-Pegasus),(Citation: Lookout Uyghur Campaign),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-EnterpriseApps),(Citation: Sophos Red Alert 2.0),(Citation: NYTimes-BackDoor),(Citation: cyble_drinik_1022),(Citation: Lookout Dark Caracal Jan 2018),(Citation: PaloAlto-SpyDealer),(Citation: Lookout ViperRAT),(Citation: Talos-WolfRAT),(Citation: TrendMicro Coronavirus Updates),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-XcodeGhost),(Citation: Trend Micro Bouncing Golf 2019),(Citation: TrendMicro-RCSAndroid),(Citation: Android 10 Privacy Changes)</t>
-  </si>
-  <si>
-    <t>(Citation: Bitdefender Mandrake),(Citation: Lookout Desert Scorpion),(Citation: BlackBerry Bahamut),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: paloalto_yispecter_1015),(Citation: Lookout Uyghur Campaign),(Citation: trendmicro_tianyspy_0122),(Citation: SecureList DVMap June 2017),(Citation: Android-TrustedCA),(Citation: Symantec-iOSProfile2)</t>
+    <t>(Citation: Palo Alto HenBox),(Citation: Talos GPlayed),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: ESET DEFENSOR ID),(Citation: Threat Fabric Exobot),(Citation: Lookout-PegasusAndroid),(Citation: WhiteOps TERRACOTTA),(Citation: Cybereason FakeSpy),(Citation: CheckPoint SimBad 2019),(Citation: PaloAlto-SpyDealer),(Citation: Zscaler TikTok Spyware),(Citation: FortiGuard-FlexiSpy),(Citation: Cybereason EventBot),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Microsoft MalLockerB),(Citation: Zscaler-SpyNote),(Citation: SecurityIntelligence TrickMo),(Citation: Android Changes to System Broadcasts)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-PegasusAndroid),(Citation: Lookout-StealthMango),(Citation: CyberMerchants-FlexiSpy),(Citation: SWB Exodus March 2019),(Citation: Lookout-Monokle),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: Cofense Anubis),(Citation: cyble_drinik_1022),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Monokle),(Citation: SecureList BusyGasper),</t>
+  </si>
+  <si>
+    <t>(Citation: Palo Alto HenBox),(Citation: Lookout-PegasusAndroid),(Citation: lookout_abstractemu_1021),(Citation: Kaspersky-WUC),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout-StealthMango),(Citation: Lookout Uyghur Campaign),(Citation: Sophos Red Alert 2.0),(Citation: Trend Micro Bouncing Golf 2019),(Citation: NYTimes-BackDoor),(Citation: Lookout ViperRAT),(Citation: Lookout-EnterpriseApps),(Citation: Google Project Zero Insomnia),(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList - ViceLeaker 2019),(Citation: PaloAlto-SpyDealer),(Citation: cyble_drinik_1022),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Pegasus),(Citation: Talos-WolfRAT),(Citation: cloudmark_tanglebot_0921),(Citation: SWB Exodus March 2019),(Citation: Lookout-Monokle),</t>
+  </si>
+  <si>
+    <t>(Citation: Trend Micro Bouncing Golf 2019),(Citation: PaloAlto-XcodeGhost),(Citation: TrendMicro-RCSAndroid),(Citation: Android 10 Privacy Changes)</t>
+  </si>
+  <si>
+    <t>(Citation: paloalto_yispecter_1015),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: SecureList DVMap June 2017),(Citation: Lookout Uyghur Campaign),(Citation: BlackBerry Bahamut),(Citation: Lookout Desert Scorpion),(Citation: Bitdefender Mandrake),(Citation: trendmicro_tianyspy_0122),(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
   </si>
   <si>
     <t>(Citation: trendmicro_tianyspy_0122),</t>
@@ -2191,79 +2191,79 @@
     <t>(Citation: paloalto_yispecter_1015),(Citation: CheckPoint Agent Smith),</t>
   </si>
   <si>
-    <t>(Citation: Lookout-BrainTest),(Citation: Lookout-PegasusAndroid),(Citation: SecureList BusyGasper),(Citation: Lookout-Monokle),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Pegasus),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Adware),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-XcodeGhost),(Citation: PaloAlto-XcodeGhost1),</t>
-  </si>
-  <si>
-    <t>(Citation: NYTimes-BackDoor),(Citation: BankInfoSecurity-BackDoor),(Citation: Krebs-Triada June 2019),(Citation: Google Triada June 2019),(Citation: Lookout-StealthMango),(Citation: HackerNews-Allwinner),(Citation: CYBERWARCON CHEMISTGAMES),</t>
-  </si>
-  <si>
-    <t>(Citation: ThreatFabric Ginp),(Citation: Zscaler TikTok Spyware),(Citation: Lookout eSurv),(Citation: Google Project Zero Insomnia),(Citation: lookout_abstractemu_1021),(Citation: Talos Gustuff Apr 2019),(Citation: Zscaler-SpyNote),(Citation: Lookout-StealthMango),(Citation: Palo Alto HenBox),(Citation: Threat Fabric Exobot),(Citation: Kaspersky-WUC),(Citation: SWB Exodus March 2019),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Monokle),(Citation: securelist rotexy 2018),(Citation: Talos GPlayed),(Citation: Threat Fabric Cerberus),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-Pegasus),(Citation: Lookout Uyghur Campaign),(Citation: Symantec GoldenCup),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-EnterpriseApps),(Citation: Sophos Red Alert 2.0),(Citation: Kaspersky Riltok June 2019),(Citation: NYTimes-BackDoor),(Citation: proofpoint_flubot_0421),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Securelist Asacub),(Citation: Bitdefender Mandrake),(Citation: Lookout Desert Scorpion),(Citation: PaloAlto-SpyDealer),(Citation: Lookout ViperRAT),(Citation: Talos-WolfRAT),(Citation: Cybereason FakeSpy),(Citation: CheckPoint-Charger),(Citation: Cofense Anubis),(Citation: TrendMicro Coronavirus Updates),(Citation: BlackBerry Bahamut),</t>
-  </si>
-  <si>
-    <t>(Citation: Cofense Anubis),(Citation: PaloAlto-Xbot),(Citation: cleafy_sova_1122),</t>
-  </si>
-  <si>
-    <t>(Citation: ThreatFabric Ginp),(Citation: Zscaler TikTok Spyware),(Citation: Lookout eSurv),(Citation: Google Project Zero Insomnia),(Citation: lookout_abstractemu_1021),(Citation: Gooligan Citation),(Citation: Talos Gustuff Apr 2019),(Citation: TrendMicro-RCSAndroid),(Citation: Zscaler-SpyNote),(Citation: Bitdefender - Triout 2018),(Citation: Lookout-StealthMango),(Citation: Palo Alto HenBox),(Citation: Trend Micro Anubis),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: SWB Exodus March 2019),(Citation: Lookout-Monokle),(Citation: Talos GPlayed),(Citation: SecureList - ViceLeaker 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Uyghur Campaign),(Citation: FlexiSpy-Features),(Citation: Symantec GoldenCup),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Dendroid),(Citation: SecureList BusyGasper),(Citation: Lookout FrozenCell),(Citation: cyble_drinik_1022),(Citation: Cylance Dust Storm),(Citation: Lookout Desert Scorpion),(Citation: Lookout ViperRAT),(Citation: Talos-WolfRAT),(Citation: Cofense Anubis),(Citation: SecurityIntelligence TrickMo),(Citation: TrendMicro Coronavirus Updates),(Citation: BlackBerry Bahamut),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro-Anserver),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Trend Micro Anubis),(Citation: Cofense Anubis),(Citation: Sophos Red Alert 2.0),</t>
-  </si>
-  <si>
-    <t>(Citation: Talos GPlayed),(Citation: Proofpoint-Marcher),(Citation: lookout_abstractemu_1021),(Citation: TrendMicro-XLoader),(Citation: Securelist Asacub),(Citation: Sophos Red Alert 2.0),(Citation: Threat Fabric Exobot),(Citation: GoogleIO2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft MalLockerB),(Citation: SecurityIntelligence TrickMo),(Citation: securelist rotexy 2018),</t>
-  </si>
-  <si>
-    <t>(Citation: Bitdefender Mandrake),(Citation: Google Security Zen),(Citation: proofpoint_flubot_0421),(Citation: cyble_drinik_1022),(Citation: Threat Fabric Cerberus),(Citation: lookout_abstractemu_1021),(Citation: Cofense Anubis),(Citation: SecureList DVMap June 2017),</t>
-  </si>
-  <si>
-    <t>(Citation: Bitdefender Mandrake),(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: proofpoint_flubot_0421),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout eSurv),(Citation: lookout_abstractemu_1021),(Citation: TrendMicro-RCSAndroid),(Citation: Palo Alto HenBox),(Citation: Trend Micro Anubis),(Citation: WhiteOps TERRACOTTA),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: SWB Exodus March 2019),(Citation: Google Security Zen),(Citation: Xiao-ZergHelper),(Citation: Talos GPlayed),(Citation: Threat Fabric Cerberus),(Citation: paloalto_yispecter_1015),(Citation: Lookout Uyghur Campaign),(Citation: Google Triada June 2019),(Citation: Symantec GoldenCup),(Citation: SecureList DVMap June 2017),(Citation: Sophos Red Alert 2.0),(Citation: SecureList BusyGasper),(Citation: Lookout FrozenCell),(Citation: Kaspersky-Skygofree),(Citation: Google Bread),(Citation: Lookout-BrainTest),(Citation: Lookout Desert Scorpion),(Citation: CheckPoint-Judy),(Citation: Bitdefender Mandrake),(Citation: PaloAlto-SpyDealer),(Citation: Lookout ViperRAT),(Citation: Talos-WolfRAT),(Citation: nccgroup_sharkbot_0322),(Citation: Cybereason EventBot),(Citation: BlackBerry Bahamut),(Citation: Android 10 Execute)</t>
-  </si>
-  <si>
-    <t>(Citation: paloalto_yispecter_1015),(Citation: Lookout-Pegasus),(Citation: Lookout-StealthMango),(Citation: Volexity Insomnia),</t>
+    <t>(Citation: Lookout-Pegasus),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Adware),(Citation: Lookout Uyghur Campaign),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Monokle),(Citation: Lookout-BrainTest),(Citation: SecureList BusyGasper),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-XcodeGhost1),(Citation: PaloAlto-XcodeGhost),</t>
+  </si>
+  <si>
+    <t>(Citation: Google Triada June 2019),(Citation: Lookout-StealthMango),(Citation: Krebs-Triada June 2019),(Citation: HackerNews-Allwinner),(Citation: BankInfoSecurity-BackDoor),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: NYTimes-BackDoor),</t>
+  </si>
+  <si>
+    <t>(Citation: Palo Alto HenBox),(Citation: ThreatFabric Ginp),(Citation: Lookout-PegasusAndroid),(Citation: CyberMerchants-FlexiSpy),(Citation: Securelist Asacub),(Citation: lookout_abstractemu_1021),(Citation: Bitdefender Mandrake),(Citation: Kaspersky-WUC),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos Gustuff Apr 2019),(Citation: Talos GPlayed),(Citation: Symantec GoldenCup),(Citation: Cybereason FakeSpy),(Citation: Threat Fabric Cerberus),(Citation: Lookout-StealthMango),(Citation: Lookout Uyghur Campaign),(Citation: Cofense Anubis),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Desert Scorpion),(Citation: CheckPoint-Charger),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Zscaler-SpyNote),(Citation: NYTimes-BackDoor),(Citation: Lookout ViperRAT),(Citation: Lookout-EnterpriseApps),(Citation: Google Project Zero Insomnia),(Citation: Threat Fabric Exobot),(Citation: Lookout eSurv),(Citation: TrendMicro Coronavirus Updates),(Citation: BlackBerry Bahamut),(Citation: PaloAlto-SpyDealer),(Citation: securelist rotexy 2018),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Pegasus),(Citation: Talos-WolfRAT),(Citation: proofpoint_flubot_0421),(Citation: cloudmark_tanglebot_0921),(Citation: SWB Exodus March 2019),(Citation: Lookout-Monokle),(Citation: Kaspersky Riltok June 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-Xbot),(Citation: cleafy_sova_1122),(Citation: Cofense Anubis),</t>
+  </si>
+  <si>
+    <t>(Citation: Palo Alto HenBox),(Citation: ThreatFabric Ginp),(Citation: Lookout-Dendroid),(Citation: Gooligan Citation),(Citation: lookout_abstractemu_1021),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Cylance Dust Storm),(Citation: TrendMicro-RCSAndroid),(Citation: Talos Gustuff Apr 2019),(Citation: Talos GPlayed),(Citation: Symantec GoldenCup),(Citation: Lookout-StealthMango),(Citation: Lookout Uyghur Campaign),(Citation: Cofense Anubis),(Citation: Lookout Desert Scorpion),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Zscaler-SpyNote),(Citation: SecurityIntelligence TrickMo),(Citation: Bitdefender - Triout 2018),(Citation: Lookout ViperRAT),(Citation: Lookout eSurv),(Citation: Google Project Zero Insomnia),(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList - ViceLeaker 2019),(Citation: BlackBerry Bahamut),(Citation: cyble_drinik_1022),(Citation: Zscaler TikTok Spyware),(Citation: Trend Micro Anubis),(Citation: FlexiSpy-Features),(Citation: Lookout FrozenCell),(Citation: Talos-WolfRAT),(Citation: cloudmark_tanglebot_0921),(Citation: SWB Exodus March 2019),(Citation: Lookout-Monokle),(Citation: SecureList BusyGasper),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro-XLoader-FakeSpy),(Citation: TrendMicro-Anserver),(Citation: Cofense Anubis),(Citation: Sophos Red Alert 2.0),(Citation: Trend Micro Anubis),</t>
+  </si>
+  <si>
+    <t>(Citation: Talos GPlayed),(Citation: Threat Fabric Exobot),(Citation: Proofpoint-Marcher),(Citation: TrendMicro-XLoader),(Citation: Sophos Red Alert 2.0),(Citation: Securelist Asacub),(Citation: lookout_abstractemu_1021),(Citation: GoogleIO2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft MalLockerB),(Citation: securelist rotexy 2018),(Citation: SecurityIntelligence TrickMo),</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList DVMap June 2017),(Citation: Threat Fabric Cerberus),(Citation: Cofense Anubis),(Citation: cyble_drinik_1022),(Citation: proofpoint_flubot_0421),(Citation: lookout_abstractemu_1021),(Citation: Bitdefender Mandrake),(Citation: Google Security Zen),</t>
+  </si>
+  <si>
+    <t>(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: proofpoint_flubot_0421),(Citation: Bitdefender Mandrake),</t>
+  </si>
+  <si>
+    <t>(Citation: Palo Alto HenBox),(Citation: paloalto_yispecter_1015),(Citation: WhiteOps TERRACOTTA),(Citation: SecureList DVMap June 2017),(Citation: lookout_abstractemu_1021),(Citation: Google Bread),(Citation: Bitdefender Mandrake),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Google Security Zen),(Citation: TrendMicro-RCSAndroid),(Citation: Talos GPlayed),(Citation: Symantec GoldenCup),(Citation: Threat Fabric Cerberus),(Citation: Lookout Uyghur Campaign),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Desert Scorpion),(Citation: Lookout-BrainTest),(Citation: Lookout ViperRAT),(Citation: Lookout eSurv),(Citation: Google Triada June 2019),(Citation: BlackBerry Bahamut),(Citation: nccgroup_sharkbot_0322),(Citation: PaloAlto-SpyDealer),(Citation: Trend Micro Anubis),(Citation: CheckPoint-Judy),(Citation: Lookout FrozenCell),(Citation: Talos-WolfRAT),(Citation: SWB Exodus March 2019),(Citation: Kaspersky-Skygofree),(Citation: Cybereason EventBot),(Citation: SecureList BusyGasper),(Citation: Xiao-ZergHelper),(Citation: Android 10 Execute)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-StealthMango),(Citation: paloalto_yispecter_1015),(Citation: Volexity Insomnia),(Citation: Lookout-Pegasus),</t>
   </si>
   <si>
     <t>(Citation: ESET-Twitoor),</t>
   </si>
   <si>
-    <t>(Citation: PaloAlto-Xbot),(Citation: CheckPoint-Charger),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),</t>
+    <t>(Citation: PaloAlto-Xbot),(Citation: Talos GPlayed),(Citation: Threat Fabric Exobot),(Citation: CheckPoint-Charger),</t>
   </si>
   <si>
     <t>,(Citation: Android Changes to System Broadcasts)</t>
   </si>
   <si>
-    <t>(Citation: proofpoint_flubot_0421),(Citation: Wandera-RedDrop),(Citation: SecureList - ViceLeaker 2019),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout eSurv),(Citation: cyble_drinik_1022),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender - Triout 2018),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Cylance Dust Storm),(Citation: Google Triada June 2019),(Citation: nccgroup_sharkbot_0322),</t>
+    <t>(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout eSurv),(Citation: Google Triada June 2019),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Uyghur Campaign),(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),(Citation: cyble_drinik_1022),(Citation: lookout_abstractemu_1021),(Citation: Wandera-RedDrop),(Citation: Cylance Dust Storm),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Bitdefender - Triout 2018),</t>
   </si>
   <si>
     <t>(Citation: SecureList BusyGasper),(Citation: TrendMicro Coronavirus Updates),</t>
   </si>
   <si>
-    <t>(Citation: Lookout-BrainTest),(Citation: SWB Exodus March 2019),(Citation: Lookout-PegasusAndroid),(Citation: Kaspersky-Skygofree),(Citation: Google Security Zen),(Citation: CheckPoint Agent Smith),(Citation: Volexity Insomnia),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Pegasus),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: Gooligan Citation),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Adware),(Citation: SecureList DVMap June 2017),(Citation: ArsTechnica-HummingBad),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-NotCompatible),(Citation: TrendMicro-DressCode),</t>
-  </si>
-  <si>
-    <t>(Citation: Bitdefender Mandrake),(Citation: Lookout Desert Scorpion),(Citation: Lookout-Monokle),(Citation: Zscaler TikTok Spyware),(Citation: CheckPoint Agent Smith),(Citation: Talos GPlayed),(Citation: Talos-WolfRAT),(Citation: SecureList - ViceLeaker 2019),(Citation: CyberMerchants-FlexiSpy),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Dark Caracal Jan 2018),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout FrozenCell),(Citation: Lookout Desert Scorpion),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Uyghur Campaign),(Citation: Symantec GoldenCup),(Citation: Cylance Dust Storm),(Citation: BlackBerry Bahamut),</t>
-  </si>
-  <si>
-    <t>(Citation: Bitdefender Mandrake),(Citation: Zscaler TikTok Spyware),(Citation: WhiteOps TERRACOTTA),(Citation: cyble_drinik_1022),</t>
-  </si>
-  <si>
-    <t>(Citation: ThreatFabric Ginp),(Citation: Zscaler TikTok Spyware),(Citation: threatfabric_sova_0921),(Citation: Talos Gustuff Apr 2019),(Citation: WhiteOps TERRACOTTA),(Citation: Threat Fabric Exobot),(Citation: securelist rotexy 2018),(Citation: Talos GPlayed),(Citation: PaloAlto-XcodeGhost),(Citation: Threat Fabric Cerberus),(Citation: PaloAlto-Xbot),(Citation: cloudmark_tanglebot_0921),(Citation: Kaspersky Riltok June 2019),(Citation: Sophos Red Alert 2.0),(Citation: Lookout-Dendroid),(Citation: proofpoint_flubot_0421),(Citation: Proofpoint-Marcher),(Citation: Group IB Gustuff Mar 2019),(Citation: cyble_drinik_1022),(Citation: Lookout Dark Caracal Jan 2018),(Citation: trendmicro_tianyspy_0122),(Citation: Bitdefender Mandrake),(Citation: Cofense Anubis),(Citation: nccgroup_sharkbot_0322),(Citation: Cybereason EventBot),(Citation: Android 12 Features)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-BrainTest),(Citation: CheckPoint-Judy),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Google Security Zen),(Citation: CheckPoint Agent Smith),(Citation: Wandera-RedDrop),(Citation: CheckPoint SimBad 2019),(Citation: Gooligan Citation),(Citation: Google Bread),(Citation: Kaspersky Triada June 2016),(Citation: ArsTechnica-HummingWhale),(Citation: Google Triada June 2019),(Citation: Tripwire-MazarBOT),(Citation: Lookout-EnterpriseApps),(Citation: WhiteOps TERRACOTTA),(Citation: ArsTechnica-HummingBad),</t>
+    <t>(Citation: ArsTechnica-HummingBad),(Citation: Lookout-Pegasus),(Citation: SecureList DVMap June 2017),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Adware),(Citation: Google Security Zen),(Citation: Gooligan Citation),(Citation: Lookout Uyghur Campaign),(Citation: Volexity Insomnia),(Citation: PaloAlto-SpyDealer),(Citation: SWB Exodus March 2019),(Citation: Kaspersky-Skygofree),(Citation: lookout_abstractemu_1021),(Citation: Lookout-BrainTest),(Citation: CheckPoint Agent Smith),(Citation: Lookout Dark Caracal Jan 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro-DressCode),(Citation: Lookout-NotCompatible),</t>
+  </si>
+  <si>
+    <t>(Citation: Talos GPlayed),(Citation: SecureList - ViceLeaker 2019),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout Uyghur Campaign),(Citation: Talos-WolfRAT),(Citation: Lookout Desert Scorpion),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Monokle),(Citation: Bitdefender Mandrake),(Citation: Trend Micro Bouncing Golf 2019),(Citation: CheckPoint Agent Smith),(Citation: Lookout Dark Caracal Jan 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout FrozenCell),(Citation: Symantec GoldenCup),(Citation: Lookout Uyghur Campaign),(Citation: BlackBerry Bahamut),(Citation: Lookout Desert Scorpion),(Citation: Zscaler TikTok Spyware),(Citation: Cylance Dust Storm),</t>
+  </si>
+  <si>
+    <t>(Citation: Zscaler TikTok Spyware),(Citation: WhiteOps TERRACOTTA),(Citation: cyble_drinik_1022),(Citation: Bitdefender Mandrake),</t>
+  </si>
+  <si>
+    <t>(Citation: ThreatFabric Ginp),(Citation: Lookout-Dendroid),(Citation: WhiteOps TERRACOTTA),(Citation: PaloAlto-Xbot),(Citation: threatfabric_sova_0921),(Citation: Bitdefender Mandrake),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos Gustuff Apr 2019),(Citation: Talos GPlayed),(Citation: Threat Fabric Cerberus),(Citation: PaloAlto-XcodeGhost),(Citation: Cofense Anubis),(Citation: Sophos Red Alert 2.0),(Citation: Group IB Gustuff Mar 2019),(Citation: Threat Fabric Exobot),(Citation: Proofpoint-Marcher),(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: cyble_drinik_1022),(Citation: Zscaler TikTok Spyware),(Citation: trendmicro_tianyspy_0122),(Citation: proofpoint_flubot_0421),(Citation: cloudmark_tanglebot_0921),(Citation: Kaspersky Riltok June 2019),(Citation: Cybereason EventBot),(Citation: Android 12 Features)</t>
+  </si>
+  <si>
+    <t>(Citation: CheckPoint-Judy),(Citation: Lookout-EnterpriseApps),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: ArsTechnica-HummingBad),(Citation: WhiteOps TERRACOTTA),(Citation: Kaspersky Triada June 2016),(Citation: Google Triada June 2019),(Citation: Google Security Zen),(Citation: Gooligan Citation),(Citation: Tripwire-MazarBOT),(Citation: CheckPoint SimBad 2019),(Citation: Google Bread),(Citation: ArsTechnica-HummingWhale),(Citation: Lookout-BrainTest),(Citation: CheckPoint Agent Smith),(Citation: Wandera-RedDrop),</t>
   </si>
   <si>
     <t>(Citation: Lookout eSurv),(Citation: BlackBerry Bahamut),</t>
@@ -2275,127 +2275,127 @@
     <t>(Citation: CitizenLab Circles),(Citation: CSRIC-WG1-FinalReport)</t>
   </si>
   <si>
-    <t>(Citation: Bitdefender Mandrake),(Citation: Lookout-Monokle),(Citation: Wandera-RedDrop),(Citation: SecureList - ViceLeaker 2019),(Citation: lookout_abstractemu_1021),(Citation: nccgroup_sharkbot_0322),</t>
+    <t>(Citation: SecureList - ViceLeaker 2019),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout-Monokle),(Citation: lookout_abstractemu_1021),(Citation: Wandera-RedDrop),(Citation: Bitdefender Mandrake),</t>
   </si>
   <si>
     <t>,(Citation: Android 12 Features),(Citation: Samsung Keyboards)</t>
   </si>
   <si>
-    <t>(Citation: ESET DEFENSOR ID),(Citation: Bitdefender Mandrake),(Citation: Google Security Zen),(Citation: ThreatFabric Ginp),(Citation: SecurityIntelligence TrickMo),(Citation: cleafy_sova_1122),(Citation: Threat Fabric Cerberus),(Citation: CheckPoint Cerberus),(Citation: Talos Gustuff Apr 2019),(Citation: nccgroup_sharkbot_0322),(Citation: Kaspersky Riltok June 2019),(Citation: WhiteOps TERRACOTTA),</t>
+    <t>(Citation: Talos Gustuff Apr 2019),(Citation: ESET DEFENSOR ID),(Citation: ThreatFabric Ginp),(Citation: cleafy_sova_1122),(Citation: WhiteOps TERRACOTTA),(Citation: Threat Fabric Cerberus),(Citation: CheckPoint Cerberus),(Citation: nccgroup_sharkbot_0322),(Citation: Kaspersky Riltok June 2019),(Citation: Bitdefender Mandrake),(Citation: SecurityIntelligence TrickMo),(Citation: Google Security Zen),</t>
   </si>
   <si>
     <t>(Citation: Google Project Zero Insomnia),</t>
   </si>
   <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: Lookout-Monokle),(Citation: threatfabric_sova_0921),(Citation: cyble_drinik_1022),(Citation: Threat Fabric Cerberus),(Citation: Talos Gustuff Apr 2019),(Citation: FlexiSpy-Features),(Citation: Cofense Anubis),(Citation: nccgroup_sharkbot_0322),(Citation: Cybereason EventBot),(Citation: BlackBerry Bahamut),(Citation: Threat Fabric Exobot),(Citation: Samsung Keyboards)</t>
-  </si>
-  <si>
-    <t>(Citation: Zscaler TikTok Spyware),(Citation: Lookout eSurv),(Citation: Google Project Zero Insomnia),(Citation: lookout_abstractemu_1021),(Citation: Zscaler-SpyNote),(Citation: TrendMicro-RCSAndroid),(Citation: Bitdefender - Triout 2018),(Citation: Lookout-StealthMango),(Citation: Palo Alto HenBox),(Citation: Kaspersky-WUC),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: SWB Exodus March 2019),(Citation: Lookout-Monokle),(Citation: Talos GPlayed),(Citation: SecureList - ViceLeaker 2019),(Citation: Threat Fabric Cerberus),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-Pegasus),(Citation: Lookout Uyghur Campaign),(Citation: Symantec GoldenCup),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-EnterpriseApps),(Citation: NYTimes-BackDoor),(Citation: SecureList BusyGasper),(Citation: Lookout FrozenCell),(Citation: Kaspersky-Skygofree),(Citation: CrowdStrike-Android),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Bitdefender Mandrake),(Citation: Lookout Desert Scorpion),(Citation: PaloAlto-SpyDealer),(Citation: Lookout ViperRAT),(Citation: CheckPoint-Charger),(Citation: Cofense Anubis),(Citation: TrendMicro Coronavirus Updates),(Citation: BlackBerry Bahamut),(Citation: CSRIC5-WG10-FinalReport)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: Google Bread),(Citation: Securelist Asacub),(Citation: Palo Alto HenBox),(Citation: WhiteOps TERRACOTTA),(Citation: CYBERWARCON CHEMISTGAMES),</t>
+    <t>(Citation: Talos Gustuff Apr 2019),(Citation: Threat Fabric Exobot),(Citation: Threat Fabric Cerberus),(Citation: threatfabric_sova_0921),(Citation: BlackBerry Bahamut),(Citation: nccgroup_sharkbot_0322),(Citation: Cofense Anubis),(Citation: cyble_drinik_1022),(Citation: FlexiSpy-Features),(Citation: Lookout-Monokle),(Citation: Cybereason EventBot),(Citation: SecureList BusyGasper),(Citation: Samsung Keyboards)</t>
+  </si>
+  <si>
+    <t>(Citation: Palo Alto HenBox),(Citation: CyberMerchants-FlexiSpy),(Citation: lookout_abstractemu_1021),(Citation: Bitdefender Mandrake),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Kaspersky-WUC),(Citation: Lookout Dark Caracal Jan 2018),(Citation: TrendMicro-RCSAndroid),(Citation: Talos GPlayed),(Citation: Symantec GoldenCup),(Citation: Lookout-StealthMango),(Citation: Threat Fabric Cerberus),(Citation: Lookout Uyghur Campaign),(Citation: Cofense Anubis),(Citation: Lookout Desert Scorpion),(Citation: CheckPoint-Charger),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Zscaler-SpyNote),(Citation: NYTimes-BackDoor),(Citation: Bitdefender - Triout 2018),(Citation: Lookout ViperRAT),(Citation: Lookout-EnterpriseApps),(Citation: Google Project Zero Insomnia),(Citation: Lookout eSurv),(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList - ViceLeaker 2019),(Citation: BlackBerry Bahamut),(Citation: PaloAlto-SpyDealer),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Pegasus),(Citation: Lookout FrozenCell),(Citation: CrowdStrike-Android),(Citation: cloudmark_tanglebot_0921),(Citation: SWB Exodus March 2019),(Citation: Kaspersky-Skygofree),(Citation: Lookout-Monokle),(Citation: SecureList BusyGasper),(Citation: CSRIC5-WG10-FinalReport)</t>
+  </si>
+  <si>
+    <t>(Citation: Palo Alto HenBox),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout Uyghur Campaign),(Citation: Securelist Asacub),(Citation: Google Bread),(Citation: CYBERWARCON CHEMISTGAMES),</t>
   </si>
   <si>
     <t>(Citation: threatfabric_sova_0921),</t>
   </si>
   <si>
-    <t>(Citation: SWB Exodus March 2019),(Citation: Bitdefender Mandrake),(Citation: Volexity Insomnia),(Citation: FortiGuard-FlexiSpy),(Citation: CheckPoint Cerberus),(Citation: Sophos Red Alert 2.0),</t>
-  </si>
-  <si>
-    <t>(Citation: Check Point-Joker),(Citation: ThreatFabric Ginp),(Citation: lookout_abstractemu_1021),(Citation: Talos Gustuff Apr 2019),(Citation: Palo Alto HenBox),(Citation: WhiteOps TERRACOTTA),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout-Monokle),(Citation: securelist rotexy 2018),(Citation: Google Security Zen),(Citation: Talos GPlayed),(Citation: Volexity Insomnia),(Citation: Threat Fabric Cerberus),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Uyghur Campaign),(Citation: SecureList DVMap June 2017),(Citation: Sophos Red Alert 2.0),(Citation: PaloAlto-WireLurker),(Citation: proofpoint_flubot_0421),(Citation: SecurityIntelligence TrickMo),(Citation: TrendMicro-Obad),(Citation: cyble_drinik_1022),(Citation: Microsoft MalLockerB),(Citation: Google Bread),(Citation: Lookout Dark Caracal Jan 2018),(Citation: trendmicro_tianyspy_0122),(Citation: TrendMicro-XLoader),(Citation: Securelist Asacub),(Citation: Lookout-BrainTest),(Citation: Bitdefender Mandrake),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Talos-WolfRAT),(Citation: Cybereason FakeSpy),(Citation: CheckPoint-Charger),(Citation: FortiGuard-FlexiSpy),(Citation: nccgroup_sharkbot_0322),(Citation: Cybereason EventBot),(Citation: BlackBerry Bahamut),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: Lookout Desert Scorpion),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Monokle),(Citation: securelist rotexy 2018),(Citation: Kaspersky-Skygofree),(Citation: Lookout-StealthMango),(Citation: PaloAlto-SpyDealer),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout-Pegasus),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro-RCSAndroid),(Citation: nccgroup_sharkbot_0322),(Citation: Kaspersky-WUC),</t>
-  </si>
-  <si>
-    <t>(Citation: Bitdefender Mandrake),(Citation: TrendMicro-Obad),(Citation: threatfabric_sova_0921),(Citation: bitdefender_flubot_0524),</t>
-  </si>
-  <si>
-    <t>(Citation: securelist rotexy 2018),(Citation: CheckPoint Agent Smith),(Citation: Talos-WolfRAT),(Citation: Zimperium z9),(Citation: Trend Micro Bouncing Golf 2019),(Citation: paloalto_yispecter_1015),(Citation: nccgroup_sharkbot_0322),(Citation: Palo Alto HenBox),</t>
-  </si>
-  <si>
-    <t>(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Exobot),</t>
-  </si>
-  <si>
-    <t>(Citation: Google Security Zen),(Citation: Google Project Zero Insomnia),(Citation: Kaspersky Triada March 2016),(Citation: Google Triada June 2019),</t>
+    <t>(Citation: Volexity Insomnia),(Citation: CheckPoint Cerberus),(Citation: Sophos Red Alert 2.0),(Citation: SWB Exodus March 2019),(Citation: FortiGuard-FlexiSpy),(Citation: Bitdefender Mandrake),</t>
+  </si>
+  <si>
+    <t>(Citation: Palo Alto HenBox),(Citation: ThreatFabric Ginp),(Citation: WhiteOps TERRACOTTA),(Citation: SecureList DVMap June 2017),(Citation: Check Point-Joker),(Citation: Securelist Asacub),(Citation: lookout_abstractemu_1021),(Citation: Google Bread),(Citation: Bitdefender Mandrake),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Microsoft MalLockerB),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Google Security Zen),(Citation: Talos Gustuff Apr 2019),(Citation: Talos GPlayed),(Citation: Cybereason FakeSpy),(Citation: Threat Fabric Cerberus),(Citation: Volexity Insomnia),(Citation: Lookout Uyghur Campaign),(Citation: Sophos Red Alert 2.0),(Citation: CheckPoint-Charger),(Citation: Lookout-BrainTest),(Citation: Trend Micro Bouncing Golf 2019),(Citation: TrendMicro-Obad),(Citation: SecurityIntelligence TrickMo),(Citation: TrendMicro-XLoader),(Citation: BlackBerry Bahamut),(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: cyble_drinik_1022),(Citation: trendmicro_tianyspy_0122),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: PaloAlto-WireLurker),(Citation: Talos-WolfRAT),(Citation: proofpoint_flubot_0421),(Citation: FortiGuard-FlexiSpy),(Citation: Lookout-Monokle),(Citation: Cybereason EventBot),</t>
+  </si>
+  <si>
+    <t>(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Pegasus),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-StealthMango),(Citation: Lookout Uyghur Campaign),(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Desert Scorpion),(Citation: Kaspersky-Skygofree),(Citation: Lookout-Monokle),(Citation: Kaspersky-WUC),(Citation: SecureList BusyGasper),(Citation: SecurityIntelligence TrickMo),(Citation: TrendMicro-RCSAndroid),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro-Obad),(Citation: threatfabric_sova_0921),(Citation: bitdefender_flubot_0524),(Citation: Bitdefender Mandrake),</t>
+  </si>
+  <si>
+    <t>(Citation: Zimperium z9),(Citation: Palo Alto HenBox),(Citation: paloalto_yispecter_1015),(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: Talos-WolfRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: CheckPoint Agent Smith),</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Exobot),(Citation: proofpoint_flubot_0421),</t>
+  </si>
+  <si>
+    <t>(Citation: Google Project Zero Insomnia),(Citation: Kaspersky Triada March 2016),(Citation: Google Security Zen),(Citation: Google Triada June 2019),</t>
   </si>
   <si>
     <t>(Citation: PaloAlto-DualToy),(Citation: PaloAlto-WireLurker),(Citation: Elcomsoft-iOSRestricted)</t>
   </si>
   <si>
-    <t>(Citation: ThreatFabric Ginp),(Citation: Zscaler TikTok Spyware),(Citation: threatfabric_sova_0921),(Citation: Lookout-StealthMango),(Citation: WhiteOps TERRACOTTA),(Citation: Threat Fabric Exobot),(Citation: securelist rotexy 2018),(Citation: Talos GPlayed),(Citation: Threat Fabric Cerberus),(Citation: Lookout Uyghur Campaign),(Citation: cloudmark_tanglebot_0921),(Citation: Sophos Red Alert 2.0),(Citation: Lookout-Dendroid),(Citation: SecureList BusyGasper),(Citation: proofpoint_flubot_0421),(Citation: SecurityIntelligence TrickMo),(Citation: cyble_drinik_1022),(Citation: Securelist Asacub),(Citation: bitdefender_flubot_0524),(Citation: Bitdefender Mandrake),(Citation: Lookout Desert Scorpion),(Citation: Talos-WolfRAT),(Citation: Cybereason FakeSpy),(Citation: Cofense Anubis),(Citation: nccgroup_sharkbot_0322),(Citation: TrendMicro Coronavirus Updates),(Citation: SMS KitKat)</t>
-  </si>
-  <si>
-    <t>(Citation: ThreatFabric Ginp),(Citation: Zscaler TikTok Spyware),(Citation: Google Project Zero Insomnia),(Citation: threatfabric_sova_0921),(Citation: lookout_abstractemu_1021),(Citation: Talos Gustuff Apr 2019),(Citation: Zscaler-SuperMarioRun),(Citation: TrendMicro-RCSAndroid),(Citation: Zscaler-SpyNote),(Citation: FireEye-RuMMS),(Citation: Tripwire-MazarBOT),(Citation: Lookout-StealthMango),(Citation: Palo Alto HenBox),(Citation: Threat Fabric Exobot),(Citation: Kaspersky-WUC),(Citation: SWB Exodus March 2019),(Citation: securelist rotexy 2018),(Citation: Talos GPlayed),(Citation: SecureList - ViceLeaker 2019),(Citation: Threat Fabric Cerberus),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-Pegasus),(Citation: Lookout Uyghur Campaign),(Citation: PaloAlto-Xbot),(Citation: FlexiSpy-Features),(Citation: Symantec GoldenCup),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-EnterpriseApps),(Citation: Sophos Red Alert 2.0),(Citation: Kaspersky Riltok June 2019),(Citation: Lookout-Dendroid),(Citation: SecureList BusyGasper),(Citation: NYTimes-BackDoor),(Citation: Lookout FrozenCell),(Citation: proofpoint_flubot_0421),(Citation: SecurityIntelligence TrickMo),(Citation: Kaspersky Triada March 2016),(Citation: CyberMerchants-FlexiSpy),(Citation: cyble_drinik_1022),(Citation: Google Bread),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Cylance Dust Storm),(Citation: TrendMicro-XLoader),(Citation: Securelist Asacub),(Citation: Bitdefender Mandrake),(Citation: Lookout Desert Scorpion),(Citation: PaloAlto-SpyDealer),(Citation: Lookout ViperRAT),(Citation: Talos-WolfRAT),(Citation: Cybereason FakeSpy),(Citation: nccgroup_sharkbot_0322),(Citation: Cybereason EventBot),(Citation: TrendMicro Coronavirus Updates),(Citation: BlackBerry Bahamut),</t>
-  </si>
-  <si>
-    <t>(Citation: Zscaler TikTok Spyware),(Citation: WhiteOps TERRACOTTA),(Citation: Talos GPlayed),</t>
-  </si>
-  <si>
-    <t>(Citation: ESET DEFENSOR ID),(Citation: SecureList BusyGasper),(Citation: SWB Exodus March 2019),(Citation: Bitdefender Mandrake),(Citation: Lookout-Monokle),(Citation: ThreatFabric Ginp),(Citation: Zscaler TikTok Spyware),(Citation: PaloAlto-SpyDealer),(Citation: Talos-WolfRAT),(Citation: cyble_drinik_1022),(Citation: cleafy_sova_1122),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Uyghur Campaign),(Citation: cloudmark_tanglebot_0921),(Citation: FlexiSpy-Features),(Citation: Cofense Anubis),(Citation: SecurityIntelligence TrickMo),(Citation: Cybereason EventBot),(Citation: Nightwatch screencap April 2016)</t>
+    <t>(Citation: ThreatFabric Ginp),(Citation: Lookout-Dendroid),(Citation: WhiteOps TERRACOTTA),(Citation: threatfabric_sova_0921),(Citation: Securelist Asacub),(Citation: Bitdefender Mandrake),(Citation: bitdefender_flubot_0524),(Citation: Talos GPlayed),(Citation: Cybereason FakeSpy),(Citation: Threat Fabric Cerberus),(Citation: Lookout-StealthMango),(Citation: Lookout Uyghur Campaign),(Citation: Cofense Anubis),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Desert Scorpion),(Citation: SecurityIntelligence TrickMo),(Citation: Threat Fabric Exobot),(Citation: TrendMicro Coronavirus Updates),(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: cyble_drinik_1022),(Citation: Zscaler TikTok Spyware),(Citation: Talos-WolfRAT),(Citation: proofpoint_flubot_0421),(Citation: cloudmark_tanglebot_0921),(Citation: SecureList BusyGasper),(Citation: SMS KitKat)</t>
+  </si>
+  <si>
+    <t>(Citation: Palo Alto HenBox),(Citation: ThreatFabric Ginp),(Citation: Lookout-Dendroid),(Citation: PaloAlto-Xbot),(Citation: threatfabric_sova_0921),(Citation: CyberMerchants-FlexiSpy),(Citation: Securelist Asacub),(Citation: FireEye-RuMMS),(Citation: lookout_abstractemu_1021),(Citation: Google Bread),(Citation: Bitdefender Mandrake),(Citation: Cylance Dust Storm),(Citation: Kaspersky-WUC),(Citation: Lookout Dark Caracal Jan 2018),(Citation: TrendMicro-RCSAndroid),(Citation: Talos Gustuff Apr 2019),(Citation: Talos GPlayed),(Citation: Symantec GoldenCup),(Citation: Zscaler-SuperMarioRun),(Citation: Cybereason FakeSpy),(Citation: Threat Fabric Cerberus),(Citation: Tripwire-MazarBOT),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-StealthMango),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Desert Scorpion),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Zscaler-SpyNote),(Citation: SecurityIntelligence TrickMo),(Citation: NYTimes-BackDoor),(Citation: Lookout ViperRAT),(Citation: Lookout-EnterpriseApps),(Citation: Google Project Zero Insomnia),(Citation: Threat Fabric Exobot),(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList - ViceLeaker 2019),(Citation: TrendMicro-XLoader),(Citation: BlackBerry Bahamut),(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: cyble_drinik_1022),(Citation: PaloAlto-SpyDealer),(Citation: Zscaler TikTok Spyware),(Citation: FlexiSpy-Features),(Citation: Lookout-Pegasus),(Citation: Lookout FrozenCell),(Citation: Talos-WolfRAT),(Citation: proofpoint_flubot_0421),(Citation: cloudmark_tanglebot_0921),(Citation: SWB Exodus March 2019),(Citation: Kaspersky Triada March 2016),(Citation: Kaspersky Riltok June 2019),(Citation: Cybereason EventBot),(Citation: SecureList BusyGasper),</t>
+  </si>
+  <si>
+    <t>(Citation: Zscaler TikTok Spyware),(Citation: Talos GPlayed),(Citation: WhiteOps TERRACOTTA),</t>
+  </si>
+  <si>
+    <t>(Citation: ESET DEFENSOR ID),(Citation: ThreatFabric Ginp),(Citation: cleafy_sova_1122),(Citation: Lookout Uyghur Campaign),(Citation: PaloAlto-SpyDealer),(Citation: Cofense Anubis),(Citation: cyble_drinik_1022),(Citation: cloudmark_tanglebot_0921),(Citation: SWB Exodus March 2019),(Citation: Zscaler TikTok Spyware),(Citation: Talos-WolfRAT),(Citation: FlexiSpy-Features),(Citation: Lookout-Monokle),(Citation: Bitdefender Mandrake),(Citation: Cybereason EventBot),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SecureList BusyGasper),(Citation: SecurityIntelligence TrickMo),(Citation: Nightwatch screencap April 2016)</t>
   </si>
   <si>
     <t>(Citation: Talos Gustuff Apr 2019),(Citation: Threat Fabric Exobot),(Citation: Android Package Visibility)</t>
   </si>
   <si>
-    <t>(Citation: ESET DEFENSOR ID),(Citation: ThreatFabric Ginp),(Citation: CheckPoint Agent Smith),(Citation: Zscaler TikTok Spyware),(Citation: Google Project Zero Insomnia),(Citation: lookout_abstractemu_1021),(Citation: Lookout-StealthMango),(Citation: Palo Alto HenBox),(Citation: WhiteOps TERRACOTTA),(Citation: SWB Exodus March 2019),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Monokle),(Citation: securelist rotexy 2018),(Citation: Talos GPlayed),(Citation: SecureList - ViceLeaker 2019),(Citation: Threat Fabric Cerberus),(Citation: Trend Micro Bouncing Golf 2019),(Citation: paloalto_yispecter_1015),(Citation: Lookout Uyghur Campaign),(Citation: FlexiSpy-Features),(Citation: Symantec GoldenCup),(Citation: cloudmark_tanglebot_0921),(Citation: Google Triada June 2019),(Citation: Kaspersky Riltok June 2019),(Citation: Sophos Red Alert 2.0),(Citation: cleafy_sova_1122),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Bitdefender Mandrake),(Citation: Lookout Desert Scorpion),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Talos-WolfRAT),(Citation: Cybereason FakeSpy),(Citation: Cofense Anubis),(Citation: SecurityIntelligence TrickMo),(Citation: Cybereason EventBot),(Citation: Android Package Visibility)</t>
-  </si>
-  <si>
-    <t>(Citation: threatfabric_sova_0921),(Citation: Talos Gustuff Apr 2019),(Citation: Google Bread),</t>
-  </si>
-  <si>
-    <t>,(Citation: Android App Links),(Citation: IETF-PKCE),(Citation: Trend Micro iOS URL Hijacking),(Citation: iOS Universal Links)</t>
+    <t>(Citation: Palo Alto HenBox),(Citation: paloalto_yispecter_1015),(Citation: ThreatFabric Ginp),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout-PegasusAndroid),(Citation: lookout_abstractemu_1021),(Citation: Bitdefender Mandrake),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos GPlayed),(Citation: Symantec GoldenCup),(Citation: Cybereason FakeSpy),(Citation: Threat Fabric Cerberus),(Citation: Lookout-StealthMango),(Citation: Lookout Uyghur Campaign),(Citation: Cofense Anubis),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Desert Scorpion),(Citation: Trend Micro Bouncing Golf 2019),(Citation: CheckPoint Agent Smith),(Citation: SecurityIntelligence TrickMo),(Citation: ESET DEFENSOR ID),(Citation: Google Project Zero Insomnia),(Citation: Google Triada June 2019),(Citation: SecureList - ViceLeaker 2019),(Citation: securelist rotexy 2018),(Citation: Zscaler TikTok Spyware),(Citation: FlexiSpy-Features),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: cleafy_sova_1122),(Citation: Talos-WolfRAT),(Citation: cloudmark_tanglebot_0921),(Citation: SWB Exodus March 2019),(Citation: Lookout-Monokle),(Citation: Kaspersky Riltok June 2019),(Citation: Cybereason EventBot),(Citation: Android Package Visibility)</t>
+  </si>
+  <si>
+    <t>(Citation: Talos Gustuff Apr 2019),(Citation: threatfabric_sova_0921),(Citation: Google Bread),</t>
+  </si>
+  <si>
+    <t>,(Citation: iOS Universal Links),(Citation: IETF-PKCE),(Citation: Trend Micro iOS URL Hijacking),(Citation: Android App Links)</t>
   </si>
   <si>
     <t>(Citation: CheckPoint Agent Smith),</t>
   </si>
   <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: Lookout Desert Scorpion),(Citation: SWB Exodus March 2019),(Citation: Lookout FrozenCell),(Citation: Bitdefender Mandrake),(Citation: Lookout-PegasusAndroid),(Citation: Kaspersky-Skygofree),(Citation: PaloAlto-SpyDealer),(Citation: Cybereason FakeSpy),(Citation: threatfabric_sova_0921),(Citation: FortiGuard-FlexiSpy),(Citation: cleafy_sova_1122),(Citation: paloalto_yispecter_1015),(Citation: Lookout-Pegasus),(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-StealthMango),</t>
-  </si>
-  <si>
-    <t>,(Citation: Android-TrustedCA),(Citation: Symantec-iOSProfile2)</t>
-  </si>
-  <si>
-    <t>(Citation: ThreatFabric Ginp),(Citation: CheckPoint Agent Smith),(Citation: Zscaler TikTok Spyware),(Citation: threatfabric_sova_0921),(Citation: Bitdefender - Triout 2018),(Citation: securelist rotexy 2018),(Citation: Threat Fabric Cerberus),(Citation: paloalto_yispecter_1015),(Citation: Lookout Uyghur Campaign),(Citation: FlexiSpy-Features),(Citation: ESET-Twitoor),(Citation: SecureList BusyGasper),(Citation: cyble_drinik_1022),(Citation: Bitdefender Mandrake),(Citation: Lookout Desert Scorpion),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: CheckPoint SimBad 2019),(Citation: Cybereason FakeSpy),(Citation: FortiGuard-FlexiSpy),(Citation: Group IB Gustuff Mar 2019),(Citation: Android 10 Limitations to Hiding App Icons),(Citation: LauncherApps getActivityList)</t>
-  </si>
-  <si>
-    <t>(Citation: nccgroup_sharkbot_0322),(Citation: Cybereason EventBot),(Citation: securelist rotexy 2018),(Citation: BlackBerry Bahamut),</t>
-  </si>
-  <si>
-    <t>(Citation: Bitdefender Mandrake),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: securelist rotexy 2018),(Citation: ThreatFabric Ginp),(Citation: Talos-WolfRAT),(Citation: WhiteOps TERRACOTTA),(Citation: Cybereason FakeSpy),(Citation: Threat Fabric Cerberus),(Citation: lookout_abstractemu_1021),(Citation: Trend Micro Anubis),(Citation: SecurityIntelligence TrickMo),(Citation: Palo Alto HenBox),(Citation: BlackBerry Bahamut),(Citation: Lookout-Dendroid),</t>
-  </si>
-  <si>
-    <t>(Citation: Zscaler TikTok Spyware),(Citation: Lookout eSurv),(Citation: Google Project Zero Insomnia),(Citation: threatfabric_sova_0921),(Citation: lookout_abstractemu_1021),(Citation: Talos Gustuff Apr 2019),(Citation: FireEye-RuMMS),(Citation: Palo Alto HenBox),(Citation: Xiao-KeyRaider),(Citation: Threat Fabric Exobot),(Citation: Kaspersky-WUC),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout-Monokle),(Citation: securelist rotexy 2018),(Citation: Talos GPlayed),(Citation: Wandera-RedDrop),(Citation: SecureList - ViceLeaker 2019),(Citation: Threat Fabric Cerberus),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-Pegasus),(Citation: Lookout Uyghur Campaign),(Citation: paloalto_yispecter_1015),(Citation: Symantec GoldenCup),(Citation: Kaspersky Riltok June 2019),(Citation: SecureList DVMap June 2017),(Citation: Lookout FrozenCell),(Citation: Lookout Dark Caracal Jan 2018),(Citation: trendmicro_tianyspy_0122),(Citation: TrendMicro-Anserver2),(Citation: Securelist Asacub),(Citation: Bitdefender Mandrake),(Citation: Lookout Desert Scorpion),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout ViperRAT),(Citation: Cybereason FakeSpy),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: CheckPoint Cerberus),(Citation: Cofense Anubis),(Citation: SecurityIntelligence TrickMo),(Citation: Cybereason EventBot),(Citation: TrendMicro Coronavirus Updates),(Citation: BlackBerry Bahamut),</t>
-  </si>
-  <si>
-    <t>(Citation: Google Project Zero Insomnia),(Citation: lookout_abstractemu_1021),(Citation: Talos Gustuff Apr 2019),(Citation: FireEye-RuMMS),(Citation: Lookout-StealthMango),(Citation: WhiteOps TERRACOTTA),(Citation: Threat Fabric Exobot),(Citation: SWB Exodus March 2019),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Monokle),(Citation: securelist rotexy 2018),(Citation: Talos GPlayed),(Citation: Wandera-RedDrop),(Citation: paloalto_yispecter_1015),(Citation: PaloAlto-DualToy),(Citation: Lookout Uyghur Campaign),(Citation: Symantec GoldenCup),(Citation: Lookout-EnterpriseApps),(Citation: Kaspersky Riltok June 2019),(Citation: Lookout FrozenCell),(Citation: Google Bread),(Citation: trendmicro_tianyspy_0122),(Citation: TrendMicro-Anserver2),(Citation: Securelist Asacub),(Citation: PaloAlto-SpyDealer),(Citation: Lookout ViperRAT),(Citation: Talos-WolfRAT),(Citation: Cybereason FakeSpy),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: SecurityIntelligence TrickMo),(Citation: Cybereason EventBot),(Citation: TrendMicro Coronavirus Updates),(Citation: TelephonyManager)</t>
-  </si>
-  <si>
-    <t>(Citation: SWB Exodus March 2019),(Citation: Lookout-Monokle),(Citation: Lookout ViperRAT),(Citation: Cybereason FakeSpy),(Citation: Lookout-Pegasus),(Citation: FlexiSpy-Features),(Citation: Lookout Dark Caracal Jan 2018),</t>
-  </si>
-  <si>
-    <t>(Citation: Google Security Zen),(Citation: SecureList DVMap June 2017),(Citation: FortiGuard-FlexiSpy),(Citation: Android-VerifiedBoot)</t>
+    <t>(Citation: paloalto_yispecter_1015),(Citation: Lookout-Pegasus),(Citation: Lookout FrozenCell),(Citation: cleafy_sova_1122),(Citation: Lookout-PegasusAndroid),(Citation: Cybereason FakeSpy),(Citation: Lookout-StealthMango),(Citation: threatfabric_sova_0921),(Citation: Lookout Uyghur Campaign),(Citation: PaloAlto-SpyDealer),(Citation: SWB Exodus March 2019),(Citation: Lookout Desert Scorpion),(Citation: FortiGuard-FlexiSpy),(Citation: Kaspersky-Skygofree),(Citation: Bitdefender Mandrake),(Citation: SecureList BusyGasper),(Citation: Lookout Dark Caracal Jan 2018),(Citation: TrendMicro-RCSAndroid),</t>
+  </si>
+  <si>
+    <t>,(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
+  </si>
+  <si>
+    <t>(Citation: paloalto_yispecter_1015),(Citation: ThreatFabric Ginp),(Citation: threatfabric_sova_0921),(Citation: Bitdefender Mandrake),(Citation: Cybereason FakeSpy),(Citation: Threat Fabric Cerberus),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: CheckPoint Agent Smith),(Citation: Bitdefender - Triout 2018),(Citation: Group IB Gustuff Mar 2019),(Citation: securelist rotexy 2018),(Citation: cyble_drinik_1022),(Citation: Zscaler TikTok Spyware),(Citation: FlexiSpy-Features),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: ESET-Twitoor),(Citation: CheckPoint SimBad 2019),(Citation: FortiGuard-FlexiSpy),(Citation: SecureList BusyGasper),(Citation: Android 10 Limitations to Hiding App Icons),(Citation: LauncherApps getActivityList)</t>
+  </si>
+  <si>
+    <t>(Citation: Cybereason EventBot),(Citation: BlackBerry Bahamut),(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: Palo Alto HenBox),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout-Dendroid),(Citation: ThreatFabric Ginp),(Citation: WhiteOps TERRACOTTA),(Citation: Cybereason FakeSpy),(Citation: Threat Fabric Cerberus),(Citation: BlackBerry Bahamut),(Citation: Talos-WolfRAT),(Citation: securelist rotexy 2018),(Citation: lookout_abstractemu_1021),(Citation: Trend Micro Anubis),(Citation: Bitdefender Mandrake),(Citation: SecurityIntelligence TrickMo),</t>
+  </si>
+  <si>
+    <t>(Citation: Palo Alto HenBox),(Citation: paloalto_yispecter_1015),(Citation: SecureList DVMap June 2017),(Citation: threatfabric_sova_0921),(Citation: Securelist Asacub),(Citation: FireEye-RuMMS),(Citation: lookout_abstractemu_1021),(Citation: Bitdefender Mandrake),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Kaspersky-WUC),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos Gustuff Apr 2019),(Citation: Talos GPlayed),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Symantec GoldenCup),(Citation: Cybereason FakeSpy),(Citation: Threat Fabric Cerberus),(Citation: CheckPoint Cerberus),(Citation: Lookout Uyghur Campaign),(Citation: Cofense Anubis),(Citation: Lookout Desert Scorpion),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout ViperRAT),(Citation: Xiao-KeyRaider),(Citation: Lookout eSurv),(Citation: Google Project Zero Insomnia),(Citation: Threat Fabric Exobot),(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList - ViceLeaker 2019),(Citation: BlackBerry Bahamut),(Citation: securelist rotexy 2018),(Citation: Zscaler TikTok Spyware),(Citation: Wandera-RedDrop),(Citation: trendmicro_tianyspy_0122),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout FrozenCell),(Citation: Lookout-Pegasus),(Citation: Lookout-Monokle),(Citation: TrendMicro-Anserver2),(Citation: Kaspersky Riltok June 2019),(Citation: Cybereason EventBot),</t>
+  </si>
+  <si>
+    <t>(Citation: paloalto_yispecter_1015),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout-PegasusAndroid),(Citation: Securelist Asacub),(Citation: FireEye-RuMMS),(Citation: lookout_abstractemu_1021),(Citation: Google Bread),(Citation: Talos Gustuff Apr 2019),(Citation: Talos GPlayed),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Symantec GoldenCup),(Citation: Cybereason FakeSpy),(Citation: Lookout-StealthMango),(Citation: Lookout Uyghur Campaign),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout ViperRAT),(Citation: Lookout-EnterpriseApps),(Citation: Google Project Zero Insomnia),(Citation: Threat Fabric Exobot),(Citation: TrendMicro Coronavirus Updates),(Citation: PaloAlto-DualToy),(Citation: PaloAlto-SpyDealer),(Citation: securelist rotexy 2018),(Citation: Wandera-RedDrop),(Citation: trendmicro_tianyspy_0122),(Citation: Lookout FrozenCell),(Citation: Talos-WolfRAT),(Citation: SWB Exodus March 2019),(Citation: Lookout-Monokle),(Citation: TrendMicro-Anserver2),(Citation: Kaspersky Riltok June 2019),(Citation: Cybereason EventBot),(Citation: TelephonyManager)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-Pegasus),(Citation: Cybereason FakeSpy),(Citation: SWB Exodus March 2019),(Citation: Lookout-Monokle),(Citation: FlexiSpy-Features),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout ViperRAT),</t>
+  </si>
+  <si>
+    <t>(Citation: FortiGuard-FlexiSpy),(Citation: SecureList DVMap June 2017),(Citation: Google Security Zen),(Citation: Android-VerifiedBoot)</t>
   </si>
   <si>
     <t>(Citation: threatfabric_sova_0921),(Citation: Android 10 Privacy Changes)</t>
   </si>
   <si>
-    <t>(Citation: SecurityIntelligence TrickMo),(Citation: Threat Fabric Cerberus),(Citation: nccgroup_sharkbot_0322),(Citation: threatfabric_sova_0921),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: Zscaler TikTok Spyware),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: Palo Alto HenBox),(Citation: CYBERWARCON CHEMISTGAMES),</t>
+    <t>(Citation: Threat Fabric Cerberus),(Citation: threatfabric_sova_0921),(Citation: nccgroup_sharkbot_0322),(Citation: SecurityIntelligence TrickMo),</t>
+  </si>
+  <si>
+    <t>(Citation: Palo Alto HenBox),(Citation: Lookout Uyghur Campaign),(Citation: Zscaler TikTok Spyware),(Citation: lookout_abstractemu_1021),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: SecureList BusyGasper),</t>
   </si>
   <si>
     <t>(Citation: SecureList BusyGasper),(Citation: proofpoint_flubot_0421),</t>
   </si>
   <si>
-    <t>(Citation: Zscaler TikTok Spyware),(Citation: lookout_abstractemu_1021),(Citation: Zscaler-SuperMarioRun),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-StealthMango),(Citation: Palo Alto HenBox),(Citation: SWB Exodus March 2019),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Monokle),(Citation: SecureList - ViceLeaker 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Uyghur Campaign),(Citation: Symantec GoldenCup),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Dendroid),(Citation: SecureList BusyGasper),(Citation: Kaspersky-Skygofree),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Desert Scorpion),(Citation: PaloAlto-SpyDealer),(Citation: Lookout ViperRAT),(Citation: Talos-WolfRAT),(Citation: TrendMicro Coronavirus Updates),(Citation: BlackBerry Bahamut),(Citation: Android Capture Sensor 2019)</t>
+    <t>(Citation: Palo Alto HenBox),(Citation: Lookout-Dendroid),(Citation: Lookout-PegasusAndroid),(Citation: CyberMerchants-FlexiSpy),(Citation: lookout_abstractemu_1021),(Citation: Lookout Dark Caracal Jan 2018),(Citation: TrendMicro-RCSAndroid),(Citation: Symantec GoldenCup),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout-StealthMango),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout ViperRAT),(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList - ViceLeaker 2019),(Citation: BlackBerry Bahamut),(Citation: PaloAlto-SpyDealer),(Citation: Zscaler TikTok Spyware),(Citation: Talos-WolfRAT),(Citation: cloudmark_tanglebot_0921),(Citation: SWB Exodus March 2019),(Citation: Kaspersky-Skygofree),(Citation: Lookout-Monokle),(Citation: SecureList BusyGasper),(Citation: Android Capture Sensor 2019)</t>
   </si>
   <si>
     <t>(Citation: lookout_abstractemu_1021),</t>
   </si>
   <si>
-    <t>(Citation: ESET DEFENSOR ID),(Citation: threatfabric_sova_0921),(Citation: lookout_abstractemu_1021),(Citation: Talos Gustuff Apr 2019),(Citation: Bitdefender - Triout 2018),(Citation: FireEye-RuMMS),(Citation: Kaspersky-MobileMalware),(Citation: Threat Fabric Exobot),(Citation: Kaspersky-WUC),(Citation: SWB Exodus March 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: securelist rotexy 2018),(Citation: Talos GPlayed),(Citation: Volexity Insomnia),(Citation: Wandera-RedDrop),(Citation: SecureList - ViceLeaker 2019),(Citation: paloalto_yispecter_1015),(Citation: Lookout Uyghur Campaign),(Citation: Symantec GoldenCup),(Citation: Kaspersky Riltok June 2019),(Citation: Sophos Red Alert 2.0),(Citation: Kaspersky-Skygofree),(Citation: proofpoint_flubot_0421),(Citation: SecurityIntelligence TrickMo),(Citation: Google Bread),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Securelist Asacub),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Cybereason FakeSpy),(Citation: CheckPoint Cerberus),(Citation: nccgroup_sharkbot_0322),(Citation: Cybereason EventBot),(Citation: TrendMicro Coronavirus Updates),</t>
+    <t>(Citation: paloalto_yispecter_1015),(Citation: threatfabric_sova_0921),(Citation: Securelist Asacub),(Citation: FireEye-RuMMS),(Citation: lookout_abstractemu_1021),(Citation: Google Bread),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Kaspersky-WUC),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos Gustuff Apr 2019),(Citation: Talos GPlayed),(Citation: Symantec GoldenCup),(Citation: Cybereason FakeSpy),(Citation: CheckPoint Cerberus),(Citation: Lookout Uyghur Campaign),(Citation: Volexity Insomnia),(Citation: Sophos Red Alert 2.0),(Citation: SecurityIntelligence TrickMo),(Citation: Bitdefender - Triout 2018),(Citation: ESET DEFENSOR ID),(Citation: Threat Fabric Exobot),(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList - ViceLeaker 2019),(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: Wandera-RedDrop),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Kaspersky-MobileMalware),(Citation: proofpoint_flubot_0421),(Citation: SWB Exodus March 2019),(Citation: Kaspersky-Skygofree),(Citation: Kaspersky Riltok June 2019),(Citation: Cybereason EventBot),</t>
   </si>
   <si>
     <t>source ID</t>

--- a/docs/mobile-attack-v13.1/mobile-attack-v13.1-techniques.xlsx
+++ b/docs/mobile-attack-v13.1/mobile-attack-v13.1-techniques.xlsx
@@ -2140,133 +2140,133 @@
     <t>,</t>
   </si>
   <si>
-    <t>(Citation: TrendMicro Coronavirus Updates),(Citation: threatfabric_sova_0921),(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),(Citation: Talos-WolfRAT),(Citation: Check Point-Joker),(Citation: lookout_abstractemu_1021),(Citation: Bitdefender Mandrake),(Citation: Android Notification Listeners)</t>
+    <t>(Citation: proofpoint_flubot_0421),(Citation: lookout_abstractemu_1021),(Citation: Bitdefender Mandrake),(Citation: TrendMicro Coronavirus Updates),(Citation: threatfabric_sova_0921),(Citation: Talos-WolfRAT),(Citation: Check Point-Joker),(Citation: nccgroup_sharkbot_0322),(Citation: Android Notification Listeners)</t>
   </si>
   <si>
     <t>(Citation: Lookout-Monokle),</t>
   </si>
   <si>
-    <t>(Citation: Xiao-KeyRaider),(Citation: Skycure-Profiles),(Citation: threatfabric_sova_0921),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: cyble_drinik_1022),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout FrozenCell),(Citation: Symantec GoldenCup),(Citation: Google Triada June 2019),(Citation: Cofense Anubis),(Citation: SWB Exodus March 2019),(Citation: Lookout Desert Scorpion),(Citation: Securelist Asacub),(Citation: Trend Micro Bouncing Golf 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout eSurv),(Citation: Lookout Uyghur Campaign),(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),(Citation: CYBERWARCON CHEMISTGAMES),</t>
-  </si>
-  <si>
-    <t>(Citation: Palo Alto HenBox),(Citation: Lookout-Dendroid),(Citation: Lookout-PegasusAndroid),(Citation: CyberMerchants-FlexiSpy),(Citation: lookout_abstractemu_1021),(Citation: Lookout Dark Caracal Jan 2018),(Citation: TrendMicro-RCSAndroid),(Citation: Symantec GoldenCup),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout-StealthMango),(Citation: Lookout Uyghur Campaign),(Citation: Cofense Anubis),(Citation: Lookout Desert Scorpion),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Zscaler-SpyNote),(Citation: Bitdefender - Triout 2018),(Citation: Lookout ViperRAT),(Citation: Lookout-EnterpriseApps),(Citation: Lookout eSurv),(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList - ViceLeaker 2019),(Citation: TrendMicro-XLoader),(Citation: BlackBerry Bahamut),(Citation: PaloAlto-SpyDealer),(Citation: Zscaler TikTok Spyware),(Citation: Wandera-RedDrop),(Citation: Lookout-Pegasus),(Citation: Lookout FrozenCell),(Citation: Talos-WolfRAT),(Citation: cloudmark_tanglebot_0921),(Citation: SWB Exodus March 2019),(Citation: Kaspersky-Skygofree),(Citation: Lookout-Monokle),(Citation: SecureList BusyGasper),(Citation: Android Capture Sensor 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: WhiteOps TERRACOTTA),(Citation: SecureList BusyGasper),(Citation: Bitdefender Mandrake),</t>
+    <t>(Citation: threatfabric_sova_0921),(Citation: Skycure-Profiles),(Citation: Xiao-KeyRaider),</t>
+  </si>
+  <si>
+    <t>(Citation: cyble_drinik_1022),(Citation: Lookout Uyghur Campaign),</t>
+  </si>
+  <si>
+    <t>(Citation: Symantec GoldenCup),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Desert Scorpion),(Citation: Cofense Anubis),(Citation: Securelist Asacub),(Citation: Google Triada June 2019),(Citation: SWB Exodus March 2019),(Citation: Lookout FrozenCell),</t>
+  </si>
+  <si>
+    <t>(Citation: proofpoint_flubot_0421),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout eSurv),(Citation: Lookout Uyghur Campaign),(Citation: nccgroup_sharkbot_0322),</t>
+  </si>
+  <si>
+    <t>(Citation: cloudmark_tanglebot_0921),(Citation: Bitdefender - Triout 2018),(Citation: Palo Alto HenBox),(Citation: TrendMicro Coronavirus Updates),(Citation: Cofense Anubis),(Citation: Talos-WolfRAT),(Citation: Lookout-StealthMango),(Citation: Lookout FrozenCell),(Citation: TrendMicro-RCSAndroid),(Citation: BlackBerry Bahamut),(Citation: Lookout-EnterpriseApps),(Citation: TrendMicro-XLoader),(Citation: Lookout Dark Caracal Jan 2018),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-Pegasus),(Citation: Zscaler-SuperMarioRun),(Citation: Kaspersky-Skygofree),(Citation: Lookout-Monokle),(Citation: lookout_abstractemu_1021),(Citation: Wandera-RedDrop),(Citation: Lookout ViperRAT),(Citation: Symantec GoldenCup),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Zscaler-SpyNote),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Dendroid),(Citation: Lookout Desert Scorpion),(Citation: SecureList BusyGasper),(Citation: Lookout-PegasusAndroid),(Citation: PaloAlto-SpyDealer),(Citation: Lookout eSurv),(Citation: SecureList - ViceLeaker 2019),(Citation: SWB Exodus March 2019),(Citation: Lookout Uyghur Campaign),(Citation: Android Capture Sensor 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList BusyGasper),(Citation: WhiteOps TERRACOTTA),(Citation: Bitdefender Mandrake),</t>
   </si>
   <si>
     <t>(Citation: HackerNews-OldBoot),</t>
   </si>
   <si>
-    <t>(Citation: Palo Alto HenBox),(Citation: Talos GPlayed),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: ESET DEFENSOR ID),(Citation: Threat Fabric Exobot),(Citation: Lookout-PegasusAndroid),(Citation: WhiteOps TERRACOTTA),(Citation: Cybereason FakeSpy),(Citation: CheckPoint SimBad 2019),(Citation: PaloAlto-SpyDealer),(Citation: Zscaler TikTok Spyware),(Citation: FortiGuard-FlexiSpy),(Citation: Cybereason EventBot),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Microsoft MalLockerB),(Citation: Zscaler-SpyNote),(Citation: SecurityIntelligence TrickMo),(Citation: Android Changes to System Broadcasts)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-PegasusAndroid),(Citation: Lookout-StealthMango),(Citation: CyberMerchants-FlexiSpy),(Citation: SWB Exodus March 2019),(Citation: Lookout-Monokle),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: Cofense Anubis),(Citation: cyble_drinik_1022),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Monokle),(Citation: SecureList BusyGasper),</t>
-  </si>
-  <si>
-    <t>(Citation: Palo Alto HenBox),(Citation: Lookout-PegasusAndroid),(Citation: lookout_abstractemu_1021),(Citation: Kaspersky-WUC),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout-StealthMango),(Citation: Lookout Uyghur Campaign),(Citation: Sophos Red Alert 2.0),(Citation: Trend Micro Bouncing Golf 2019),(Citation: NYTimes-BackDoor),(Citation: Lookout ViperRAT),(Citation: Lookout-EnterpriseApps),(Citation: Google Project Zero Insomnia),(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList - ViceLeaker 2019),(Citation: PaloAlto-SpyDealer),(Citation: cyble_drinik_1022),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Pegasus),(Citation: Talos-WolfRAT),(Citation: cloudmark_tanglebot_0921),(Citation: SWB Exodus March 2019),(Citation: Lookout-Monokle),</t>
+    <t>(Citation: Microsoft MalLockerB),(Citation: CheckPoint SimBad 2019),(Citation: ESET DEFENSOR ID),(Citation: Threat Fabric Exobot),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cybereason FakeSpy),(Citation: Palo Alto HenBox),(Citation: Zscaler-SpyNote),(Citation: SecurityIntelligence TrickMo),(Citation: Cybereason EventBot),(Citation: Lookout-PegasusAndroid),(Citation: PaloAlto-SpyDealer),(Citation: WhiteOps TERRACOTTA),(Citation: FortiGuard-FlexiSpy),(Citation: Zscaler TikTok Spyware),(Citation: Talos GPlayed),(Citation: Android Changes to System Broadcasts)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-Monokle),(Citation: Lookout-PegasusAndroid),(Citation: CyberMerchants-FlexiSpy),(Citation: SWB Exodus March 2019),(Citation: Lookout-StealthMango),</t>
+  </si>
+  <si>
+    <t>(Citation: cyble_drinik_1022),(Citation: Lookout-Monokle),(Citation: cloudmark_tanglebot_0921),(Citation: Cofense Anubis),(Citation: SecureList BusyGasper),(Citation: Lookout Uyghur Campaign),</t>
+  </si>
+  <si>
+    <t>(Citation: cloudmark_tanglebot_0921),(Citation: NYTimes-BackDoor),(Citation: Palo Alto HenBox),(Citation: TrendMicro Coronavirus Updates),(Citation: Talos-WolfRAT),(Citation: Lookout-StealthMango),(Citation: Lookout-EnterpriseApps),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Kaspersky-WUC),(Citation: Lookout-Pegasus),(Citation: Zscaler-SuperMarioRun),(Citation: cyble_drinik_1022),(Citation: Google Project Zero Insomnia),(Citation: Lookout-Monokle),(Citation: lookout_abstractemu_1021),(Citation: Lookout ViperRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-PegasusAndroid),(Citation: PaloAlto-SpyDealer),(Citation: SecureList - ViceLeaker 2019),(Citation: SWB Exodus March 2019),(Citation: Lookout Uyghur Campaign),</t>
   </si>
   <si>
     <t>(Citation: Trend Micro Bouncing Golf 2019),(Citation: PaloAlto-XcodeGhost),(Citation: TrendMicro-RCSAndroid),(Citation: Android 10 Privacy Changes)</t>
   </si>
   <si>
-    <t>(Citation: paloalto_yispecter_1015),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: SecureList DVMap June 2017),(Citation: Lookout Uyghur Campaign),(Citation: BlackBerry Bahamut),(Citation: Lookout Desert Scorpion),(Citation: Bitdefender Mandrake),(Citation: trendmicro_tianyspy_0122),(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
+    <t>(Citation: SecureList DVMap June 2017),(Citation: trendmicro_tianyspy_0122),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: paloalto_yispecter_1015),(Citation: BlackBerry Bahamut),(Citation: Bitdefender Mandrake),(Citation: Lookout Desert Scorpion),(Citation: Lookout Uyghur Campaign),(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
   </si>
   <si>
     <t>(Citation: trendmicro_tianyspy_0122),</t>
   </si>
   <si>
-    <t>(Citation: paloalto_yispecter_1015),(Citation: CheckPoint Agent Smith),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-Pegasus),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Adware),(Citation: Lookout Uyghur Campaign),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Monokle),(Citation: Lookout-BrainTest),(Citation: SecureList BusyGasper),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-XcodeGhost1),(Citation: PaloAlto-XcodeGhost),</t>
-  </si>
-  <si>
-    <t>(Citation: Google Triada June 2019),(Citation: Lookout-StealthMango),(Citation: Krebs-Triada June 2019),(Citation: HackerNews-Allwinner),(Citation: BankInfoSecurity-BackDoor),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: NYTimes-BackDoor),</t>
-  </si>
-  <si>
-    <t>(Citation: Palo Alto HenBox),(Citation: ThreatFabric Ginp),(Citation: Lookout-PegasusAndroid),(Citation: CyberMerchants-FlexiSpy),(Citation: Securelist Asacub),(Citation: lookout_abstractemu_1021),(Citation: Bitdefender Mandrake),(Citation: Kaspersky-WUC),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos Gustuff Apr 2019),(Citation: Talos GPlayed),(Citation: Symantec GoldenCup),(Citation: Cybereason FakeSpy),(Citation: Threat Fabric Cerberus),(Citation: Lookout-StealthMango),(Citation: Lookout Uyghur Campaign),(Citation: Cofense Anubis),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Desert Scorpion),(Citation: CheckPoint-Charger),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Zscaler-SpyNote),(Citation: NYTimes-BackDoor),(Citation: Lookout ViperRAT),(Citation: Lookout-EnterpriseApps),(Citation: Google Project Zero Insomnia),(Citation: Threat Fabric Exobot),(Citation: Lookout eSurv),(Citation: TrendMicro Coronavirus Updates),(Citation: BlackBerry Bahamut),(Citation: PaloAlto-SpyDealer),(Citation: securelist rotexy 2018),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Pegasus),(Citation: Talos-WolfRAT),(Citation: proofpoint_flubot_0421),(Citation: cloudmark_tanglebot_0921),(Citation: SWB Exodus March 2019),(Citation: Lookout-Monokle),(Citation: Kaspersky Riltok June 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-Xbot),(Citation: cleafy_sova_1122),(Citation: Cofense Anubis),</t>
-  </si>
-  <si>
-    <t>(Citation: Palo Alto HenBox),(Citation: ThreatFabric Ginp),(Citation: Lookout-Dendroid),(Citation: Gooligan Citation),(Citation: lookout_abstractemu_1021),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Cylance Dust Storm),(Citation: TrendMicro-RCSAndroid),(Citation: Talos Gustuff Apr 2019),(Citation: Talos GPlayed),(Citation: Symantec GoldenCup),(Citation: Lookout-StealthMango),(Citation: Lookout Uyghur Campaign),(Citation: Cofense Anubis),(Citation: Lookout Desert Scorpion),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Zscaler-SpyNote),(Citation: SecurityIntelligence TrickMo),(Citation: Bitdefender - Triout 2018),(Citation: Lookout ViperRAT),(Citation: Lookout eSurv),(Citation: Google Project Zero Insomnia),(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList - ViceLeaker 2019),(Citation: BlackBerry Bahamut),(Citation: cyble_drinik_1022),(Citation: Zscaler TikTok Spyware),(Citation: Trend Micro Anubis),(Citation: FlexiSpy-Features),(Citation: Lookout FrozenCell),(Citation: Talos-WolfRAT),(Citation: cloudmark_tanglebot_0921),(Citation: SWB Exodus March 2019),(Citation: Lookout-Monokle),(Citation: SecureList BusyGasper),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro-XLoader-FakeSpy),(Citation: TrendMicro-Anserver),(Citation: Cofense Anubis),(Citation: Sophos Red Alert 2.0),(Citation: Trend Micro Anubis),</t>
-  </si>
-  <si>
-    <t>(Citation: Talos GPlayed),(Citation: Threat Fabric Exobot),(Citation: Proofpoint-Marcher),(Citation: TrendMicro-XLoader),(Citation: Sophos Red Alert 2.0),(Citation: Securelist Asacub),(Citation: lookout_abstractemu_1021),(Citation: GoogleIO2016)</t>
+    <t>(Citation: CheckPoint Agent Smith),(Citation: paloalto_yispecter_1015),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-Monokle),(Citation: Lookout-Pegasus),(Citation: Lookout-Adware),(Citation: Lookout-PegasusAndroid),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-BrainTest),(Citation: SecureList BusyGasper),(Citation: Lookout Uyghur Campaign),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-XcodeGhost),(Citation: PaloAlto-XcodeGhost1),</t>
+  </si>
+  <si>
+    <t>(Citation: NYTimes-BackDoor),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Google Triada June 2019),(Citation: BankInfoSecurity-BackDoor),(Citation: Krebs-Triada June 2019),(Citation: Lookout-StealthMango),(Citation: HackerNews-Allwinner),</t>
+  </si>
+  <si>
+    <t>(Citation: cloudmark_tanglebot_0921),(Citation: NYTimes-BackDoor),(Citation: Threat Fabric Exobot),(Citation: Talos Gustuff Apr 2019),(Citation: Palo Alto HenBox),(Citation: TrendMicro Coronavirus Updates),(Citation: Cofense Anubis),(Citation: Talos-WolfRAT),(Citation: Lookout-StealthMango),(Citation: Kaspersky Riltok June 2019),(Citation: proofpoint_flubot_0421),(Citation: BlackBerry Bahamut),(Citation: Lookout-EnterpriseApps),(Citation: Threat Fabric Cerberus),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Kaspersky-WUC),(Citation: Securelist Asacub),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-Pegasus),(Citation: CheckPoint-Charger),(Citation: securelist rotexy 2018),(Citation: Google Project Zero Insomnia),(Citation: Lookout-Monokle),(Citation: lookout_abstractemu_1021),(Citation: Lookout ViperRAT),(Citation: ThreatFabric Ginp),(Citation: Symantec GoldenCup),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cybereason FakeSpy),(Citation: Zscaler-SpyNote),(Citation: Bitdefender Mandrake),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Desert Scorpion),(Citation: Lookout eSurv),(Citation: Lookout-PegasusAndroid),(Citation: PaloAlto-SpyDealer),(Citation: SWB Exodus March 2019),(Citation: Lookout Uyghur Campaign),(Citation: Talos GPlayed),</t>
+  </si>
+  <si>
+    <t>(Citation: Cofense Anubis),(Citation: cleafy_sova_1122),(Citation: PaloAlto-Xbot),</t>
+  </si>
+  <si>
+    <t>(Citation: cloudmark_tanglebot_0921),(Citation: Gooligan Citation),(Citation: Talos Gustuff Apr 2019),(Citation: Trend Micro Anubis),(Citation: SecurityIntelligence TrickMo),(Citation: Bitdefender - Triout 2018),(Citation: Palo Alto HenBox),(Citation: TrendMicro Coronavirus Updates),(Citation: Cofense Anubis),(Citation: Talos-WolfRAT),(Citation: Lookout-StealthMango),(Citation: Lookout FrozenCell),(Citation: TrendMicro-RCSAndroid),(Citation: BlackBerry Bahamut),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: cyble_drinik_1022),(Citation: Google Project Zero Insomnia),(Citation: Lookout-Monokle),(Citation: lookout_abstractemu_1021),(Citation: Lookout ViperRAT),(Citation: ThreatFabric Ginp),(Citation: Symantec GoldenCup),(Citation: Cylance Dust Storm),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Zscaler-SpyNote),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Dendroid),(Citation: Lookout Desert Scorpion),(Citation: SecureList BusyGasper),(Citation: FlexiSpy-Features),(Citation: Lookout eSurv),(Citation: SecureList - ViceLeaker 2019),(Citation: SWB Exodus March 2019),(Citation: Lookout Uyghur Campaign),(Citation: Talos GPlayed),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro-XLoader-FakeSpy),(Citation: TrendMicro-Anserver),(Citation: Trend Micro Anubis),(Citation: Sophos Red Alert 2.0),(Citation: Cofense Anubis),</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Exobot),(Citation: lookout_abstractemu_1021),(Citation: TrendMicro-XLoader),(Citation: Sophos Red Alert 2.0),(Citation: Securelist Asacub),(Citation: Proofpoint-Marcher),(Citation: Talos GPlayed),(Citation: GoogleIO2016)</t>
   </si>
   <si>
     <t>(Citation: Microsoft MalLockerB),(Citation: securelist rotexy 2018),(Citation: SecurityIntelligence TrickMo),</t>
   </si>
   <si>
-    <t>(Citation: SecureList DVMap June 2017),(Citation: Threat Fabric Cerberus),(Citation: Cofense Anubis),(Citation: cyble_drinik_1022),(Citation: proofpoint_flubot_0421),(Citation: lookout_abstractemu_1021),(Citation: Bitdefender Mandrake),(Citation: Google Security Zen),</t>
+    <t>(Citation: SecureList DVMap June 2017),(Citation: cyble_drinik_1022),(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Cerberus),(Citation: lookout_abstractemu_1021),(Citation: Bitdefender Mandrake),(Citation: Cofense Anubis),(Citation: Google Security Zen),</t>
   </si>
   <si>
     <t>(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: proofpoint_flubot_0421),(Citation: Bitdefender Mandrake),</t>
   </si>
   <si>
-    <t>(Citation: Palo Alto HenBox),(Citation: paloalto_yispecter_1015),(Citation: WhiteOps TERRACOTTA),(Citation: SecureList DVMap June 2017),(Citation: lookout_abstractemu_1021),(Citation: Google Bread),(Citation: Bitdefender Mandrake),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Google Security Zen),(Citation: TrendMicro-RCSAndroid),(Citation: Talos GPlayed),(Citation: Symantec GoldenCup),(Citation: Threat Fabric Cerberus),(Citation: Lookout Uyghur Campaign),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Desert Scorpion),(Citation: Lookout-BrainTest),(Citation: Lookout ViperRAT),(Citation: Lookout eSurv),(Citation: Google Triada June 2019),(Citation: BlackBerry Bahamut),(Citation: nccgroup_sharkbot_0322),(Citation: PaloAlto-SpyDealer),(Citation: Trend Micro Anubis),(Citation: CheckPoint-Judy),(Citation: Lookout FrozenCell),(Citation: Talos-WolfRAT),(Citation: SWB Exodus March 2019),(Citation: Kaspersky-Skygofree),(Citation: Cybereason EventBot),(Citation: SecureList BusyGasper),(Citation: Xiao-ZergHelper),(Citation: Android 10 Execute)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-StealthMango),(Citation: paloalto_yispecter_1015),(Citation: Volexity Insomnia),(Citation: Lookout-Pegasus),</t>
+    <t>(Citation: Google Bread),(Citation: Trend Micro Anubis),(Citation: Palo Alto HenBox),(Citation: Google Security Zen),(Citation: Lookout-BrainTest),(Citation: Talos-WolfRAT),(Citation: Lookout FrozenCell),(Citation: SecureList DVMap June 2017),(Citation: TrendMicro-RCSAndroid),(Citation: BlackBerry Bahamut),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Threat Fabric Cerberus),(Citation: Sophos Red Alert 2.0),(Citation: WhiteOps TERRACOTTA),(Citation: nccgroup_sharkbot_0322),(Citation: Kaspersky-Skygofree),(Citation: lookout_abstractemu_1021),(Citation: Lookout ViperRAT),(Citation: Cybereason EventBot),(Citation: Xiao-ZergHelper),(Citation: paloalto_yispecter_1015),(Citation: Symantec GoldenCup),(Citation: Bitdefender Mandrake),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: SecureList BusyGasper),(Citation: Lookout eSurv),(Citation: PaloAlto-SpyDealer),(Citation: Google Triada June 2019),(Citation: SWB Exodus March 2019),(Citation: CheckPoint-Judy),(Citation: Talos GPlayed),(Citation: Android 10 Execute)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-Pegasus),(Citation: Lookout-StealthMango),(Citation: Volexity Insomnia),(Citation: paloalto_yispecter_1015),</t>
   </si>
   <si>
     <t>(Citation: ESET-Twitoor),</t>
   </si>
   <si>
-    <t>(Citation: PaloAlto-Xbot),(Citation: Talos GPlayed),(Citation: Threat Fabric Exobot),(Citation: CheckPoint-Charger),</t>
+    <t>(Citation: PaloAlto-Xbot),(Citation: CheckPoint-Charger),(Citation: Talos GPlayed),(Citation: Threat Fabric Exobot),</t>
   </si>
   <si>
     <t>,(Citation: Android Changes to System Broadcasts)</t>
   </si>
   <si>
-    <t>(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout eSurv),(Citation: Google Triada June 2019),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Uyghur Campaign),(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),(Citation: cyble_drinik_1022),(Citation: lookout_abstractemu_1021),(Citation: Wandera-RedDrop),(Citation: Cylance Dust Storm),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Bitdefender - Triout 2018),</t>
+    <t>(Citation: cyble_drinik_1022),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: proofpoint_flubot_0421),(Citation: Cylance Dust Storm),(Citation: Bitdefender - Triout 2018),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_abstractemu_1021),(Citation: Wandera-RedDrop),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout eSurv),(Citation: Google Triada June 2019),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Uyghur Campaign),(Citation: nccgroup_sharkbot_0322),</t>
   </si>
   <si>
     <t>(Citation: SecureList BusyGasper),(Citation: TrendMicro Coronavirus Updates),</t>
   </si>
   <si>
-    <t>(Citation: ArsTechnica-HummingBad),(Citation: Lookout-Pegasus),(Citation: SecureList DVMap June 2017),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Adware),(Citation: Google Security Zen),(Citation: Gooligan Citation),(Citation: Lookout Uyghur Campaign),(Citation: Volexity Insomnia),(Citation: PaloAlto-SpyDealer),(Citation: SWB Exodus March 2019),(Citation: Kaspersky-Skygofree),(Citation: lookout_abstractemu_1021),(Citation: Lookout-BrainTest),(Citation: CheckPoint Agent Smith),(Citation: Lookout Dark Caracal Jan 2018),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro-DressCode),(Citation: Lookout-NotCompatible),</t>
-  </si>
-  <si>
-    <t>(Citation: Talos GPlayed),(Citation: SecureList - ViceLeaker 2019),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout Uyghur Campaign),(Citation: Talos-WolfRAT),(Citation: Lookout Desert Scorpion),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Monokle),(Citation: Bitdefender Mandrake),(Citation: Trend Micro Bouncing Golf 2019),(Citation: CheckPoint Agent Smith),(Citation: Lookout Dark Caracal Jan 2018),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout FrozenCell),(Citation: Symantec GoldenCup),(Citation: Lookout Uyghur Campaign),(Citation: BlackBerry Bahamut),(Citation: Lookout Desert Scorpion),(Citation: Zscaler TikTok Spyware),(Citation: Cylance Dust Storm),</t>
-  </si>
-  <si>
-    <t>(Citation: Zscaler TikTok Spyware),(Citation: WhiteOps TERRACOTTA),(Citation: cyble_drinik_1022),(Citation: Bitdefender Mandrake),</t>
-  </si>
-  <si>
-    <t>(Citation: ThreatFabric Ginp),(Citation: Lookout-Dendroid),(Citation: WhiteOps TERRACOTTA),(Citation: PaloAlto-Xbot),(Citation: threatfabric_sova_0921),(Citation: Bitdefender Mandrake),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos Gustuff Apr 2019),(Citation: Talos GPlayed),(Citation: Threat Fabric Cerberus),(Citation: PaloAlto-XcodeGhost),(Citation: Cofense Anubis),(Citation: Sophos Red Alert 2.0),(Citation: Group IB Gustuff Mar 2019),(Citation: Threat Fabric Exobot),(Citation: Proofpoint-Marcher),(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: cyble_drinik_1022),(Citation: Zscaler TikTok Spyware),(Citation: trendmicro_tianyspy_0122),(Citation: proofpoint_flubot_0421),(Citation: cloudmark_tanglebot_0921),(Citation: Kaspersky Riltok June 2019),(Citation: Cybereason EventBot),(Citation: Android 12 Features)</t>
-  </si>
-  <si>
-    <t>(Citation: CheckPoint-Judy),(Citation: Lookout-EnterpriseApps),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: ArsTechnica-HummingBad),(Citation: WhiteOps TERRACOTTA),(Citation: Kaspersky Triada June 2016),(Citation: Google Triada June 2019),(Citation: Google Security Zen),(Citation: Gooligan Citation),(Citation: Tripwire-MazarBOT),(Citation: CheckPoint SimBad 2019),(Citation: Google Bread),(Citation: ArsTechnica-HummingWhale),(Citation: Lookout-BrainTest),(Citation: CheckPoint Agent Smith),(Citation: Wandera-RedDrop),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout eSurv),(Citation: BlackBerry Bahamut),</t>
+    <t>(Citation: SecureList DVMap June 2017),(Citation: Kaspersky-Skygofree),(Citation: ArsTechnica-HummingBad),(Citation: Volexity Insomnia),(Citation: Gooligan Citation),(Citation: CheckPoint Agent Smith),(Citation: Lookout-Pegasus),(Citation: lookout_abstractemu_1021),(Citation: Lookout-Adware),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Google Security Zen),(Citation: Lookout-PegasusAndroid),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-BrainTest),(Citation: SWB Exodus March 2019),(Citation: Lookout Uyghur Campaign),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-NotCompatible),(Citation: TrendMicro-DressCode),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-Monokle),(Citation: CheckPoint Agent Smith),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Bitdefender Mandrake),(Citation: Lookout Desert Scorpion),(Citation: Lookout Dark Caracal Jan 2018),(Citation: CyberMerchants-FlexiSpy),(Citation: SecureList - ViceLeaker 2019),(Citation: Zscaler TikTok Spyware),(Citation: Talos-WolfRAT),(Citation: Lookout Uyghur Campaign),(Citation: Talos GPlayed),</t>
+  </si>
+  <si>
+    <t>(Citation: Symantec GoldenCup),(Citation: Cylance Dust Storm),(Citation: BlackBerry Bahamut),(Citation: Lookout Desert Scorpion),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Uyghur Campaign),(Citation: Lookout FrozenCell),</t>
+  </si>
+  <si>
+    <t>(Citation: WhiteOps TERRACOTTA),(Citation: cyble_drinik_1022),(Citation: Zscaler TikTok Spyware),(Citation: Bitdefender Mandrake),</t>
+  </si>
+  <si>
+    <t>(Citation: cloudmark_tanglebot_0921),(Citation: Threat Fabric Exobot),(Citation: Talos Gustuff Apr 2019),(Citation: Cofense Anubis),(Citation: Proofpoint-Marcher),(Citation: Kaspersky Riltok June 2019),(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Cerberus),(Citation: PaloAlto-Xbot),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Dark Caracal Jan 2018),(Citation: threatfabric_sova_0921),(Citation: WhiteOps TERRACOTTA),(Citation: Group IB Gustuff Mar 2019),(Citation: nccgroup_sharkbot_0322),(Citation: PaloAlto-XcodeGhost),(Citation: cyble_drinik_1022),(Citation: trendmicro_tianyspy_0122),(Citation: Cybereason EventBot),(Citation: ThreatFabric Ginp),(Citation: Bitdefender Mandrake),(Citation: Lookout-Dendroid),(Citation: Zscaler TikTok Spyware),(Citation: securelist rotexy 2018),(Citation: Talos GPlayed),(Citation: Android 12 Features)</t>
+  </si>
+  <si>
+    <t>(Citation: Google Bread),(Citation: ArsTechnica-HummingBad),(Citation: Tripwire-MazarBOT),(Citation: CheckPoint SimBad 2019),(Citation: Gooligan Citation),(Citation: Lookout-EnterpriseApps),(Citation: CheckPoint Agent Smith),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Wandera-RedDrop),(Citation: Kaspersky Triada June 2016),(Citation: Google Security Zen),(Citation: WhiteOps TERRACOTTA),(Citation: Google Triada June 2019),(Citation: Lookout-BrainTest),(Citation: ArsTechnica-HummingWhale),(Citation: CheckPoint-Judy),</t>
+  </si>
+  <si>
+    <t>(Citation: BlackBerry Bahamut),(Citation: Lookout eSurv),</t>
   </si>
   <si>
     <t>(Citation: paloalto_yispecter_1015),(Citation: Android-VerifiedBoot)</t>
@@ -2275,127 +2275,127 @@
     <t>(Citation: CitizenLab Circles),(Citation: CSRIC-WG1-FinalReport)</t>
   </si>
   <si>
-    <t>(Citation: SecureList - ViceLeaker 2019),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout-Monokle),(Citation: lookout_abstractemu_1021),(Citation: Wandera-RedDrop),(Citation: Bitdefender Mandrake),</t>
+    <t>(Citation: Lookout-Monokle),(Citation: lookout_abstractemu_1021),(Citation: Wandera-RedDrop),(Citation: Bitdefender Mandrake),(Citation: SecureList - ViceLeaker 2019),(Citation: nccgroup_sharkbot_0322),</t>
   </si>
   <si>
     <t>,(Citation: Android 12 Features),(Citation: Samsung Keyboards)</t>
   </si>
   <si>
-    <t>(Citation: Talos Gustuff Apr 2019),(Citation: ESET DEFENSOR ID),(Citation: ThreatFabric Ginp),(Citation: cleafy_sova_1122),(Citation: WhiteOps TERRACOTTA),(Citation: Threat Fabric Cerberus),(Citation: CheckPoint Cerberus),(Citation: nccgroup_sharkbot_0322),(Citation: Kaspersky Riltok June 2019),(Citation: Bitdefender Mandrake),(Citation: SecurityIntelligence TrickMo),(Citation: Google Security Zen),</t>
+    <t>(Citation: Kaspersky Riltok June 2019),(Citation: ThreatFabric Ginp),(Citation: ESET DEFENSOR ID),(Citation: Talos Gustuff Apr 2019),(Citation: cleafy_sova_1122),(Citation: Threat Fabric Cerberus),(Citation: SecurityIntelligence TrickMo),(Citation: Bitdefender Mandrake),(Citation: Google Security Zen),(Citation: WhiteOps TERRACOTTA),(Citation: nccgroup_sharkbot_0322),(Citation: CheckPoint Cerberus),</t>
   </si>
   <si>
     <t>(Citation: Google Project Zero Insomnia),</t>
   </si>
   <si>
-    <t>(Citation: Talos Gustuff Apr 2019),(Citation: Threat Fabric Exobot),(Citation: Threat Fabric Cerberus),(Citation: threatfabric_sova_0921),(Citation: BlackBerry Bahamut),(Citation: nccgroup_sharkbot_0322),(Citation: Cofense Anubis),(Citation: cyble_drinik_1022),(Citation: FlexiSpy-Features),(Citation: Lookout-Monokle),(Citation: Cybereason EventBot),(Citation: SecureList BusyGasper),(Citation: Samsung Keyboards)</t>
-  </si>
-  <si>
-    <t>(Citation: Palo Alto HenBox),(Citation: CyberMerchants-FlexiSpy),(Citation: lookout_abstractemu_1021),(Citation: Bitdefender Mandrake),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Kaspersky-WUC),(Citation: Lookout Dark Caracal Jan 2018),(Citation: TrendMicro-RCSAndroid),(Citation: Talos GPlayed),(Citation: Symantec GoldenCup),(Citation: Lookout-StealthMango),(Citation: Threat Fabric Cerberus),(Citation: Lookout Uyghur Campaign),(Citation: Cofense Anubis),(Citation: Lookout Desert Scorpion),(Citation: CheckPoint-Charger),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Zscaler-SpyNote),(Citation: NYTimes-BackDoor),(Citation: Bitdefender - Triout 2018),(Citation: Lookout ViperRAT),(Citation: Lookout-EnterpriseApps),(Citation: Google Project Zero Insomnia),(Citation: Lookout eSurv),(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList - ViceLeaker 2019),(Citation: BlackBerry Bahamut),(Citation: PaloAlto-SpyDealer),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Pegasus),(Citation: Lookout FrozenCell),(Citation: CrowdStrike-Android),(Citation: cloudmark_tanglebot_0921),(Citation: SWB Exodus March 2019),(Citation: Kaspersky-Skygofree),(Citation: Lookout-Monokle),(Citation: SecureList BusyGasper),(Citation: CSRIC5-WG10-FinalReport)</t>
-  </si>
-  <si>
-    <t>(Citation: Palo Alto HenBox),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout Uyghur Campaign),(Citation: Securelist Asacub),(Citation: Google Bread),(Citation: CYBERWARCON CHEMISTGAMES),</t>
+    <t>(Citation: cyble_drinik_1022),(Citation: Lookout-Monokle),(Citation: Threat Fabric Exobot),(Citation: BlackBerry Bahamut),(Citation: Talos Gustuff Apr 2019),(Citation: Threat Fabric Cerberus),(Citation: threatfabric_sova_0921),(Citation: Cofense Anubis),(Citation: Cybereason EventBot),(Citation: SecureList BusyGasper),(Citation: nccgroup_sharkbot_0322),(Citation: FlexiSpy-Features),(Citation: Samsung Keyboards)</t>
+  </si>
+  <si>
+    <t>(Citation: cloudmark_tanglebot_0921),(Citation: NYTimes-BackDoor),(Citation: CrowdStrike-Android),(Citation: Bitdefender - Triout 2018),(Citation: Palo Alto HenBox),(Citation: TrendMicro Coronavirus Updates),(Citation: Cofense Anubis),(Citation: Lookout-StealthMango),(Citation: Lookout FrozenCell),(Citation: TrendMicro-RCSAndroid),(Citation: BlackBerry Bahamut),(Citation: Lookout-EnterpriseApps),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Threat Fabric Cerberus),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Kaspersky-WUC),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-Pegasus),(Citation: CheckPoint-Charger),(Citation: Kaspersky-Skygofree),(Citation: Google Project Zero Insomnia),(Citation: Lookout-Monokle),(Citation: lookout_abstractemu_1021),(Citation: Lookout ViperRAT),(Citation: Symantec GoldenCup),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Zscaler-SpyNote),(Citation: Zscaler TikTok Spyware),(Citation: Bitdefender Mandrake),(Citation: Lookout Desert Scorpion),(Citation: SecureList BusyGasper),(Citation: Lookout eSurv),(Citation: PaloAlto-SpyDealer),(Citation: SecureList - ViceLeaker 2019),(Citation: SWB Exodus March 2019),(Citation: Lookout Uyghur Campaign),(Citation: Talos GPlayed),(Citation: CSRIC5-WG10-FinalReport)</t>
+  </si>
+  <si>
+    <t>(Citation: Google Bread),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Palo Alto HenBox),(Citation: WhiteOps TERRACOTTA),(Citation: Securelist Asacub),(Citation: Lookout Uyghur Campaign),</t>
   </si>
   <si>
     <t>(Citation: threatfabric_sova_0921),</t>
   </si>
   <si>
-    <t>(Citation: Volexity Insomnia),(Citation: CheckPoint Cerberus),(Citation: Sophos Red Alert 2.0),(Citation: SWB Exodus March 2019),(Citation: FortiGuard-FlexiSpy),(Citation: Bitdefender Mandrake),</t>
-  </si>
-  <si>
-    <t>(Citation: Palo Alto HenBox),(Citation: ThreatFabric Ginp),(Citation: WhiteOps TERRACOTTA),(Citation: SecureList DVMap June 2017),(Citation: Check Point-Joker),(Citation: Securelist Asacub),(Citation: lookout_abstractemu_1021),(Citation: Google Bread),(Citation: Bitdefender Mandrake),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Microsoft MalLockerB),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Google Security Zen),(Citation: Talos Gustuff Apr 2019),(Citation: Talos GPlayed),(Citation: Cybereason FakeSpy),(Citation: Threat Fabric Cerberus),(Citation: Volexity Insomnia),(Citation: Lookout Uyghur Campaign),(Citation: Sophos Red Alert 2.0),(Citation: CheckPoint-Charger),(Citation: Lookout-BrainTest),(Citation: Trend Micro Bouncing Golf 2019),(Citation: TrendMicro-Obad),(Citation: SecurityIntelligence TrickMo),(Citation: TrendMicro-XLoader),(Citation: BlackBerry Bahamut),(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: cyble_drinik_1022),(Citation: trendmicro_tianyspy_0122),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: PaloAlto-WireLurker),(Citation: Talos-WolfRAT),(Citation: proofpoint_flubot_0421),(Citation: FortiGuard-FlexiSpy),(Citation: Lookout-Monokle),(Citation: Cybereason EventBot),</t>
-  </si>
-  <si>
-    <t>(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Pegasus),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-StealthMango),(Citation: Lookout Uyghur Campaign),(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Desert Scorpion),(Citation: Kaspersky-Skygofree),(Citation: Lookout-Monokle),(Citation: Kaspersky-WUC),(Citation: SecureList BusyGasper),(Citation: SecurityIntelligence TrickMo),(Citation: TrendMicro-RCSAndroid),</t>
+    <t>(Citation: Volexity Insomnia),(Citation: Bitdefender Mandrake),(Citation: Sophos Red Alert 2.0),(Citation: FortiGuard-FlexiSpy),(Citation: SWB Exodus March 2019),(Citation: CheckPoint Cerberus),</t>
+  </si>
+  <si>
+    <t>(Citation: Google Bread),(Citation: Talos Gustuff Apr 2019),(Citation: SecurityIntelligence TrickMo),(Citation: Palo Alto HenBox),(Citation: Google Security Zen),(Citation: Lookout-BrainTest),(Citation: Talos-WolfRAT),(Citation: SecureList DVMap June 2017),(Citation: Microsoft MalLockerB),(Citation: proofpoint_flubot_0421),(Citation: BlackBerry Bahamut),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Threat Fabric Cerberus),(Citation: TrendMicro-XLoader),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Dark Caracal Jan 2018),(Citation: WhiteOps TERRACOTTA),(Citation: Securelist Asacub),(Citation: TrendMicro-Obad),(Citation: Check Point-Joker),(Citation: nccgroup_sharkbot_0322),(Citation: CheckPoint-Charger),(Citation: securelist rotexy 2018),(Citation: cyble_drinik_1022),(Citation: Lookout-Monokle),(Citation: trendmicro_tianyspy_0122),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: lookout_abstractemu_1021),(Citation: Cybereason EventBot),(Citation: PaloAlto-WireLurker),(Citation: FortiGuard-FlexiSpy),(Citation: ThreatFabric Ginp),(Citation: Volexity Insomnia),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cybereason FakeSpy),(Citation: Bitdefender Mandrake),(Citation: Lookout Uyghur Campaign),(Citation: Talos GPlayed),</t>
+  </si>
+  <si>
+    <t>(Citation: Kaspersky-Skygofree),(Citation: Lookout-Monokle),(Citation: TrendMicro-RCSAndroid),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Pegasus),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout Desert Scorpion),(Citation: Kaspersky-WUC),(Citation: Lookout-PegasusAndroid),(Citation: PaloAlto-SpyDealer),(Citation: SecureList BusyGasper),(Citation: Lookout-StealthMango),(Citation: Lookout Uyghur Campaign),(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),</t>
   </si>
   <si>
     <t>(Citation: TrendMicro-Obad),(Citation: threatfabric_sova_0921),(Citation: bitdefender_flubot_0524),(Citation: Bitdefender Mandrake),</t>
   </si>
   <si>
-    <t>(Citation: Zimperium z9),(Citation: Palo Alto HenBox),(Citation: paloalto_yispecter_1015),(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: Talos-WolfRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: CheckPoint Agent Smith),</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Exobot),(Citation: proofpoint_flubot_0421),</t>
-  </si>
-  <si>
-    <t>(Citation: Google Project Zero Insomnia),(Citation: Kaspersky Triada March 2016),(Citation: Google Security Zen),(Citation: Google Triada June 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-DualToy),(Citation: PaloAlto-WireLurker),(Citation: Elcomsoft-iOSRestricted)</t>
-  </si>
-  <si>
-    <t>(Citation: ThreatFabric Ginp),(Citation: Lookout-Dendroid),(Citation: WhiteOps TERRACOTTA),(Citation: threatfabric_sova_0921),(Citation: Securelist Asacub),(Citation: Bitdefender Mandrake),(Citation: bitdefender_flubot_0524),(Citation: Talos GPlayed),(Citation: Cybereason FakeSpy),(Citation: Threat Fabric Cerberus),(Citation: Lookout-StealthMango),(Citation: Lookout Uyghur Campaign),(Citation: Cofense Anubis),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Desert Scorpion),(Citation: SecurityIntelligence TrickMo),(Citation: Threat Fabric Exobot),(Citation: TrendMicro Coronavirus Updates),(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: cyble_drinik_1022),(Citation: Zscaler TikTok Spyware),(Citation: Talos-WolfRAT),(Citation: proofpoint_flubot_0421),(Citation: cloudmark_tanglebot_0921),(Citation: SecureList BusyGasper),(Citation: SMS KitKat)</t>
-  </si>
-  <si>
-    <t>(Citation: Palo Alto HenBox),(Citation: ThreatFabric Ginp),(Citation: Lookout-Dendroid),(Citation: PaloAlto-Xbot),(Citation: threatfabric_sova_0921),(Citation: CyberMerchants-FlexiSpy),(Citation: Securelist Asacub),(Citation: FireEye-RuMMS),(Citation: lookout_abstractemu_1021),(Citation: Google Bread),(Citation: Bitdefender Mandrake),(Citation: Cylance Dust Storm),(Citation: Kaspersky-WUC),(Citation: Lookout Dark Caracal Jan 2018),(Citation: TrendMicro-RCSAndroid),(Citation: Talos Gustuff Apr 2019),(Citation: Talos GPlayed),(Citation: Symantec GoldenCup),(Citation: Zscaler-SuperMarioRun),(Citation: Cybereason FakeSpy),(Citation: Threat Fabric Cerberus),(Citation: Tripwire-MazarBOT),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-StealthMango),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Desert Scorpion),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Zscaler-SpyNote),(Citation: SecurityIntelligence TrickMo),(Citation: NYTimes-BackDoor),(Citation: Lookout ViperRAT),(Citation: Lookout-EnterpriseApps),(Citation: Google Project Zero Insomnia),(Citation: Threat Fabric Exobot),(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList - ViceLeaker 2019),(Citation: TrendMicro-XLoader),(Citation: BlackBerry Bahamut),(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: cyble_drinik_1022),(Citation: PaloAlto-SpyDealer),(Citation: Zscaler TikTok Spyware),(Citation: FlexiSpy-Features),(Citation: Lookout-Pegasus),(Citation: Lookout FrozenCell),(Citation: Talos-WolfRAT),(Citation: proofpoint_flubot_0421),(Citation: cloudmark_tanglebot_0921),(Citation: SWB Exodus March 2019),(Citation: Kaspersky Triada March 2016),(Citation: Kaspersky Riltok June 2019),(Citation: Cybereason EventBot),(Citation: SecureList BusyGasper),</t>
-  </si>
-  <si>
-    <t>(Citation: Zscaler TikTok Spyware),(Citation: Talos GPlayed),(Citation: WhiteOps TERRACOTTA),</t>
-  </si>
-  <si>
-    <t>(Citation: ESET DEFENSOR ID),(Citation: ThreatFabric Ginp),(Citation: cleafy_sova_1122),(Citation: Lookout Uyghur Campaign),(Citation: PaloAlto-SpyDealer),(Citation: Cofense Anubis),(Citation: cyble_drinik_1022),(Citation: cloudmark_tanglebot_0921),(Citation: SWB Exodus March 2019),(Citation: Zscaler TikTok Spyware),(Citation: Talos-WolfRAT),(Citation: FlexiSpy-Features),(Citation: Lookout-Monokle),(Citation: Bitdefender Mandrake),(Citation: Cybereason EventBot),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SecureList BusyGasper),(Citation: SecurityIntelligence TrickMo),(Citation: Nightwatch screencap April 2016)</t>
+    <t>(Citation: paloalto_yispecter_1015),(Citation: CheckPoint Agent Smith),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),(Citation: Zimperium z9),(Citation: Talos-WolfRAT),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),</t>
+  </si>
+  <si>
+    <t>(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Exobot),</t>
+  </si>
+  <si>
+    <t>(Citation: Kaspersky Triada March 2016),(Citation: Google Security Zen),(Citation: Google Project Zero Insomnia),(Citation: Google Triada June 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-WireLurker),(Citation: PaloAlto-DualToy),(Citation: Elcomsoft-iOSRestricted)</t>
+  </si>
+  <si>
+    <t>(Citation: cloudmark_tanglebot_0921),(Citation: Threat Fabric Exobot),(Citation: SecurityIntelligence TrickMo),(Citation: bitdefender_flubot_0524),(Citation: TrendMicro Coronavirus Updates),(Citation: Cofense Anubis),(Citation: Talos-WolfRAT),(Citation: Lookout-StealthMango),(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Cerberus),(Citation: Sophos Red Alert 2.0),(Citation: threatfabric_sova_0921),(Citation: WhiteOps TERRACOTTA),(Citation: Securelist Asacub),(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: cyble_drinik_1022),(Citation: ThreatFabric Ginp),(Citation: Cybereason FakeSpy),(Citation: Zscaler TikTok Spyware),(Citation: Bitdefender Mandrake),(Citation: Lookout-Dendroid),(Citation: Lookout Desert Scorpion),(Citation: SecureList BusyGasper),(Citation: Lookout Uyghur Campaign),(Citation: Talos GPlayed),(Citation: SMS KitKat)</t>
+  </si>
+  <si>
+    <t>(Citation: Google Bread),(Citation: cloudmark_tanglebot_0921),(Citation: NYTimes-BackDoor),(Citation: Threat Fabric Exobot),(Citation: Talos Gustuff Apr 2019),(Citation: SecurityIntelligence TrickMo),(Citation: Palo Alto HenBox),(Citation: TrendMicro Coronavirus Updates),(Citation: Talos-WolfRAT),(Citation: Lookout-StealthMango),(Citation: Lookout FrozenCell),(Citation: Kaspersky Riltok June 2019),(Citation: proofpoint_flubot_0421),(Citation: TrendMicro-RCSAndroid),(Citation: BlackBerry Bahamut),(Citation: Lookout-EnterpriseApps),(Citation: Threat Fabric Cerberus),(Citation: TrendMicro-XLoader),(Citation: Talos GPlayed),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Sophos Red Alert 2.0),(Citation: Kaspersky-WUC),(Citation: threatfabric_sova_0921),(Citation: Securelist Asacub),(Citation: PaloAlto-Xbot),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-Pegasus),(Citation: Zscaler-SuperMarioRun),(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: Kaspersky Triada March 2016),(Citation: cyble_drinik_1022),(Citation: Google Project Zero Insomnia),(Citation: lookout_abstractemu_1021),(Citation: Lookout ViperRAT),(Citation: Cybereason EventBot),(Citation: Tripwire-MazarBOT),(Citation: ThreatFabric Ginp),(Citation: Symantec GoldenCup),(Citation: Cylance Dust Storm),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cybereason FakeSpy),(Citation: Zscaler-SpyNote),(Citation: Bitdefender Mandrake),(Citation: Lookout-Dendroid),(Citation: Lookout Desert Scorpion),(Citation: SecureList BusyGasper),(Citation: Zscaler TikTok Spyware),(Citation: PaloAlto-SpyDealer),(Citation: SecureList - ViceLeaker 2019),(Citation: SWB Exodus March 2019),(Citation: Lookout Uyghur Campaign),(Citation: FireEye-RuMMS),(Citation: FlexiSpy-Features),</t>
+  </si>
+  <si>
+    <t>(Citation: Zscaler TikTok Spyware),(Citation: WhiteOps TERRACOTTA),(Citation: Talos GPlayed),</t>
+  </si>
+  <si>
+    <t>(Citation: cyble_drinik_1022),(Citation: ThreatFabric Ginp),(Citation: Lookout-Monokle),(Citation: cloudmark_tanglebot_0921),(Citation: ESET DEFENSOR ID),(Citation: cleafy_sova_1122),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SWB Exodus March 2019),(Citation: Zscaler TikTok Spyware),(Citation: Bitdefender Mandrake),(Citation: SecurityIntelligence TrickMo),(Citation: Cofense Anubis),(Citation: Cybereason EventBot),(Citation: PaloAlto-SpyDealer),(Citation: Talos-WolfRAT),(Citation: SecureList BusyGasper),(Citation: Lookout Uyghur Campaign),(Citation: FlexiSpy-Features),(Citation: Nightwatch screencap April 2016)</t>
   </si>
   <si>
     <t>(Citation: Talos Gustuff Apr 2019),(Citation: Threat Fabric Exobot),(Citation: Android Package Visibility)</t>
   </si>
   <si>
-    <t>(Citation: Palo Alto HenBox),(Citation: paloalto_yispecter_1015),(Citation: ThreatFabric Ginp),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout-PegasusAndroid),(Citation: lookout_abstractemu_1021),(Citation: Bitdefender Mandrake),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos GPlayed),(Citation: Symantec GoldenCup),(Citation: Cybereason FakeSpy),(Citation: Threat Fabric Cerberus),(Citation: Lookout-StealthMango),(Citation: Lookout Uyghur Campaign),(Citation: Cofense Anubis),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Desert Scorpion),(Citation: Trend Micro Bouncing Golf 2019),(Citation: CheckPoint Agent Smith),(Citation: SecurityIntelligence TrickMo),(Citation: ESET DEFENSOR ID),(Citation: Google Project Zero Insomnia),(Citation: Google Triada June 2019),(Citation: SecureList - ViceLeaker 2019),(Citation: securelist rotexy 2018),(Citation: Zscaler TikTok Spyware),(Citation: FlexiSpy-Features),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: cleafy_sova_1122),(Citation: Talos-WolfRAT),(Citation: cloudmark_tanglebot_0921),(Citation: SWB Exodus March 2019),(Citation: Lookout-Monokle),(Citation: Kaspersky Riltok June 2019),(Citation: Cybereason EventBot),(Citation: Android Package Visibility)</t>
-  </si>
-  <si>
-    <t>(Citation: Talos Gustuff Apr 2019),(Citation: threatfabric_sova_0921),(Citation: Google Bread),</t>
-  </si>
-  <si>
-    <t>,(Citation: iOS Universal Links),(Citation: IETF-PKCE),(Citation: Trend Micro iOS URL Hijacking),(Citation: Android App Links)</t>
+    <t>(Citation: cloudmark_tanglebot_0921),(Citation: SecurityIntelligence TrickMo),(Citation: Palo Alto HenBox),(Citation: Cofense Anubis),(Citation: Talos-WolfRAT),(Citation: Lookout-StealthMango),(Citation: Kaspersky Riltok June 2019),(Citation: Threat Fabric Cerberus),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Dark Caracal Jan 2018),(Citation: WhiteOps TERRACOTTA),(Citation: securelist rotexy 2018),(Citation: Google Project Zero Insomnia),(Citation: Lookout-Monokle),(Citation: ESET DEFENSOR ID),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: cleafy_sova_1122),(Citation: lookout_abstractemu_1021),(Citation: Cybereason EventBot),(Citation: ThreatFabric Ginp),(Citation: paloalto_yispecter_1015),(Citation: Symantec GoldenCup),(Citation: CheckPoint Agent Smith),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cybereason FakeSpy),(Citation: Zscaler TikTok Spyware),(Citation: Bitdefender Mandrake),(Citation: FlexiSpy-Features),(Citation: Lookout Desert Scorpion),(Citation: Lookout-PegasusAndroid),(Citation: Google Triada June 2019),(Citation: SecureList - ViceLeaker 2019),(Citation: SWB Exodus March 2019),(Citation: Lookout Uyghur Campaign),(Citation: Talos GPlayed),(Citation: Android Package Visibility)</t>
+  </si>
+  <si>
+    <t>(Citation: threatfabric_sova_0921),(Citation: Google Bread),(Citation: Talos Gustuff Apr 2019),</t>
+  </si>
+  <si>
+    <t>,(Citation: Android App Links),(Citation: Trend Micro iOS URL Hijacking),(Citation: iOS Universal Links),(Citation: IETF-PKCE)</t>
   </si>
   <si>
     <t>(Citation: CheckPoint Agent Smith),</t>
   </si>
   <si>
-    <t>(Citation: paloalto_yispecter_1015),(Citation: Lookout-Pegasus),(Citation: Lookout FrozenCell),(Citation: cleafy_sova_1122),(Citation: Lookout-PegasusAndroid),(Citation: Cybereason FakeSpy),(Citation: Lookout-StealthMango),(Citation: threatfabric_sova_0921),(Citation: Lookout Uyghur Campaign),(Citation: PaloAlto-SpyDealer),(Citation: SWB Exodus March 2019),(Citation: Lookout Desert Scorpion),(Citation: FortiGuard-FlexiSpy),(Citation: Kaspersky-Skygofree),(Citation: Bitdefender Mandrake),(Citation: SecureList BusyGasper),(Citation: Lookout Dark Caracal Jan 2018),(Citation: TrendMicro-RCSAndroid),</t>
+    <t>(Citation: Kaspersky-Skygofree),(Citation: TrendMicro-RCSAndroid),(Citation: paloalto_yispecter_1015),(Citation: Lookout-Pegasus),(Citation: cleafy_sova_1122),(Citation: Cybereason FakeSpy),(Citation: SWB Exodus March 2019),(Citation: Bitdefender Mandrake),(Citation: Lookout Desert Scorpion),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-PegasusAndroid),(Citation: threatfabric_sova_0921),(Citation: PaloAlto-SpyDealer),(Citation: FortiGuard-FlexiSpy),(Citation: SecureList BusyGasper),(Citation: Lookout-StealthMango),(Citation: Lookout Uyghur Campaign),(Citation: Lookout FrozenCell),</t>
   </si>
   <si>
     <t>,(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
   </si>
   <si>
-    <t>(Citation: paloalto_yispecter_1015),(Citation: ThreatFabric Ginp),(Citation: threatfabric_sova_0921),(Citation: Bitdefender Mandrake),(Citation: Cybereason FakeSpy),(Citation: Threat Fabric Cerberus),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: CheckPoint Agent Smith),(Citation: Bitdefender - Triout 2018),(Citation: Group IB Gustuff Mar 2019),(Citation: securelist rotexy 2018),(Citation: cyble_drinik_1022),(Citation: Zscaler TikTok Spyware),(Citation: FlexiSpy-Features),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: ESET-Twitoor),(Citation: CheckPoint SimBad 2019),(Citation: FortiGuard-FlexiSpy),(Citation: SecureList BusyGasper),(Citation: Android 10 Limitations to Hiding App Icons),(Citation: LauncherApps getActivityList)</t>
-  </si>
-  <si>
-    <t>(Citation: Cybereason EventBot),(Citation: BlackBerry Bahamut),(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),</t>
-  </si>
-  <si>
-    <t>(Citation: Palo Alto HenBox),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout-Dendroid),(Citation: ThreatFabric Ginp),(Citation: WhiteOps TERRACOTTA),(Citation: Cybereason FakeSpy),(Citation: Threat Fabric Cerberus),(Citation: BlackBerry Bahamut),(Citation: Talos-WolfRAT),(Citation: securelist rotexy 2018),(Citation: lookout_abstractemu_1021),(Citation: Trend Micro Anubis),(Citation: Bitdefender Mandrake),(Citation: SecurityIntelligence TrickMo),</t>
-  </si>
-  <si>
-    <t>(Citation: Palo Alto HenBox),(Citation: paloalto_yispecter_1015),(Citation: SecureList DVMap June 2017),(Citation: threatfabric_sova_0921),(Citation: Securelist Asacub),(Citation: FireEye-RuMMS),(Citation: lookout_abstractemu_1021),(Citation: Bitdefender Mandrake),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Kaspersky-WUC),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos Gustuff Apr 2019),(Citation: Talos GPlayed),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Symantec GoldenCup),(Citation: Cybereason FakeSpy),(Citation: Threat Fabric Cerberus),(Citation: CheckPoint Cerberus),(Citation: Lookout Uyghur Campaign),(Citation: Cofense Anubis),(Citation: Lookout Desert Scorpion),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout ViperRAT),(Citation: Xiao-KeyRaider),(Citation: Lookout eSurv),(Citation: Google Project Zero Insomnia),(Citation: Threat Fabric Exobot),(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList - ViceLeaker 2019),(Citation: BlackBerry Bahamut),(Citation: securelist rotexy 2018),(Citation: Zscaler TikTok Spyware),(Citation: Wandera-RedDrop),(Citation: trendmicro_tianyspy_0122),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout FrozenCell),(Citation: Lookout-Pegasus),(Citation: Lookout-Monokle),(Citation: TrendMicro-Anserver2),(Citation: Kaspersky Riltok June 2019),(Citation: Cybereason EventBot),</t>
-  </si>
-  <si>
-    <t>(Citation: paloalto_yispecter_1015),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout-PegasusAndroid),(Citation: Securelist Asacub),(Citation: FireEye-RuMMS),(Citation: lookout_abstractemu_1021),(Citation: Google Bread),(Citation: Talos Gustuff Apr 2019),(Citation: Talos GPlayed),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Symantec GoldenCup),(Citation: Cybereason FakeSpy),(Citation: Lookout-StealthMango),(Citation: Lookout Uyghur Campaign),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout ViperRAT),(Citation: Lookout-EnterpriseApps),(Citation: Google Project Zero Insomnia),(Citation: Threat Fabric Exobot),(Citation: TrendMicro Coronavirus Updates),(Citation: PaloAlto-DualToy),(Citation: PaloAlto-SpyDealer),(Citation: securelist rotexy 2018),(Citation: Wandera-RedDrop),(Citation: trendmicro_tianyspy_0122),(Citation: Lookout FrozenCell),(Citation: Talos-WolfRAT),(Citation: SWB Exodus March 2019),(Citation: Lookout-Monokle),(Citation: TrendMicro-Anserver2),(Citation: Kaspersky Riltok June 2019),(Citation: Cybereason EventBot),(Citation: TelephonyManager)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-Pegasus),(Citation: Cybereason FakeSpy),(Citation: SWB Exodus March 2019),(Citation: Lookout-Monokle),(Citation: FlexiSpy-Features),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout ViperRAT),</t>
-  </si>
-  <si>
-    <t>(Citation: FortiGuard-FlexiSpy),(Citation: SecureList DVMap June 2017),(Citation: Google Security Zen),(Citation: Android-VerifiedBoot)</t>
+    <t>(Citation: Bitdefender - Triout 2018),(Citation: ESET-Twitoor),(Citation: CheckPoint SimBad 2019),(Citation: Threat Fabric Cerberus),(Citation: threatfabric_sova_0921),(Citation: Group IB Gustuff Mar 2019),(Citation: securelist rotexy 2018),(Citation: cyble_drinik_1022),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: FortiGuard-FlexiSpy),(Citation: ThreatFabric Ginp),(Citation: paloalto_yispecter_1015),(Citation: CheckPoint Agent Smith),(Citation: Cybereason FakeSpy),(Citation: Bitdefender Mandrake),(Citation: Lookout Desert Scorpion),(Citation: SecureList BusyGasper),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Uyghur Campaign),(Citation: FlexiSpy-Features),(Citation: Android 10 Limitations to Hiding App Icons),(Citation: LauncherApps getActivityList)</t>
+  </si>
+  <si>
+    <t>(Citation: BlackBerry Bahamut),(Citation: Cybereason EventBot),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),</t>
+  </si>
+  <si>
+    <t>(Citation: ThreatFabric Ginp),(Citation: BlackBerry Bahamut),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Threat Fabric Cerberus),(Citation: lookout_abstractemu_1021),(Citation: Trend Micro Anubis),(Citation: Cybereason FakeSpy),(Citation: Lookout-Dendroid),(Citation: Palo Alto HenBox),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),(Citation: SecurityIntelligence TrickMo),(Citation: Talos-WolfRAT),(Citation: securelist rotexy 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Threat Fabric Exobot),(Citation: Talos Gustuff Apr 2019),(Citation: SecurityIntelligence TrickMo),(Citation: Palo Alto HenBox),(Citation: TrendMicro Coronavirus Updates),(Citation: Cofense Anubis),(Citation: Lookout FrozenCell),(Citation: SecureList DVMap June 2017),(Citation: Kaspersky Riltok June 2019),(Citation: BlackBerry Bahamut),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Threat Fabric Cerberus),(Citation: Lookout Dark Caracal Jan 2018),(Citation: threatfabric_sova_0921),(Citation: Kaspersky-WUC),(Citation: Securelist Asacub),(Citation: Lookout-Pegasus),(Citation: securelist rotexy 2018),(Citation: trendmicro_tianyspy_0122),(Citation: Google Project Zero Insomnia),(Citation: Lookout-Monokle),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Xiao-KeyRaider),(Citation: lookout_abstractemu_1021),(Citation: Wandera-RedDrop),(Citation: FireEye-RuMMS),(Citation: Lookout ViperRAT),(Citation: Cybereason EventBot),(Citation: paloalto_yispecter_1015),(Citation: Symantec GoldenCup),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cybereason FakeSpy),(Citation: TrendMicro-Anserver2),(Citation: Bitdefender Mandrake),(Citation: Lookout Desert Scorpion),(Citation: Lookout eSurv),(Citation: SecureList - ViceLeaker 2019),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Uyghur Campaign),(Citation: CheckPoint Cerberus),(Citation: Talos GPlayed),</t>
+  </si>
+  <si>
+    <t>(Citation: Google Bread),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Threat Fabric Exobot),(Citation: Talos Gustuff Apr 2019),(Citation: SecurityIntelligence TrickMo),(Citation: TrendMicro Coronavirus Updates),(Citation: Talos-WolfRAT),(Citation: Lookout-StealthMango),(Citation: Lookout FrozenCell),(Citation: Kaspersky Riltok June 2019),(Citation: Lookout-EnterpriseApps),(Citation: WhiteOps TERRACOTTA),(Citation: Securelist Asacub),(Citation: securelist rotexy 2018),(Citation: trendmicro_tianyspy_0122),(Citation: Google Project Zero Insomnia),(Citation: Lookout-Monokle),(Citation: lookout_abstractemu_1021),(Citation: Wandera-RedDrop),(Citation: Lookout ViperRAT),(Citation: Cybereason EventBot),(Citation: paloalto_yispecter_1015),(Citation: PaloAlto-DualToy),(Citation: Symantec GoldenCup),(Citation: Cybereason FakeSpy),(Citation: TrendMicro-Anserver2),(Citation: Lookout-PegasusAndroid),(Citation: PaloAlto-SpyDealer),(Citation: SWB Exodus March 2019),(Citation: Lookout Uyghur Campaign),(Citation: FireEye-RuMMS),(Citation: Talos GPlayed),(Citation: TelephonyManager)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-Monokle),(Citation: Lookout-Pegasus),(Citation: Cybereason FakeSpy),(Citation: Lookout ViperRAT),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SWB Exodus March 2019),(Citation: FlexiSpy-Features),</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList DVMap June 2017),(Citation: Google Security Zen),(Citation: FortiGuard-FlexiSpy),(Citation: Android-VerifiedBoot)</t>
   </si>
   <si>
     <t>(Citation: threatfabric_sova_0921),(Citation: Android 10 Privacy Changes)</t>
   </si>
   <si>
-    <t>(Citation: Threat Fabric Cerberus),(Citation: threatfabric_sova_0921),(Citation: nccgroup_sharkbot_0322),(Citation: SecurityIntelligence TrickMo),</t>
-  </si>
-  <si>
-    <t>(Citation: Palo Alto HenBox),(Citation: Lookout Uyghur Campaign),(Citation: Zscaler TikTok Spyware),(Citation: lookout_abstractemu_1021),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: SecureList BusyGasper),</t>
+    <t>(Citation: threatfabric_sova_0921),(Citation: SecurityIntelligence TrickMo),(Citation: Threat Fabric Cerberus),(Citation: nccgroup_sharkbot_0322),</t>
+  </si>
+  <si>
+    <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: lookout_abstractemu_1021),(Citation: Palo Alto HenBox),(Citation: Zscaler TikTok Spyware),(Citation: SecureList BusyGasper),(Citation: Lookout Uyghur Campaign),</t>
   </si>
   <si>
     <t>(Citation: SecureList BusyGasper),(Citation: proofpoint_flubot_0421),</t>
   </si>
   <si>
-    <t>(Citation: Palo Alto HenBox),(Citation: Lookout-Dendroid),(Citation: Lookout-PegasusAndroid),(Citation: CyberMerchants-FlexiSpy),(Citation: lookout_abstractemu_1021),(Citation: Lookout Dark Caracal Jan 2018),(Citation: TrendMicro-RCSAndroid),(Citation: Symantec GoldenCup),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout-StealthMango),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout ViperRAT),(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList - ViceLeaker 2019),(Citation: BlackBerry Bahamut),(Citation: PaloAlto-SpyDealer),(Citation: Zscaler TikTok Spyware),(Citation: Talos-WolfRAT),(Citation: cloudmark_tanglebot_0921),(Citation: SWB Exodus March 2019),(Citation: Kaspersky-Skygofree),(Citation: Lookout-Monokle),(Citation: SecureList BusyGasper),(Citation: Android Capture Sensor 2019)</t>
+    <t>(Citation: cloudmark_tanglebot_0921),(Citation: Palo Alto HenBox),(Citation: TrendMicro Coronavirus Updates),(Citation: Talos-WolfRAT),(Citation: Lookout-StealthMango),(Citation: TrendMicro-RCSAndroid),(Citation: BlackBerry Bahamut),(Citation: Lookout Dark Caracal Jan 2018),(Citation: CyberMerchants-FlexiSpy),(Citation: Zscaler-SuperMarioRun),(Citation: Kaspersky-Skygofree),(Citation: Lookout-Monokle),(Citation: lookout_abstractemu_1021),(Citation: Lookout ViperRAT),(Citation: Symantec GoldenCup),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Dendroid),(Citation: Lookout Desert Scorpion),(Citation: SecureList BusyGasper),(Citation: Lookout-PegasusAndroid),(Citation: PaloAlto-SpyDealer),(Citation: SecureList - ViceLeaker 2019),(Citation: SWB Exodus March 2019),(Citation: Lookout Uyghur Campaign),(Citation: Android Capture Sensor 2019)</t>
   </si>
   <si>
     <t>(Citation: lookout_abstractemu_1021),</t>
   </si>
   <si>
-    <t>(Citation: paloalto_yispecter_1015),(Citation: threatfabric_sova_0921),(Citation: Securelist Asacub),(Citation: FireEye-RuMMS),(Citation: lookout_abstractemu_1021),(Citation: Google Bread),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Kaspersky-WUC),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos Gustuff Apr 2019),(Citation: Talos GPlayed),(Citation: Symantec GoldenCup),(Citation: Cybereason FakeSpy),(Citation: CheckPoint Cerberus),(Citation: Lookout Uyghur Campaign),(Citation: Volexity Insomnia),(Citation: Sophos Red Alert 2.0),(Citation: SecurityIntelligence TrickMo),(Citation: Bitdefender - Triout 2018),(Citation: ESET DEFENSOR ID),(Citation: Threat Fabric Exobot),(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList - ViceLeaker 2019),(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: Wandera-RedDrop),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Kaspersky-MobileMalware),(Citation: proofpoint_flubot_0421),(Citation: SWB Exodus March 2019),(Citation: Kaspersky-Skygofree),(Citation: Kaspersky Riltok June 2019),(Citation: Cybereason EventBot),</t>
+    <t>(Citation: Google Bread),(Citation: Threat Fabric Exobot),(Citation: Talos Gustuff Apr 2019),(Citation: Bitdefender - Triout 2018),(Citation: SecurityIntelligence TrickMo),(Citation: TrendMicro Coronavirus Updates),(Citation: Kaspersky Riltok June 2019),(Citation: proofpoint_flubot_0421),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Dark Caracal Jan 2018),(Citation: threatfabric_sova_0921),(Citation: Kaspersky-WUC),(Citation: Securelist Asacub),(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: Kaspersky-Skygofree),(Citation: ESET DEFENSOR ID),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: lookout_abstractemu_1021),(Citation: Wandera-RedDrop),(Citation: FireEye-RuMMS),(Citation: Cybereason EventBot),(Citation: Volexity Insomnia),(Citation: paloalto_yispecter_1015),(Citation: Symantec GoldenCup),(Citation: Cybereason FakeSpy),(Citation: Kaspersky-MobileMalware),(Citation: SecureList - ViceLeaker 2019),(Citation: SWB Exodus March 2019),(Citation: Lookout Uyghur Campaign),(Citation: CheckPoint Cerberus),(Citation: Talos GPlayed),</t>
   </si>
   <si>
     <t>source ID</t>

--- a/docs/mobile-attack-v13.1/mobile-attack-v13.1-techniques.xlsx
+++ b/docs/mobile-attack-v13.1/mobile-attack-v13.1-techniques.xlsx
@@ -2140,7 +2140,7 @@
     <t>,</t>
   </si>
   <si>
-    <t>(Citation: proofpoint_flubot_0421),(Citation: lookout_abstractemu_1021),(Citation: Bitdefender Mandrake),(Citation: TrendMicro Coronavirus Updates),(Citation: threatfabric_sova_0921),(Citation: Talos-WolfRAT),(Citation: Check Point-Joker),(Citation: nccgroup_sharkbot_0322),(Citation: Android Notification Listeners)</t>
+    <t>(Citation: nccgroup_sharkbot_0322),(Citation: Talos-WolfRAT),(Citation: TrendMicro Coronavirus Updates),(Citation: proofpoint_flubot_0421),(Citation: Bitdefender Mandrake),(Citation: threatfabric_sova_0921),(Citation: Check Point-Joker),(Citation: lookout_abstractemu_1021),(Citation: Android Notification Listeners)</t>
   </si>
   <si>
     <t>(Citation: Lookout-Monokle),</t>
@@ -2149,40 +2149,40 @@
     <t>(Citation: threatfabric_sova_0921),(Citation: Skycure-Profiles),(Citation: Xiao-KeyRaider),</t>
   </si>
   <si>
-    <t>(Citation: cyble_drinik_1022),(Citation: Lookout Uyghur Campaign),</t>
-  </si>
-  <si>
-    <t>(Citation: Symantec GoldenCup),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Desert Scorpion),(Citation: Cofense Anubis),(Citation: Securelist Asacub),(Citation: Google Triada June 2019),(Citation: SWB Exodus March 2019),(Citation: Lookout FrozenCell),</t>
-  </si>
-  <si>
-    <t>(Citation: proofpoint_flubot_0421),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout eSurv),(Citation: Lookout Uyghur Campaign),(Citation: nccgroup_sharkbot_0322),</t>
-  </si>
-  <si>
-    <t>(Citation: cloudmark_tanglebot_0921),(Citation: Bitdefender - Triout 2018),(Citation: Palo Alto HenBox),(Citation: TrendMicro Coronavirus Updates),(Citation: Cofense Anubis),(Citation: Talos-WolfRAT),(Citation: Lookout-StealthMango),(Citation: Lookout FrozenCell),(Citation: TrendMicro-RCSAndroid),(Citation: BlackBerry Bahamut),(Citation: Lookout-EnterpriseApps),(Citation: TrendMicro-XLoader),(Citation: Lookout Dark Caracal Jan 2018),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-Pegasus),(Citation: Zscaler-SuperMarioRun),(Citation: Kaspersky-Skygofree),(Citation: Lookout-Monokle),(Citation: lookout_abstractemu_1021),(Citation: Wandera-RedDrop),(Citation: Lookout ViperRAT),(Citation: Symantec GoldenCup),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Zscaler-SpyNote),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Dendroid),(Citation: Lookout Desert Scorpion),(Citation: SecureList BusyGasper),(Citation: Lookout-PegasusAndroid),(Citation: PaloAlto-SpyDealer),(Citation: Lookout eSurv),(Citation: SecureList - ViceLeaker 2019),(Citation: SWB Exodus March 2019),(Citation: Lookout Uyghur Campaign),(Citation: Android Capture Sensor 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: WhiteOps TERRACOTTA),(Citation: Bitdefender Mandrake),</t>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: cyble_drinik_1022),</t>
+  </si>
+  <si>
+    <t>(Citation: Securelist Asacub),(Citation: Google Triada June 2019),(Citation: SWB Exodus March 2019),(Citation: Cofense Anubis),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Desert Scorpion),(Citation: Symantec GoldenCup),(Citation: Lookout FrozenCell),</t>
+  </si>
+  <si>
+    <t>(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),(Citation: Lookout Uyghur Campaign),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout eSurv),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-Pegasus),(Citation: BlackBerry Bahamut),(Citation: TrendMicro-XLoader),(Citation: cloudmark_tanglebot_0921),(Citation: SecureList BusyGasper),(Citation: SWB Exodus March 2019),(Citation: Lookout-Monokle),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout ViperRAT),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Wandera-RedDrop),(Citation: Lookout-Dendroid),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-StealthMango),(Citation: Lookout-EnterpriseApps),(Citation: Lookout FrozenCell),(Citation: Cofense Anubis),(Citation: CyberMerchants-FlexiSpy),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-PegasusAndroid),(Citation: lookout_abstractemu_1021),(Citation: Kaspersky-Skygofree),(Citation: Zscaler-SuperMarioRun),(Citation: TrendMicro Coronavirus Updates),(Citation: PaloAlto-SpyDealer),(Citation: SecureList - ViceLeaker 2019),(Citation: Zscaler-SpyNote),(Citation: Lookout eSurv),(Citation: Palo Alto HenBox),(Citation: Talos-WolfRAT),(Citation: Bitdefender - Triout 2018),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: Symantec GoldenCup),(Citation: Android Capture Sensor 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: WhiteOps TERRACOTTA),(Citation: SecureList BusyGasper),(Citation: Bitdefender Mandrake),</t>
   </si>
   <si>
     <t>(Citation: HackerNews-OldBoot),</t>
   </si>
   <si>
-    <t>(Citation: Microsoft MalLockerB),(Citation: CheckPoint SimBad 2019),(Citation: ESET DEFENSOR ID),(Citation: Threat Fabric Exobot),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cybereason FakeSpy),(Citation: Palo Alto HenBox),(Citation: Zscaler-SpyNote),(Citation: SecurityIntelligence TrickMo),(Citation: Cybereason EventBot),(Citation: Lookout-PegasusAndroid),(Citation: PaloAlto-SpyDealer),(Citation: WhiteOps TERRACOTTA),(Citation: FortiGuard-FlexiSpy),(Citation: Zscaler TikTok Spyware),(Citation: Talos GPlayed),(Citation: Android Changes to System Broadcasts)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-Monokle),(Citation: Lookout-PegasusAndroid),(Citation: CyberMerchants-FlexiSpy),(Citation: SWB Exodus March 2019),(Citation: Lookout-StealthMango),</t>
-  </si>
-  <si>
-    <t>(Citation: cyble_drinik_1022),(Citation: Lookout-Monokle),(Citation: cloudmark_tanglebot_0921),(Citation: Cofense Anubis),(Citation: SecureList BusyGasper),(Citation: Lookout Uyghur Campaign),</t>
-  </si>
-  <si>
-    <t>(Citation: cloudmark_tanglebot_0921),(Citation: NYTimes-BackDoor),(Citation: Palo Alto HenBox),(Citation: TrendMicro Coronavirus Updates),(Citation: Talos-WolfRAT),(Citation: Lookout-StealthMango),(Citation: Lookout-EnterpriseApps),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Kaspersky-WUC),(Citation: Lookout-Pegasus),(Citation: Zscaler-SuperMarioRun),(Citation: cyble_drinik_1022),(Citation: Google Project Zero Insomnia),(Citation: Lookout-Monokle),(Citation: lookout_abstractemu_1021),(Citation: Lookout ViperRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-PegasusAndroid),(Citation: PaloAlto-SpyDealer),(Citation: SecureList - ViceLeaker 2019),(Citation: SWB Exodus March 2019),(Citation: Lookout Uyghur Campaign),</t>
-  </si>
-  <si>
-    <t>(Citation: Trend Micro Bouncing Golf 2019),(Citation: PaloAlto-XcodeGhost),(Citation: TrendMicro-RCSAndroid),(Citation: Android 10 Privacy Changes)</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList DVMap June 2017),(Citation: trendmicro_tianyspy_0122),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: paloalto_yispecter_1015),(Citation: BlackBerry Bahamut),(Citation: Bitdefender Mandrake),(Citation: Lookout Desert Scorpion),(Citation: Lookout Uyghur Campaign),(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
+    <t>(Citation: Palo Alto HenBox),(Citation: Lookout-PegasusAndroid),(Citation: Cybereason EventBot),(Citation: Cybereason FakeSpy),(Citation: PaloAlto-SpyDealer),(Citation: FortiGuard-FlexiSpy),(Citation: Zscaler TikTok Spyware),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: CheckPoint SimBad 2019),(Citation: WhiteOps TERRACOTTA),(Citation: SecurityIntelligence TrickMo),(Citation: Trend Micro Bouncing Golf 2019),(Citation: ESET DEFENSOR ID),(Citation: Zscaler-SpyNote),(Citation: Microsoft MalLockerB),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: Android Changes to System Broadcasts)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-StealthMango),(Citation: SWB Exodus March 2019),(Citation: Lookout-Monokle),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-PegasusAndroid),</t>
+  </si>
+  <si>
+    <t>(Citation: cyble_drinik_1022),(Citation: cloudmark_tanglebot_0921),(Citation: SecureList BusyGasper),(Citation: Cofense Anubis),(Citation: Lookout-Monokle),(Citation: Lookout Uyghur Campaign),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-Pegasus),(Citation: Google Project Zero Insomnia),(Citation: cloudmark_tanglebot_0921),(Citation: SWB Exodus March 2019),(Citation: Lookout-Monokle),(Citation: Lookout ViperRAT),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-StealthMango),(Citation: Lookout-EnterpriseApps),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-PegasusAndroid),(Citation: lookout_abstractemu_1021),(Citation: Zscaler-SuperMarioRun),(Citation: TrendMicro Coronavirus Updates),(Citation: PaloAlto-SpyDealer),(Citation: SecureList - ViceLeaker 2019),(Citation: cyble_drinik_1022),(Citation: Palo Alto HenBox),(Citation: Talos-WolfRAT),(Citation: Sophos Red Alert 2.0),(Citation: NYTimes-BackDoor),(Citation: Lookout Uyghur Campaign),(Citation: Kaspersky-WUC),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-XcodeGhost),(Citation: TrendMicro-RCSAndroid),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Android 10 Privacy Changes)</t>
+  </si>
+  <si>
+    <t>(Citation: BlackBerry Bahamut),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout Uyghur Campaign),(Citation: SecureList DVMap June 2017),(Citation: Bitdefender Mandrake),(Citation: trendmicro_tianyspy_0122),(Citation: paloalto_yispecter_1015),(Citation: Lookout Desert Scorpion),(Citation: Android-TrustedCA),(Citation: Symantec-iOSProfile2)</t>
   </si>
   <si>
     <t>(Citation: trendmicro_tianyspy_0122),</t>
@@ -2191,79 +2191,79 @@
     <t>(Citation: CheckPoint Agent Smith),(Citation: paloalto_yispecter_1015),</t>
   </si>
   <si>
-    <t>(Citation: Lookout-Monokle),(Citation: Lookout-Pegasus),(Citation: Lookout-Adware),(Citation: Lookout-PegasusAndroid),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-BrainTest),(Citation: SecureList BusyGasper),(Citation: Lookout Uyghur Campaign),</t>
+    <t>(Citation: Lookout-Pegasus),(Citation: SecureList BusyGasper),(Citation: Lookout-Adware),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Monokle),(Citation: Lookout-BrainTest),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),</t>
   </si>
   <si>
     <t>(Citation: PaloAlto-XcodeGhost),(Citation: PaloAlto-XcodeGhost1),</t>
   </si>
   <si>
-    <t>(Citation: NYTimes-BackDoor),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Google Triada June 2019),(Citation: BankInfoSecurity-BackDoor),(Citation: Krebs-Triada June 2019),(Citation: Lookout-StealthMango),(Citation: HackerNews-Allwinner),</t>
-  </si>
-  <si>
-    <t>(Citation: cloudmark_tanglebot_0921),(Citation: NYTimes-BackDoor),(Citation: Threat Fabric Exobot),(Citation: Talos Gustuff Apr 2019),(Citation: Palo Alto HenBox),(Citation: TrendMicro Coronavirus Updates),(Citation: Cofense Anubis),(Citation: Talos-WolfRAT),(Citation: Lookout-StealthMango),(Citation: Kaspersky Riltok June 2019),(Citation: proofpoint_flubot_0421),(Citation: BlackBerry Bahamut),(Citation: Lookout-EnterpriseApps),(Citation: Threat Fabric Cerberus),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Kaspersky-WUC),(Citation: Securelist Asacub),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-Pegasus),(Citation: CheckPoint-Charger),(Citation: securelist rotexy 2018),(Citation: Google Project Zero Insomnia),(Citation: Lookout-Monokle),(Citation: lookout_abstractemu_1021),(Citation: Lookout ViperRAT),(Citation: ThreatFabric Ginp),(Citation: Symantec GoldenCup),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cybereason FakeSpy),(Citation: Zscaler-SpyNote),(Citation: Bitdefender Mandrake),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Desert Scorpion),(Citation: Lookout eSurv),(Citation: Lookout-PegasusAndroid),(Citation: PaloAlto-SpyDealer),(Citation: SWB Exodus March 2019),(Citation: Lookout Uyghur Campaign),(Citation: Talos GPlayed),</t>
-  </si>
-  <si>
-    <t>(Citation: Cofense Anubis),(Citation: cleafy_sova_1122),(Citation: PaloAlto-Xbot),</t>
-  </si>
-  <si>
-    <t>(Citation: cloudmark_tanglebot_0921),(Citation: Gooligan Citation),(Citation: Talos Gustuff Apr 2019),(Citation: Trend Micro Anubis),(Citation: SecurityIntelligence TrickMo),(Citation: Bitdefender - Triout 2018),(Citation: Palo Alto HenBox),(Citation: TrendMicro Coronavirus Updates),(Citation: Cofense Anubis),(Citation: Talos-WolfRAT),(Citation: Lookout-StealthMango),(Citation: Lookout FrozenCell),(Citation: TrendMicro-RCSAndroid),(Citation: BlackBerry Bahamut),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: cyble_drinik_1022),(Citation: Google Project Zero Insomnia),(Citation: Lookout-Monokle),(Citation: lookout_abstractemu_1021),(Citation: Lookout ViperRAT),(Citation: ThreatFabric Ginp),(Citation: Symantec GoldenCup),(Citation: Cylance Dust Storm),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Zscaler-SpyNote),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Dendroid),(Citation: Lookout Desert Scorpion),(Citation: SecureList BusyGasper),(Citation: FlexiSpy-Features),(Citation: Lookout eSurv),(Citation: SecureList - ViceLeaker 2019),(Citation: SWB Exodus March 2019),(Citation: Lookout Uyghur Campaign),(Citation: Talos GPlayed),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro-XLoader-FakeSpy),(Citation: TrendMicro-Anserver),(Citation: Trend Micro Anubis),(Citation: Sophos Red Alert 2.0),(Citation: Cofense Anubis),</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Exobot),(Citation: lookout_abstractemu_1021),(Citation: TrendMicro-XLoader),(Citation: Sophos Red Alert 2.0),(Citation: Securelist Asacub),(Citation: Proofpoint-Marcher),(Citation: Talos GPlayed),(Citation: GoogleIO2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft MalLockerB),(Citation: securelist rotexy 2018),(Citation: SecurityIntelligence TrickMo),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList DVMap June 2017),(Citation: cyble_drinik_1022),(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Cerberus),(Citation: lookout_abstractemu_1021),(Citation: Bitdefender Mandrake),(Citation: Cofense Anubis),(Citation: Google Security Zen),</t>
-  </si>
-  <si>
-    <t>(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: proofpoint_flubot_0421),(Citation: Bitdefender Mandrake),</t>
-  </si>
-  <si>
-    <t>(Citation: Google Bread),(Citation: Trend Micro Anubis),(Citation: Palo Alto HenBox),(Citation: Google Security Zen),(Citation: Lookout-BrainTest),(Citation: Talos-WolfRAT),(Citation: Lookout FrozenCell),(Citation: SecureList DVMap June 2017),(Citation: TrendMicro-RCSAndroid),(Citation: BlackBerry Bahamut),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Threat Fabric Cerberus),(Citation: Sophos Red Alert 2.0),(Citation: WhiteOps TERRACOTTA),(Citation: nccgroup_sharkbot_0322),(Citation: Kaspersky-Skygofree),(Citation: lookout_abstractemu_1021),(Citation: Lookout ViperRAT),(Citation: Cybereason EventBot),(Citation: Xiao-ZergHelper),(Citation: paloalto_yispecter_1015),(Citation: Symantec GoldenCup),(Citation: Bitdefender Mandrake),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: SecureList BusyGasper),(Citation: Lookout eSurv),(Citation: PaloAlto-SpyDealer),(Citation: Google Triada June 2019),(Citation: SWB Exodus March 2019),(Citation: CheckPoint-Judy),(Citation: Talos GPlayed),(Citation: Android 10 Execute)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-Pegasus),(Citation: Lookout-StealthMango),(Citation: Volexity Insomnia),(Citation: paloalto_yispecter_1015),</t>
+    <t>(Citation: BankInfoSecurity-BackDoor),(Citation: Google Triada June 2019),(Citation: HackerNews-Allwinner),(Citation: NYTimes-BackDoor),(Citation: Krebs-Triada June 2019),(Citation: Lookout-StealthMango),(Citation: CYBERWARCON CHEMISTGAMES),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-Pegasus),(Citation: BlackBerry Bahamut),(Citation: Google Project Zero Insomnia),(Citation: cloudmark_tanglebot_0921),(Citation: SWB Exodus March 2019),(Citation: Cybereason FakeSpy),(Citation: proofpoint_flubot_0421),(Citation: Lookout-Monokle),(Citation: Lookout ViperRAT),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-StealthMango),(Citation: Lookout-EnterpriseApps),(Citation: Talos Gustuff Apr 2019),(Citation: Bitdefender Mandrake),(Citation: Cofense Anubis),(Citation: securelist rotexy 2018),(Citation: CyberMerchants-FlexiSpy),(Citation: Zscaler TikTok Spyware),(Citation: ThreatFabric Ginp),(Citation: Lookout-PegasusAndroid),(Citation: lookout_abstractemu_1021),(Citation: TrendMicro Coronavirus Updates),(Citation: CheckPoint-Charger),(Citation: Kaspersky Riltok June 2019),(Citation: PaloAlto-SpyDealer),(Citation: Threat Fabric Cerberus),(Citation: Zscaler-SpyNote),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: Lookout eSurv),(Citation: Securelist Asacub),(Citation: Palo Alto HenBox),(Citation: Talos-WolfRAT),(Citation: Sophos Red Alert 2.0),(Citation: NYTimes-BackDoor),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: Symantec GoldenCup),(Citation: Kaspersky-WUC),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-Xbot),(Citation: Cofense Anubis),(Citation: cleafy_sova_1122),</t>
+  </si>
+  <si>
+    <t>(Citation: BlackBerry Bahamut),(Citation: Google Project Zero Insomnia),(Citation: cloudmark_tanglebot_0921),(Citation: SecureList BusyGasper),(Citation: SWB Exodus March 2019),(Citation: Lookout-Monokle),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout ViperRAT),(Citation: Lookout-Dendroid),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-StealthMango),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout FrozenCell),(Citation: Talos Gustuff Apr 2019),(Citation: Cylance Dust Storm),(Citation: Trend Micro Anubis),(Citation: Cofense Anubis),(Citation: Zscaler TikTok Spyware),(Citation: ThreatFabric Ginp),(Citation: lookout_abstractemu_1021),(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList - ViceLeaker 2019),(Citation: Zscaler-SpyNote),(Citation: Lookout eSurv),(Citation: Talos GPlayed),(Citation: cyble_drinik_1022),(Citation: Palo Alto HenBox),(Citation: Talos-WolfRAT),(Citation: FlexiSpy-Features),(Citation: Bitdefender - Triout 2018),(Citation: Lookout Uyghur Campaign),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout Desert Scorpion),(Citation: Symantec GoldenCup),(Citation: Gooligan Citation),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro-Anserver),(Citation: Trend Micro Anubis),(Citation: Cofense Anubis),(Citation: Sophos Red Alert 2.0),(Citation: TrendMicro-XLoader-FakeSpy),</t>
+  </si>
+  <si>
+    <t>(Citation: Securelist Asacub),(Citation: lookout_abstractemu_1021),(Citation: TrendMicro-XLoader),(Citation: Sophos Red Alert 2.0),(Citation: Proofpoint-Marcher),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: GoogleIO2016)</t>
+  </si>
+  <si>
+    <t>(Citation: securelist rotexy 2018),(Citation: SecurityIntelligence TrickMo),(Citation: Microsoft MalLockerB),</t>
+  </si>
+  <si>
+    <t>(Citation: cyble_drinik_1022),(Citation: proofpoint_flubot_0421),(Citation: Cofense Anubis),(Citation: Google Security Zen),(Citation: SecureList DVMap June 2017),(Citation: Bitdefender Mandrake),(Citation: Threat Fabric Cerberus),(Citation: lookout_abstractemu_1021),</t>
+  </si>
+  <si>
+    <t>(Citation: proofpoint_flubot_0421),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),(Citation: Bitdefender Mandrake),</t>
+  </si>
+  <si>
+    <t>(Citation: BlackBerry Bahamut),(Citation: SecureList BusyGasper),(Citation: SWB Exodus March 2019),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout ViperRAT),(Citation: Google Bread),(Citation: Lookout-BrainTest),(Citation: WhiteOps TERRACOTTA),(Citation: Xiao-ZergHelper),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout FrozenCell),(Citation: Bitdefender Mandrake),(Citation: CheckPoint-Judy),(Citation: Trend Micro Anubis),(Citation: Cybereason EventBot),(Citation: Google Security Zen),(Citation: lookout_abstractemu_1021),(Citation: Kaspersky-Skygofree),(Citation: Google Triada June 2019),(Citation: PaloAlto-SpyDealer),(Citation: SecureList DVMap June 2017),(Citation: Threat Fabric Cerberus),(Citation: Lookout eSurv),(Citation: Talos GPlayed),(Citation: Palo Alto HenBox),(Citation: nccgroup_sharkbot_0322),(Citation: Talos-WolfRAT),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: Symantec GoldenCup),(Citation: paloalto_yispecter_1015),(Citation: Android 10 Execute)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-StealthMango),(Citation: Lookout-Pegasus),(Citation: Volexity Insomnia),(Citation: paloalto_yispecter_1015),</t>
   </si>
   <si>
     <t>(Citation: ESET-Twitoor),</t>
   </si>
   <si>
-    <t>(Citation: PaloAlto-Xbot),(Citation: CheckPoint-Charger),(Citation: Talos GPlayed),(Citation: Threat Fabric Exobot),</t>
+    <t>(Citation: PaloAlto-Xbot),(Citation: CheckPoint-Charger),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),</t>
   </si>
   <si>
     <t>,(Citation: Android Changes to System Broadcasts)</t>
   </si>
   <si>
-    <t>(Citation: cyble_drinik_1022),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: proofpoint_flubot_0421),(Citation: Cylance Dust Storm),(Citation: Bitdefender - Triout 2018),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_abstractemu_1021),(Citation: Wandera-RedDrop),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout eSurv),(Citation: Google Triada June 2019),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Uyghur Campaign),(Citation: nccgroup_sharkbot_0322),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: TrendMicro Coronavirus Updates),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList DVMap June 2017),(Citation: Kaspersky-Skygofree),(Citation: ArsTechnica-HummingBad),(Citation: Volexity Insomnia),(Citation: Gooligan Citation),(Citation: CheckPoint Agent Smith),(Citation: Lookout-Pegasus),(Citation: lookout_abstractemu_1021),(Citation: Lookout-Adware),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Google Security Zen),(Citation: Lookout-PegasusAndroid),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-BrainTest),(Citation: SWB Exodus March 2019),(Citation: Lookout Uyghur Campaign),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-NotCompatible),(Citation: TrendMicro-DressCode),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-Monokle),(Citation: CheckPoint Agent Smith),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Bitdefender Mandrake),(Citation: Lookout Desert Scorpion),(Citation: Lookout Dark Caracal Jan 2018),(Citation: CyberMerchants-FlexiSpy),(Citation: SecureList - ViceLeaker 2019),(Citation: Zscaler TikTok Spyware),(Citation: Talos-WolfRAT),(Citation: Lookout Uyghur Campaign),(Citation: Talos GPlayed),</t>
-  </si>
-  <si>
-    <t>(Citation: Symantec GoldenCup),(Citation: Cylance Dust Storm),(Citation: BlackBerry Bahamut),(Citation: Lookout Desert Scorpion),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Uyghur Campaign),(Citation: Lookout FrozenCell),</t>
+    <t>(Citation: cyble_drinik_1022),(Citation: nccgroup_sharkbot_0322),(Citation: Google Triada June 2019),(Citation: Bitdefender - Triout 2018),(Citation: proofpoint_flubot_0421),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Wandera-RedDrop),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cylance Dust Storm),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout eSurv),(Citation: lookout_abstractemu_1021),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList BusyGasper),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-Pegasus),(Citation: ArsTechnica-HummingBad),(Citation: SWB Exodus March 2019),(Citation: Lookout-Adware),(Citation: CheckPoint Agent Smith),(Citation: PaloAlto-SpyDealer),(Citation: Google Security Zen),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-BrainTest),(Citation: Lookout Uyghur Campaign),(Citation: Kaspersky-Skygofree),(Citation: SecureList DVMap June 2017),(Citation: Lookout-PegasusAndroid),(Citation: Volexity Insomnia),(Citation: Gooligan Citation),(Citation: lookout_abstractemu_1021),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro-DressCode),(Citation: Lookout-NotCompatible),</t>
+  </si>
+  <si>
+    <t>(Citation: Talos-WolfRAT),(Citation: CheckPoint Agent Smith),(Citation: Lookout-Monokle),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Desert Scorpion),(Citation: SecureList - ViceLeaker 2019),(Citation: Talos GPlayed),(Citation: Bitdefender Mandrake),</t>
+  </si>
+  <si>
+    <t>(Citation: BlackBerry Bahamut),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: Symantec GoldenCup),(Citation: Lookout FrozenCell),(Citation: Cylance Dust Storm),</t>
   </si>
   <si>
     <t>(Citation: WhiteOps TERRACOTTA),(Citation: cyble_drinik_1022),(Citation: Zscaler TikTok Spyware),(Citation: Bitdefender Mandrake),</t>
   </si>
   <si>
-    <t>(Citation: cloudmark_tanglebot_0921),(Citation: Threat Fabric Exobot),(Citation: Talos Gustuff Apr 2019),(Citation: Cofense Anubis),(Citation: Proofpoint-Marcher),(Citation: Kaspersky Riltok June 2019),(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Cerberus),(Citation: PaloAlto-Xbot),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Dark Caracal Jan 2018),(Citation: threatfabric_sova_0921),(Citation: WhiteOps TERRACOTTA),(Citation: Group IB Gustuff Mar 2019),(Citation: nccgroup_sharkbot_0322),(Citation: PaloAlto-XcodeGhost),(Citation: cyble_drinik_1022),(Citation: trendmicro_tianyspy_0122),(Citation: Cybereason EventBot),(Citation: ThreatFabric Ginp),(Citation: Bitdefender Mandrake),(Citation: Lookout-Dendroid),(Citation: Zscaler TikTok Spyware),(Citation: securelist rotexy 2018),(Citation: Talos GPlayed),(Citation: Android 12 Features)</t>
-  </si>
-  <si>
-    <t>(Citation: Google Bread),(Citation: ArsTechnica-HummingBad),(Citation: Tripwire-MazarBOT),(Citation: CheckPoint SimBad 2019),(Citation: Gooligan Citation),(Citation: Lookout-EnterpriseApps),(Citation: CheckPoint Agent Smith),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Wandera-RedDrop),(Citation: Kaspersky Triada June 2016),(Citation: Google Security Zen),(Citation: WhiteOps TERRACOTTA),(Citation: Google Triada June 2019),(Citation: Lookout-BrainTest),(Citation: ArsTechnica-HummingWhale),(Citation: CheckPoint-Judy),</t>
+    <t>(Citation: cloudmark_tanglebot_0921),(Citation: proofpoint_flubot_0421),(Citation: Lookout Dark Caracal Jan 2018),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout-Dendroid),(Citation: threatfabric_sova_0921),(Citation: Talos Gustuff Apr 2019),(Citation: Cybereason EventBot),(Citation: Cofense Anubis),(Citation: securelist rotexy 2018),(Citation: Zscaler TikTok Spyware),(Citation: ThreatFabric Ginp),(Citation: Kaspersky Riltok June 2019),(Citation: Group IB Gustuff Mar 2019),(Citation: PaloAlto-XcodeGhost),(Citation: Proofpoint-Marcher),(Citation: Threat Fabric Cerberus),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: PaloAlto-Xbot),(Citation: cyble_drinik_1022),(Citation: nccgroup_sharkbot_0322),(Citation: Sophos Red Alert 2.0),(Citation: Bitdefender Mandrake),(Citation: trendmicro_tianyspy_0122),(Citation: Android 12 Features)</t>
+  </si>
+  <si>
+    <t>(Citation: ArsTechnica-HummingBad),(Citation: CheckPoint-Judy),(Citation: Google Triada June 2019),(Citation: CheckPoint Agent Smith),(Citation: Google Security Zen),(Citation: Google Bread),(Citation: Tripwire-MazarBOT),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout-BrainTest),(Citation: Wandera-RedDrop),(Citation: CheckPoint SimBad 2019),(Citation: WhiteOps TERRACOTTA),(Citation: Kaspersky Triada June 2016),(Citation: Lookout-EnterpriseApps),(Citation: Gooligan Citation),(Citation: ArsTechnica-HummingWhale),</t>
   </si>
   <si>
     <t>(Citation: BlackBerry Bahamut),(Citation: Lookout eSurv),</t>
@@ -2275,127 +2275,127 @@
     <t>(Citation: CitizenLab Circles),(Citation: CSRIC-WG1-FinalReport)</t>
   </si>
   <si>
-    <t>(Citation: Lookout-Monokle),(Citation: lookout_abstractemu_1021),(Citation: Wandera-RedDrop),(Citation: Bitdefender Mandrake),(Citation: SecureList - ViceLeaker 2019),(Citation: nccgroup_sharkbot_0322),</t>
+    <t>(Citation: nccgroup_sharkbot_0322),(Citation: Lookout-Monokle),(Citation: Wandera-RedDrop),(Citation: Bitdefender Mandrake),(Citation: SecureList - ViceLeaker 2019),(Citation: lookout_abstractemu_1021),</t>
   </si>
   <si>
     <t>,(Citation: Android 12 Features),(Citation: Samsung Keyboards)</t>
   </si>
   <si>
-    <t>(Citation: Kaspersky Riltok June 2019),(Citation: ThreatFabric Ginp),(Citation: ESET DEFENSOR ID),(Citation: Talos Gustuff Apr 2019),(Citation: cleafy_sova_1122),(Citation: Threat Fabric Cerberus),(Citation: SecurityIntelligence TrickMo),(Citation: Bitdefender Mandrake),(Citation: Google Security Zen),(Citation: WhiteOps TERRACOTTA),(Citation: nccgroup_sharkbot_0322),(Citation: CheckPoint Cerberus),</t>
+    <t>(Citation: CheckPoint Cerberus),(Citation: nccgroup_sharkbot_0322),(Citation: Kaspersky Riltok June 2019),(Citation: Google Security Zen),(Citation: cleafy_sova_1122),(Citation: ThreatFabric Ginp),(Citation: WhiteOps TERRACOTTA),(Citation: SecurityIntelligence TrickMo),(Citation: Bitdefender Mandrake),(Citation: ESET DEFENSOR ID),(Citation: Threat Fabric Cerberus),(Citation: Talos Gustuff Apr 2019),</t>
   </si>
   <si>
     <t>(Citation: Google Project Zero Insomnia),</t>
   </si>
   <si>
-    <t>(Citation: cyble_drinik_1022),(Citation: Lookout-Monokle),(Citation: Threat Fabric Exobot),(Citation: BlackBerry Bahamut),(Citation: Talos Gustuff Apr 2019),(Citation: Threat Fabric Cerberus),(Citation: threatfabric_sova_0921),(Citation: Cofense Anubis),(Citation: Cybereason EventBot),(Citation: SecureList BusyGasper),(Citation: nccgroup_sharkbot_0322),(Citation: FlexiSpy-Features),(Citation: Samsung Keyboards)</t>
-  </si>
-  <si>
-    <t>(Citation: cloudmark_tanglebot_0921),(Citation: NYTimes-BackDoor),(Citation: CrowdStrike-Android),(Citation: Bitdefender - Triout 2018),(Citation: Palo Alto HenBox),(Citation: TrendMicro Coronavirus Updates),(Citation: Cofense Anubis),(Citation: Lookout-StealthMango),(Citation: Lookout FrozenCell),(Citation: TrendMicro-RCSAndroid),(Citation: BlackBerry Bahamut),(Citation: Lookout-EnterpriseApps),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Threat Fabric Cerberus),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Kaspersky-WUC),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-Pegasus),(Citation: CheckPoint-Charger),(Citation: Kaspersky-Skygofree),(Citation: Google Project Zero Insomnia),(Citation: Lookout-Monokle),(Citation: lookout_abstractemu_1021),(Citation: Lookout ViperRAT),(Citation: Symantec GoldenCup),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Zscaler-SpyNote),(Citation: Zscaler TikTok Spyware),(Citation: Bitdefender Mandrake),(Citation: Lookout Desert Scorpion),(Citation: SecureList BusyGasper),(Citation: Lookout eSurv),(Citation: PaloAlto-SpyDealer),(Citation: SecureList - ViceLeaker 2019),(Citation: SWB Exodus March 2019),(Citation: Lookout Uyghur Campaign),(Citation: Talos GPlayed),(Citation: CSRIC5-WG10-FinalReport)</t>
-  </si>
-  <si>
-    <t>(Citation: Google Bread),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Palo Alto HenBox),(Citation: WhiteOps TERRACOTTA),(Citation: Securelist Asacub),(Citation: Lookout Uyghur Campaign),</t>
+    <t>(Citation: BlackBerry Bahamut),(Citation: cyble_drinik_1022),(Citation: nccgroup_sharkbot_0322),(Citation: SecureList BusyGasper),(Citation: FlexiSpy-Features),(Citation: Cybereason EventBot),(Citation: Cofense Anubis),(Citation: Lookout-Monokle),(Citation: threatfabric_sova_0921),(Citation: Threat Fabric Cerberus),(Citation: Talos Gustuff Apr 2019),(Citation: Threat Fabric Exobot),(Citation: Samsung Keyboards)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-Pegasus),(Citation: BlackBerry Bahamut),(Citation: Google Project Zero Insomnia),(Citation: CrowdStrike-Android),(Citation: cloudmark_tanglebot_0921),(Citation: SecureList BusyGasper),(Citation: SWB Exodus March 2019),(Citation: Lookout-Monokle),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout ViperRAT),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-StealthMango),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout-EnterpriseApps),(Citation: Lookout FrozenCell),(Citation: Bitdefender Mandrake),(Citation: Cofense Anubis),(Citation: CyberMerchants-FlexiSpy),(Citation: Zscaler TikTok Spyware),(Citation: lookout_abstractemu_1021),(Citation: Kaspersky-Skygofree),(Citation: TrendMicro Coronavirus Updates),(Citation: CheckPoint-Charger),(Citation: PaloAlto-SpyDealer),(Citation: SecureList - ViceLeaker 2019),(Citation: Threat Fabric Cerberus),(Citation: Zscaler-SpyNote),(Citation: Lookout eSurv),(Citation: Talos GPlayed),(Citation: Palo Alto HenBox),(Citation: Bitdefender - Triout 2018),(Citation: NYTimes-BackDoor),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: Symantec GoldenCup),(Citation: Kaspersky-WUC),(Citation: CSRIC5-WG10-FinalReport)</t>
+  </si>
+  <si>
+    <t>(Citation: Securelist Asacub),(Citation: Palo Alto HenBox),(Citation: Google Bread),(Citation: Lookout Uyghur Campaign),(Citation: WhiteOps TERRACOTTA),(Citation: CYBERWARCON CHEMISTGAMES),</t>
   </si>
   <si>
     <t>(Citation: threatfabric_sova_0921),</t>
   </si>
   <si>
-    <t>(Citation: Volexity Insomnia),(Citation: Bitdefender Mandrake),(Citation: Sophos Red Alert 2.0),(Citation: FortiGuard-FlexiSpy),(Citation: SWB Exodus March 2019),(Citation: CheckPoint Cerberus),</t>
-  </si>
-  <si>
-    <t>(Citation: Google Bread),(Citation: Talos Gustuff Apr 2019),(Citation: SecurityIntelligence TrickMo),(Citation: Palo Alto HenBox),(Citation: Google Security Zen),(Citation: Lookout-BrainTest),(Citation: Talos-WolfRAT),(Citation: SecureList DVMap June 2017),(Citation: Microsoft MalLockerB),(Citation: proofpoint_flubot_0421),(Citation: BlackBerry Bahamut),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Threat Fabric Cerberus),(Citation: TrendMicro-XLoader),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Dark Caracal Jan 2018),(Citation: WhiteOps TERRACOTTA),(Citation: Securelist Asacub),(Citation: TrendMicro-Obad),(Citation: Check Point-Joker),(Citation: nccgroup_sharkbot_0322),(Citation: CheckPoint-Charger),(Citation: securelist rotexy 2018),(Citation: cyble_drinik_1022),(Citation: Lookout-Monokle),(Citation: trendmicro_tianyspy_0122),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: lookout_abstractemu_1021),(Citation: Cybereason EventBot),(Citation: PaloAlto-WireLurker),(Citation: FortiGuard-FlexiSpy),(Citation: ThreatFabric Ginp),(Citation: Volexity Insomnia),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cybereason FakeSpy),(Citation: Bitdefender Mandrake),(Citation: Lookout Uyghur Campaign),(Citation: Talos GPlayed),</t>
-  </si>
-  <si>
-    <t>(Citation: Kaspersky-Skygofree),(Citation: Lookout-Monokle),(Citation: TrendMicro-RCSAndroid),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Pegasus),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout Desert Scorpion),(Citation: Kaspersky-WUC),(Citation: Lookout-PegasusAndroid),(Citation: PaloAlto-SpyDealer),(Citation: SecureList BusyGasper),(Citation: Lookout-StealthMango),(Citation: Lookout Uyghur Campaign),(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro-Obad),(Citation: threatfabric_sova_0921),(Citation: bitdefender_flubot_0524),(Citation: Bitdefender Mandrake),</t>
-  </si>
-  <si>
-    <t>(Citation: paloalto_yispecter_1015),(Citation: CheckPoint Agent Smith),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),(Citation: Zimperium z9),(Citation: Talos-WolfRAT),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),</t>
+    <t>(Citation: CheckPoint Cerberus),(Citation: SWB Exodus March 2019),(Citation: Sophos Red Alert 2.0),(Citation: FortiGuard-FlexiSpy),(Citation: Bitdefender Mandrake),(Citation: Volexity Insomnia),</t>
+  </si>
+  <si>
+    <t>(Citation: BlackBerry Bahamut),(Citation: TrendMicro-XLoader),(Citation: Cybereason FakeSpy),(Citation: proofpoint_flubot_0421),(Citation: Lookout-Monokle),(Citation: Google Bread),(Citation: Lookout Dark Caracal Jan 2018),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout-BrainTest),(Citation: WhiteOps TERRACOTTA),(Citation: Trend Micro Bouncing Golf 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Talos Gustuff Apr 2019),(Citation: Cybereason EventBot),(Citation: securelist rotexy 2018),(Citation: Google Security Zen),(Citation: ThreatFabric Ginp),(Citation: Check Point-Joker),(Citation: lookout_abstractemu_1021),(Citation: CheckPoint-Charger),(Citation: PaloAlto-WireLurker),(Citation: SecureList DVMap June 2017),(Citation: Threat Fabric Cerberus),(Citation: Talos GPlayed),(Citation: Securelist Asacub),(Citation: cyble_drinik_1022),(Citation: Palo Alto HenBox),(Citation: nccgroup_sharkbot_0322),(Citation: Talos-WolfRAT),(Citation: TrendMicro-Obad),(Citation: Sophos Red Alert 2.0),(Citation: FortiGuard-FlexiSpy),(Citation: Lookout Uyghur Campaign),(Citation: SecurityIntelligence TrickMo),(Citation: Bitdefender Mandrake),(Citation: trendmicro_tianyspy_0122),(Citation: Volexity Insomnia),(Citation: Microsoft MalLockerB),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-Pegasus),(Citation: nccgroup_sharkbot_0322),(Citation: SecureList BusyGasper),(Citation: Lookout-StealthMango),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Monokle),(Citation: TrendMicro-RCSAndroid),(Citation: securelist rotexy 2018),(Citation: Lookout Uyghur Campaign),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout Desert Scorpion),(Citation: Lookout-PegasusAndroid),(Citation: Kaspersky-WUC),(Citation: Talos Gustuff Apr 2019),(Citation: Kaspersky-Skygofree),</t>
+  </si>
+  <si>
+    <t>(Citation: threatfabric_sova_0921),(Citation: TrendMicro-Obad),(Citation: bitdefender_flubot_0524),(Citation: Bitdefender Mandrake),</t>
+  </si>
+  <si>
+    <t>(Citation: Palo Alto HenBox),(Citation: nccgroup_sharkbot_0322),(Citation: Talos-WolfRAT),(Citation: CheckPoint Agent Smith),(Citation: securelist rotexy 2018),(Citation: Zimperium z9),(Citation: Trend Micro Bouncing Golf 2019),(Citation: paloalto_yispecter_1015),</t>
   </si>
   <si>
     <t>(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Exobot),</t>
   </si>
   <si>
-    <t>(Citation: Kaspersky Triada March 2016),(Citation: Google Security Zen),(Citation: Google Project Zero Insomnia),(Citation: Google Triada June 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-WireLurker),(Citation: PaloAlto-DualToy),(Citation: Elcomsoft-iOSRestricted)</t>
-  </si>
-  <si>
-    <t>(Citation: cloudmark_tanglebot_0921),(Citation: Threat Fabric Exobot),(Citation: SecurityIntelligence TrickMo),(Citation: bitdefender_flubot_0524),(Citation: TrendMicro Coronavirus Updates),(Citation: Cofense Anubis),(Citation: Talos-WolfRAT),(Citation: Lookout-StealthMango),(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Cerberus),(Citation: Sophos Red Alert 2.0),(Citation: threatfabric_sova_0921),(Citation: WhiteOps TERRACOTTA),(Citation: Securelist Asacub),(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: cyble_drinik_1022),(Citation: ThreatFabric Ginp),(Citation: Cybereason FakeSpy),(Citation: Zscaler TikTok Spyware),(Citation: Bitdefender Mandrake),(Citation: Lookout-Dendroid),(Citation: Lookout Desert Scorpion),(Citation: SecureList BusyGasper),(Citation: Lookout Uyghur Campaign),(Citation: Talos GPlayed),(Citation: SMS KitKat)</t>
-  </si>
-  <si>
-    <t>(Citation: Google Bread),(Citation: cloudmark_tanglebot_0921),(Citation: NYTimes-BackDoor),(Citation: Threat Fabric Exobot),(Citation: Talos Gustuff Apr 2019),(Citation: SecurityIntelligence TrickMo),(Citation: Palo Alto HenBox),(Citation: TrendMicro Coronavirus Updates),(Citation: Talos-WolfRAT),(Citation: Lookout-StealthMango),(Citation: Lookout FrozenCell),(Citation: Kaspersky Riltok June 2019),(Citation: proofpoint_flubot_0421),(Citation: TrendMicro-RCSAndroid),(Citation: BlackBerry Bahamut),(Citation: Lookout-EnterpriseApps),(Citation: Threat Fabric Cerberus),(Citation: TrendMicro-XLoader),(Citation: Talos GPlayed),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Sophos Red Alert 2.0),(Citation: Kaspersky-WUC),(Citation: threatfabric_sova_0921),(Citation: Securelist Asacub),(Citation: PaloAlto-Xbot),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-Pegasus),(Citation: Zscaler-SuperMarioRun),(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: Kaspersky Triada March 2016),(Citation: cyble_drinik_1022),(Citation: Google Project Zero Insomnia),(Citation: lookout_abstractemu_1021),(Citation: Lookout ViperRAT),(Citation: Cybereason EventBot),(Citation: Tripwire-MazarBOT),(Citation: ThreatFabric Ginp),(Citation: Symantec GoldenCup),(Citation: Cylance Dust Storm),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cybereason FakeSpy),(Citation: Zscaler-SpyNote),(Citation: Bitdefender Mandrake),(Citation: Lookout-Dendroid),(Citation: Lookout Desert Scorpion),(Citation: SecureList BusyGasper),(Citation: Zscaler TikTok Spyware),(Citation: PaloAlto-SpyDealer),(Citation: SecureList - ViceLeaker 2019),(Citation: SWB Exodus March 2019),(Citation: Lookout Uyghur Campaign),(Citation: FireEye-RuMMS),(Citation: FlexiSpy-Features),</t>
-  </si>
-  <si>
-    <t>(Citation: Zscaler TikTok Spyware),(Citation: WhiteOps TERRACOTTA),(Citation: Talos GPlayed),</t>
-  </si>
-  <si>
-    <t>(Citation: cyble_drinik_1022),(Citation: ThreatFabric Ginp),(Citation: Lookout-Monokle),(Citation: cloudmark_tanglebot_0921),(Citation: ESET DEFENSOR ID),(Citation: cleafy_sova_1122),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SWB Exodus March 2019),(Citation: Zscaler TikTok Spyware),(Citation: Bitdefender Mandrake),(Citation: SecurityIntelligence TrickMo),(Citation: Cofense Anubis),(Citation: Cybereason EventBot),(Citation: PaloAlto-SpyDealer),(Citation: Talos-WolfRAT),(Citation: SecureList BusyGasper),(Citation: Lookout Uyghur Campaign),(Citation: FlexiSpy-Features),(Citation: Nightwatch screencap April 2016)</t>
+    <t>(Citation: Kaspersky Triada March 2016),(Citation: Google Project Zero Insomnia),(Citation: Google Security Zen),(Citation: Google Triada June 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-DualToy),(Citation: PaloAlto-WireLurker),(Citation: Elcomsoft-iOSRestricted)</t>
+  </si>
+  <si>
+    <t>(Citation: cloudmark_tanglebot_0921),(Citation: SecureList BusyGasper),(Citation: Cybereason FakeSpy),(Citation: proofpoint_flubot_0421),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout-Dendroid),(Citation: threatfabric_sova_0921),(Citation: Lookout-StealthMango),(Citation: bitdefender_flubot_0524),(Citation: Bitdefender Mandrake),(Citation: Cofense Anubis),(Citation: securelist rotexy 2018),(Citation: Zscaler TikTok Spyware),(Citation: ThreatFabric Ginp),(Citation: TrendMicro Coronavirus Updates),(Citation: Threat Fabric Cerberus),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: Securelist Asacub),(Citation: cyble_drinik_1022),(Citation: nccgroup_sharkbot_0322),(Citation: Talos-WolfRAT),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Uyghur Campaign),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout Desert Scorpion),(Citation: SMS KitKat)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-Pegasus),(Citation: BlackBerry Bahamut),(Citation: Google Project Zero Insomnia),(Citation: TrendMicro-XLoader),(Citation: cloudmark_tanglebot_0921),(Citation: SecureList BusyGasper),(Citation: SWB Exodus March 2019),(Citation: Cybereason FakeSpy),(Citation: proofpoint_flubot_0421),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout ViperRAT),(Citation: Google Bread),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Dendroid),(Citation: Trend Micro Bouncing Golf 2019),(Citation: threatfabric_sova_0921),(Citation: Lookout-StealthMango),(Citation: Lookout-EnterpriseApps),(Citation: Lookout FrozenCell),(Citation: Talos Gustuff Apr 2019),(Citation: Cylance Dust Storm),(Citation: Bitdefender Mandrake),(Citation: Cybereason EventBot),(Citation: securelist rotexy 2018),(Citation: CyberMerchants-FlexiSpy),(Citation: Tripwire-MazarBOT),(Citation: ThreatFabric Ginp),(Citation: Zscaler TikTok Spyware),(Citation: lookout_abstractemu_1021),(Citation: Zscaler-SuperMarioRun),(Citation: Kaspersky Triada March 2016),(Citation: TrendMicro Coronavirus Updates),(Citation: PaloAlto-SpyDealer),(Citation: Kaspersky Riltok June 2019),(Citation: SecureList - ViceLeaker 2019),(Citation: Threat Fabric Cerberus),(Citation: Zscaler-SpyNote),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: PaloAlto-Xbot),(Citation: Securelist Asacub),(Citation: cyble_drinik_1022),(Citation: Palo Alto HenBox),(Citation: nccgroup_sharkbot_0322),(Citation: FlexiSpy-Features),(Citation: Talos-WolfRAT),(Citation: Sophos Red Alert 2.0),(Citation: FireEye-RuMMS),(Citation: NYTimes-BackDoor),(Citation: Lookout Uyghur Campaign),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout Desert Scorpion),(Citation: Symantec GoldenCup),(Citation: Kaspersky-WUC),</t>
+  </si>
+  <si>
+    <t>(Citation: WhiteOps TERRACOTTA),(Citation: Talos GPlayed),(Citation: Zscaler TikTok Spyware),</t>
+  </si>
+  <si>
+    <t>(Citation: cyble_drinik_1022),(Citation: cloudmark_tanglebot_0921),(Citation: SecureList BusyGasper),(Citation: SWB Exodus March 2019),(Citation: FlexiSpy-Features),(Citation: Cybereason EventBot),(Citation: PaloAlto-SpyDealer),(Citation: Cofense Anubis),(Citation: Lookout-Monokle),(Citation: Talos-WolfRAT),(Citation: cleafy_sova_1122),(Citation: ThreatFabric Ginp),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Uyghur Campaign),(Citation: SecurityIntelligence TrickMo),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Bitdefender Mandrake),(Citation: ESET DEFENSOR ID),(Citation: Nightwatch screencap April 2016)</t>
   </si>
   <si>
     <t>(Citation: Talos Gustuff Apr 2019),(Citation: Threat Fabric Exobot),(Citation: Android Package Visibility)</t>
   </si>
   <si>
-    <t>(Citation: cloudmark_tanglebot_0921),(Citation: SecurityIntelligence TrickMo),(Citation: Palo Alto HenBox),(Citation: Cofense Anubis),(Citation: Talos-WolfRAT),(Citation: Lookout-StealthMango),(Citation: Kaspersky Riltok June 2019),(Citation: Threat Fabric Cerberus),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Dark Caracal Jan 2018),(Citation: WhiteOps TERRACOTTA),(Citation: securelist rotexy 2018),(Citation: Google Project Zero Insomnia),(Citation: Lookout-Monokle),(Citation: ESET DEFENSOR ID),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: cleafy_sova_1122),(Citation: lookout_abstractemu_1021),(Citation: Cybereason EventBot),(Citation: ThreatFabric Ginp),(Citation: paloalto_yispecter_1015),(Citation: Symantec GoldenCup),(Citation: CheckPoint Agent Smith),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cybereason FakeSpy),(Citation: Zscaler TikTok Spyware),(Citation: Bitdefender Mandrake),(Citation: FlexiSpy-Features),(Citation: Lookout Desert Scorpion),(Citation: Lookout-PegasusAndroid),(Citation: Google Triada June 2019),(Citation: SecureList - ViceLeaker 2019),(Citation: SWB Exodus March 2019),(Citation: Lookout Uyghur Campaign),(Citation: Talos GPlayed),(Citation: Android Package Visibility)</t>
-  </si>
-  <si>
-    <t>(Citation: threatfabric_sova_0921),(Citation: Google Bread),(Citation: Talos Gustuff Apr 2019),</t>
-  </si>
-  <si>
-    <t>,(Citation: Android App Links),(Citation: Trend Micro iOS URL Hijacking),(Citation: iOS Universal Links),(Citation: IETF-PKCE)</t>
+    <t>(Citation: Google Project Zero Insomnia),(Citation: cloudmark_tanglebot_0921),(Citation: SWB Exodus March 2019),(Citation: Cybereason FakeSpy),(Citation: Lookout-Monokle),(Citation: Lookout Dark Caracal Jan 2018),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: WhiteOps TERRACOTTA),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-StealthMango),(Citation: Bitdefender Mandrake),(Citation: Cybereason EventBot),(Citation: Cofense Anubis),(Citation: ESET DEFENSOR ID),(Citation: securelist rotexy 2018),(Citation: cleafy_sova_1122),(Citation: ThreatFabric Ginp),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-PegasusAndroid),(Citation: lookout_abstractemu_1021),(Citation: Google Triada June 2019),(Citation: CheckPoint Agent Smith),(Citation: Kaspersky Riltok June 2019),(Citation: SecureList - ViceLeaker 2019),(Citation: Threat Fabric Cerberus),(Citation: Talos GPlayed),(Citation: Palo Alto HenBox),(Citation: Talos-WolfRAT),(Citation: FlexiSpy-Features),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Uyghur Campaign),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout Desert Scorpion),(Citation: Symantec GoldenCup),(Citation: paloalto_yispecter_1015),(Citation: Android Package Visibility)</t>
+  </si>
+  <si>
+    <t>(Citation: threatfabric_sova_0921),(Citation: Talos Gustuff Apr 2019),(Citation: Google Bread),</t>
+  </si>
+  <si>
+    <t>,(Citation: IETF-PKCE),(Citation: iOS Universal Links),(Citation: Android App Links),(Citation: Trend Micro iOS URL Hijacking)</t>
   </si>
   <si>
     <t>(Citation: CheckPoint Agent Smith),</t>
   </si>
   <si>
-    <t>(Citation: Kaspersky-Skygofree),(Citation: TrendMicro-RCSAndroid),(Citation: paloalto_yispecter_1015),(Citation: Lookout-Pegasus),(Citation: cleafy_sova_1122),(Citation: Cybereason FakeSpy),(Citation: SWB Exodus March 2019),(Citation: Bitdefender Mandrake),(Citation: Lookout Desert Scorpion),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-PegasusAndroid),(Citation: threatfabric_sova_0921),(Citation: PaloAlto-SpyDealer),(Citation: FortiGuard-FlexiSpy),(Citation: SecureList BusyGasper),(Citation: Lookout-StealthMango),(Citation: Lookout Uyghur Campaign),(Citation: Lookout FrozenCell),</t>
-  </si>
-  <si>
-    <t>,(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
-  </si>
-  <si>
-    <t>(Citation: Bitdefender - Triout 2018),(Citation: ESET-Twitoor),(Citation: CheckPoint SimBad 2019),(Citation: Threat Fabric Cerberus),(Citation: threatfabric_sova_0921),(Citation: Group IB Gustuff Mar 2019),(Citation: securelist rotexy 2018),(Citation: cyble_drinik_1022),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: FortiGuard-FlexiSpy),(Citation: ThreatFabric Ginp),(Citation: paloalto_yispecter_1015),(Citation: CheckPoint Agent Smith),(Citation: Cybereason FakeSpy),(Citation: Bitdefender Mandrake),(Citation: Lookout Desert Scorpion),(Citation: SecureList BusyGasper),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Uyghur Campaign),(Citation: FlexiSpy-Features),(Citation: Android 10 Limitations to Hiding App Icons),(Citation: LauncherApps getActivityList)</t>
-  </si>
-  <si>
-    <t>(Citation: BlackBerry Bahamut),(Citation: Cybereason EventBot),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),</t>
-  </si>
-  <si>
-    <t>(Citation: ThreatFabric Ginp),(Citation: BlackBerry Bahamut),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Threat Fabric Cerberus),(Citation: lookout_abstractemu_1021),(Citation: Trend Micro Anubis),(Citation: Cybereason FakeSpy),(Citation: Lookout-Dendroid),(Citation: Palo Alto HenBox),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),(Citation: SecurityIntelligence TrickMo),(Citation: Talos-WolfRAT),(Citation: securelist rotexy 2018),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Threat Fabric Exobot),(Citation: Talos Gustuff Apr 2019),(Citation: SecurityIntelligence TrickMo),(Citation: Palo Alto HenBox),(Citation: TrendMicro Coronavirus Updates),(Citation: Cofense Anubis),(Citation: Lookout FrozenCell),(Citation: SecureList DVMap June 2017),(Citation: Kaspersky Riltok June 2019),(Citation: BlackBerry Bahamut),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Threat Fabric Cerberus),(Citation: Lookout Dark Caracal Jan 2018),(Citation: threatfabric_sova_0921),(Citation: Kaspersky-WUC),(Citation: Securelist Asacub),(Citation: Lookout-Pegasus),(Citation: securelist rotexy 2018),(Citation: trendmicro_tianyspy_0122),(Citation: Google Project Zero Insomnia),(Citation: Lookout-Monokle),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Xiao-KeyRaider),(Citation: lookout_abstractemu_1021),(Citation: Wandera-RedDrop),(Citation: FireEye-RuMMS),(Citation: Lookout ViperRAT),(Citation: Cybereason EventBot),(Citation: paloalto_yispecter_1015),(Citation: Symantec GoldenCup),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cybereason FakeSpy),(Citation: TrendMicro-Anserver2),(Citation: Bitdefender Mandrake),(Citation: Lookout Desert Scorpion),(Citation: Lookout eSurv),(Citation: SecureList - ViceLeaker 2019),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Uyghur Campaign),(Citation: CheckPoint Cerberus),(Citation: Talos GPlayed),</t>
-  </si>
-  <si>
-    <t>(Citation: Google Bread),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Threat Fabric Exobot),(Citation: Talos Gustuff Apr 2019),(Citation: SecurityIntelligence TrickMo),(Citation: TrendMicro Coronavirus Updates),(Citation: Talos-WolfRAT),(Citation: Lookout-StealthMango),(Citation: Lookout FrozenCell),(Citation: Kaspersky Riltok June 2019),(Citation: Lookout-EnterpriseApps),(Citation: WhiteOps TERRACOTTA),(Citation: Securelist Asacub),(Citation: securelist rotexy 2018),(Citation: trendmicro_tianyspy_0122),(Citation: Google Project Zero Insomnia),(Citation: Lookout-Monokle),(Citation: lookout_abstractemu_1021),(Citation: Wandera-RedDrop),(Citation: Lookout ViperRAT),(Citation: Cybereason EventBot),(Citation: paloalto_yispecter_1015),(Citation: PaloAlto-DualToy),(Citation: Symantec GoldenCup),(Citation: Cybereason FakeSpy),(Citation: TrendMicro-Anserver2),(Citation: Lookout-PegasusAndroid),(Citation: PaloAlto-SpyDealer),(Citation: SWB Exodus March 2019),(Citation: Lookout Uyghur Campaign),(Citation: FireEye-RuMMS),(Citation: Talos GPlayed),(Citation: TelephonyManager)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-Monokle),(Citation: Lookout-Pegasus),(Citation: Cybereason FakeSpy),(Citation: Lookout ViperRAT),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SWB Exodus March 2019),(Citation: FlexiSpy-Features),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList DVMap June 2017),(Citation: Google Security Zen),(Citation: FortiGuard-FlexiSpy),(Citation: Android-VerifiedBoot)</t>
+    <t>(Citation: Lookout-Pegasus),(Citation: Lookout-StealthMango),(Citation: SWB Exodus March 2019),(Citation: SecureList BusyGasper),(Citation: Cybereason FakeSpy),(Citation: PaloAlto-SpyDealer),(Citation: TrendMicro-RCSAndroid),(Citation: threatfabric_sova_0921),(Citation: FortiGuard-FlexiSpy),(Citation: Lookout Dark Caracal Jan 2018),(Citation: cleafy_sova_1122),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: Lookout-PegasusAndroid),(Citation: paloalto_yispecter_1015),(Citation: Lookout FrozenCell),(Citation: Kaspersky-Skygofree),(Citation: Bitdefender Mandrake),</t>
+  </si>
+  <si>
+    <t>,(Citation: Android-TrustedCA),(Citation: Symantec-iOSProfile2)</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList BusyGasper),(Citation: Cybereason FakeSpy),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: ESET-Twitoor),(Citation: threatfabric_sova_0921),(Citation: Bitdefender Mandrake),(Citation: securelist rotexy 2018),(Citation: Zscaler TikTok Spyware),(Citation: ThreatFabric Ginp),(Citation: CheckPoint Agent Smith),(Citation: Group IB Gustuff Mar 2019),(Citation: CheckPoint SimBad 2019),(Citation: Threat Fabric Cerberus),(Citation: cyble_drinik_1022),(Citation: FlexiSpy-Features),(Citation: Bitdefender - Triout 2018),(Citation: FortiGuard-FlexiSpy),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: paloalto_yispecter_1015),(Citation: Android 10 Limitations to Hiding App Icons),(Citation: LauncherApps getActivityList)</t>
+  </si>
+  <si>
+    <t>(Citation: Cybereason EventBot),(Citation: BlackBerry Bahamut),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),</t>
+  </si>
+  <si>
+    <t>(Citation: BlackBerry Bahamut),(Citation: Palo Alto HenBox),(Citation: Talos-WolfRAT),(Citation: Trend Micro Anubis),(Citation: Cybereason FakeSpy),(Citation: securelist rotexy 2018),(Citation: ThreatFabric Ginp),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: WhiteOps TERRACOTTA),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout-Dendroid),(Citation: Bitdefender Mandrake),(Citation: Threat Fabric Cerberus),(Citation: lookout_abstractemu_1021),</t>
+  </si>
+  <si>
+    <t>(Citation: trendmicro_tianyspy_0122),(Citation: Lookout-Pegasus),(Citation: BlackBerry Bahamut),(Citation: Google Project Zero Insomnia),(Citation: Cybereason FakeSpy),(Citation: Lookout-Monokle),(Citation: Lookout ViperRAT),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Wandera-RedDrop),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Trend Micro Bouncing Golf 2019),(Citation: threatfabric_sova_0921),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout FrozenCell),(Citation: Talos Gustuff Apr 2019),(Citation: Bitdefender Mandrake),(Citation: Cybereason EventBot),(Citation: Cofense Anubis),(Citation: securelist rotexy 2018),(Citation: Zscaler TikTok Spyware),(Citation: lookout_abstractemu_1021),(Citation: Xiao-KeyRaider),(Citation: TrendMicro Coronavirus Updates),(Citation: Kaspersky Riltok June 2019),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: SecureList DVMap June 2017),(Citation: SecureList - ViceLeaker 2019),(Citation: Threat Fabric Cerberus),(Citation: Lookout eSurv),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: Securelist Asacub),(Citation: CheckPoint Cerberus),(Citation: Palo Alto HenBox),(Citation: FireEye-RuMMS),(Citation: Lookout Uyghur Campaign),(Citation: SecurityIntelligence TrickMo),(Citation: TrendMicro-Anserver2),(Citation: Lookout Desert Scorpion),(Citation: Symantec GoldenCup),(Citation: Kaspersky-WUC),(Citation: paloalto_yispecter_1015),</t>
+  </si>
+  <si>
+    <t>(Citation: trendmicro_tianyspy_0122),(Citation: Google Project Zero Insomnia),(Citation: SWB Exodus March 2019),(Citation: Cybereason FakeSpy),(Citation: Lookout-Monokle),(Citation: Lookout ViperRAT),(Citation: Google Bread),(Citation: Wandera-RedDrop),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout-StealthMango),(Citation: Lookout-EnterpriseApps),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout FrozenCell),(Citation: Cybereason EventBot),(Citation: securelist rotexy 2018),(Citation: Lookout-PegasusAndroid),(Citation: PaloAlto-DualToy),(Citation: lookout_abstractemu_1021),(Citation: TrendMicro Coronavirus Updates),(Citation: PaloAlto-SpyDealer),(Citation: Kaspersky Riltok June 2019),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: Securelist Asacub),(Citation: Talos-WolfRAT),(Citation: FireEye-RuMMS),(Citation: Lookout Uyghur Campaign),(Citation: SecurityIntelligence TrickMo),(Citation: TrendMicro-Anserver2),(Citation: Symantec GoldenCup),(Citation: paloalto_yispecter_1015),(Citation: TelephonyManager)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-Pegasus),(Citation: FlexiSpy-Features),(Citation: SWB Exodus March 2019),(Citation: Cybereason FakeSpy),(Citation: Lookout-Monokle),(Citation: Lookout ViperRAT),(Citation: Lookout Dark Caracal Jan 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: Google Security Zen),(Citation: SecureList DVMap June 2017),(Citation: FortiGuard-FlexiSpy),(Citation: Android-VerifiedBoot)</t>
   </si>
   <si>
     <t>(Citation: threatfabric_sova_0921),(Citation: Android 10 Privacy Changes)</t>
   </si>
   <si>
-    <t>(Citation: threatfabric_sova_0921),(Citation: SecurityIntelligence TrickMo),(Citation: Threat Fabric Cerberus),(Citation: nccgroup_sharkbot_0322),</t>
-  </si>
-  <si>
-    <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: lookout_abstractemu_1021),(Citation: Palo Alto HenBox),(Citation: Zscaler TikTok Spyware),(Citation: SecureList BusyGasper),(Citation: Lookout Uyghur Campaign),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: proofpoint_flubot_0421),</t>
-  </si>
-  <si>
-    <t>(Citation: cloudmark_tanglebot_0921),(Citation: Palo Alto HenBox),(Citation: TrendMicro Coronavirus Updates),(Citation: Talos-WolfRAT),(Citation: Lookout-StealthMango),(Citation: TrendMicro-RCSAndroid),(Citation: BlackBerry Bahamut),(Citation: Lookout Dark Caracal Jan 2018),(Citation: CyberMerchants-FlexiSpy),(Citation: Zscaler-SuperMarioRun),(Citation: Kaspersky-Skygofree),(Citation: Lookout-Monokle),(Citation: lookout_abstractemu_1021),(Citation: Lookout ViperRAT),(Citation: Symantec GoldenCup),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Dendroid),(Citation: Lookout Desert Scorpion),(Citation: SecureList BusyGasper),(Citation: Lookout-PegasusAndroid),(Citation: PaloAlto-SpyDealer),(Citation: SecureList - ViceLeaker 2019),(Citation: SWB Exodus March 2019),(Citation: Lookout Uyghur Campaign),(Citation: Android Capture Sensor 2019)</t>
+    <t>(Citation: threatfabric_sova_0921),(Citation: Threat Fabric Cerberus),(Citation: nccgroup_sharkbot_0322),(Citation: SecurityIntelligence TrickMo),</t>
+  </si>
+  <si>
+    <t>(Citation: Palo Alto HenBox),(Citation: SecureList BusyGasper),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Uyghur Campaign),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: lookout_abstractemu_1021),</t>
+  </si>
+  <si>
+    <t>(Citation: proofpoint_flubot_0421),(Citation: SecureList BusyGasper),</t>
+  </si>
+  <si>
+    <t>(Citation: BlackBerry Bahamut),(Citation: cloudmark_tanglebot_0921),(Citation: SecureList BusyGasper),(Citation: SWB Exodus March 2019),(Citation: Lookout-Monokle),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout ViperRAT),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Dendroid),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-StealthMango),(Citation: CyberMerchants-FlexiSpy),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-PegasusAndroid),(Citation: Kaspersky-Skygofree),(Citation: lookout_abstractemu_1021),(Citation: Zscaler-SuperMarioRun),(Citation: TrendMicro Coronavirus Updates),(Citation: PaloAlto-SpyDealer),(Citation: SecureList - ViceLeaker 2019),(Citation: Palo Alto HenBox),(Citation: Talos-WolfRAT),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: Symantec GoldenCup),(Citation: Android Capture Sensor 2019)</t>
   </si>
   <si>
     <t>(Citation: lookout_abstractemu_1021),</t>
   </si>
   <si>
-    <t>(Citation: Google Bread),(Citation: Threat Fabric Exobot),(Citation: Talos Gustuff Apr 2019),(Citation: Bitdefender - Triout 2018),(Citation: SecurityIntelligence TrickMo),(Citation: TrendMicro Coronavirus Updates),(Citation: Kaspersky Riltok June 2019),(Citation: proofpoint_flubot_0421),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Dark Caracal Jan 2018),(Citation: threatfabric_sova_0921),(Citation: Kaspersky-WUC),(Citation: Securelist Asacub),(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: Kaspersky-Skygofree),(Citation: ESET DEFENSOR ID),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: lookout_abstractemu_1021),(Citation: Wandera-RedDrop),(Citation: FireEye-RuMMS),(Citation: Cybereason EventBot),(Citation: Volexity Insomnia),(Citation: paloalto_yispecter_1015),(Citation: Symantec GoldenCup),(Citation: Cybereason FakeSpy),(Citation: Kaspersky-MobileMalware),(Citation: SecureList - ViceLeaker 2019),(Citation: SWB Exodus March 2019),(Citation: Lookout Uyghur Campaign),(Citation: CheckPoint Cerberus),(Citation: Talos GPlayed),</t>
+    <t>(Citation: SWB Exodus March 2019),(Citation: Cybereason FakeSpy),(Citation: proofpoint_flubot_0421),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Google Bread),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Wandera-RedDrop),(Citation: threatfabric_sova_0921),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Talos Gustuff Apr 2019),(Citation: Cybereason EventBot),(Citation: Kaspersky-MobileMalware),(Citation: securelist rotexy 2018),(Citation: ESET DEFENSOR ID),(Citation: lookout_abstractemu_1021),(Citation: Kaspersky-Skygofree),(Citation: TrendMicro Coronavirus Updates),(Citation: Kaspersky Riltok June 2019),(Citation: SecureList - ViceLeaker 2019),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: Securelist Asacub),(Citation: CheckPoint Cerberus),(Citation: nccgroup_sharkbot_0322),(Citation: Bitdefender - Triout 2018),(Citation: Sophos Red Alert 2.0),(Citation: FireEye-RuMMS),(Citation: Lookout Uyghur Campaign),(Citation: SecurityIntelligence TrickMo),(Citation: paloalto_yispecter_1015),(Citation: Symantec GoldenCup),(Citation: Kaspersky-WUC),(Citation: Volexity Insomnia),</t>
   </si>
   <si>
     <t>source ID</t>

--- a/docs/mobile-attack-v13.1/mobile-attack-v13.1-techniques.xlsx
+++ b/docs/mobile-attack-v13.1/mobile-attack-v13.1-techniques.xlsx
@@ -2140,7 +2140,7 @@
     <t>,</t>
   </si>
   <si>
-    <t>(Citation: nccgroup_sharkbot_0322),(Citation: Talos-WolfRAT),(Citation: TrendMicro Coronavirus Updates),(Citation: proofpoint_flubot_0421),(Citation: Bitdefender Mandrake),(Citation: threatfabric_sova_0921),(Citation: Check Point-Joker),(Citation: lookout_abstractemu_1021),(Citation: Android Notification Listeners)</t>
+    <t>(Citation: Bitdefender Mandrake),(Citation: Talos-WolfRAT),(Citation: Check Point-Joker),(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),(Citation: TrendMicro Coronavirus Updates),(Citation: threatfabric_sova_0921),(Citation: lookout_abstractemu_1021),(Citation: Android Notification Listeners)</t>
   </si>
   <si>
     <t>(Citation: Lookout-Monokle),</t>
@@ -2152,37 +2152,37 @@
     <t>(Citation: Lookout Uyghur Campaign),(Citation: cyble_drinik_1022),</t>
   </si>
   <si>
-    <t>(Citation: Securelist Asacub),(Citation: Google Triada June 2019),(Citation: SWB Exodus March 2019),(Citation: Cofense Anubis),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Desert Scorpion),(Citation: Symantec GoldenCup),(Citation: Lookout FrozenCell),</t>
-  </si>
-  <si>
-    <t>(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),(Citation: Lookout Uyghur Campaign),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout eSurv),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-Pegasus),(Citation: BlackBerry Bahamut),(Citation: TrendMicro-XLoader),(Citation: cloudmark_tanglebot_0921),(Citation: SecureList BusyGasper),(Citation: SWB Exodus March 2019),(Citation: Lookout-Monokle),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout ViperRAT),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Wandera-RedDrop),(Citation: Lookout-Dendroid),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-StealthMango),(Citation: Lookout-EnterpriseApps),(Citation: Lookout FrozenCell),(Citation: Cofense Anubis),(Citation: CyberMerchants-FlexiSpy),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-PegasusAndroid),(Citation: lookout_abstractemu_1021),(Citation: Kaspersky-Skygofree),(Citation: Zscaler-SuperMarioRun),(Citation: TrendMicro Coronavirus Updates),(Citation: PaloAlto-SpyDealer),(Citation: SecureList - ViceLeaker 2019),(Citation: Zscaler-SpyNote),(Citation: Lookout eSurv),(Citation: Palo Alto HenBox),(Citation: Talos-WolfRAT),(Citation: Bitdefender - Triout 2018),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: Symantec GoldenCup),(Citation: Android Capture Sensor 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: WhiteOps TERRACOTTA),(Citation: SecureList BusyGasper),(Citation: Bitdefender Mandrake),</t>
+    <t>(Citation: Lookout FrozenCell),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Desert Scorpion),(Citation: Google Triada June 2019),(Citation: Cofense Anubis),(Citation: SWB Exodus March 2019),(Citation: Securelist Asacub),(Citation: Symantec GoldenCup),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout eSurv),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout Uyghur Campaign),(Citation: proofpoint_flubot_0421),(Citation: CYBERWARCON CHEMISTGAMES),</t>
+  </si>
+  <si>
+    <t>(Citation: Bitdefender - Triout 2018),(Citation: Lookout eSurv),(Citation: Lookout Uyghur Campaign),(Citation: SWB Exodus March 2019),(Citation: Lookout-StealthMango),(Citation: Lookout-Dendroid),(Citation: Talos-WolfRAT),(Citation: Lookout-EnterpriseApps),(Citation: BlackBerry Bahamut),(Citation: CyberMerchants-FlexiSpy),(Citation: Palo Alto HenBox),(Citation: Lookout FrozenCell),(Citation: Trend Micro Bouncing Golf 2019),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Kaspersky-Skygofree),(Citation: Cofense Anubis),(Citation: SecureList BusyGasper),(Citation: Lookout-PegasusAndroid),(Citation: Wandera-RedDrop),(Citation: Zscaler-SpyNote),(Citation: TrendMicro Coronavirus Updates),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Pegasus),(Citation: lookout_abstractemu_1021),(Citation: Lookout ViperRAT),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Desert Scorpion),(Citation: Symantec GoldenCup),(Citation: TrendMicro-XLoader),(Citation: Zscaler-SuperMarioRun),(Citation: cloudmark_tanglebot_0921),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-Monokle),(Citation: Android Capture Sensor 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList BusyGasper),(Citation: WhiteOps TERRACOTTA),(Citation: Bitdefender Mandrake),</t>
   </si>
   <si>
     <t>(Citation: HackerNews-OldBoot),</t>
   </si>
   <si>
-    <t>(Citation: Palo Alto HenBox),(Citation: Lookout-PegasusAndroid),(Citation: Cybereason EventBot),(Citation: Cybereason FakeSpy),(Citation: PaloAlto-SpyDealer),(Citation: FortiGuard-FlexiSpy),(Citation: Zscaler TikTok Spyware),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: CheckPoint SimBad 2019),(Citation: WhiteOps TERRACOTTA),(Citation: SecurityIntelligence TrickMo),(Citation: Trend Micro Bouncing Golf 2019),(Citation: ESET DEFENSOR ID),(Citation: Zscaler-SpyNote),(Citation: Microsoft MalLockerB),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: Android Changes to System Broadcasts)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-StealthMango),(Citation: SWB Exodus March 2019),(Citation: Lookout-Monokle),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-PegasusAndroid),</t>
-  </si>
-  <si>
-    <t>(Citation: cyble_drinik_1022),(Citation: cloudmark_tanglebot_0921),(Citation: SecureList BusyGasper),(Citation: Cofense Anubis),(Citation: Lookout-Monokle),(Citation: Lookout Uyghur Campaign),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-Pegasus),(Citation: Google Project Zero Insomnia),(Citation: cloudmark_tanglebot_0921),(Citation: SWB Exodus March 2019),(Citation: Lookout-Monokle),(Citation: Lookout ViperRAT),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-StealthMango),(Citation: Lookout-EnterpriseApps),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-PegasusAndroid),(Citation: lookout_abstractemu_1021),(Citation: Zscaler-SuperMarioRun),(Citation: TrendMicro Coronavirus Updates),(Citation: PaloAlto-SpyDealer),(Citation: SecureList - ViceLeaker 2019),(Citation: cyble_drinik_1022),(Citation: Palo Alto HenBox),(Citation: Talos-WolfRAT),(Citation: Sophos Red Alert 2.0),(Citation: NYTimes-BackDoor),(Citation: Lookout Uyghur Campaign),(Citation: Kaspersky-WUC),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-XcodeGhost),(Citation: TrendMicro-RCSAndroid),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Android 10 Privacy Changes)</t>
-  </si>
-  <si>
-    <t>(Citation: BlackBerry Bahamut),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout Uyghur Campaign),(Citation: SecureList DVMap June 2017),(Citation: Bitdefender Mandrake),(Citation: trendmicro_tianyspy_0122),(Citation: paloalto_yispecter_1015),(Citation: Lookout Desert Scorpion),(Citation: Android-TrustedCA),(Citation: Symantec-iOSProfile2)</t>
+    <t>(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Microsoft MalLockerB),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cybereason EventBot),(Citation: Threat Fabric Exobot),(Citation: PaloAlto-SpyDealer),(Citation: WhiteOps TERRACOTTA),(Citation: SecurityIntelligence TrickMo),(Citation: Cybereason FakeSpy),(Citation: Lookout-PegasusAndroid),(Citation: CheckPoint SimBad 2019),(Citation: ESET DEFENSOR ID),(Citation: Zscaler-SpyNote),(Citation: Talos GPlayed),(Citation: FortiGuard-FlexiSpy),(Citation: Palo Alto HenBox),(Citation: Zscaler TikTok Spyware),(Citation: Android Changes to System Broadcasts)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-StealthMango),(Citation: Lookout-PegasusAndroid),(Citation: SWB Exodus March 2019),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-Monokle),</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList BusyGasper),(Citation: Cofense Anubis),(Citation: Lookout Uyghur Campaign),(Citation: cyble_drinik_1022),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Monokle),</t>
+  </si>
+  <si>
+    <t>(Citation: Sophos Red Alert 2.0),(Citation: Kaspersky-WUC),(Citation: Lookout Uyghur Campaign),(Citation: SWB Exodus March 2019),(Citation: Lookout-StealthMango),(Citation: Talos-WolfRAT),(Citation: cyble_drinik_1022),(Citation: Lookout-EnterpriseApps),(Citation: Palo Alto HenBox),(Citation: Trend Micro Bouncing Golf 2019),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-PegasusAndroid),(Citation: Google Project Zero Insomnia),(Citation: TrendMicro Coronavirus Updates),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Pegasus),(Citation: lookout_abstractemu_1021),(Citation: Lookout ViperRAT),(Citation: SecureList - ViceLeaker 2019),(Citation: NYTimes-BackDoor),(Citation: Zscaler-SuperMarioRun),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Monokle),</t>
+  </si>
+  <si>
+    <t>(Citation: Trend Micro Bouncing Golf 2019),(Citation: TrendMicro-RCSAndroid),(Citation: PaloAlto-XcodeGhost),(Citation: Android 10 Privacy Changes)</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Bitdefender Mandrake),(Citation: Lookout Desert Scorpion),(Citation: Lookout Uyghur Campaign),(Citation: trendmicro_tianyspy_0122),(Citation: SecureList DVMap June 2017),(Citation: BlackBerry Bahamut),(Citation: paloalto_yispecter_1015),(Citation: Android-TrustedCA),(Citation: Symantec-iOSProfile2)</t>
   </si>
   <si>
     <t>(Citation: trendmicro_tianyspy_0122),</t>
@@ -2191,79 +2191,79 @@
     <t>(Citation: CheckPoint Agent Smith),(Citation: paloalto_yispecter_1015),</t>
   </si>
   <si>
-    <t>(Citation: Lookout-Pegasus),(Citation: SecureList BusyGasper),(Citation: Lookout-Adware),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Monokle),(Citation: Lookout-BrainTest),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-XcodeGhost),(Citation: PaloAlto-XcodeGhost1),</t>
-  </si>
-  <si>
-    <t>(Citation: BankInfoSecurity-BackDoor),(Citation: Google Triada June 2019),(Citation: HackerNews-Allwinner),(Citation: NYTimes-BackDoor),(Citation: Krebs-Triada June 2019),(Citation: Lookout-StealthMango),(Citation: CYBERWARCON CHEMISTGAMES),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-Pegasus),(Citation: BlackBerry Bahamut),(Citation: Google Project Zero Insomnia),(Citation: cloudmark_tanglebot_0921),(Citation: SWB Exodus March 2019),(Citation: Cybereason FakeSpy),(Citation: proofpoint_flubot_0421),(Citation: Lookout-Monokle),(Citation: Lookout ViperRAT),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-StealthMango),(Citation: Lookout-EnterpriseApps),(Citation: Talos Gustuff Apr 2019),(Citation: Bitdefender Mandrake),(Citation: Cofense Anubis),(Citation: securelist rotexy 2018),(Citation: CyberMerchants-FlexiSpy),(Citation: Zscaler TikTok Spyware),(Citation: ThreatFabric Ginp),(Citation: Lookout-PegasusAndroid),(Citation: lookout_abstractemu_1021),(Citation: TrendMicro Coronavirus Updates),(Citation: CheckPoint-Charger),(Citation: Kaspersky Riltok June 2019),(Citation: PaloAlto-SpyDealer),(Citation: Threat Fabric Cerberus),(Citation: Zscaler-SpyNote),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: Lookout eSurv),(Citation: Securelist Asacub),(Citation: Palo Alto HenBox),(Citation: Talos-WolfRAT),(Citation: Sophos Red Alert 2.0),(Citation: NYTimes-BackDoor),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: Symantec GoldenCup),(Citation: Kaspersky-WUC),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-Xbot),(Citation: Cofense Anubis),(Citation: cleafy_sova_1122),</t>
-  </si>
-  <si>
-    <t>(Citation: BlackBerry Bahamut),(Citation: Google Project Zero Insomnia),(Citation: cloudmark_tanglebot_0921),(Citation: SecureList BusyGasper),(Citation: SWB Exodus March 2019),(Citation: Lookout-Monokle),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout ViperRAT),(Citation: Lookout-Dendroid),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-StealthMango),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout FrozenCell),(Citation: Talos Gustuff Apr 2019),(Citation: Cylance Dust Storm),(Citation: Trend Micro Anubis),(Citation: Cofense Anubis),(Citation: Zscaler TikTok Spyware),(Citation: ThreatFabric Ginp),(Citation: lookout_abstractemu_1021),(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList - ViceLeaker 2019),(Citation: Zscaler-SpyNote),(Citation: Lookout eSurv),(Citation: Talos GPlayed),(Citation: cyble_drinik_1022),(Citation: Palo Alto HenBox),(Citation: Talos-WolfRAT),(Citation: FlexiSpy-Features),(Citation: Bitdefender - Triout 2018),(Citation: Lookout Uyghur Campaign),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout Desert Scorpion),(Citation: Symantec GoldenCup),(Citation: Gooligan Citation),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro-Anserver),(Citation: Trend Micro Anubis),(Citation: Cofense Anubis),(Citation: Sophos Red Alert 2.0),(Citation: TrendMicro-XLoader-FakeSpy),</t>
-  </si>
-  <si>
-    <t>(Citation: Securelist Asacub),(Citation: lookout_abstractemu_1021),(Citation: TrendMicro-XLoader),(Citation: Sophos Red Alert 2.0),(Citation: Proofpoint-Marcher),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: GoogleIO2016)</t>
-  </si>
-  <si>
-    <t>(Citation: securelist rotexy 2018),(Citation: SecurityIntelligence TrickMo),(Citation: Microsoft MalLockerB),</t>
-  </si>
-  <si>
-    <t>(Citation: cyble_drinik_1022),(Citation: proofpoint_flubot_0421),(Citation: Cofense Anubis),(Citation: Google Security Zen),(Citation: SecureList DVMap June 2017),(Citation: Bitdefender Mandrake),(Citation: Threat Fabric Cerberus),(Citation: lookout_abstractemu_1021),</t>
-  </si>
-  <si>
-    <t>(Citation: proofpoint_flubot_0421),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),(Citation: Bitdefender Mandrake),</t>
-  </si>
-  <si>
-    <t>(Citation: BlackBerry Bahamut),(Citation: SecureList BusyGasper),(Citation: SWB Exodus March 2019),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout ViperRAT),(Citation: Google Bread),(Citation: Lookout-BrainTest),(Citation: WhiteOps TERRACOTTA),(Citation: Xiao-ZergHelper),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout FrozenCell),(Citation: Bitdefender Mandrake),(Citation: CheckPoint-Judy),(Citation: Trend Micro Anubis),(Citation: Cybereason EventBot),(Citation: Google Security Zen),(Citation: lookout_abstractemu_1021),(Citation: Kaspersky-Skygofree),(Citation: Google Triada June 2019),(Citation: PaloAlto-SpyDealer),(Citation: SecureList DVMap June 2017),(Citation: Threat Fabric Cerberus),(Citation: Lookout eSurv),(Citation: Talos GPlayed),(Citation: Palo Alto HenBox),(Citation: nccgroup_sharkbot_0322),(Citation: Talos-WolfRAT),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: Symantec GoldenCup),(Citation: paloalto_yispecter_1015),(Citation: Android 10 Execute)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-StealthMango),(Citation: Lookout-Pegasus),(Citation: Volexity Insomnia),(Citation: paloalto_yispecter_1015),</t>
+    <t>(Citation: PaloAlto-SpyDealer),(Citation: SecureList BusyGasper),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-BrainTest),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Adware),(Citation: Lookout-Pegasus),(Citation: Lookout-Monokle),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-XcodeGhost1),(Citation: PaloAlto-XcodeGhost),</t>
+  </si>
+  <si>
+    <t>(Citation: HackerNews-Allwinner),(Citation: Lookout-StealthMango),(Citation: Google Triada June 2019),(Citation: NYTimes-BackDoor),(Citation: Krebs-Triada June 2019),(Citation: BankInfoSecurity-BackDoor),(Citation: CYBERWARCON CHEMISTGAMES),</t>
+  </si>
+  <si>
+    <t>(Citation: Sophos Red Alert 2.0),(Citation: Kaspersky-WUC),(Citation: Lookout eSurv),(Citation: Cybereason FakeSpy),(Citation: Lookout Uyghur Campaign),(Citation: SWB Exodus March 2019),(Citation: Talos GPlayed),(Citation: proofpoint_flubot_0421),(Citation: Lookout-StealthMango),(Citation: Bitdefender Mandrake),(Citation: cloudmark_tanglebot_0921),(Citation: Talos-WolfRAT),(Citation: Lookout-EnterpriseApps),(Citation: BlackBerry Bahamut),(Citation: CyberMerchants-FlexiSpy),(Citation: Palo Alto HenBox),(Citation: ThreatFabric Ginp),(Citation: Kaspersky Riltok June 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Threat Fabric Exobot),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Cofense Anubis),(Citation: CheckPoint-Charger),(Citation: Lookout-PegasusAndroid),(Citation: securelist rotexy 2018),(Citation: Zscaler-SpyNote),(Citation: Google Project Zero Insomnia),(Citation: TrendMicro Coronavirus Updates),(Citation: Threat Fabric Cerberus),(Citation: Lookout-Pegasus),(Citation: lookout_abstractemu_1021),(Citation: Zscaler TikTok Spyware),(Citation: Lookout ViperRAT),(Citation: Lookout Desert Scorpion),(Citation: NYTimes-BackDoor),(Citation: Securelist Asacub),(Citation: Symantec GoldenCup),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Monokle),</t>
+  </si>
+  <si>
+    <t>(Citation: Cofense Anubis),(Citation: cleafy_sova_1122),(Citation: PaloAlto-Xbot),</t>
+  </si>
+  <si>
+    <t>(Citation: Trend Micro Anubis),(Citation: Bitdefender - Triout 2018),(Citation: Lookout eSurv),(Citation: Lookout Uyghur Campaign),(Citation: SWB Exodus March 2019),(Citation: Talos GPlayed),(Citation: Lookout-StealthMango),(Citation: Lookout-Dendroid),(Citation: cloudmark_tanglebot_0921),(Citation: Talos-WolfRAT),(Citation: cyble_drinik_1022),(Citation: Gooligan Citation),(Citation: BlackBerry Bahamut),(Citation: Palo Alto HenBox),(Citation: ThreatFabric Ginp),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout FrozenCell),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cylance Dust Storm),(Citation: Cofense Anubis),(Citation: SecureList BusyGasper),(Citation: Zscaler-SpyNote),(Citation: Google Project Zero Insomnia),(Citation: FlexiSpy-Features),(Citation: TrendMicro Coronavirus Updates),(Citation: Zscaler TikTok Spyware),(Citation: Lookout ViperRAT),(Citation: lookout_abstractemu_1021),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Desert Scorpion),(Citation: Symantec GoldenCup),(Citation: Talos Gustuff Apr 2019),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-Monokle),(Citation: CYBERWARCON CHEMISTGAMES),</t>
+  </si>
+  <si>
+    <t>(Citation: Sophos Red Alert 2.0),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Trend Micro Anubis),(Citation: Cofense Anubis),(Citation: TrendMicro-Anserver),</t>
+  </si>
+  <si>
+    <t>(Citation: Sophos Red Alert 2.0),(Citation: Threat Fabric Exobot),(Citation: Securelist Asacub),(Citation: Talos GPlayed),(Citation: TrendMicro-XLoader),(Citation: Proofpoint-Marcher),(Citation: lookout_abstractemu_1021),(Citation: GoogleIO2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft MalLockerB),(Citation: SecurityIntelligence TrickMo),(Citation: securelist rotexy 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: Bitdefender Mandrake),(Citation: Cofense Anubis),(Citation: cyble_drinik_1022),(Citation: Google Security Zen),(Citation: SecureList DVMap June 2017),(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Cerberus),(Citation: lookout_abstractemu_1021),</t>
+  </si>
+  <si>
+    <t>(Citation: nccgroup_sharkbot_0322),(Citation: Bitdefender Mandrake),(Citation: securelist rotexy 2018),(Citation: proofpoint_flubot_0421),</t>
+  </si>
+  <si>
+    <t>(Citation: Sophos Red Alert 2.0),(Citation: Trend Micro Anubis),(Citation: Lookout eSurv),(Citation: Lookout-BrainTest),(Citation: Lookout Uyghur Campaign),(Citation: SWB Exodus March 2019),(Citation: Xiao-ZergHelper),(Citation: Google Security Zen),(Citation: Talos GPlayed),(Citation: CheckPoint-Judy),(Citation: Bitdefender Mandrake),(Citation: nccgroup_sharkbot_0322),(Citation: BlackBerry Bahamut),(Citation: Palo Alto HenBox),(Citation: paloalto_yispecter_1015),(Citation: Lookout FrozenCell),(Citation: PaloAlto-SpyDealer),(Citation: Google Triada June 2019),(Citation: SecureList BusyGasper),(Citation: SecureList DVMap June 2017),(Citation: Lookout ViperRAT),(Citation: Threat Fabric Cerberus),(Citation: lookout_abstractemu_1021),(Citation: Cybereason EventBot),(Citation: Lookout Desert Scorpion),(Citation: Symantec GoldenCup),(Citation: Google Bread),(Citation: WhiteOps TERRACOTTA),(Citation: Talos-WolfRAT),(Citation: TrendMicro-RCSAndroid),(Citation: Kaspersky-Skygofree),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Android 10 Execute)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-StealthMango),(Citation: paloalto_yispecter_1015),(Citation: Lookout-Pegasus),(Citation: Volexity Insomnia),</t>
   </si>
   <si>
     <t>(Citation: ESET-Twitoor),</t>
   </si>
   <si>
-    <t>(Citation: PaloAlto-Xbot),(Citation: CheckPoint-Charger),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),</t>
+    <t>(Citation: CheckPoint-Charger),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: PaloAlto-Xbot),</t>
   </si>
   <si>
     <t>,(Citation: Android Changes to System Broadcasts)</t>
   </si>
   <si>
-    <t>(Citation: cyble_drinik_1022),(Citation: nccgroup_sharkbot_0322),(Citation: Google Triada June 2019),(Citation: Bitdefender - Triout 2018),(Citation: proofpoint_flubot_0421),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Wandera-RedDrop),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cylance Dust Storm),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout eSurv),(Citation: lookout_abstractemu_1021),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList BusyGasper),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-Pegasus),(Citation: ArsTechnica-HummingBad),(Citation: SWB Exodus March 2019),(Citation: Lookout-Adware),(Citation: CheckPoint Agent Smith),(Citation: PaloAlto-SpyDealer),(Citation: Google Security Zen),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-BrainTest),(Citation: Lookout Uyghur Campaign),(Citation: Kaspersky-Skygofree),(Citation: SecureList DVMap June 2017),(Citation: Lookout-PegasusAndroid),(Citation: Volexity Insomnia),(Citation: Gooligan Citation),(Citation: lookout_abstractemu_1021),</t>
+    <t>(Citation: Trend Micro Bouncing Golf 2019),(Citation: SecureList - ViceLeaker 2019),(Citation: Cylance Dust Storm),(Citation: Bitdefender - Triout 2018),(Citation: Lookout Dark Caracal Jan 2018),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Google Triada June 2019),(Citation: Lookout eSurv),(Citation: Wandera-RedDrop),(Citation: Lookout Uyghur Campaign),(Citation: cyble_drinik_1022),(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),(Citation: lookout_abstractemu_1021),</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList BusyGasper),(Citation: TrendMicro Coronavirus Updates),</t>
+  </si>
+  <si>
+    <t>(Citation: ArsTechnica-HummingBad),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Volexity Insomnia),(Citation: Kaspersky-Skygofree),(Citation: Lookout-PegasusAndroid),(Citation: CheckPoint Agent Smith),(Citation: Lookout-BrainTest),(Citation: Lookout Uyghur Campaign),(Citation: SWB Exodus March 2019),(Citation: Lookout-Adware),(Citation: Google Security Zen),(Citation: Gooligan Citation),(Citation: SecureList DVMap June 2017),(Citation: Lookout-Pegasus),(Citation: lookout_abstractemu_1021),</t>
   </si>
   <si>
     <t>(Citation: TrendMicro-DressCode),(Citation: Lookout-NotCompatible),</t>
   </si>
   <si>
-    <t>(Citation: Talos-WolfRAT),(Citation: CheckPoint Agent Smith),(Citation: Lookout-Monokle),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Desert Scorpion),(Citation: SecureList - ViceLeaker 2019),(Citation: Talos GPlayed),(Citation: Bitdefender Mandrake),</t>
-  </si>
-  <si>
-    <t>(Citation: BlackBerry Bahamut),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: Symantec GoldenCup),(Citation: Lookout FrozenCell),(Citation: Cylance Dust Storm),</t>
-  </si>
-  <si>
-    <t>(Citation: WhiteOps TERRACOTTA),(Citation: cyble_drinik_1022),(Citation: Zscaler TikTok Spyware),(Citation: Bitdefender Mandrake),</t>
-  </si>
-  <si>
-    <t>(Citation: cloudmark_tanglebot_0921),(Citation: proofpoint_flubot_0421),(Citation: Lookout Dark Caracal Jan 2018),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout-Dendroid),(Citation: threatfabric_sova_0921),(Citation: Talos Gustuff Apr 2019),(Citation: Cybereason EventBot),(Citation: Cofense Anubis),(Citation: securelist rotexy 2018),(Citation: Zscaler TikTok Spyware),(Citation: ThreatFabric Ginp),(Citation: Kaspersky Riltok June 2019),(Citation: Group IB Gustuff Mar 2019),(Citation: PaloAlto-XcodeGhost),(Citation: Proofpoint-Marcher),(Citation: Threat Fabric Cerberus),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: PaloAlto-Xbot),(Citation: cyble_drinik_1022),(Citation: nccgroup_sharkbot_0322),(Citation: Sophos Red Alert 2.0),(Citation: Bitdefender Mandrake),(Citation: trendmicro_tianyspy_0122),(Citation: Android 12 Features)</t>
-  </si>
-  <si>
-    <t>(Citation: ArsTechnica-HummingBad),(Citation: CheckPoint-Judy),(Citation: Google Triada June 2019),(Citation: CheckPoint Agent Smith),(Citation: Google Security Zen),(Citation: Google Bread),(Citation: Tripwire-MazarBOT),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout-BrainTest),(Citation: Wandera-RedDrop),(Citation: CheckPoint SimBad 2019),(Citation: WhiteOps TERRACOTTA),(Citation: Kaspersky Triada June 2016),(Citation: Lookout-EnterpriseApps),(Citation: Gooligan Citation),(Citation: ArsTechnica-HummingWhale),</t>
+    <t>(Citation: Trend Micro Bouncing Golf 2019),(Citation: Bitdefender Mandrake),(Citation: SecureList - ViceLeaker 2019),(Citation: Talos-WolfRAT),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Desert Scorpion),(Citation: CheckPoint Agent Smith),(Citation: Lookout Uyghur Campaign),(Citation: Talos GPlayed),(Citation: CyberMerchants-FlexiSpy),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Monokle),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout FrozenCell),(Citation: Cylance Dust Storm),(Citation: Lookout Desert Scorpion),(Citation: Lookout Uyghur Campaign),(Citation: Symantec GoldenCup),(Citation: BlackBerry Bahamut),(Citation: Zscaler TikTok Spyware),</t>
+  </si>
+  <si>
+    <t>(Citation: WhiteOps TERRACOTTA),(Citation: Bitdefender Mandrake),(Citation: Zscaler TikTok Spyware),(Citation: cyble_drinik_1022),</t>
+  </si>
+  <si>
+    <t>(Citation: Sophos Red Alert 2.0),(Citation: threatfabric_sova_0921),(Citation: trendmicro_tianyspy_0122),(Citation: Talos GPlayed),(Citation: proofpoint_flubot_0421),(Citation: Proofpoint-Marcher),(Citation: Lookout-Dendroid),(Citation: Bitdefender Mandrake),(Citation: cloudmark_tanglebot_0921),(Citation: nccgroup_sharkbot_0322),(Citation: cyble_drinik_1022),(Citation: PaloAlto-Xbot),(Citation: ThreatFabric Ginp),(Citation: Kaspersky Riltok June 2019),(Citation: Threat Fabric Exobot),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Cofense Anubis),(Citation: securelist rotexy 2018),(Citation: Threat Fabric Cerberus),(Citation: Zscaler TikTok Spyware),(Citation: Cybereason EventBot),(Citation: PaloAlto-XcodeGhost),(Citation: Group IB Gustuff Mar 2019),(Citation: WhiteOps TERRACOTTA),(Citation: Talos Gustuff Apr 2019),(Citation: Android 12 Features)</t>
+  </si>
+  <si>
+    <t>(Citation: WeLiveSecurity AdDisplayAshas),(Citation: CheckPoint-Judy),(Citation: ArsTechnica-HummingBad),(Citation: ArsTechnica-HummingWhale),(Citation: Google Triada June 2019),(Citation: Wandera-RedDrop),(Citation: CheckPoint SimBad 2019),(Citation: CheckPoint Agent Smith),(Citation: Lookout-BrainTest),(Citation: Lookout-EnterpriseApps),(Citation: Google Security Zen),(Citation: Gooligan Citation),(Citation: Google Bread),(Citation: WhiteOps TERRACOTTA),(Citation: Kaspersky Triada June 2016),(Citation: Tripwire-MazarBOT),</t>
   </si>
   <si>
     <t>(Citation: BlackBerry Bahamut),(Citation: Lookout eSurv),</t>
@@ -2275,106 +2275,106 @@
     <t>(Citation: CitizenLab Circles),(Citation: CSRIC-WG1-FinalReport)</t>
   </si>
   <si>
-    <t>(Citation: nccgroup_sharkbot_0322),(Citation: Lookout-Monokle),(Citation: Wandera-RedDrop),(Citation: Bitdefender Mandrake),(Citation: SecureList - ViceLeaker 2019),(Citation: lookout_abstractemu_1021),</t>
-  </si>
-  <si>
-    <t>,(Citation: Android 12 Features),(Citation: Samsung Keyboards)</t>
-  </si>
-  <si>
-    <t>(Citation: CheckPoint Cerberus),(Citation: nccgroup_sharkbot_0322),(Citation: Kaspersky Riltok June 2019),(Citation: Google Security Zen),(Citation: cleafy_sova_1122),(Citation: ThreatFabric Ginp),(Citation: WhiteOps TERRACOTTA),(Citation: SecurityIntelligence TrickMo),(Citation: Bitdefender Mandrake),(Citation: ESET DEFENSOR ID),(Citation: Threat Fabric Cerberus),(Citation: Talos Gustuff Apr 2019),</t>
+    <t>(Citation: Bitdefender Mandrake),(Citation: SecureList - ViceLeaker 2019),(Citation: Wandera-RedDrop),(Citation: lookout_abstractemu_1021),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout-Monokle),</t>
+  </si>
+  <si>
+    <t>,(Citation: Samsung Keyboards),(Citation: Android 12 Features)</t>
+  </si>
+  <si>
+    <t>(Citation: ThreatFabric Ginp),(Citation: Kaspersky Riltok June 2019),(Citation: SecurityIntelligence TrickMo),(Citation: CheckPoint Cerberus),(Citation: Bitdefender Mandrake),(Citation: nccgroup_sharkbot_0322),(Citation: ESET DEFENSOR ID),(Citation: Talos Gustuff Apr 2019),(Citation: Google Security Zen),(Citation: WhiteOps TERRACOTTA),(Citation: cleafy_sova_1122),(Citation: Threat Fabric Cerberus),</t>
   </si>
   <si>
     <t>(Citation: Google Project Zero Insomnia),</t>
   </si>
   <si>
-    <t>(Citation: BlackBerry Bahamut),(Citation: cyble_drinik_1022),(Citation: nccgroup_sharkbot_0322),(Citation: SecureList BusyGasper),(Citation: FlexiSpy-Features),(Citation: Cybereason EventBot),(Citation: Cofense Anubis),(Citation: Lookout-Monokle),(Citation: threatfabric_sova_0921),(Citation: Threat Fabric Cerberus),(Citation: Talos Gustuff Apr 2019),(Citation: Threat Fabric Exobot),(Citation: Samsung Keyboards)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-Pegasus),(Citation: BlackBerry Bahamut),(Citation: Google Project Zero Insomnia),(Citation: CrowdStrike-Android),(Citation: cloudmark_tanglebot_0921),(Citation: SecureList BusyGasper),(Citation: SWB Exodus March 2019),(Citation: Lookout-Monokle),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout ViperRAT),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-StealthMango),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout-EnterpriseApps),(Citation: Lookout FrozenCell),(Citation: Bitdefender Mandrake),(Citation: Cofense Anubis),(Citation: CyberMerchants-FlexiSpy),(Citation: Zscaler TikTok Spyware),(Citation: lookout_abstractemu_1021),(Citation: Kaspersky-Skygofree),(Citation: TrendMicro Coronavirus Updates),(Citation: CheckPoint-Charger),(Citation: PaloAlto-SpyDealer),(Citation: SecureList - ViceLeaker 2019),(Citation: Threat Fabric Cerberus),(Citation: Zscaler-SpyNote),(Citation: Lookout eSurv),(Citation: Talos GPlayed),(Citation: Palo Alto HenBox),(Citation: Bitdefender - Triout 2018),(Citation: NYTimes-BackDoor),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: Symantec GoldenCup),(Citation: Kaspersky-WUC),(Citation: CSRIC5-WG10-FinalReport)</t>
-  </si>
-  <si>
-    <t>(Citation: Securelist Asacub),(Citation: Palo Alto HenBox),(Citation: Google Bread),(Citation: Lookout Uyghur Campaign),(Citation: WhiteOps TERRACOTTA),(Citation: CYBERWARCON CHEMISTGAMES),</t>
+    <t>(Citation: Cybereason EventBot),(Citation: Threat Fabric Exobot),(Citation: Cofense Anubis),(Citation: SecureList BusyGasper),(Citation: nccgroup_sharkbot_0322),(Citation: cyble_drinik_1022),(Citation: Talos Gustuff Apr 2019),(Citation: threatfabric_sova_0921),(Citation: BlackBerry Bahamut),(Citation: FlexiSpy-Features),(Citation: Threat Fabric Cerberus),(Citation: Lookout-Monokle),(Citation: Samsung Keyboards)</t>
+  </si>
+  <si>
+    <t>(Citation: Kaspersky-WUC),(Citation: Bitdefender - Triout 2018),(Citation: Lookout eSurv),(Citation: Lookout Uyghur Campaign),(Citation: SWB Exodus March 2019),(Citation: Talos GPlayed),(Citation: Lookout-StealthMango),(Citation: Bitdefender Mandrake),(Citation: Lookout-EnterpriseApps),(Citation: CyberMerchants-FlexiSpy),(Citation: BlackBerry Bahamut),(Citation: Palo Alto HenBox),(Citation: Lookout FrozenCell),(Citation: Trend Micro Bouncing Golf 2019),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Kaspersky-Skygofree),(Citation: Cofense Anubis),(Citation: SecureList BusyGasper),(Citation: CheckPoint-Charger),(Citation: Zscaler-SpyNote),(Citation: Google Project Zero Insomnia),(Citation: TrendMicro Coronavirus Updates),(Citation: Threat Fabric Cerberus),(Citation: Lookout-Pegasus),(Citation: lookout_abstractemu_1021),(Citation: Zscaler TikTok Spyware),(Citation: Lookout ViperRAT),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Desert Scorpion),(Citation: NYTimes-BackDoor),(Citation: CrowdStrike-Android),(Citation: Symantec GoldenCup),(Citation: cloudmark_tanglebot_0921),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-Monokle),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: CSRIC5-WG10-FinalReport)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: Securelist Asacub),(Citation: Google Bread),(Citation: WhiteOps TERRACOTTA),(Citation: Palo Alto HenBox),(Citation: CYBERWARCON CHEMISTGAMES),</t>
   </si>
   <si>
     <t>(Citation: threatfabric_sova_0921),</t>
   </si>
   <si>
-    <t>(Citation: CheckPoint Cerberus),(Citation: SWB Exodus March 2019),(Citation: Sophos Red Alert 2.0),(Citation: FortiGuard-FlexiSpy),(Citation: Bitdefender Mandrake),(Citation: Volexity Insomnia),</t>
-  </si>
-  <si>
-    <t>(Citation: BlackBerry Bahamut),(Citation: TrendMicro-XLoader),(Citation: Cybereason FakeSpy),(Citation: proofpoint_flubot_0421),(Citation: Lookout-Monokle),(Citation: Google Bread),(Citation: Lookout Dark Caracal Jan 2018),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout-BrainTest),(Citation: WhiteOps TERRACOTTA),(Citation: Trend Micro Bouncing Golf 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Talos Gustuff Apr 2019),(Citation: Cybereason EventBot),(Citation: securelist rotexy 2018),(Citation: Google Security Zen),(Citation: ThreatFabric Ginp),(Citation: Check Point-Joker),(Citation: lookout_abstractemu_1021),(Citation: CheckPoint-Charger),(Citation: PaloAlto-WireLurker),(Citation: SecureList DVMap June 2017),(Citation: Threat Fabric Cerberus),(Citation: Talos GPlayed),(Citation: Securelist Asacub),(Citation: cyble_drinik_1022),(Citation: Palo Alto HenBox),(Citation: nccgroup_sharkbot_0322),(Citation: Talos-WolfRAT),(Citation: TrendMicro-Obad),(Citation: Sophos Red Alert 2.0),(Citation: FortiGuard-FlexiSpy),(Citation: Lookout Uyghur Campaign),(Citation: SecurityIntelligence TrickMo),(Citation: Bitdefender Mandrake),(Citation: trendmicro_tianyspy_0122),(Citation: Volexity Insomnia),(Citation: Microsoft MalLockerB),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-Pegasus),(Citation: nccgroup_sharkbot_0322),(Citation: SecureList BusyGasper),(Citation: Lookout-StealthMango),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Monokle),(Citation: TrendMicro-RCSAndroid),(Citation: securelist rotexy 2018),(Citation: Lookout Uyghur Campaign),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout Desert Scorpion),(Citation: Lookout-PegasusAndroid),(Citation: Kaspersky-WUC),(Citation: Talos Gustuff Apr 2019),(Citation: Kaspersky-Skygofree),</t>
-  </si>
-  <si>
-    <t>(Citation: threatfabric_sova_0921),(Citation: TrendMicro-Obad),(Citation: bitdefender_flubot_0524),(Citation: Bitdefender Mandrake),</t>
-  </si>
-  <si>
-    <t>(Citation: Palo Alto HenBox),(Citation: nccgroup_sharkbot_0322),(Citation: Talos-WolfRAT),(Citation: CheckPoint Agent Smith),(Citation: securelist rotexy 2018),(Citation: Zimperium z9),(Citation: Trend Micro Bouncing Golf 2019),(Citation: paloalto_yispecter_1015),</t>
-  </si>
-  <si>
-    <t>(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Exobot),</t>
-  </si>
-  <si>
-    <t>(Citation: Kaspersky Triada March 2016),(Citation: Google Project Zero Insomnia),(Citation: Google Security Zen),(Citation: Google Triada June 2019),</t>
+    <t>(Citation: Sophos Red Alert 2.0),(Citation: CheckPoint Cerberus),(Citation: Bitdefender Mandrake),(Citation: Volexity Insomnia),(Citation: SWB Exodus March 2019),(Citation: FortiGuard-FlexiSpy),</t>
+  </si>
+  <si>
+    <t>(Citation: Sophos Red Alert 2.0),(Citation: Cybereason FakeSpy),(Citation: Lookout-BrainTest),(Citation: Lookout Uyghur Campaign),(Citation: Google Security Zen),(Citation: trendmicro_tianyspy_0122),(Citation: Talos GPlayed),(Citation: proofpoint_flubot_0421),(Citation: Bitdefender Mandrake),(Citation: Talos-WolfRAT),(Citation: nccgroup_sharkbot_0322),(Citation: cyble_drinik_1022),(Citation: PaloAlto-WireLurker),(Citation: TrendMicro-Obad),(Citation: BlackBerry Bahamut),(Citation: Palo Alto HenBox),(Citation: Microsoft MalLockerB),(Citation: ThreatFabric Ginp),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout Dark Caracal Jan 2018),(Citation: CheckPoint-Charger),(Citation: securelist rotexy 2018),(Citation: TrendMicro-XLoader),(Citation: SecureList DVMap June 2017),(Citation: FortiGuard-FlexiSpy),(Citation: Threat Fabric Cerberus),(Citation: lookout_abstractemu_1021),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Cybereason EventBot),(Citation: Volexity Insomnia),(Citation: Check Point-Joker),(Citation: Securelist Asacub),(Citation: Google Bread),(Citation: WhiteOps TERRACOTTA),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Monokle),(Citation: CYBERWARCON CHEMISTGAMES),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-StealthMango),(Citation: SecurityIntelligence TrickMo),(Citation: Kaspersky-WUC),(Citation: TrendMicro-RCSAndroid),(Citation: Kaspersky-Skygofree),(Citation: Lookout Desert Scorpion),(Citation: PaloAlto-SpyDealer),(Citation: SecureList BusyGasper),(Citation: Lookout-PegasusAndroid),(Citation: Lookout Uyghur Campaign),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Pegasus),(Citation: Lookout-Monokle),</t>
+  </si>
+  <si>
+    <t>(Citation: threatfabric_sova_0921),(Citation: Bitdefender Mandrake),(Citation: TrendMicro-Obad),(Citation: bitdefender_flubot_0524),</t>
+  </si>
+  <si>
+    <t>(Citation: Zimperium z9),(Citation: Trend Micro Bouncing Golf 2019),(Citation: CheckPoint Agent Smith),(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: Palo Alto HenBox),(Citation: Talos-WolfRAT),(Citation: paloalto_yispecter_1015),</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Exobot),(Citation: proofpoint_flubot_0421),</t>
+  </si>
+  <si>
+    <t>(Citation: Google Triada June 2019),(Citation: Google Project Zero Insomnia),(Citation: Kaspersky Triada March 2016),(Citation: Google Security Zen),</t>
   </si>
   <si>
     <t>(Citation: PaloAlto-DualToy),(Citation: PaloAlto-WireLurker),(Citation: Elcomsoft-iOSRestricted)</t>
   </si>
   <si>
-    <t>(Citation: cloudmark_tanglebot_0921),(Citation: SecureList BusyGasper),(Citation: Cybereason FakeSpy),(Citation: proofpoint_flubot_0421),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout-Dendroid),(Citation: threatfabric_sova_0921),(Citation: Lookout-StealthMango),(Citation: bitdefender_flubot_0524),(Citation: Bitdefender Mandrake),(Citation: Cofense Anubis),(Citation: securelist rotexy 2018),(Citation: Zscaler TikTok Spyware),(Citation: ThreatFabric Ginp),(Citation: TrendMicro Coronavirus Updates),(Citation: Threat Fabric Cerberus),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: Securelist Asacub),(Citation: cyble_drinik_1022),(Citation: nccgroup_sharkbot_0322),(Citation: Talos-WolfRAT),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Uyghur Campaign),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout Desert Scorpion),(Citation: SMS KitKat)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-Pegasus),(Citation: BlackBerry Bahamut),(Citation: Google Project Zero Insomnia),(Citation: TrendMicro-XLoader),(Citation: cloudmark_tanglebot_0921),(Citation: SecureList BusyGasper),(Citation: SWB Exodus March 2019),(Citation: Cybereason FakeSpy),(Citation: proofpoint_flubot_0421),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout ViperRAT),(Citation: Google Bread),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Dendroid),(Citation: Trend Micro Bouncing Golf 2019),(Citation: threatfabric_sova_0921),(Citation: Lookout-StealthMango),(Citation: Lookout-EnterpriseApps),(Citation: Lookout FrozenCell),(Citation: Talos Gustuff Apr 2019),(Citation: Cylance Dust Storm),(Citation: Bitdefender Mandrake),(Citation: Cybereason EventBot),(Citation: securelist rotexy 2018),(Citation: CyberMerchants-FlexiSpy),(Citation: Tripwire-MazarBOT),(Citation: ThreatFabric Ginp),(Citation: Zscaler TikTok Spyware),(Citation: lookout_abstractemu_1021),(Citation: Zscaler-SuperMarioRun),(Citation: Kaspersky Triada March 2016),(Citation: TrendMicro Coronavirus Updates),(Citation: PaloAlto-SpyDealer),(Citation: Kaspersky Riltok June 2019),(Citation: SecureList - ViceLeaker 2019),(Citation: Threat Fabric Cerberus),(Citation: Zscaler-SpyNote),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: PaloAlto-Xbot),(Citation: Securelist Asacub),(Citation: cyble_drinik_1022),(Citation: Palo Alto HenBox),(Citation: nccgroup_sharkbot_0322),(Citation: FlexiSpy-Features),(Citation: Talos-WolfRAT),(Citation: Sophos Red Alert 2.0),(Citation: FireEye-RuMMS),(Citation: NYTimes-BackDoor),(Citation: Lookout Uyghur Campaign),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout Desert Scorpion),(Citation: Symantec GoldenCup),(Citation: Kaspersky-WUC),</t>
-  </si>
-  <si>
-    <t>(Citation: WhiteOps TERRACOTTA),(Citation: Talos GPlayed),(Citation: Zscaler TikTok Spyware),</t>
-  </si>
-  <si>
-    <t>(Citation: cyble_drinik_1022),(Citation: cloudmark_tanglebot_0921),(Citation: SecureList BusyGasper),(Citation: SWB Exodus March 2019),(Citation: FlexiSpy-Features),(Citation: Cybereason EventBot),(Citation: PaloAlto-SpyDealer),(Citation: Cofense Anubis),(Citation: Lookout-Monokle),(Citation: Talos-WolfRAT),(Citation: cleafy_sova_1122),(Citation: ThreatFabric Ginp),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Uyghur Campaign),(Citation: SecurityIntelligence TrickMo),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Bitdefender Mandrake),(Citation: ESET DEFENSOR ID),(Citation: Nightwatch screencap April 2016)</t>
+    <t>(Citation: Sophos Red Alert 2.0),(Citation: Cybereason FakeSpy),(Citation: Lookout Uyghur Campaign),(Citation: Talos GPlayed),(Citation: proofpoint_flubot_0421),(Citation: Lookout-StealthMango),(Citation: Lookout-Dendroid),(Citation: Bitdefender Mandrake),(Citation: cloudmark_tanglebot_0921),(Citation: Talos-WolfRAT),(Citation: nccgroup_sharkbot_0322),(Citation: cyble_drinik_1022),(Citation: ThreatFabric Ginp),(Citation: SecurityIntelligence TrickMo),(Citation: Threat Fabric Exobot),(Citation: SecureList BusyGasper),(Citation: Cofense Anubis),(Citation: securelist rotexy 2018),(Citation: TrendMicro Coronavirus Updates),(Citation: Threat Fabric Cerberus),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Desert Scorpion),(Citation: bitdefender_flubot_0524),(Citation: Securelist Asacub),(Citation: WhiteOps TERRACOTTA),(Citation: threatfabric_sova_0921),(Citation: SMS KitKat)</t>
+  </si>
+  <si>
+    <t>(Citation: Sophos Red Alert 2.0),(Citation: Kaspersky-WUC),(Citation: Cybereason FakeSpy),(Citation: Lookout Uyghur Campaign),(Citation: SWB Exodus March 2019),(Citation: threatfabric_sova_0921),(Citation: Talos GPlayed),(Citation: proofpoint_flubot_0421),(Citation: Lookout-StealthMango),(Citation: Lookout-Dendroid),(Citation: Bitdefender Mandrake),(Citation: cloudmark_tanglebot_0921),(Citation: Talos-WolfRAT),(Citation: nccgroup_sharkbot_0322),(Citation: cyble_drinik_1022),(Citation: PaloAlto-Xbot),(Citation: Lookout-EnterpriseApps),(Citation: Tripwire-MazarBOT),(Citation: BlackBerry Bahamut),(Citation: CyberMerchants-FlexiSpy),(Citation: Palo Alto HenBox),(Citation: ThreatFabric Ginp),(Citation: Kaspersky Riltok June 2019),(Citation: Lookout FrozenCell),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cylance Dust Storm),(Citation: Threat Fabric Exobot),(Citation: Lookout Dark Caracal Jan 2018),(Citation: PaloAlto-SpyDealer),(Citation: SecurityIntelligence TrickMo),(Citation: SecureList BusyGasper),(Citation: securelist rotexy 2018),(Citation: Zscaler-SpyNote),(Citation: TrendMicro-XLoader),(Citation: Google Project Zero Insomnia),(Citation: FlexiSpy-Features),(Citation: TrendMicro Coronavirus Updates),(Citation: Threat Fabric Cerberus),(Citation: Lookout-Pegasus),(Citation: lookout_abstractemu_1021),(Citation: Zscaler TikTok Spyware),(Citation: Kaspersky Triada March 2016),(Citation: Lookout ViperRAT),(Citation: Cybereason EventBot),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Desert Scorpion),(Citation: NYTimes-BackDoor),(Citation: Securelist Asacub),(Citation: Symantec GoldenCup),(Citation: Google Bread),(Citation: Zscaler-SuperMarioRun),(Citation: FireEye-RuMMS),(Citation: Talos Gustuff Apr 2019),(Citation: TrendMicro-RCSAndroid),</t>
+  </si>
+  <si>
+    <t>(Citation: WhiteOps TERRACOTTA),(Citation: Zscaler TikTok Spyware),(Citation: Talos GPlayed),</t>
+  </si>
+  <si>
+    <t>(Citation: ThreatFabric Ginp),(Citation: SecurityIntelligence TrickMo),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cybereason EventBot),(Citation: Bitdefender Mandrake),(Citation: PaloAlto-SpyDealer),(Citation: Talos-WolfRAT),(Citation: SecureList BusyGasper),(Citation: Cofense Anubis),(Citation: Lookout Uyghur Campaign),(Citation: cyble_drinik_1022),(Citation: ESET DEFENSOR ID),(Citation: SWB Exodus March 2019),(Citation: Zscaler TikTok Spyware),(Citation: FlexiSpy-Features),(Citation: cleafy_sova_1122),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Monokle),(Citation: Nightwatch screencap April 2016)</t>
   </si>
   <si>
     <t>(Citation: Talos Gustuff Apr 2019),(Citation: Threat Fabric Exobot),(Citation: Android Package Visibility)</t>
   </si>
   <si>
-    <t>(Citation: Google Project Zero Insomnia),(Citation: cloudmark_tanglebot_0921),(Citation: SWB Exodus March 2019),(Citation: Cybereason FakeSpy),(Citation: Lookout-Monokle),(Citation: Lookout Dark Caracal Jan 2018),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: WhiteOps TERRACOTTA),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-StealthMango),(Citation: Bitdefender Mandrake),(Citation: Cybereason EventBot),(Citation: Cofense Anubis),(Citation: ESET DEFENSOR ID),(Citation: securelist rotexy 2018),(Citation: cleafy_sova_1122),(Citation: ThreatFabric Ginp),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-PegasusAndroid),(Citation: lookout_abstractemu_1021),(Citation: Google Triada June 2019),(Citation: CheckPoint Agent Smith),(Citation: Kaspersky Riltok June 2019),(Citation: SecureList - ViceLeaker 2019),(Citation: Threat Fabric Cerberus),(Citation: Talos GPlayed),(Citation: Palo Alto HenBox),(Citation: Talos-WolfRAT),(Citation: FlexiSpy-Features),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Uyghur Campaign),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout Desert Scorpion),(Citation: Symantec GoldenCup),(Citation: paloalto_yispecter_1015),(Citation: Android Package Visibility)</t>
+    <t>(Citation: Sophos Red Alert 2.0),(Citation: Cybereason FakeSpy),(Citation: CheckPoint Agent Smith),(Citation: Lookout Uyghur Campaign),(Citation: SWB Exodus March 2019),(Citation: ESET DEFENSOR ID),(Citation: Talos GPlayed),(Citation: cleafy_sova_1122),(Citation: Lookout-StealthMango),(Citation: Bitdefender Mandrake),(Citation: Talos-WolfRAT),(Citation: Palo Alto HenBox),(Citation: paloalto_yispecter_1015),(Citation: ThreatFabric Ginp),(Citation: Kaspersky Riltok June 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Google Triada June 2019),(Citation: Cofense Anubis),(Citation: Lookout-PegasusAndroid),(Citation: securelist rotexy 2018),(Citation: Google Project Zero Insomnia),(Citation: FlexiSpy-Features),(Citation: Threat Fabric Cerberus),(Citation: Zscaler TikTok Spyware),(Citation: lookout_abstractemu_1021),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Cybereason EventBot),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Desert Scorpion),(Citation: Symantec GoldenCup),(Citation: WhiteOps TERRACOTTA),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Monokle),(Citation: Android Package Visibility)</t>
   </si>
   <si>
     <t>(Citation: threatfabric_sova_0921),(Citation: Talos Gustuff Apr 2019),(Citation: Google Bread),</t>
   </si>
   <si>
-    <t>,(Citation: IETF-PKCE),(Citation: iOS Universal Links),(Citation: Android App Links),(Citation: Trend Micro iOS URL Hijacking)</t>
+    <t>,(Citation: IETF-PKCE),(Citation: Android App Links),(Citation: iOS Universal Links),(Citation: Trend Micro iOS URL Hijacking)</t>
   </si>
   <si>
     <t>(Citation: CheckPoint Agent Smith),</t>
   </si>
   <si>
-    <t>(Citation: Lookout-Pegasus),(Citation: Lookout-StealthMango),(Citation: SWB Exodus March 2019),(Citation: SecureList BusyGasper),(Citation: Cybereason FakeSpy),(Citation: PaloAlto-SpyDealer),(Citation: TrendMicro-RCSAndroid),(Citation: threatfabric_sova_0921),(Citation: FortiGuard-FlexiSpy),(Citation: Lookout Dark Caracal Jan 2018),(Citation: cleafy_sova_1122),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: Lookout-PegasusAndroid),(Citation: paloalto_yispecter_1015),(Citation: Lookout FrozenCell),(Citation: Kaspersky-Skygofree),(Citation: Bitdefender Mandrake),</t>
+    <t>(Citation: Lookout-StealthMango),(Citation: Lookout FrozenCell),(Citation: Bitdefender Mandrake),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Desert Scorpion),(Citation: Cybereason FakeSpy),(Citation: SecureList BusyGasper),(Citation: Lookout-PegasusAndroid),(Citation: PaloAlto-SpyDealer),(Citation: paloalto_yispecter_1015),(Citation: Lookout Uyghur Campaign),(Citation: SWB Exodus March 2019),(Citation: FortiGuard-FlexiSpy),(Citation: cleafy_sova_1122),(Citation: threatfabric_sova_0921),(Citation: Lookout-Pegasus),(Citation: Kaspersky-Skygofree),</t>
   </si>
   <si>
     <t>,(Citation: Android-TrustedCA),(Citation: Symantec-iOSProfile2)</t>
   </si>
   <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: Cybereason FakeSpy),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: ESET-Twitoor),(Citation: threatfabric_sova_0921),(Citation: Bitdefender Mandrake),(Citation: securelist rotexy 2018),(Citation: Zscaler TikTok Spyware),(Citation: ThreatFabric Ginp),(Citation: CheckPoint Agent Smith),(Citation: Group IB Gustuff Mar 2019),(Citation: CheckPoint SimBad 2019),(Citation: Threat Fabric Cerberus),(Citation: cyble_drinik_1022),(Citation: FlexiSpy-Features),(Citation: Bitdefender - Triout 2018),(Citation: FortiGuard-FlexiSpy),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: paloalto_yispecter_1015),(Citation: Android 10 Limitations to Hiding App Icons),(Citation: LauncherApps getActivityList)</t>
-  </si>
-  <si>
-    <t>(Citation: Cybereason EventBot),(Citation: BlackBerry Bahamut),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),</t>
-  </si>
-  <si>
-    <t>(Citation: BlackBerry Bahamut),(Citation: Palo Alto HenBox),(Citation: Talos-WolfRAT),(Citation: Trend Micro Anubis),(Citation: Cybereason FakeSpy),(Citation: securelist rotexy 2018),(Citation: ThreatFabric Ginp),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: WhiteOps TERRACOTTA),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout-Dendroid),(Citation: Bitdefender Mandrake),(Citation: Threat Fabric Cerberus),(Citation: lookout_abstractemu_1021),</t>
-  </si>
-  <si>
-    <t>(Citation: trendmicro_tianyspy_0122),(Citation: Lookout-Pegasus),(Citation: BlackBerry Bahamut),(Citation: Google Project Zero Insomnia),(Citation: Cybereason FakeSpy),(Citation: Lookout-Monokle),(Citation: Lookout ViperRAT),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Wandera-RedDrop),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Trend Micro Bouncing Golf 2019),(Citation: threatfabric_sova_0921),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout FrozenCell),(Citation: Talos Gustuff Apr 2019),(Citation: Bitdefender Mandrake),(Citation: Cybereason EventBot),(Citation: Cofense Anubis),(Citation: securelist rotexy 2018),(Citation: Zscaler TikTok Spyware),(Citation: lookout_abstractemu_1021),(Citation: Xiao-KeyRaider),(Citation: TrendMicro Coronavirus Updates),(Citation: Kaspersky Riltok June 2019),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: SecureList DVMap June 2017),(Citation: SecureList - ViceLeaker 2019),(Citation: Threat Fabric Cerberus),(Citation: Lookout eSurv),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: Securelist Asacub),(Citation: CheckPoint Cerberus),(Citation: Palo Alto HenBox),(Citation: FireEye-RuMMS),(Citation: Lookout Uyghur Campaign),(Citation: SecurityIntelligence TrickMo),(Citation: TrendMicro-Anserver2),(Citation: Lookout Desert Scorpion),(Citation: Symantec GoldenCup),(Citation: Kaspersky-WUC),(Citation: paloalto_yispecter_1015),</t>
-  </si>
-  <si>
-    <t>(Citation: trendmicro_tianyspy_0122),(Citation: Google Project Zero Insomnia),(Citation: SWB Exodus March 2019),(Citation: Cybereason FakeSpy),(Citation: Lookout-Monokle),(Citation: Lookout ViperRAT),(Citation: Google Bread),(Citation: Wandera-RedDrop),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout-StealthMango),(Citation: Lookout-EnterpriseApps),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout FrozenCell),(Citation: Cybereason EventBot),(Citation: securelist rotexy 2018),(Citation: Lookout-PegasusAndroid),(Citation: PaloAlto-DualToy),(Citation: lookout_abstractemu_1021),(Citation: TrendMicro Coronavirus Updates),(Citation: PaloAlto-SpyDealer),(Citation: Kaspersky Riltok June 2019),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: Securelist Asacub),(Citation: Talos-WolfRAT),(Citation: FireEye-RuMMS),(Citation: Lookout Uyghur Campaign),(Citation: SecurityIntelligence TrickMo),(Citation: TrendMicro-Anserver2),(Citation: Symantec GoldenCup),(Citation: paloalto_yispecter_1015),(Citation: TelephonyManager)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-Pegasus),(Citation: FlexiSpy-Features),(Citation: SWB Exodus March 2019),(Citation: Cybereason FakeSpy),(Citation: Lookout-Monokle),(Citation: Lookout ViperRAT),(Citation: Lookout Dark Caracal Jan 2018),</t>
-  </si>
-  <si>
-    <t>(Citation: Google Security Zen),(Citation: SecureList DVMap June 2017),(Citation: FortiGuard-FlexiSpy),(Citation: Android-VerifiedBoot)</t>
+    <t>(Citation: Bitdefender - Triout 2018),(Citation: Cybereason FakeSpy),(Citation: CheckPoint SimBad 2019),(Citation: CheckPoint Agent Smith),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender Mandrake),(Citation: cyble_drinik_1022),(Citation: ESET-Twitoor),(Citation: paloalto_yispecter_1015),(Citation: ThreatFabric Ginp),(Citation: SecureList BusyGasper),(Citation: securelist rotexy 2018),(Citation: FortiGuard-FlexiSpy),(Citation: FlexiSpy-Features),(Citation: Zscaler TikTok Spyware),(Citation: Threat Fabric Cerberus),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout Desert Scorpion),(Citation: Group IB Gustuff Mar 2019),(Citation: threatfabric_sova_0921),(Citation: Android 10 Limitations to Hiding App Icons),(Citation: LauncherApps getActivityList)</t>
+  </si>
+  <si>
+    <t>(Citation: BlackBerry Bahamut),(Citation: Cybereason EventBot),(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: WeLiveSecurity AdDisplayAshas),(Citation: ThreatFabric Ginp),(Citation: Lookout-Dendroid),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),(Citation: Trend Micro Anubis),(Citation: SecurityIntelligence TrickMo),(Citation: Talos-WolfRAT),(Citation: Cybereason FakeSpy),(Citation: securelist rotexy 2018),(Citation: BlackBerry Bahamut),(Citation: Palo Alto HenBox),(Citation: Threat Fabric Cerberus),(Citation: lookout_abstractemu_1021),</t>
+  </si>
+  <si>
+    <t>(Citation: Kaspersky-WUC),(Citation: Lookout eSurv),(Citation: Cybereason FakeSpy),(Citation: Lookout Uyghur Campaign),(Citation: threatfabric_sova_0921),(Citation: trendmicro_tianyspy_0122),(Citation: Talos GPlayed),(Citation: TrendMicro-Anserver2),(Citation: Bitdefender Mandrake),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Xiao-KeyRaider),(Citation: BlackBerry Bahamut),(Citation: Palo Alto HenBox),(Citation: paloalto_yispecter_1015),(Citation: Kaspersky Riltok June 2019),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout FrozenCell),(Citation: CheckPoint Cerberus),(Citation: Threat Fabric Exobot),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Cofense Anubis),(Citation: Wandera-RedDrop),(Citation: securelist rotexy 2018),(Citation: SecureList DVMap June 2017),(Citation: Google Project Zero Insomnia),(Citation: TrendMicro Coronavirus Updates),(Citation: Threat Fabric Cerberus),(Citation: Lookout-Pegasus),(Citation: lookout_abstractemu_1021),(Citation: Zscaler TikTok Spyware),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout ViperRAT),(Citation: Cybereason EventBot),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Desert Scorpion),(Citation: Securelist Asacub),(Citation: Symantec GoldenCup),(Citation: FireEye-RuMMS),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Monokle),(Citation: CYBERWARCON CHEMISTGAMES),</t>
+  </si>
+  <si>
+    <t>(Citation: Cybereason FakeSpy),(Citation: Lookout Uyghur Campaign),(Citation: SWB Exodus March 2019),(Citation: trendmicro_tianyspy_0122),(Citation: Talos GPlayed),(Citation: Lookout-StealthMango),(Citation: TrendMicro-Anserver2),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Talos-WolfRAT),(Citation: Lookout-EnterpriseApps),(Citation: paloalto_yispecter_1015),(Citation: Kaspersky Riltok June 2019),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout FrozenCell),(Citation: Threat Fabric Exobot),(Citation: PaloAlto-SpyDealer),(Citation: PaloAlto-DualToy),(Citation: Lookout-PegasusAndroid),(Citation: Wandera-RedDrop),(Citation: securelist rotexy 2018),(Citation: Google Project Zero Insomnia),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout ViperRAT),(Citation: lookout_abstractemu_1021),(Citation: Cybereason EventBot),(Citation: Securelist Asacub),(Citation: Symantec GoldenCup),(Citation: Google Bread),(Citation: WhiteOps TERRACOTTA),(Citation: FireEye-RuMMS),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Monokle),(Citation: TelephonyManager)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: Cybereason FakeSpy),(Citation: SWB Exodus March 2019),(Citation: FlexiSpy-Features),(Citation: Lookout ViperRAT),(Citation: Lookout-Pegasus),(Citation: Lookout-Monokle),</t>
+  </si>
+  <si>
+    <t>(Citation: FortiGuard-FlexiSpy),(Citation: Google Security Zen),(Citation: SecureList DVMap June 2017),(Citation: Android-VerifiedBoot)</t>
   </si>
   <si>
     <t>(Citation: threatfabric_sova_0921),(Citation: Android 10 Privacy Changes)</t>
@@ -2383,19 +2383,19 @@
     <t>(Citation: threatfabric_sova_0921),(Citation: Threat Fabric Cerberus),(Citation: nccgroup_sharkbot_0322),(Citation: SecurityIntelligence TrickMo),</t>
   </si>
   <si>
-    <t>(Citation: Palo Alto HenBox),(Citation: SecureList BusyGasper),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Uyghur Campaign),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: lookout_abstractemu_1021),</t>
-  </si>
-  <si>
-    <t>(Citation: proofpoint_flubot_0421),(Citation: SecureList BusyGasper),</t>
-  </si>
-  <si>
-    <t>(Citation: BlackBerry Bahamut),(Citation: cloudmark_tanglebot_0921),(Citation: SecureList BusyGasper),(Citation: SWB Exodus March 2019),(Citation: Lookout-Monokle),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout ViperRAT),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Dendroid),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-StealthMango),(Citation: CyberMerchants-FlexiSpy),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-PegasusAndroid),(Citation: Kaspersky-Skygofree),(Citation: lookout_abstractemu_1021),(Citation: Zscaler-SuperMarioRun),(Citation: TrendMicro Coronavirus Updates),(Citation: PaloAlto-SpyDealer),(Citation: SecureList - ViceLeaker 2019),(Citation: Palo Alto HenBox),(Citation: Talos-WolfRAT),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: Symantec GoldenCup),(Citation: Android Capture Sensor 2019)</t>
+    <t>(Citation: SecureList BusyGasper),(Citation: Lookout Uyghur Campaign),(Citation: Palo Alto HenBox),(Citation: Zscaler TikTok Spyware),(Citation: lookout_abstractemu_1021),(Citation: CYBERWARCON CHEMISTGAMES),</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList BusyGasper),(Citation: proofpoint_flubot_0421),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: SWB Exodus March 2019),(Citation: Lookout-Monokle),(Citation: Lookout-StealthMango),(Citation: Lookout-Dendroid),(Citation: Talos-WolfRAT),(Citation: BlackBerry Bahamut),(Citation: CyberMerchants-FlexiSpy),(Citation: Palo Alto HenBox),(Citation: Trend Micro Bouncing Golf 2019),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SecureList BusyGasper),(Citation: Lookout-PegasusAndroid),(Citation: TrendMicro Coronavirus Updates),(Citation: Zscaler TikTok Spyware),(Citation: Lookout ViperRAT),(Citation: lookout_abstractemu_1021),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Desert Scorpion),(Citation: Symantec GoldenCup),(Citation: Zscaler-SuperMarioRun),(Citation: cloudmark_tanglebot_0921),(Citation: TrendMicro-RCSAndroid),(Citation: Kaspersky-Skygofree),(Citation: Android Capture Sensor 2019)</t>
   </si>
   <si>
     <t>(Citation: lookout_abstractemu_1021),</t>
   </si>
   <si>
-    <t>(Citation: SWB Exodus March 2019),(Citation: Cybereason FakeSpy),(Citation: proofpoint_flubot_0421),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Google Bread),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Wandera-RedDrop),(Citation: threatfabric_sova_0921),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Talos Gustuff Apr 2019),(Citation: Cybereason EventBot),(Citation: Kaspersky-MobileMalware),(Citation: securelist rotexy 2018),(Citation: ESET DEFENSOR ID),(Citation: lookout_abstractemu_1021),(Citation: Kaspersky-Skygofree),(Citation: TrendMicro Coronavirus Updates),(Citation: Kaspersky Riltok June 2019),(Citation: SecureList - ViceLeaker 2019),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: Securelist Asacub),(Citation: CheckPoint Cerberus),(Citation: nccgroup_sharkbot_0322),(Citation: Bitdefender - Triout 2018),(Citation: Sophos Red Alert 2.0),(Citation: FireEye-RuMMS),(Citation: Lookout Uyghur Campaign),(Citation: SecurityIntelligence TrickMo),(Citation: paloalto_yispecter_1015),(Citation: Symantec GoldenCup),(Citation: Kaspersky-WUC),(Citation: Volexity Insomnia),</t>
+    <t>(Citation: Sophos Red Alert 2.0),(Citation: Kaspersky-WUC),(Citation: Bitdefender - Triout 2018),(Citation: Cybereason FakeSpy),(Citation: Lookout Uyghur Campaign),(Citation: SWB Exodus March 2019),(Citation: ESET DEFENSOR ID),(Citation: threatfabric_sova_0921),(Citation: Talos GPlayed),(Citation: proofpoint_flubot_0421),(Citation: nccgroup_sharkbot_0322),(Citation: paloalto_yispecter_1015),(Citation: Kaspersky Riltok June 2019),(Citation: SecurityIntelligence TrickMo),(Citation: CheckPoint Cerberus),(Citation: Threat Fabric Exobot),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Wandera-RedDrop),(Citation: securelist rotexy 2018),(Citation: TrendMicro Coronavirus Updates),(Citation: Kaspersky-MobileMalware),(Citation: lookout_abstractemu_1021),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Cybereason EventBot),(Citation: SecureList - ViceLeaker 2019),(Citation: Volexity Insomnia),(Citation: Securelist Asacub),(Citation: Symantec GoldenCup),(Citation: Google Bread),(Citation: FireEye-RuMMS),(Citation: Talos Gustuff Apr 2019),(Citation: Kaspersky-Skygofree),(Citation: CYBERWARCON CHEMISTGAMES),</t>
   </si>
   <si>
     <t>source ID</t>

--- a/docs/mobile-attack-v13.1/mobile-attack-v13.1-techniques.xlsx
+++ b/docs/mobile-attack-v13.1/mobile-attack-v13.1-techniques.xlsx
@@ -2140,133 +2140,133 @@
     <t>,</t>
   </si>
   <si>
-    <t>(Citation: Bitdefender Mandrake),(Citation: Talos-WolfRAT),(Citation: Check Point-Joker),(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),(Citation: TrendMicro Coronavirus Updates),(Citation: threatfabric_sova_0921),(Citation: lookout_abstractemu_1021),(Citation: Android Notification Listeners)</t>
+    <t>(Citation: Bitdefender Mandrake),(Citation: Check Point-Joker),(Citation: nccgroup_sharkbot_0322),(Citation: lookout_abstractemu_1021),(Citation: proofpoint_flubot_0421),(Citation: threatfabric_sova_0921),(Citation: TrendMicro Coronavirus Updates),(Citation: Talos-WolfRAT),(Citation: Android Notification Listeners)</t>
   </si>
   <si>
     <t>(Citation: Lookout-Monokle),</t>
   </si>
   <si>
-    <t>(Citation: threatfabric_sova_0921),(Citation: Skycure-Profiles),(Citation: Xiao-KeyRaider),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: cyble_drinik_1022),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout FrozenCell),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Desert Scorpion),(Citation: Google Triada June 2019),(Citation: Cofense Anubis),(Citation: SWB Exodus March 2019),(Citation: Securelist Asacub),(Citation: Symantec GoldenCup),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout eSurv),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout Uyghur Campaign),(Citation: proofpoint_flubot_0421),(Citation: CYBERWARCON CHEMISTGAMES),</t>
-  </si>
-  <si>
-    <t>(Citation: Bitdefender - Triout 2018),(Citation: Lookout eSurv),(Citation: Lookout Uyghur Campaign),(Citation: SWB Exodus March 2019),(Citation: Lookout-StealthMango),(Citation: Lookout-Dendroid),(Citation: Talos-WolfRAT),(Citation: Lookout-EnterpriseApps),(Citation: BlackBerry Bahamut),(Citation: CyberMerchants-FlexiSpy),(Citation: Palo Alto HenBox),(Citation: Lookout FrozenCell),(Citation: Trend Micro Bouncing Golf 2019),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Kaspersky-Skygofree),(Citation: Cofense Anubis),(Citation: SecureList BusyGasper),(Citation: Lookout-PegasusAndroid),(Citation: Wandera-RedDrop),(Citation: Zscaler-SpyNote),(Citation: TrendMicro Coronavirus Updates),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Pegasus),(Citation: lookout_abstractemu_1021),(Citation: Lookout ViperRAT),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Desert Scorpion),(Citation: Symantec GoldenCup),(Citation: TrendMicro-XLoader),(Citation: Zscaler-SuperMarioRun),(Citation: cloudmark_tanglebot_0921),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-Monokle),(Citation: Android Capture Sensor 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: WhiteOps TERRACOTTA),(Citation: Bitdefender Mandrake),</t>
+    <t>(Citation: threatfabric_sova_0921),(Citation: Xiao-KeyRaider),(Citation: Skycure-Profiles),</t>
+  </si>
+  <si>
+    <t>(Citation: cyble_drinik_1022),(Citation: Lookout Uyghur Campaign),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout FrozenCell),(Citation: Lookout Desert Scorpion),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Google Triada June 2019),(Citation: SWB Exodus March 2019),(Citation: Securelist Asacub),(Citation: Cofense Anubis),(Citation: Symantec GoldenCup),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout eSurv),(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),</t>
+  </si>
+  <si>
+    <t>(Citation: Bitdefender - Triout 2018),(Citation: Lookout ViperRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-PegasusAndroid),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-EnterpriseApps),(Citation: Palo Alto HenBox),(Citation: Symantec GoldenCup),(Citation: SWB Exodus March 2019),(Citation: Wandera-RedDrop),(Citation: PaloAlto-SpyDealer),(Citation: SecureList BusyGasper),(Citation: Lookout-Dendroid),(Citation: TrendMicro-RCSAndroid),(Citation: BlackBerry Bahamut),(Citation: Zscaler-SpyNote),(Citation: CyberMerchants-FlexiSpy),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Pegasus),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout FrozenCell),(Citation: Zscaler-SuperMarioRun),(Citation: lookout_abstractemu_1021),(Citation: Kaspersky-Skygofree),(Citation: Zscaler TikTok Spyware),(Citation: Cofense Anubis),(Citation: Lookout-Monokle),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: Lookout eSurv),(Citation: Lookout-StealthMango),(Citation: TrendMicro Coronavirus Updates),(Citation: Talos-WolfRAT),(Citation: TrendMicro-XLoader),(Citation: Android Capture Sensor 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: WhiteOps TERRACOTTA),(Citation: Bitdefender Mandrake),(Citation: SecureList BusyGasper),</t>
   </si>
   <si>
     <t>(Citation: HackerNews-OldBoot),</t>
   </si>
   <si>
-    <t>(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Microsoft MalLockerB),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cybereason EventBot),(Citation: Threat Fabric Exobot),(Citation: PaloAlto-SpyDealer),(Citation: WhiteOps TERRACOTTA),(Citation: SecurityIntelligence TrickMo),(Citation: Cybereason FakeSpy),(Citation: Lookout-PegasusAndroid),(Citation: CheckPoint SimBad 2019),(Citation: ESET DEFENSOR ID),(Citation: Zscaler-SpyNote),(Citation: Talos GPlayed),(Citation: FortiGuard-FlexiSpy),(Citation: Palo Alto HenBox),(Citation: Zscaler TikTok Spyware),(Citation: Android Changes to System Broadcasts)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-StealthMango),(Citation: Lookout-PegasusAndroid),(Citation: SWB Exodus March 2019),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-Monokle),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: Cofense Anubis),(Citation: Lookout Uyghur Campaign),(Citation: cyble_drinik_1022),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Monokle),</t>
-  </si>
-  <si>
-    <t>(Citation: Sophos Red Alert 2.0),(Citation: Kaspersky-WUC),(Citation: Lookout Uyghur Campaign),(Citation: SWB Exodus March 2019),(Citation: Lookout-StealthMango),(Citation: Talos-WolfRAT),(Citation: cyble_drinik_1022),(Citation: Lookout-EnterpriseApps),(Citation: Palo Alto HenBox),(Citation: Trend Micro Bouncing Golf 2019),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-PegasusAndroid),(Citation: Google Project Zero Insomnia),(Citation: TrendMicro Coronavirus Updates),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Pegasus),(Citation: lookout_abstractemu_1021),(Citation: Lookout ViperRAT),(Citation: SecureList - ViceLeaker 2019),(Citation: NYTimes-BackDoor),(Citation: Zscaler-SuperMarioRun),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Monokle),</t>
-  </si>
-  <si>
-    <t>(Citation: Trend Micro Bouncing Golf 2019),(Citation: TrendMicro-RCSAndroid),(Citation: PaloAlto-XcodeGhost),(Citation: Android 10 Privacy Changes)</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Bitdefender Mandrake),(Citation: Lookout Desert Scorpion),(Citation: Lookout Uyghur Campaign),(Citation: trendmicro_tianyspy_0122),(Citation: SecureList DVMap June 2017),(Citation: BlackBerry Bahamut),(Citation: paloalto_yispecter_1015),(Citation: Android-TrustedCA),(Citation: Symantec-iOSProfile2)</t>
+    <t>(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Threat Fabric Exobot),(Citation: ESET DEFENSOR ID),(Citation: Cybereason FakeSpy),(Citation: FortiGuard-FlexiSpy),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-PegasusAndroid),(Citation: WhiteOps TERRACOTTA),(Citation: Zscaler TikTok Spyware),(Citation: PaloAlto-SpyDealer),(Citation: Talos GPlayed),(Citation: Microsoft MalLockerB),(Citation: Cybereason EventBot),(Citation: Zscaler-SpyNote),(Citation: SecurityIntelligence TrickMo),(Citation: Palo Alto HenBox),(Citation: CheckPoint SimBad 2019),(Citation: Android Changes to System Broadcasts)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-PegasusAndroid),(Citation: SWB Exodus March 2019),(Citation: Lookout-StealthMango),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-Monokle),</t>
+  </si>
+  <si>
+    <t>(Citation: cloudmark_tanglebot_0921),(Citation: SecureList BusyGasper),(Citation: Cofense Anubis),(Citation: Lookout Uyghur Campaign),(Citation: cyble_drinik_1022),(Citation: Lookout-Monokle),</t>
+  </si>
+  <si>
+    <t>(Citation: Sophos Red Alert 2.0),(Citation: Lookout ViperRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: NYTimes-BackDoor),(Citation: Lookout-PegasusAndroid),(Citation: cloudmark_tanglebot_0921),(Citation: cyble_drinik_1022),(Citation: Lookout-EnterpriseApps),(Citation: Palo Alto HenBox),(Citation: SWB Exodus March 2019),(Citation: PaloAlto-SpyDealer),(Citation: Kaspersky-WUC),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Pegasus),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Zscaler-SuperMarioRun),(Citation: lookout_abstractemu_1021),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Monokle),(Citation: Lookout Uyghur Campaign),(Citation: Google Project Zero Insomnia),(Citation: Lookout-StealthMango),(Citation: TrendMicro Coronavirus Updates),(Citation: Talos-WolfRAT),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro-RCSAndroid),(Citation: Trend Micro Bouncing Golf 2019),(Citation: PaloAlto-XcodeGhost),(Citation: Android 10 Privacy Changes)</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList DVMap June 2017),(Citation: Bitdefender Mandrake),(Citation: Lookout Desert Scorpion),(Citation: trendmicro_tianyspy_0122),(Citation: paloalto_yispecter_1015),(Citation: BlackBerry Bahamut),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout Uyghur Campaign),(Citation: Android-TrustedCA),(Citation: Symantec-iOSProfile2)</t>
   </si>
   <si>
     <t>(Citation: trendmicro_tianyspy_0122),</t>
   </si>
   <si>
-    <t>(Citation: CheckPoint Agent Smith),(Citation: paloalto_yispecter_1015),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-SpyDealer),(Citation: SecureList BusyGasper),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-BrainTest),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Adware),(Citation: Lookout-Pegasus),(Citation: Lookout-Monokle),</t>
+    <t>(Citation: paloalto_yispecter_1015),(Citation: CheckPoint Agent Smith),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-Pegasus),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Adware),(Citation: PaloAlto-SpyDealer),(Citation: SecureList BusyGasper),(Citation: Lookout-BrainTest),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Monokle),</t>
   </si>
   <si>
     <t>(Citation: PaloAlto-XcodeGhost1),(Citation: PaloAlto-XcodeGhost),</t>
   </si>
   <si>
-    <t>(Citation: HackerNews-Allwinner),(Citation: Lookout-StealthMango),(Citation: Google Triada June 2019),(Citation: NYTimes-BackDoor),(Citation: Krebs-Triada June 2019),(Citation: BankInfoSecurity-BackDoor),(Citation: CYBERWARCON CHEMISTGAMES),</t>
-  </si>
-  <si>
-    <t>(Citation: Sophos Red Alert 2.0),(Citation: Kaspersky-WUC),(Citation: Lookout eSurv),(Citation: Cybereason FakeSpy),(Citation: Lookout Uyghur Campaign),(Citation: SWB Exodus March 2019),(Citation: Talos GPlayed),(Citation: proofpoint_flubot_0421),(Citation: Lookout-StealthMango),(Citation: Bitdefender Mandrake),(Citation: cloudmark_tanglebot_0921),(Citation: Talos-WolfRAT),(Citation: Lookout-EnterpriseApps),(Citation: BlackBerry Bahamut),(Citation: CyberMerchants-FlexiSpy),(Citation: Palo Alto HenBox),(Citation: ThreatFabric Ginp),(Citation: Kaspersky Riltok June 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Threat Fabric Exobot),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Cofense Anubis),(Citation: CheckPoint-Charger),(Citation: Lookout-PegasusAndroid),(Citation: securelist rotexy 2018),(Citation: Zscaler-SpyNote),(Citation: Google Project Zero Insomnia),(Citation: TrendMicro Coronavirus Updates),(Citation: Threat Fabric Cerberus),(Citation: Lookout-Pegasus),(Citation: lookout_abstractemu_1021),(Citation: Zscaler TikTok Spyware),(Citation: Lookout ViperRAT),(Citation: Lookout Desert Scorpion),(Citation: NYTimes-BackDoor),(Citation: Securelist Asacub),(Citation: Symantec GoldenCup),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Monokle),</t>
-  </si>
-  <si>
-    <t>(Citation: Cofense Anubis),(Citation: cleafy_sova_1122),(Citation: PaloAlto-Xbot),</t>
-  </si>
-  <si>
-    <t>(Citation: Trend Micro Anubis),(Citation: Bitdefender - Triout 2018),(Citation: Lookout eSurv),(Citation: Lookout Uyghur Campaign),(Citation: SWB Exodus March 2019),(Citation: Talos GPlayed),(Citation: Lookout-StealthMango),(Citation: Lookout-Dendroid),(Citation: cloudmark_tanglebot_0921),(Citation: Talos-WolfRAT),(Citation: cyble_drinik_1022),(Citation: Gooligan Citation),(Citation: BlackBerry Bahamut),(Citation: Palo Alto HenBox),(Citation: ThreatFabric Ginp),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout FrozenCell),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cylance Dust Storm),(Citation: Cofense Anubis),(Citation: SecureList BusyGasper),(Citation: Zscaler-SpyNote),(Citation: Google Project Zero Insomnia),(Citation: FlexiSpy-Features),(Citation: TrendMicro Coronavirus Updates),(Citation: Zscaler TikTok Spyware),(Citation: Lookout ViperRAT),(Citation: lookout_abstractemu_1021),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Desert Scorpion),(Citation: Symantec GoldenCup),(Citation: Talos Gustuff Apr 2019),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-Monokle),(Citation: CYBERWARCON CHEMISTGAMES),</t>
-  </si>
-  <si>
-    <t>(Citation: Sophos Red Alert 2.0),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Trend Micro Anubis),(Citation: Cofense Anubis),(Citation: TrendMicro-Anserver),</t>
-  </si>
-  <si>
-    <t>(Citation: Sophos Red Alert 2.0),(Citation: Threat Fabric Exobot),(Citation: Securelist Asacub),(Citation: Talos GPlayed),(Citation: TrendMicro-XLoader),(Citation: Proofpoint-Marcher),(Citation: lookout_abstractemu_1021),(Citation: GoogleIO2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft MalLockerB),(Citation: SecurityIntelligence TrickMo),(Citation: securelist rotexy 2018),</t>
-  </si>
-  <si>
-    <t>(Citation: Bitdefender Mandrake),(Citation: Cofense Anubis),(Citation: cyble_drinik_1022),(Citation: Google Security Zen),(Citation: SecureList DVMap June 2017),(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Cerberus),(Citation: lookout_abstractemu_1021),</t>
-  </si>
-  <si>
-    <t>(Citation: nccgroup_sharkbot_0322),(Citation: Bitdefender Mandrake),(Citation: securelist rotexy 2018),(Citation: proofpoint_flubot_0421),</t>
-  </si>
-  <si>
-    <t>(Citation: Sophos Red Alert 2.0),(Citation: Trend Micro Anubis),(Citation: Lookout eSurv),(Citation: Lookout-BrainTest),(Citation: Lookout Uyghur Campaign),(Citation: SWB Exodus March 2019),(Citation: Xiao-ZergHelper),(Citation: Google Security Zen),(Citation: Talos GPlayed),(Citation: CheckPoint-Judy),(Citation: Bitdefender Mandrake),(Citation: nccgroup_sharkbot_0322),(Citation: BlackBerry Bahamut),(Citation: Palo Alto HenBox),(Citation: paloalto_yispecter_1015),(Citation: Lookout FrozenCell),(Citation: PaloAlto-SpyDealer),(Citation: Google Triada June 2019),(Citation: SecureList BusyGasper),(Citation: SecureList DVMap June 2017),(Citation: Lookout ViperRAT),(Citation: Threat Fabric Cerberus),(Citation: lookout_abstractemu_1021),(Citation: Cybereason EventBot),(Citation: Lookout Desert Scorpion),(Citation: Symantec GoldenCup),(Citation: Google Bread),(Citation: WhiteOps TERRACOTTA),(Citation: Talos-WolfRAT),(Citation: TrendMicro-RCSAndroid),(Citation: Kaspersky-Skygofree),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Android 10 Execute)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-StealthMango),(Citation: paloalto_yispecter_1015),(Citation: Lookout-Pegasus),(Citation: Volexity Insomnia),</t>
+    <t>(Citation: Krebs-Triada June 2019),(Citation: BankInfoSecurity-BackDoor),(Citation: NYTimes-BackDoor),(Citation: Google Triada June 2019),(Citation: HackerNews-Allwinner),(Citation: Lookout-StealthMango),(Citation: CYBERWARCON CHEMISTGAMES),</t>
+  </si>
+  <si>
+    <t>(Citation: Sophos Red Alert 2.0),(Citation: Lookout ViperRAT),(Citation: Threat Fabric Exobot),(Citation: Cybereason FakeSpy),(Citation: Trend Micro Bouncing Golf 2019),(Citation: NYTimes-BackDoor),(Citation: Lookout-PegasusAndroid),(Citation: Talos GPlayed),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-EnterpriseApps),(Citation: Palo Alto HenBox),(Citation: Kaspersky Riltok June 2019),(Citation: Symantec GoldenCup),(Citation: Bitdefender Mandrake),(Citation: Threat Fabric Cerberus),(Citation: SWB Exodus March 2019),(Citation: PaloAlto-SpyDealer),(Citation: Zscaler-SpyNote),(Citation: BlackBerry Bahamut),(Citation: CyberMerchants-FlexiSpy),(Citation: Kaspersky-WUC),(Citation: Lookout-Pegasus),(Citation: Lookout Dark Caracal Jan 2018),(Citation: lookout_abstractemu_1021),(Citation: Zscaler TikTok Spyware),(Citation: ThreatFabric Ginp),(Citation: proofpoint_flubot_0421),(Citation: Talos Gustuff Apr 2019),(Citation: CheckPoint-Charger),(Citation: Cofense Anubis),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Monokle),(Citation: securelist rotexy 2018),(Citation: Lookout Desert Scorpion),(Citation: Google Project Zero Insomnia),(Citation: Lookout eSurv),(Citation: Securelist Asacub),(Citation: Lookout-StealthMango),(Citation: TrendMicro Coronavirus Updates),(Citation: Talos-WolfRAT),</t>
+  </si>
+  <si>
+    <t>(Citation: Cofense Anubis),(Citation: PaloAlto-Xbot),(Citation: cleafy_sova_1122),</t>
+  </si>
+  <si>
+    <t>(Citation: Bitdefender - Triout 2018),(Citation: Lookout ViperRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos GPlayed),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: cloudmark_tanglebot_0921),(Citation: cyble_drinik_1022),(Citation: Palo Alto HenBox),(Citation: Symantec GoldenCup),(Citation: Trend Micro Anubis),(Citation: Cylance Dust Storm),(Citation: SWB Exodus March 2019),(Citation: Gooligan Citation),(Citation: SecureList BusyGasper),(Citation: Lookout-Dendroid),(Citation: TrendMicro-RCSAndroid),(Citation: BlackBerry Bahamut),(Citation: Zscaler-SpyNote),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout FrozenCell),(Citation: FlexiSpy-Features),(Citation: lookout_abstractemu_1021),(Citation: Zscaler TikTok Spyware),(Citation: ThreatFabric Ginp),(Citation: Talos Gustuff Apr 2019),(Citation: SecurityIntelligence TrickMo),(Citation: Cofense Anubis),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Monokle),(Citation: Lookout Desert Scorpion),(Citation: Google Project Zero Insomnia),(Citation: Lookout eSurv),(Citation: Lookout-StealthMango),(Citation: TrendMicro Coronavirus Updates),(Citation: Talos-WolfRAT),</t>
+  </si>
+  <si>
+    <t>(Citation: Sophos Red Alert 2.0),(Citation: Trend Micro Anubis),(Citation: Cofense Anubis),(Citation: TrendMicro-Anserver),(Citation: TrendMicro-XLoader-FakeSpy),</t>
+  </si>
+  <si>
+    <t>(Citation: Sophos Red Alert 2.0),(Citation: Threat Fabric Exobot),(Citation: lookout_abstractemu_1021),(Citation: Securelist Asacub),(Citation: Talos GPlayed),(Citation: Proofpoint-Marcher),(Citation: TrendMicro-XLoader),(Citation: GoogleIO2016)</t>
+  </si>
+  <si>
+    <t>(Citation: securelist rotexy 2018),(Citation: SecurityIntelligence TrickMo),(Citation: Microsoft MalLockerB),</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList DVMap June 2017),(Citation: Bitdefender Mandrake),(Citation: Threat Fabric Cerberus),(Citation: Google Security Zen),(Citation: lookout_abstractemu_1021),(Citation: proofpoint_flubot_0421),(Citation: Cofense Anubis),(Citation: cyble_drinik_1022),</t>
+  </si>
+  <si>
+    <t>(Citation: Bitdefender Mandrake),(Citation: proofpoint_flubot_0421),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),</t>
+  </si>
+  <si>
+    <t>(Citation: Sophos Red Alert 2.0),(Citation: Lookout ViperRAT),(Citation: nccgroup_sharkbot_0322),(Citation: Google Security Zen),(Citation: paloalto_yispecter_1015),(Citation: Talos GPlayed),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Palo Alto HenBox),(Citation: Symantec GoldenCup),(Citation: Trend Micro Anubis),(Citation: Bitdefender Mandrake),(Citation: Threat Fabric Cerberus),(Citation: WhiteOps TERRACOTTA),(Citation: SWB Exodus March 2019),(Citation: PaloAlto-SpyDealer),(Citation: SecureList BusyGasper),(Citation: TrendMicro-RCSAndroid),(Citation: BlackBerry Bahamut),(Citation: Lookout-BrainTest),(Citation: SecureList DVMap June 2017),(Citation: Lookout FrozenCell),(Citation: lookout_abstractemu_1021),(Citation: Kaspersky-Skygofree),(Citation: Cybereason EventBot),(Citation: Lookout Uyghur Campaign),(Citation: Google Bread),(Citation: Xiao-ZergHelper),(Citation: Lookout Desert Scorpion),(Citation: Google Triada June 2019),(Citation: Lookout eSurv),(Citation: CheckPoint-Judy),(Citation: Talos-WolfRAT),(Citation: Android 10 Execute)</t>
+  </si>
+  <si>
+    <t>(Citation: Volexity Insomnia),(Citation: paloalto_yispecter_1015),(Citation: Lookout-StealthMango),(Citation: Lookout-Pegasus),</t>
   </si>
   <si>
     <t>(Citation: ESET-Twitoor),</t>
   </si>
   <si>
-    <t>(Citation: CheckPoint-Charger),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: PaloAlto-Xbot),</t>
+    <t>(Citation: PaloAlto-Xbot),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: CheckPoint-Charger),</t>
   </si>
   <si>
     <t>,(Citation: Android Changes to System Broadcasts)</t>
   </si>
   <si>
-    <t>(Citation: Trend Micro Bouncing Golf 2019),(Citation: SecureList - ViceLeaker 2019),(Citation: Cylance Dust Storm),(Citation: Bitdefender - Triout 2018),(Citation: Lookout Dark Caracal Jan 2018),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Google Triada June 2019),(Citation: Lookout eSurv),(Citation: Wandera-RedDrop),(Citation: Lookout Uyghur Campaign),(Citation: cyble_drinik_1022),(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),(Citation: lookout_abstractemu_1021),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: TrendMicro Coronavirus Updates),</t>
-  </si>
-  <si>
-    <t>(Citation: ArsTechnica-HummingBad),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Volexity Insomnia),(Citation: Kaspersky-Skygofree),(Citation: Lookout-PegasusAndroid),(Citation: CheckPoint Agent Smith),(Citation: Lookout-BrainTest),(Citation: Lookout Uyghur Campaign),(Citation: SWB Exodus March 2019),(Citation: Lookout-Adware),(Citation: Google Security Zen),(Citation: Gooligan Citation),(Citation: SecureList DVMap June 2017),(Citation: Lookout-Pegasus),(Citation: lookout_abstractemu_1021),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro-DressCode),(Citation: Lookout-NotCompatible),</t>
-  </si>
-  <si>
-    <t>(Citation: Trend Micro Bouncing Golf 2019),(Citation: Bitdefender Mandrake),(Citation: SecureList - ViceLeaker 2019),(Citation: Talos-WolfRAT),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Desert Scorpion),(Citation: CheckPoint Agent Smith),(Citation: Lookout Uyghur Campaign),(Citation: Talos GPlayed),(Citation: CyberMerchants-FlexiSpy),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Monokle),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout FrozenCell),(Citation: Cylance Dust Storm),(Citation: Lookout Desert Scorpion),(Citation: Lookout Uyghur Campaign),(Citation: Symantec GoldenCup),(Citation: BlackBerry Bahamut),(Citation: Zscaler TikTok Spyware),</t>
-  </si>
-  <si>
-    <t>(Citation: WhiteOps TERRACOTTA),(Citation: Bitdefender Mandrake),(Citation: Zscaler TikTok Spyware),(Citation: cyble_drinik_1022),</t>
-  </si>
-  <si>
-    <t>(Citation: Sophos Red Alert 2.0),(Citation: threatfabric_sova_0921),(Citation: trendmicro_tianyspy_0122),(Citation: Talos GPlayed),(Citation: proofpoint_flubot_0421),(Citation: Proofpoint-Marcher),(Citation: Lookout-Dendroid),(Citation: Bitdefender Mandrake),(Citation: cloudmark_tanglebot_0921),(Citation: nccgroup_sharkbot_0322),(Citation: cyble_drinik_1022),(Citation: PaloAlto-Xbot),(Citation: ThreatFabric Ginp),(Citation: Kaspersky Riltok June 2019),(Citation: Threat Fabric Exobot),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Cofense Anubis),(Citation: securelist rotexy 2018),(Citation: Threat Fabric Cerberus),(Citation: Zscaler TikTok Spyware),(Citation: Cybereason EventBot),(Citation: PaloAlto-XcodeGhost),(Citation: Group IB Gustuff Mar 2019),(Citation: WhiteOps TERRACOTTA),(Citation: Talos Gustuff Apr 2019),(Citation: Android 12 Features)</t>
-  </si>
-  <si>
-    <t>(Citation: WeLiveSecurity AdDisplayAshas),(Citation: CheckPoint-Judy),(Citation: ArsTechnica-HummingBad),(Citation: ArsTechnica-HummingWhale),(Citation: Google Triada June 2019),(Citation: Wandera-RedDrop),(Citation: CheckPoint SimBad 2019),(Citation: CheckPoint Agent Smith),(Citation: Lookout-BrainTest),(Citation: Lookout-EnterpriseApps),(Citation: Google Security Zen),(Citation: Gooligan Citation),(Citation: Google Bread),(Citation: WhiteOps TERRACOTTA),(Citation: Kaspersky Triada June 2016),(Citation: Tripwire-MazarBOT),</t>
-  </si>
-  <si>
-    <t>(Citation: BlackBerry Bahamut),(Citation: Lookout eSurv),</t>
+    <t>(Citation: Bitdefender - Triout 2018),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Google Triada June 2019),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout eSurv),(Citation: lookout_abstractemu_1021),(Citation: Cylance Dust Storm),(Citation: Wandera-RedDrop),(Citation: proofpoint_flubot_0421),(Citation: cyble_drinik_1022),(Citation: SecureList - ViceLeaker 2019),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout Uyghur Campaign),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList BusyGasper),</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList DVMap June 2017),(Citation: Lookout-Pegasus),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Volexity Insomnia),(Citation: Lookout-PegasusAndroid),(Citation: lookout_abstractemu_1021),(Citation: SWB Exodus March 2019),(Citation: Gooligan Citation),(Citation: Kaspersky-Skygofree),(Citation: Lookout-Adware),(Citation: Google Security Zen),(Citation: ArsTechnica-HummingBad),(Citation: PaloAlto-SpyDealer),(Citation: CheckPoint Agent Smith),(Citation: Lookout-BrainTest),(Citation: Lookout Uyghur Campaign),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-NotCompatible),(Citation: TrendMicro-DressCode),</t>
+  </si>
+  <si>
+    <t>(Citation: Bitdefender Mandrake),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Desert Scorpion),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Monokle),(Citation: Talos GPlayed),(Citation: CheckPoint Agent Smith),(Citation: CyberMerchants-FlexiSpy),(Citation: SecureList - ViceLeaker 2019),(Citation: Talos-WolfRAT),(Citation: Lookout Uyghur Campaign),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout FrozenCell),(Citation: Lookout Desert Scorpion),(Citation: Cylance Dust Storm),(Citation: Symantec GoldenCup),(Citation: Zscaler TikTok Spyware),(Citation: BlackBerry Bahamut),(Citation: Lookout Uyghur Campaign),</t>
+  </si>
+  <si>
+    <t>(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),(Citation: cyble_drinik_1022),(Citation: Zscaler TikTok Spyware),</t>
+  </si>
+  <si>
+    <t>(Citation: Sophos Red Alert 2.0),(Citation: Threat Fabric Exobot),(Citation: nccgroup_sharkbot_0322),(Citation: threatfabric_sova_0921),(Citation: Talos GPlayed),(Citation: cloudmark_tanglebot_0921),(Citation: cyble_drinik_1022),(Citation: Kaspersky Riltok June 2019),(Citation: PaloAlto-Xbot),(Citation: Bitdefender Mandrake),(Citation: Threat Fabric Cerberus),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout-Dendroid),(Citation: Lookout Dark Caracal Jan 2018),(Citation: PaloAlto-XcodeGhost),(Citation: Zscaler TikTok Spyware),(Citation: ThreatFabric Ginp),(Citation: proofpoint_flubot_0421),(Citation: Talos Gustuff Apr 2019),(Citation: Cybereason EventBot),(Citation: Proofpoint-Marcher),(Citation: Cofense Anubis),(Citation: securelist rotexy 2018),(Citation: trendmicro_tianyspy_0122),(Citation: Group IB Gustuff Mar 2019),(Citation: Android 12 Features)</t>
+  </si>
+  <si>
+    <t>(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Google Triada June 2019),(Citation: WhiteOps TERRACOTTA),(Citation: Google Security Zen),(Citation: Tripwire-MazarBOT),(Citation: Gooligan Citation),(Citation: Wandera-RedDrop),(Citation: ArsTechnica-HummingWhale),(Citation: ArsTechnica-HummingBad),(Citation: CheckPoint-Judy),(Citation: CheckPoint Agent Smith),(Citation: Kaspersky Triada June 2016),(Citation: Lookout-BrainTest),(Citation: Lookout-EnterpriseApps),(Citation: CheckPoint SimBad 2019),(Citation: Google Bread),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout eSurv),(Citation: BlackBerry Bahamut),</t>
   </si>
   <si>
     <t>(Citation: paloalto_yispecter_1015),(Citation: Android-VerifiedBoot)</t>
@@ -2275,73 +2275,73 @@
     <t>(Citation: CitizenLab Circles),(Citation: CSRIC-WG1-FinalReport)</t>
   </si>
   <si>
-    <t>(Citation: Bitdefender Mandrake),(Citation: SecureList - ViceLeaker 2019),(Citation: Wandera-RedDrop),(Citation: lookout_abstractemu_1021),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout-Monokle),</t>
-  </si>
-  <si>
-    <t>,(Citation: Samsung Keyboards),(Citation: Android 12 Features)</t>
-  </si>
-  <si>
-    <t>(Citation: ThreatFabric Ginp),(Citation: Kaspersky Riltok June 2019),(Citation: SecurityIntelligence TrickMo),(Citation: CheckPoint Cerberus),(Citation: Bitdefender Mandrake),(Citation: nccgroup_sharkbot_0322),(Citation: ESET DEFENSOR ID),(Citation: Talos Gustuff Apr 2019),(Citation: Google Security Zen),(Citation: WhiteOps TERRACOTTA),(Citation: cleafy_sova_1122),(Citation: Threat Fabric Cerberus),</t>
+    <t>(Citation: Bitdefender Mandrake),(Citation: nccgroup_sharkbot_0322),(Citation: lookout_abstractemu_1021),(Citation: Wandera-RedDrop),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Monokle),</t>
+  </si>
+  <si>
+    <t>,(Citation: Android 12 Features),(Citation: Samsung Keyboards)</t>
+  </si>
+  <si>
+    <t>(Citation: Bitdefender Mandrake),(Citation: ESET DEFENSOR ID),(Citation: Threat Fabric Cerberus),(Citation: cleafy_sova_1122),(Citation: nccgroup_sharkbot_0322),(Citation: WhiteOps TERRACOTTA),(Citation: Google Security Zen),(Citation: Talos Gustuff Apr 2019),(Citation: ThreatFabric Ginp),(Citation: SecurityIntelligence TrickMo),(Citation: Kaspersky Riltok June 2019),(Citation: CheckPoint Cerberus),</t>
   </si>
   <si>
     <t>(Citation: Google Project Zero Insomnia),</t>
   </si>
   <si>
-    <t>(Citation: Cybereason EventBot),(Citation: Threat Fabric Exobot),(Citation: Cofense Anubis),(Citation: SecureList BusyGasper),(Citation: nccgroup_sharkbot_0322),(Citation: cyble_drinik_1022),(Citation: Talos Gustuff Apr 2019),(Citation: threatfabric_sova_0921),(Citation: BlackBerry Bahamut),(Citation: FlexiSpy-Features),(Citation: Threat Fabric Cerberus),(Citation: Lookout-Monokle),(Citation: Samsung Keyboards)</t>
-  </si>
-  <si>
-    <t>(Citation: Kaspersky-WUC),(Citation: Bitdefender - Triout 2018),(Citation: Lookout eSurv),(Citation: Lookout Uyghur Campaign),(Citation: SWB Exodus March 2019),(Citation: Talos GPlayed),(Citation: Lookout-StealthMango),(Citation: Bitdefender Mandrake),(Citation: Lookout-EnterpriseApps),(Citation: CyberMerchants-FlexiSpy),(Citation: BlackBerry Bahamut),(Citation: Palo Alto HenBox),(Citation: Lookout FrozenCell),(Citation: Trend Micro Bouncing Golf 2019),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Kaspersky-Skygofree),(Citation: Cofense Anubis),(Citation: SecureList BusyGasper),(Citation: CheckPoint-Charger),(Citation: Zscaler-SpyNote),(Citation: Google Project Zero Insomnia),(Citation: TrendMicro Coronavirus Updates),(Citation: Threat Fabric Cerberus),(Citation: Lookout-Pegasus),(Citation: lookout_abstractemu_1021),(Citation: Zscaler TikTok Spyware),(Citation: Lookout ViperRAT),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Desert Scorpion),(Citation: NYTimes-BackDoor),(Citation: CrowdStrike-Android),(Citation: Symantec GoldenCup),(Citation: cloudmark_tanglebot_0921),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-Monokle),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: CSRIC5-WG10-FinalReport)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: Securelist Asacub),(Citation: Google Bread),(Citation: WhiteOps TERRACOTTA),(Citation: Palo Alto HenBox),(Citation: CYBERWARCON CHEMISTGAMES),</t>
+    <t>(Citation: Threat Fabric Exobot),(Citation: FlexiSpy-Features),(Citation: Threat Fabric Cerberus),(Citation: nccgroup_sharkbot_0322),(Citation: Talos Gustuff Apr 2019),(Citation: threatfabric_sova_0921),(Citation: SecureList BusyGasper),(Citation: Cybereason EventBot),(Citation: BlackBerry Bahamut),(Citation: Cofense Anubis),(Citation: cyble_drinik_1022),(Citation: Lookout-Monokle),(Citation: Samsung Keyboards)</t>
+  </si>
+  <si>
+    <t>(Citation: Bitdefender - Triout 2018),(Citation: Lookout ViperRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: NYTimes-BackDoor),(Citation: Talos GPlayed),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-EnterpriseApps),(Citation: Palo Alto HenBox),(Citation: Symantec GoldenCup),(Citation: Bitdefender Mandrake),(Citation: CrowdStrike-Android),(Citation: Threat Fabric Cerberus),(Citation: SWB Exodus March 2019),(Citation: PaloAlto-SpyDealer),(Citation: SecureList BusyGasper),(Citation: TrendMicro-RCSAndroid),(Citation: Zscaler-SpyNote),(Citation: BlackBerry Bahamut),(Citation: CyberMerchants-FlexiSpy),(Citation: Kaspersky-WUC),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Pegasus),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout FrozenCell),(Citation: lookout_abstractemu_1021),(Citation: Kaspersky-Skygofree),(Citation: Zscaler TikTok Spyware),(Citation: CheckPoint-Charger),(Citation: Cofense Anubis),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Monokle),(Citation: Lookout Desert Scorpion),(Citation: Google Project Zero Insomnia),(Citation: Lookout eSurv),(Citation: Lookout-StealthMango),(Citation: TrendMicro Coronavirus Updates),(Citation: CSRIC5-WG10-FinalReport)</t>
+  </si>
+  <si>
+    <t>(Citation: WhiteOps TERRACOTTA),(Citation: Securelist Asacub),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Palo Alto HenBox),(Citation: Google Bread),(Citation: Lookout Uyghur Campaign),</t>
   </si>
   <si>
     <t>(Citation: threatfabric_sova_0921),</t>
   </si>
   <si>
-    <t>(Citation: Sophos Red Alert 2.0),(Citation: CheckPoint Cerberus),(Citation: Bitdefender Mandrake),(Citation: Volexity Insomnia),(Citation: SWB Exodus March 2019),(Citation: FortiGuard-FlexiSpy),</t>
-  </si>
-  <si>
-    <t>(Citation: Sophos Red Alert 2.0),(Citation: Cybereason FakeSpy),(Citation: Lookout-BrainTest),(Citation: Lookout Uyghur Campaign),(Citation: Google Security Zen),(Citation: trendmicro_tianyspy_0122),(Citation: Talos GPlayed),(Citation: proofpoint_flubot_0421),(Citation: Bitdefender Mandrake),(Citation: Talos-WolfRAT),(Citation: nccgroup_sharkbot_0322),(Citation: cyble_drinik_1022),(Citation: PaloAlto-WireLurker),(Citation: TrendMicro-Obad),(Citation: BlackBerry Bahamut),(Citation: Palo Alto HenBox),(Citation: Microsoft MalLockerB),(Citation: ThreatFabric Ginp),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout Dark Caracal Jan 2018),(Citation: CheckPoint-Charger),(Citation: securelist rotexy 2018),(Citation: TrendMicro-XLoader),(Citation: SecureList DVMap June 2017),(Citation: FortiGuard-FlexiSpy),(Citation: Threat Fabric Cerberus),(Citation: lookout_abstractemu_1021),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Cybereason EventBot),(Citation: Volexity Insomnia),(Citation: Check Point-Joker),(Citation: Securelist Asacub),(Citation: Google Bread),(Citation: WhiteOps TERRACOTTA),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Monokle),(Citation: CYBERWARCON CHEMISTGAMES),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-StealthMango),(Citation: SecurityIntelligence TrickMo),(Citation: Kaspersky-WUC),(Citation: TrendMicro-RCSAndroid),(Citation: Kaspersky-Skygofree),(Citation: Lookout Desert Scorpion),(Citation: PaloAlto-SpyDealer),(Citation: SecureList BusyGasper),(Citation: Lookout-PegasusAndroid),(Citation: Lookout Uyghur Campaign),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Pegasus),(Citation: Lookout-Monokle),</t>
-  </si>
-  <si>
-    <t>(Citation: threatfabric_sova_0921),(Citation: Bitdefender Mandrake),(Citation: TrendMicro-Obad),(Citation: bitdefender_flubot_0524),</t>
-  </si>
-  <si>
-    <t>(Citation: Zimperium z9),(Citation: Trend Micro Bouncing Golf 2019),(Citation: CheckPoint Agent Smith),(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: Palo Alto HenBox),(Citation: Talos-WolfRAT),(Citation: paloalto_yispecter_1015),</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Exobot),(Citation: proofpoint_flubot_0421),</t>
-  </si>
-  <si>
-    <t>(Citation: Google Triada June 2019),(Citation: Google Project Zero Insomnia),(Citation: Kaspersky Triada March 2016),(Citation: Google Security Zen),</t>
+    <t>(Citation: Sophos Red Alert 2.0),(Citation: Bitdefender Mandrake),(Citation: FortiGuard-FlexiSpy),(Citation: Volexity Insomnia),(Citation: SWB Exodus March 2019),(Citation: CheckPoint Cerberus),</t>
+  </si>
+  <si>
+    <t>(Citation: Sophos Red Alert 2.0),(Citation: Cybereason FakeSpy),(Citation: FortiGuard-FlexiSpy),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Volexity Insomnia),(Citation: nccgroup_sharkbot_0322),(Citation: Google Security Zen),(Citation: TrendMicro-Obad),(Citation: Talos GPlayed),(Citation: PaloAlto-WireLurker),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: cyble_drinik_1022),(Citation: Palo Alto HenBox),(Citation: Bitdefender Mandrake),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Threat Fabric Cerberus),(Citation: WhiteOps TERRACOTTA),(Citation: BlackBerry Bahamut),(Citation: Lookout-BrainTest),(Citation: SecureList DVMap June 2017),(Citation: Lookout Dark Caracal Jan 2018),(Citation: lookout_abstractemu_1021),(Citation: ThreatFabric Ginp),(Citation: proofpoint_flubot_0421),(Citation: Talos Gustuff Apr 2019),(Citation: SecurityIntelligence TrickMo),(Citation: CheckPoint-Charger),(Citation: Cybereason EventBot),(Citation: Lookout Uyghur Campaign),(Citation: Google Bread),(Citation: Lookout-Monokle),(Citation: securelist rotexy 2018),(Citation: Check Point-Joker),(Citation: Securelist Asacub),(Citation: trendmicro_tianyspy_0122),(Citation: Microsoft MalLockerB),(Citation: Talos-WolfRAT),(Citation: TrendMicro-XLoader),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-Pegasus),(Citation: securelist rotexy 2018),(Citation: Lookout Desert Scorpion),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout-PegasusAndroid),(Citation: Kaspersky-Skygofree),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Monokle),(Citation: PaloAlto-SpyDealer),(Citation: SecureList BusyGasper),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-StealthMango),(Citation: SecurityIntelligence TrickMo),(Citation: Kaspersky-WUC),(Citation: Lookout Uyghur Campaign),</t>
+  </si>
+  <si>
+    <t>(Citation: Bitdefender Mandrake),(Citation: threatfabric_sova_0921),(Citation: TrendMicro-Obad),(Citation: bitdefender_flubot_0524),</t>
+  </si>
+  <si>
+    <t>(Citation: securelist rotexy 2018),(Citation: Trend Micro Bouncing Golf 2019),(Citation: nccgroup_sharkbot_0322),(Citation: Zimperium z9),(Citation: paloalto_yispecter_1015),(Citation: CheckPoint Agent Smith),(Citation: Palo Alto HenBox),(Citation: Talos-WolfRAT),</t>
+  </si>
+  <si>
+    <t>(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Exobot),</t>
+  </si>
+  <si>
+    <t>(Citation: Google Security Zen),(Citation: Kaspersky Triada March 2016),(Citation: Google Project Zero Insomnia),(Citation: Google Triada June 2019),</t>
   </si>
   <si>
     <t>(Citation: PaloAlto-DualToy),(Citation: PaloAlto-WireLurker),(Citation: Elcomsoft-iOSRestricted)</t>
   </si>
   <si>
-    <t>(Citation: Sophos Red Alert 2.0),(Citation: Cybereason FakeSpy),(Citation: Lookout Uyghur Campaign),(Citation: Talos GPlayed),(Citation: proofpoint_flubot_0421),(Citation: Lookout-StealthMango),(Citation: Lookout-Dendroid),(Citation: Bitdefender Mandrake),(Citation: cloudmark_tanglebot_0921),(Citation: Talos-WolfRAT),(Citation: nccgroup_sharkbot_0322),(Citation: cyble_drinik_1022),(Citation: ThreatFabric Ginp),(Citation: SecurityIntelligence TrickMo),(Citation: Threat Fabric Exobot),(Citation: SecureList BusyGasper),(Citation: Cofense Anubis),(Citation: securelist rotexy 2018),(Citation: TrendMicro Coronavirus Updates),(Citation: Threat Fabric Cerberus),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Desert Scorpion),(Citation: bitdefender_flubot_0524),(Citation: Securelist Asacub),(Citation: WhiteOps TERRACOTTA),(Citation: threatfabric_sova_0921),(Citation: SMS KitKat)</t>
-  </si>
-  <si>
-    <t>(Citation: Sophos Red Alert 2.0),(Citation: Kaspersky-WUC),(Citation: Cybereason FakeSpy),(Citation: Lookout Uyghur Campaign),(Citation: SWB Exodus March 2019),(Citation: threatfabric_sova_0921),(Citation: Talos GPlayed),(Citation: proofpoint_flubot_0421),(Citation: Lookout-StealthMango),(Citation: Lookout-Dendroid),(Citation: Bitdefender Mandrake),(Citation: cloudmark_tanglebot_0921),(Citation: Talos-WolfRAT),(Citation: nccgroup_sharkbot_0322),(Citation: cyble_drinik_1022),(Citation: PaloAlto-Xbot),(Citation: Lookout-EnterpriseApps),(Citation: Tripwire-MazarBOT),(Citation: BlackBerry Bahamut),(Citation: CyberMerchants-FlexiSpy),(Citation: Palo Alto HenBox),(Citation: ThreatFabric Ginp),(Citation: Kaspersky Riltok June 2019),(Citation: Lookout FrozenCell),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cylance Dust Storm),(Citation: Threat Fabric Exobot),(Citation: Lookout Dark Caracal Jan 2018),(Citation: PaloAlto-SpyDealer),(Citation: SecurityIntelligence TrickMo),(Citation: SecureList BusyGasper),(Citation: securelist rotexy 2018),(Citation: Zscaler-SpyNote),(Citation: TrendMicro-XLoader),(Citation: Google Project Zero Insomnia),(Citation: FlexiSpy-Features),(Citation: TrendMicro Coronavirus Updates),(Citation: Threat Fabric Cerberus),(Citation: Lookout-Pegasus),(Citation: lookout_abstractemu_1021),(Citation: Zscaler TikTok Spyware),(Citation: Kaspersky Triada March 2016),(Citation: Lookout ViperRAT),(Citation: Cybereason EventBot),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Desert Scorpion),(Citation: NYTimes-BackDoor),(Citation: Securelist Asacub),(Citation: Symantec GoldenCup),(Citation: Google Bread),(Citation: Zscaler-SuperMarioRun),(Citation: FireEye-RuMMS),(Citation: Talos Gustuff Apr 2019),(Citation: TrendMicro-RCSAndroid),</t>
-  </si>
-  <si>
-    <t>(Citation: WhiteOps TERRACOTTA),(Citation: Zscaler TikTok Spyware),(Citation: Talos GPlayed),</t>
-  </si>
-  <si>
-    <t>(Citation: ThreatFabric Ginp),(Citation: SecurityIntelligence TrickMo),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cybereason EventBot),(Citation: Bitdefender Mandrake),(Citation: PaloAlto-SpyDealer),(Citation: Talos-WolfRAT),(Citation: SecureList BusyGasper),(Citation: Cofense Anubis),(Citation: Lookout Uyghur Campaign),(Citation: cyble_drinik_1022),(Citation: ESET DEFENSOR ID),(Citation: SWB Exodus March 2019),(Citation: Zscaler TikTok Spyware),(Citation: FlexiSpy-Features),(Citation: cleafy_sova_1122),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Monokle),(Citation: Nightwatch screencap April 2016)</t>
+    <t>(Citation: Sophos Red Alert 2.0),(Citation: Threat Fabric Exobot),(Citation: Cybereason FakeSpy),(Citation: nccgroup_sharkbot_0322),(Citation: threatfabric_sova_0921),(Citation: Talos GPlayed),(Citation: cloudmark_tanglebot_0921),(Citation: cyble_drinik_1022),(Citation: Bitdefender Mandrake),(Citation: Threat Fabric Cerberus),(Citation: WhiteOps TERRACOTTA),(Citation: SecureList BusyGasper),(Citation: Lookout-Dendroid),(Citation: Zscaler TikTok Spyware),(Citation: ThreatFabric Ginp),(Citation: proofpoint_flubot_0421),(Citation: SecurityIntelligence TrickMo),(Citation: bitdefender_flubot_0524),(Citation: Cofense Anubis),(Citation: Lookout Uyghur Campaign),(Citation: securelist rotexy 2018),(Citation: Lookout Desert Scorpion),(Citation: Securelist Asacub),(Citation: Lookout-StealthMango),(Citation: TrendMicro Coronavirus Updates),(Citation: Talos-WolfRAT),(Citation: SMS KitKat)</t>
+  </si>
+  <si>
+    <t>(Citation: Sophos Red Alert 2.0),(Citation: Lookout ViperRAT),(Citation: Threat Fabric Exobot),(Citation: Cybereason FakeSpy),(Citation: Trend Micro Bouncing Golf 2019),(Citation: NYTimes-BackDoor),(Citation: nccgroup_sharkbot_0322),(Citation: threatfabric_sova_0921),(Citation: Talos GPlayed),(Citation: cloudmark_tanglebot_0921),(Citation: cyble_drinik_1022),(Citation: Lookout-EnterpriseApps),(Citation: Palo Alto HenBox),(Citation: Kaspersky Riltok June 2019),(Citation: Symantec GoldenCup),(Citation: Kaspersky Triada March 2016),(Citation: PaloAlto-Xbot),(Citation: Bitdefender Mandrake),(Citation: Threat Fabric Cerberus),(Citation: FireEye-RuMMS),(Citation: Cylance Dust Storm),(Citation: SWB Exodus March 2019),(Citation: Tripwire-MazarBOT),(Citation: PaloAlto-SpyDealer),(Citation: SecureList BusyGasper),(Citation: Lookout-Dendroid),(Citation: TrendMicro-RCSAndroid),(Citation: BlackBerry Bahamut),(Citation: Zscaler-SpyNote),(Citation: Kaspersky-WUC),(Citation: CyberMerchants-FlexiSpy),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Pegasus),(Citation: Lookout Dark Caracal Jan 2018),(Citation: FlexiSpy-Features),(Citation: Lookout FrozenCell),(Citation: Zscaler-SuperMarioRun),(Citation: lookout_abstractemu_1021),(Citation: Zscaler TikTok Spyware),(Citation: ThreatFabric Ginp),(Citation: proofpoint_flubot_0421),(Citation: Talos Gustuff Apr 2019),(Citation: SecurityIntelligence TrickMo),(Citation: Cybereason EventBot),(Citation: Lookout Uyghur Campaign),(Citation: Google Bread),(Citation: securelist rotexy 2018),(Citation: Lookout Desert Scorpion),(Citation: Google Project Zero Insomnia),(Citation: Securelist Asacub),(Citation: Lookout-StealthMango),(Citation: TrendMicro Coronavirus Updates),(Citation: Talos-WolfRAT),(Citation: TrendMicro-XLoader),</t>
+  </si>
+  <si>
+    <t>(Citation: WhiteOps TERRACOTTA),(Citation: Talos GPlayed),(Citation: Zscaler TikTok Spyware),</t>
+  </si>
+  <si>
+    <t>(Citation: Bitdefender Mandrake),(Citation: ESET DEFENSOR ID),(Citation: FlexiSpy-Features),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cleafy_sova_1122),(Citation: SWB Exodus March 2019),(Citation: Zscaler TikTok Spyware),(Citation: ThreatFabric Ginp),(Citation: Lookout-Monokle),(Citation: PaloAlto-SpyDealer),(Citation: SecureList BusyGasper),(Citation: cloudmark_tanglebot_0921),(Citation: Cybereason EventBot),(Citation: SecurityIntelligence TrickMo),(Citation: Cofense Anubis),(Citation: cyble_drinik_1022),(Citation: Talos-WolfRAT),(Citation: Lookout Uyghur Campaign),(Citation: Nightwatch screencap April 2016)</t>
   </si>
   <si>
     <t>(Citation: Talos Gustuff Apr 2019),(Citation: Threat Fabric Exobot),(Citation: Android Package Visibility)</t>
   </si>
   <si>
-    <t>(Citation: Sophos Red Alert 2.0),(Citation: Cybereason FakeSpy),(Citation: CheckPoint Agent Smith),(Citation: Lookout Uyghur Campaign),(Citation: SWB Exodus March 2019),(Citation: ESET DEFENSOR ID),(Citation: Talos GPlayed),(Citation: cleafy_sova_1122),(Citation: Lookout-StealthMango),(Citation: Bitdefender Mandrake),(Citation: Talos-WolfRAT),(Citation: Palo Alto HenBox),(Citation: paloalto_yispecter_1015),(Citation: ThreatFabric Ginp),(Citation: Kaspersky Riltok June 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Google Triada June 2019),(Citation: Cofense Anubis),(Citation: Lookout-PegasusAndroid),(Citation: securelist rotexy 2018),(Citation: Google Project Zero Insomnia),(Citation: FlexiSpy-Features),(Citation: Threat Fabric Cerberus),(Citation: Zscaler TikTok Spyware),(Citation: lookout_abstractemu_1021),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Cybereason EventBot),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Desert Scorpion),(Citation: Symantec GoldenCup),(Citation: WhiteOps TERRACOTTA),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Monokle),(Citation: Android Package Visibility)</t>
-  </si>
-  <si>
-    <t>(Citation: threatfabric_sova_0921),(Citation: Talos Gustuff Apr 2019),(Citation: Google Bread),</t>
+    <t>(Citation: Sophos Red Alert 2.0),(Citation: Cybereason FakeSpy),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-PegasusAndroid),(Citation: paloalto_yispecter_1015),(Citation: Talos GPlayed),(Citation: cloudmark_tanglebot_0921),(Citation: Kaspersky Riltok June 2019),(Citation: Palo Alto HenBox),(Citation: Symantec GoldenCup),(Citation: Bitdefender Mandrake),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Threat Fabric Cerberus),(Citation: WhiteOps TERRACOTTA),(Citation: SWB Exodus March 2019),(Citation: CheckPoint Agent Smith),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: FlexiSpy-Features),(Citation: lookout_abstractemu_1021),(Citation: Zscaler TikTok Spyware),(Citation: ThreatFabric Ginp),(Citation: SecurityIntelligence TrickMo),(Citation: Cybereason EventBot),(Citation: Cofense Anubis),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Monokle),(Citation: securelist rotexy 2018),(Citation: ESET DEFENSOR ID),(Citation: Lookout Desert Scorpion),(Citation: Google Project Zero Insomnia),(Citation: cleafy_sova_1122),(Citation: Google Triada June 2019),(Citation: Lookout-StealthMango),(Citation: Talos-WolfRAT),(Citation: Android Package Visibility)</t>
+  </si>
+  <si>
+    <t>(Citation: Talos Gustuff Apr 2019),(Citation: threatfabric_sova_0921),(Citation: Google Bread),</t>
   </si>
   <si>
     <t>,(Citation: IETF-PKCE),(Citation: Android App Links),(Citation: iOS Universal Links),(Citation: Trend Micro iOS URL Hijacking)</t>
@@ -2350,52 +2350,52 @@
     <t>(Citation: CheckPoint Agent Smith),</t>
   </si>
   <si>
-    <t>(Citation: Lookout-StealthMango),(Citation: Lookout FrozenCell),(Citation: Bitdefender Mandrake),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Desert Scorpion),(Citation: Cybereason FakeSpy),(Citation: SecureList BusyGasper),(Citation: Lookout-PegasusAndroid),(Citation: PaloAlto-SpyDealer),(Citation: paloalto_yispecter_1015),(Citation: Lookout Uyghur Campaign),(Citation: SWB Exodus March 2019),(Citation: FortiGuard-FlexiSpy),(Citation: cleafy_sova_1122),(Citation: threatfabric_sova_0921),(Citation: Lookout-Pegasus),(Citation: Kaspersky-Skygofree),</t>
+    <t>(Citation: Lookout-Pegasus),(Citation: Bitdefender Mandrake),(Citation: Cybereason FakeSpy),(Citation: Lookout Desert Scorpion),(Citation: FortiGuard-FlexiSpy),(Citation: Lookout FrozenCell),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-PegasusAndroid),(Citation: SWB Exodus March 2019),(Citation: cleafy_sova_1122),(Citation: Kaspersky-Skygofree),(Citation: paloalto_yispecter_1015),(Citation: PaloAlto-SpyDealer),(Citation: threatfabric_sova_0921),(Citation: SecureList BusyGasper),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-StealthMango),(Citation: Lookout Uyghur Campaign),</t>
   </si>
   <si>
     <t>,(Citation: Android-TrustedCA),(Citation: Symantec-iOSProfile2)</t>
   </si>
   <si>
-    <t>(Citation: Bitdefender - Triout 2018),(Citation: Cybereason FakeSpy),(Citation: CheckPoint SimBad 2019),(Citation: CheckPoint Agent Smith),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender Mandrake),(Citation: cyble_drinik_1022),(Citation: ESET-Twitoor),(Citation: paloalto_yispecter_1015),(Citation: ThreatFabric Ginp),(Citation: SecureList BusyGasper),(Citation: securelist rotexy 2018),(Citation: FortiGuard-FlexiSpy),(Citation: FlexiSpy-Features),(Citation: Zscaler TikTok Spyware),(Citation: Threat Fabric Cerberus),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout Desert Scorpion),(Citation: Group IB Gustuff Mar 2019),(Citation: threatfabric_sova_0921),(Citation: Android 10 Limitations to Hiding App Icons),(Citation: LauncherApps getActivityList)</t>
-  </si>
-  <si>
-    <t>(Citation: BlackBerry Bahamut),(Citation: Cybereason EventBot),(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),</t>
-  </si>
-  <si>
-    <t>(Citation: WeLiveSecurity AdDisplayAshas),(Citation: ThreatFabric Ginp),(Citation: Lookout-Dendroid),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),(Citation: Trend Micro Anubis),(Citation: SecurityIntelligence TrickMo),(Citation: Talos-WolfRAT),(Citation: Cybereason FakeSpy),(Citation: securelist rotexy 2018),(Citation: BlackBerry Bahamut),(Citation: Palo Alto HenBox),(Citation: Threat Fabric Cerberus),(Citation: lookout_abstractemu_1021),</t>
-  </si>
-  <si>
-    <t>(Citation: Kaspersky-WUC),(Citation: Lookout eSurv),(Citation: Cybereason FakeSpy),(Citation: Lookout Uyghur Campaign),(Citation: threatfabric_sova_0921),(Citation: trendmicro_tianyspy_0122),(Citation: Talos GPlayed),(Citation: TrendMicro-Anserver2),(Citation: Bitdefender Mandrake),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Xiao-KeyRaider),(Citation: BlackBerry Bahamut),(Citation: Palo Alto HenBox),(Citation: paloalto_yispecter_1015),(Citation: Kaspersky Riltok June 2019),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout FrozenCell),(Citation: CheckPoint Cerberus),(Citation: Threat Fabric Exobot),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Cofense Anubis),(Citation: Wandera-RedDrop),(Citation: securelist rotexy 2018),(Citation: SecureList DVMap June 2017),(Citation: Google Project Zero Insomnia),(Citation: TrendMicro Coronavirus Updates),(Citation: Threat Fabric Cerberus),(Citation: Lookout-Pegasus),(Citation: lookout_abstractemu_1021),(Citation: Zscaler TikTok Spyware),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout ViperRAT),(Citation: Cybereason EventBot),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Desert Scorpion),(Citation: Securelist Asacub),(Citation: Symantec GoldenCup),(Citation: FireEye-RuMMS),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Monokle),(Citation: CYBERWARCON CHEMISTGAMES),</t>
-  </si>
-  <si>
-    <t>(Citation: Cybereason FakeSpy),(Citation: Lookout Uyghur Campaign),(Citation: SWB Exodus March 2019),(Citation: trendmicro_tianyspy_0122),(Citation: Talos GPlayed),(Citation: Lookout-StealthMango),(Citation: TrendMicro-Anserver2),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Talos-WolfRAT),(Citation: Lookout-EnterpriseApps),(Citation: paloalto_yispecter_1015),(Citation: Kaspersky Riltok June 2019),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout FrozenCell),(Citation: Threat Fabric Exobot),(Citation: PaloAlto-SpyDealer),(Citation: PaloAlto-DualToy),(Citation: Lookout-PegasusAndroid),(Citation: Wandera-RedDrop),(Citation: securelist rotexy 2018),(Citation: Google Project Zero Insomnia),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout ViperRAT),(Citation: lookout_abstractemu_1021),(Citation: Cybereason EventBot),(Citation: Securelist Asacub),(Citation: Symantec GoldenCup),(Citation: Google Bread),(Citation: WhiteOps TERRACOTTA),(Citation: FireEye-RuMMS),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Monokle),(Citation: TelephonyManager)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: Cybereason FakeSpy),(Citation: SWB Exodus March 2019),(Citation: FlexiSpy-Features),(Citation: Lookout ViperRAT),(Citation: Lookout-Pegasus),(Citation: Lookout-Monokle),</t>
-  </si>
-  <si>
-    <t>(Citation: FortiGuard-FlexiSpy),(Citation: Google Security Zen),(Citation: SecureList DVMap June 2017),(Citation: Android-VerifiedBoot)</t>
+    <t>(Citation: Bitdefender - Triout 2018),(Citation: Cybereason FakeSpy),(Citation: FortiGuard-FlexiSpy),(Citation: ESET-Twitoor),(Citation: paloalto_yispecter_1015),(Citation: threatfabric_sova_0921),(Citation: cyble_drinik_1022),(Citation: Bitdefender Mandrake),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Threat Fabric Cerberus),(Citation: SecureList BusyGasper),(Citation: CheckPoint Agent Smith),(Citation: FlexiSpy-Features),(Citation: Zscaler TikTok Spyware),(Citation: ThreatFabric Ginp),(Citation: CheckPoint SimBad 2019),(Citation: Lookout Uyghur Campaign),(Citation: securelist rotexy 2018),(Citation: Lookout Desert Scorpion),(Citation: Group IB Gustuff Mar 2019),(Citation: LauncherApps getActivityList),(Citation: Android 10 Limitations to Hiding App Icons)</t>
+  </si>
+  <si>
+    <t>(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: Cybereason EventBot),(Citation: BlackBerry Bahamut),</t>
+  </si>
+  <si>
+    <t>(Citation: Trend Micro Anubis),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Bitdefender Mandrake),(Citation: Cybereason FakeSpy),(Citation: securelist rotexy 2018),(Citation: Threat Fabric Cerberus),(Citation: WhiteOps TERRACOTTA),(Citation: lookout_abstractemu_1021),(Citation: ThreatFabric Ginp),(Citation: Lookout-Dendroid),(Citation: SecurityIntelligence TrickMo),(Citation: BlackBerry Bahamut),(Citation: Palo Alto HenBox),(Citation: Talos-WolfRAT),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout ViperRAT),(Citation: Threat Fabric Exobot),(Citation: Cybereason FakeSpy),(Citation: Trend Micro Bouncing Golf 2019),(Citation: paloalto_yispecter_1015),(Citation: threatfabric_sova_0921),(Citation: Talos GPlayed),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Kaspersky Riltok June 2019),(Citation: Palo Alto HenBox),(Citation: TrendMicro-Anserver2),(Citation: Symantec GoldenCup),(Citation: Bitdefender Mandrake),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Threat Fabric Cerberus),(Citation: FireEye-RuMMS),(Citation: Wandera-RedDrop),(Citation: BlackBerry Bahamut),(Citation: Xiao-KeyRaider),(Citation: Kaspersky-WUC),(Citation: SecureList - ViceLeaker 2019),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: SecureList DVMap June 2017),(Citation: Lookout-Pegasus),(Citation: Lookout FrozenCell),(Citation: Lookout Dark Caracal Jan 2018),(Citation: lookout_abstractemu_1021),(Citation: Zscaler TikTok Spyware),(Citation: Talos Gustuff Apr 2019),(Citation: SecurityIntelligence TrickMo),(Citation: Cybereason EventBot),(Citation: Cofense Anubis),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Monokle),(Citation: securelist rotexy 2018),(Citation: Lookout Desert Scorpion),(Citation: Google Project Zero Insomnia),(Citation: Lookout eSurv),(Citation: Securelist Asacub),(Citation: trendmicro_tianyspy_0122),(Citation: TrendMicro Coronavirus Updates),(Citation: CheckPoint Cerberus),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout ViperRAT),(Citation: Threat Fabric Exobot),(Citation: Cybereason FakeSpy),(Citation: Lookout-PegasusAndroid),(Citation: paloalto_yispecter_1015),(Citation: Talos GPlayed),(Citation: Lookout-EnterpriseApps),(Citation: PaloAlto-DualToy),(Citation: Kaspersky Riltok June 2019),(Citation: Symantec GoldenCup),(Citation: TrendMicro-Anserver2),(Citation: FireEye-RuMMS),(Citation: WhiteOps TERRACOTTA),(Citation: SWB Exodus March 2019),(Citation: Wandera-RedDrop),(Citation: PaloAlto-SpyDealer),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout FrozenCell),(Citation: lookout_abstractemu_1021),(Citation: Talos Gustuff Apr 2019),(Citation: SecurityIntelligence TrickMo),(Citation: Cybereason EventBot),(Citation: Lookout-Monokle),(Citation: Google Bread),(Citation: Lookout Uyghur Campaign),(Citation: securelist rotexy 2018),(Citation: Google Project Zero Insomnia),(Citation: Securelist Asacub),(Citation: trendmicro_tianyspy_0122),(Citation: Lookout-StealthMango),(Citation: TrendMicro Coronavirus Updates),(Citation: Talos-WolfRAT),(Citation: TelephonyManager)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-Pegasus),(Citation: Lookout ViperRAT),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Cybereason FakeSpy),(Citation: FlexiSpy-Features),(Citation: SWB Exodus March 2019),(Citation: Lookout-Monokle),</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList DVMap June 2017),(Citation: Google Security Zen),(Citation: FortiGuard-FlexiSpy),(Citation: Android-VerifiedBoot)</t>
   </si>
   <si>
     <t>(Citation: threatfabric_sova_0921),(Citation: Android 10 Privacy Changes)</t>
   </si>
   <si>
-    <t>(Citation: threatfabric_sova_0921),(Citation: Threat Fabric Cerberus),(Citation: nccgroup_sharkbot_0322),(Citation: SecurityIntelligence TrickMo),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: Lookout Uyghur Campaign),(Citation: Palo Alto HenBox),(Citation: Zscaler TikTok Spyware),(Citation: lookout_abstractemu_1021),(Citation: CYBERWARCON CHEMISTGAMES),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: proofpoint_flubot_0421),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: SWB Exodus March 2019),(Citation: Lookout-Monokle),(Citation: Lookout-StealthMango),(Citation: Lookout-Dendroid),(Citation: Talos-WolfRAT),(Citation: BlackBerry Bahamut),(Citation: CyberMerchants-FlexiSpy),(Citation: Palo Alto HenBox),(Citation: Trend Micro Bouncing Golf 2019),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SecureList BusyGasper),(Citation: Lookout-PegasusAndroid),(Citation: TrendMicro Coronavirus Updates),(Citation: Zscaler TikTok Spyware),(Citation: Lookout ViperRAT),(Citation: lookout_abstractemu_1021),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Desert Scorpion),(Citation: Symantec GoldenCup),(Citation: Zscaler-SuperMarioRun),(Citation: cloudmark_tanglebot_0921),(Citation: TrendMicro-RCSAndroid),(Citation: Kaspersky-Skygofree),(Citation: Android Capture Sensor 2019)</t>
+    <t>(Citation: nccgroup_sharkbot_0322),(Citation: threatfabric_sova_0921),(Citation: SecurityIntelligence TrickMo),(Citation: Threat Fabric Cerberus),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_abstractemu_1021),(Citation: Zscaler TikTok Spyware),(Citation: SecureList BusyGasper),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Palo Alto HenBox),(Citation: Lookout Uyghur Campaign),</t>
+  </si>
+  <si>
+    <t>(Citation: proofpoint_flubot_0421),(Citation: SecureList BusyGasper),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout ViperRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-PegasusAndroid),(Citation: cloudmark_tanglebot_0921),(Citation: Palo Alto HenBox),(Citation: Symantec GoldenCup),(Citation: SWB Exodus March 2019),(Citation: PaloAlto-SpyDealer),(Citation: SecureList BusyGasper),(Citation: Lookout-Dendroid),(Citation: TrendMicro-RCSAndroid),(Citation: BlackBerry Bahamut),(Citation: CyberMerchants-FlexiSpy),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Zscaler-SuperMarioRun),(Citation: lookout_abstractemu_1021),(Citation: Kaspersky-Skygofree),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Monokle),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: Lookout-StealthMango),(Citation: TrendMicro Coronavirus Updates),(Citation: Talos-WolfRAT),(Citation: Android Capture Sensor 2019)</t>
   </si>
   <si>
     <t>(Citation: lookout_abstractemu_1021),</t>
   </si>
   <si>
-    <t>(Citation: Sophos Red Alert 2.0),(Citation: Kaspersky-WUC),(Citation: Bitdefender - Triout 2018),(Citation: Cybereason FakeSpy),(Citation: Lookout Uyghur Campaign),(Citation: SWB Exodus March 2019),(Citation: ESET DEFENSOR ID),(Citation: threatfabric_sova_0921),(Citation: Talos GPlayed),(Citation: proofpoint_flubot_0421),(Citation: nccgroup_sharkbot_0322),(Citation: paloalto_yispecter_1015),(Citation: Kaspersky Riltok June 2019),(Citation: SecurityIntelligence TrickMo),(Citation: CheckPoint Cerberus),(Citation: Threat Fabric Exobot),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Wandera-RedDrop),(Citation: securelist rotexy 2018),(Citation: TrendMicro Coronavirus Updates),(Citation: Kaspersky-MobileMalware),(Citation: lookout_abstractemu_1021),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Cybereason EventBot),(Citation: SecureList - ViceLeaker 2019),(Citation: Volexity Insomnia),(Citation: Securelist Asacub),(Citation: Symantec GoldenCup),(Citation: Google Bread),(Citation: FireEye-RuMMS),(Citation: Talos Gustuff Apr 2019),(Citation: Kaspersky-Skygofree),(Citation: CYBERWARCON CHEMISTGAMES),</t>
+    <t>(Citation: Sophos Red Alert 2.0),(Citation: Bitdefender - Triout 2018),(Citation: Threat Fabric Exobot),(Citation: Cybereason FakeSpy),(Citation: Volexity Insomnia),(Citation: nccgroup_sharkbot_0322),(Citation: paloalto_yispecter_1015),(Citation: threatfabric_sova_0921),(Citation: Talos GPlayed),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Kaspersky Riltok June 2019),(Citation: Symantec GoldenCup),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: FireEye-RuMMS),(Citation: SWB Exodus March 2019),(Citation: Wandera-RedDrop),(Citation: Kaspersky-MobileMalware),(Citation: Kaspersky-WUC),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: lookout_abstractemu_1021),(Citation: Kaspersky-Skygofree),(Citation: Talos Gustuff Apr 2019),(Citation: proofpoint_flubot_0421),(Citation: SecurityIntelligence TrickMo),(Citation: Cybereason EventBot),(Citation: Lookout Uyghur Campaign),(Citation: Google Bread),(Citation: securelist rotexy 2018),(Citation: ESET DEFENSOR ID),(Citation: Securelist Asacub),(Citation: TrendMicro Coronavirus Updates),(Citation: CheckPoint Cerberus),</t>
   </si>
   <si>
     <t>source ID</t>

--- a/docs/mobile-attack-v13.1/mobile-attack-v13.1-techniques.xlsx
+++ b/docs/mobile-attack-v13.1/mobile-attack-v13.1-techniques.xlsx
@@ -2140,130 +2140,130 @@
     <t>,</t>
   </si>
   <si>
-    <t>(Citation: Bitdefender Mandrake),(Citation: Check Point-Joker),(Citation: nccgroup_sharkbot_0322),(Citation: lookout_abstractemu_1021),(Citation: proofpoint_flubot_0421),(Citation: threatfabric_sova_0921),(Citation: TrendMicro Coronavirus Updates),(Citation: Talos-WolfRAT),(Citation: Android Notification Listeners)</t>
+    <t>(Citation: Check Point-Joker),(Citation: Bitdefender Mandrake),(Citation: Talos-WolfRAT),(Citation: nccgroup_sharkbot_0322),(Citation: lookout_abstractemu_1021),(Citation: TrendMicro Coronavirus Updates),(Citation: threatfabric_sova_0921),(Citation: proofpoint_flubot_0421),(Citation: Android Notification Listeners)</t>
   </si>
   <si>
     <t>(Citation: Lookout-Monokle),</t>
   </si>
   <si>
-    <t>(Citation: threatfabric_sova_0921),(Citation: Xiao-KeyRaider),(Citation: Skycure-Profiles),</t>
+    <t>(Citation: Xiao-KeyRaider),(Citation: Skycure-Profiles),(Citation: threatfabric_sova_0921),</t>
   </si>
   <si>
     <t>(Citation: cyble_drinik_1022),(Citation: Lookout Uyghur Campaign),</t>
   </si>
   <si>
-    <t>(Citation: Lookout FrozenCell),(Citation: Lookout Desert Scorpion),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Google Triada June 2019),(Citation: SWB Exodus March 2019),(Citation: Securelist Asacub),(Citation: Cofense Anubis),(Citation: Symantec GoldenCup),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout eSurv),(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),</t>
-  </si>
-  <si>
-    <t>(Citation: Bitdefender - Triout 2018),(Citation: Lookout ViperRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-PegasusAndroid),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-EnterpriseApps),(Citation: Palo Alto HenBox),(Citation: Symantec GoldenCup),(Citation: SWB Exodus March 2019),(Citation: Wandera-RedDrop),(Citation: PaloAlto-SpyDealer),(Citation: SecureList BusyGasper),(Citation: Lookout-Dendroid),(Citation: TrendMicro-RCSAndroid),(Citation: BlackBerry Bahamut),(Citation: Zscaler-SpyNote),(Citation: CyberMerchants-FlexiSpy),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Pegasus),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout FrozenCell),(Citation: Zscaler-SuperMarioRun),(Citation: lookout_abstractemu_1021),(Citation: Kaspersky-Skygofree),(Citation: Zscaler TikTok Spyware),(Citation: Cofense Anubis),(Citation: Lookout-Monokle),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: Lookout eSurv),(Citation: Lookout-StealthMango),(Citation: TrendMicro Coronavirus Updates),(Citation: Talos-WolfRAT),(Citation: TrendMicro-XLoader),(Citation: Android Capture Sensor 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: WhiteOps TERRACOTTA),(Citation: Bitdefender Mandrake),(Citation: SecureList BusyGasper),</t>
+    <t>(Citation: Securelist Asacub),(Citation: Google Triada June 2019),(Citation: Symantec GoldenCup),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cofense Anubis),(Citation: Lookout Desert Scorpion),(Citation: Lookout FrozenCell),(Citation: SWB Exodus March 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: nccgroup_sharkbot_0322),(Citation: Lookout eSurv),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: proofpoint_flubot_0421),</t>
+  </si>
+  <si>
+    <t>(Citation: BlackBerry Bahamut),(Citation: Lookout-PegasusAndroid),(Citation: SecureList - ViceLeaker 2019),(Citation: Wandera-RedDrop),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Pegasus),(Citation: Kaspersky-Skygofree),(Citation: Lookout FrozenCell),(Citation: Lookout eSurv),(Citation: Lookout-StealthMango),(Citation: Cofense Anubis),(Citation: Lookout Uyghur Campaign),(Citation: Palo Alto HenBox),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-EnterpriseApps),(Citation: CyberMerchants-FlexiSpy),(Citation: TrendMicro Coronavirus Updates),(Citation: Zscaler TikTok Spyware),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout-Dendroid),(Citation: TrendMicro-XLoader),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_abstractemu_1021),(Citation: Lookout Desert Scorpion),(Citation: SWB Exodus March 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Zscaler-SpyNote),(Citation: Symantec GoldenCup),(Citation: Lookout-Monokle),(Citation: Lookout ViperRAT),(Citation: Bitdefender - Triout 2018),(Citation: SecureList BusyGasper),(Citation: cloudmark_tanglebot_0921),(Citation: Talos-WolfRAT),(Citation: Android Capture Sensor 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: WhiteOps TERRACOTTA),(Citation: SecureList BusyGasper),(Citation: Bitdefender Mandrake),</t>
   </si>
   <si>
     <t>(Citation: HackerNews-OldBoot),</t>
   </si>
   <si>
-    <t>(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Threat Fabric Exobot),(Citation: ESET DEFENSOR ID),(Citation: Cybereason FakeSpy),(Citation: FortiGuard-FlexiSpy),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-PegasusAndroid),(Citation: WhiteOps TERRACOTTA),(Citation: Zscaler TikTok Spyware),(Citation: PaloAlto-SpyDealer),(Citation: Talos GPlayed),(Citation: Microsoft MalLockerB),(Citation: Cybereason EventBot),(Citation: Zscaler-SpyNote),(Citation: SecurityIntelligence TrickMo),(Citation: Palo Alto HenBox),(Citation: CheckPoint SimBad 2019),(Citation: Android Changes to System Broadcasts)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-PegasusAndroid),(Citation: SWB Exodus March 2019),(Citation: Lookout-StealthMango),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-Monokle),</t>
-  </si>
-  <si>
-    <t>(Citation: cloudmark_tanglebot_0921),(Citation: SecureList BusyGasper),(Citation: Cofense Anubis),(Citation: Lookout Uyghur Campaign),(Citation: cyble_drinik_1022),(Citation: Lookout-Monokle),</t>
-  </si>
-  <si>
-    <t>(Citation: Sophos Red Alert 2.0),(Citation: Lookout ViperRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: NYTimes-BackDoor),(Citation: Lookout-PegasusAndroid),(Citation: cloudmark_tanglebot_0921),(Citation: cyble_drinik_1022),(Citation: Lookout-EnterpriseApps),(Citation: Palo Alto HenBox),(Citation: SWB Exodus March 2019),(Citation: PaloAlto-SpyDealer),(Citation: Kaspersky-WUC),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Pegasus),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Zscaler-SuperMarioRun),(Citation: lookout_abstractemu_1021),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Monokle),(Citation: Lookout Uyghur Campaign),(Citation: Google Project Zero Insomnia),(Citation: Lookout-StealthMango),(Citation: TrendMicro Coronavirus Updates),(Citation: Talos-WolfRAT),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro-RCSAndroid),(Citation: Trend Micro Bouncing Golf 2019),(Citation: PaloAlto-XcodeGhost),(Citation: Android 10 Privacy Changes)</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList DVMap June 2017),(Citation: Bitdefender Mandrake),(Citation: Lookout Desert Scorpion),(Citation: trendmicro_tianyspy_0122),(Citation: paloalto_yispecter_1015),(Citation: BlackBerry Bahamut),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout Uyghur Campaign),(Citation: Android-TrustedCA),(Citation: Symantec-iOSProfile2)</t>
+    <t>(Citation: Cybereason EventBot),(Citation: Microsoft MalLockerB),(Citation: Lookout-PegasusAndroid),(Citation: PaloAlto-SpyDealer),(Citation: Zscaler-SpyNote),(Citation: WhiteOps TERRACOTTA),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cybereason FakeSpy),(Citation: Threat Fabric Exobot),(Citation: FortiGuard-FlexiSpy),(Citation: Palo Alto HenBox),(Citation: CheckPoint SimBad 2019),(Citation: SecurityIntelligence TrickMo),(Citation: Talos GPlayed),(Citation: Zscaler TikTok Spyware),(Citation: ESET DEFENSOR ID),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Android Changes to System Broadcasts)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Monokle),(Citation: Lookout-StealthMango),(Citation: CyberMerchants-FlexiSpy),(Citation: SWB Exodus March 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: cyble_drinik_1022),(Citation: Lookout-Monokle),(Citation: Cofense Anubis),(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),(Citation: cloudmark_tanglebot_0921),</t>
+  </si>
+  <si>
+    <t>(Citation: Sophos Red Alert 2.0),(Citation: Lookout-PegasusAndroid),(Citation: SecureList - ViceLeaker 2019),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Pegasus),(Citation: NYTimes-BackDoor),(Citation: cyble_drinik_1022),(Citation: Lookout-StealthMango),(Citation: Lookout Uyghur Campaign),(Citation: Palo Alto HenBox),(Citation: Lookout-EnterpriseApps),(Citation: Google Project Zero Insomnia),(Citation: TrendMicro Coronavirus Updates),(Citation: Zscaler TikTok Spyware),(Citation: Zscaler-SuperMarioRun),(Citation: Kaspersky-WUC),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_abstractemu_1021),(Citation: SWB Exodus March 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Monokle),(Citation: Lookout ViperRAT),(Citation: cloudmark_tanglebot_0921),(Citation: Talos-WolfRAT),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-XcodeGhost),(Citation: Trend Micro Bouncing Golf 2019),(Citation: TrendMicro-RCSAndroid),(Citation: Android 10 Privacy Changes)</t>
+  </si>
+  <si>
+    <t>(Citation: BlackBerry Bahamut),(Citation: Bitdefender Mandrake),(Citation: paloalto_yispecter_1015),(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout Desert Scorpion),(Citation: trendmicro_tianyspy_0122),(Citation: SecureList DVMap June 2017),(Citation: Android-TrustedCA),(Citation: Symantec-iOSProfile2)</t>
   </si>
   <si>
     <t>(Citation: trendmicro_tianyspy_0122),</t>
   </si>
   <si>
-    <t>(Citation: paloalto_yispecter_1015),(Citation: CheckPoint Agent Smith),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-Pegasus),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Adware),(Citation: PaloAlto-SpyDealer),(Citation: SecureList BusyGasper),(Citation: Lookout-BrainTest),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Monokle),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-XcodeGhost1),(Citation: PaloAlto-XcodeGhost),</t>
-  </si>
-  <si>
-    <t>(Citation: Krebs-Triada June 2019),(Citation: BankInfoSecurity-BackDoor),(Citation: NYTimes-BackDoor),(Citation: Google Triada June 2019),(Citation: HackerNews-Allwinner),(Citation: Lookout-StealthMango),(Citation: CYBERWARCON CHEMISTGAMES),</t>
-  </si>
-  <si>
-    <t>(Citation: Sophos Red Alert 2.0),(Citation: Lookout ViperRAT),(Citation: Threat Fabric Exobot),(Citation: Cybereason FakeSpy),(Citation: Trend Micro Bouncing Golf 2019),(Citation: NYTimes-BackDoor),(Citation: Lookout-PegasusAndroid),(Citation: Talos GPlayed),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-EnterpriseApps),(Citation: Palo Alto HenBox),(Citation: Kaspersky Riltok June 2019),(Citation: Symantec GoldenCup),(Citation: Bitdefender Mandrake),(Citation: Threat Fabric Cerberus),(Citation: SWB Exodus March 2019),(Citation: PaloAlto-SpyDealer),(Citation: Zscaler-SpyNote),(Citation: BlackBerry Bahamut),(Citation: CyberMerchants-FlexiSpy),(Citation: Kaspersky-WUC),(Citation: Lookout-Pegasus),(Citation: Lookout Dark Caracal Jan 2018),(Citation: lookout_abstractemu_1021),(Citation: Zscaler TikTok Spyware),(Citation: ThreatFabric Ginp),(Citation: proofpoint_flubot_0421),(Citation: Talos Gustuff Apr 2019),(Citation: CheckPoint-Charger),(Citation: Cofense Anubis),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Monokle),(Citation: securelist rotexy 2018),(Citation: Lookout Desert Scorpion),(Citation: Google Project Zero Insomnia),(Citation: Lookout eSurv),(Citation: Securelist Asacub),(Citation: Lookout-StealthMango),(Citation: TrendMicro Coronavirus Updates),(Citation: Talos-WolfRAT),</t>
-  </si>
-  <si>
-    <t>(Citation: Cofense Anubis),(Citation: PaloAlto-Xbot),(Citation: cleafy_sova_1122),</t>
-  </si>
-  <si>
-    <t>(Citation: Bitdefender - Triout 2018),(Citation: Lookout ViperRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos GPlayed),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: cloudmark_tanglebot_0921),(Citation: cyble_drinik_1022),(Citation: Palo Alto HenBox),(Citation: Symantec GoldenCup),(Citation: Trend Micro Anubis),(Citation: Cylance Dust Storm),(Citation: SWB Exodus March 2019),(Citation: Gooligan Citation),(Citation: SecureList BusyGasper),(Citation: Lookout-Dendroid),(Citation: TrendMicro-RCSAndroid),(Citation: BlackBerry Bahamut),(Citation: Zscaler-SpyNote),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout FrozenCell),(Citation: FlexiSpy-Features),(Citation: lookout_abstractemu_1021),(Citation: Zscaler TikTok Spyware),(Citation: ThreatFabric Ginp),(Citation: Talos Gustuff Apr 2019),(Citation: SecurityIntelligence TrickMo),(Citation: Cofense Anubis),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Monokle),(Citation: Lookout Desert Scorpion),(Citation: Google Project Zero Insomnia),(Citation: Lookout eSurv),(Citation: Lookout-StealthMango),(Citation: TrendMicro Coronavirus Updates),(Citation: Talos-WolfRAT),</t>
-  </si>
-  <si>
-    <t>(Citation: Sophos Red Alert 2.0),(Citation: Trend Micro Anubis),(Citation: Cofense Anubis),(Citation: TrendMicro-Anserver),(Citation: TrendMicro-XLoader-FakeSpy),</t>
-  </si>
-  <si>
-    <t>(Citation: Sophos Red Alert 2.0),(Citation: Threat Fabric Exobot),(Citation: lookout_abstractemu_1021),(Citation: Securelist Asacub),(Citation: Talos GPlayed),(Citation: Proofpoint-Marcher),(Citation: TrendMicro-XLoader),(Citation: GoogleIO2016)</t>
-  </si>
-  <si>
-    <t>(Citation: securelist rotexy 2018),(Citation: SecurityIntelligence TrickMo),(Citation: Microsoft MalLockerB),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList DVMap June 2017),(Citation: Bitdefender Mandrake),(Citation: Threat Fabric Cerberus),(Citation: Google Security Zen),(Citation: lookout_abstractemu_1021),(Citation: proofpoint_flubot_0421),(Citation: Cofense Anubis),(Citation: cyble_drinik_1022),</t>
-  </si>
-  <si>
-    <t>(Citation: Bitdefender Mandrake),(Citation: proofpoint_flubot_0421),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),</t>
-  </si>
-  <si>
-    <t>(Citation: Sophos Red Alert 2.0),(Citation: Lookout ViperRAT),(Citation: nccgroup_sharkbot_0322),(Citation: Google Security Zen),(Citation: paloalto_yispecter_1015),(Citation: Talos GPlayed),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Palo Alto HenBox),(Citation: Symantec GoldenCup),(Citation: Trend Micro Anubis),(Citation: Bitdefender Mandrake),(Citation: Threat Fabric Cerberus),(Citation: WhiteOps TERRACOTTA),(Citation: SWB Exodus March 2019),(Citation: PaloAlto-SpyDealer),(Citation: SecureList BusyGasper),(Citation: TrendMicro-RCSAndroid),(Citation: BlackBerry Bahamut),(Citation: Lookout-BrainTest),(Citation: SecureList DVMap June 2017),(Citation: Lookout FrozenCell),(Citation: lookout_abstractemu_1021),(Citation: Kaspersky-Skygofree),(Citation: Cybereason EventBot),(Citation: Lookout Uyghur Campaign),(Citation: Google Bread),(Citation: Xiao-ZergHelper),(Citation: Lookout Desert Scorpion),(Citation: Google Triada June 2019),(Citation: Lookout eSurv),(Citation: CheckPoint-Judy),(Citation: Talos-WolfRAT),(Citation: Android 10 Execute)</t>
-  </si>
-  <si>
-    <t>(Citation: Volexity Insomnia),(Citation: paloalto_yispecter_1015),(Citation: Lookout-StealthMango),(Citation: Lookout-Pegasus),</t>
+    <t>(Citation: CheckPoint Agent Smith),(Citation: paloalto_yispecter_1015),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Adware),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Monokle),(Citation: Lookout-BrainTest),(Citation: Lookout-Pegasus),(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-XcodeGhost),(Citation: PaloAlto-XcodeGhost1),</t>
+  </si>
+  <si>
+    <t>(Citation: BankInfoSecurity-BackDoor),(Citation: Google Triada June 2019),(Citation: Krebs-Triada June 2019),(Citation: NYTimes-BackDoor),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout-StealthMango),(Citation: HackerNews-Allwinner),</t>
+  </si>
+  <si>
+    <t>(Citation: Securelist Asacub),(Citation: BlackBerry Bahamut),(Citation: ThreatFabric Ginp),(Citation: Lookout-PegasusAndroid),(Citation: Sophos Red Alert 2.0),(Citation: PaloAlto-SpyDealer),(Citation: securelist rotexy 2018),(Citation: Lookout-Pegasus),(Citation: Threat Fabric Cerberus),(Citation: Kaspersky Riltok June 2019),(Citation: Talos GPlayed),(Citation: CheckPoint-Charger),(Citation: Bitdefender Mandrake),(Citation: NYTimes-BackDoor),(Citation: Lookout eSurv),(Citation: Lookout-StealthMango),(Citation: Cofense Anubis),(Citation: Lookout Uyghur Campaign),(Citation: Palo Alto HenBox),(Citation: Lookout-EnterpriseApps),(Citation: CyberMerchants-FlexiSpy),(Citation: TrendMicro Coronavirus Updates),(Citation: Google Project Zero Insomnia),(Citation: Zscaler TikTok Spyware),(Citation: Talos Gustuff Apr 2019),(Citation: Kaspersky-WUC),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cybereason FakeSpy),(Citation: lookout_abstractemu_1021),(Citation: Lookout Desert Scorpion),(Citation: SWB Exodus March 2019),(Citation: proofpoint_flubot_0421),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Zscaler-SpyNote),(Citation: Symantec GoldenCup),(Citation: Lookout-Monokle),(Citation: Lookout ViperRAT),(Citation: Threat Fabric Exobot),(Citation: cloudmark_tanglebot_0921),(Citation: Talos-WolfRAT),</t>
+  </si>
+  <si>
+    <t>(Citation: cleafy_sova_1122),(Citation: Cofense Anubis),(Citation: PaloAlto-Xbot),</t>
+  </si>
+  <si>
+    <t>(Citation: FlexiSpy-Features),(Citation: BlackBerry Bahamut),(Citation: ThreatFabric Ginp),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout FrozenCell),(Citation: Talos GPlayed),(Citation: Trend Micro Anubis),(Citation: cyble_drinik_1022),(Citation: Lookout eSurv),(Citation: Cylance Dust Storm),(Citation: Cofense Anubis),(Citation: Lookout Uyghur Campaign),(Citation: Palo Alto HenBox),(Citation: TrendMicro-RCSAndroid),(Citation: Google Project Zero Insomnia),(Citation: Lookout-StealthMango),(Citation: TrendMicro Coronavirus Updates),(Citation: Zscaler TikTok Spyware),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Dendroid),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SecurityIntelligence TrickMo),(Citation: lookout_abstractemu_1021),(Citation: Lookout Desert Scorpion),(Citation: SWB Exodus March 2019),(Citation: Zscaler-SpyNote),(Citation: Symantec GoldenCup),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout-Monokle),(Citation: Lookout ViperRAT),(Citation: Bitdefender - Triout 2018),(Citation: SecureList BusyGasper),(Citation: cloudmark_tanglebot_0921),(Citation: Gooligan Citation),(Citation: Talos-WolfRAT),</t>
+  </si>
+  <si>
+    <t>(Citation: Sophos Red Alert 2.0),(Citation: Trend Micro Anubis),(Citation: Cofense Anubis),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: TrendMicro-Anserver),</t>
+  </si>
+  <si>
+    <t>(Citation: Securelist Asacub),(Citation: Sophos Red Alert 2.0),(Citation: TrendMicro-XLoader),(Citation: Threat Fabric Exobot),(Citation: lookout_abstractemu_1021),(Citation: Proofpoint-Marcher),(Citation: Talos GPlayed),(Citation: GoogleIO2016)</t>
+  </si>
+  <si>
+    <t>(Citation: securelist rotexy 2018),(Citation: Microsoft MalLockerB),(Citation: SecurityIntelligence TrickMo),</t>
+  </si>
+  <si>
+    <t>(Citation: Bitdefender Mandrake),(Citation: cyble_drinik_1022),(Citation: Google Security Zen),(Citation: Cofense Anubis),(Citation: lookout_abstractemu_1021),(Citation: Threat Fabric Cerberus),(Citation: proofpoint_flubot_0421),(Citation: SecureList DVMap June 2017),</t>
+  </si>
+  <si>
+    <t>(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: Bitdefender Mandrake),(Citation: proofpoint_flubot_0421),</t>
+  </si>
+  <si>
+    <t>(Citation: Sophos Red Alert 2.0),(Citation: BlackBerry Bahamut),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-BrainTest),(Citation: Kaspersky-Skygofree),(Citation: Xiao-ZergHelper),(Citation: Threat Fabric Cerberus),(Citation: Lookout FrozenCell),(Citation: Talos GPlayed),(Citation: SecureList DVMap June 2017),(Citation: Bitdefender Mandrake),(Citation: Trend Micro Anubis),(Citation: Lookout eSurv),(Citation: Google Security Zen),(Citation: Lookout Uyghur Campaign),(Citation: Palo Alto HenBox),(Citation: TrendMicro-RCSAndroid),(Citation: CheckPoint-Judy),(Citation: Google Bread),(Citation: nccgroup_sharkbot_0322),(Citation: WhiteOps TERRACOTTA),(Citation: lookout_abstractemu_1021),(Citation: Lookout Desert Scorpion),(Citation: SWB Exodus March 2019),(Citation: Cybereason EventBot),(Citation: Google Triada June 2019),(Citation: Symantec GoldenCup),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout ViperRAT),(Citation: SecureList BusyGasper),(Citation: paloalto_yispecter_1015),(Citation: Talos-WolfRAT),(Citation: Android 10 Execute)</t>
+  </si>
+  <si>
+    <t>(Citation: paloalto_yispecter_1015),(Citation: Lookout-Pegasus),(Citation: Lookout-StealthMango),(Citation: Volexity Insomnia),</t>
   </si>
   <si>
     <t>(Citation: ESET-Twitoor),</t>
   </si>
   <si>
-    <t>(Citation: PaloAlto-Xbot),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: CheckPoint-Charger),</t>
+    <t>(Citation: CheckPoint-Charger),(Citation: Talos GPlayed),(Citation: Threat Fabric Exobot),(Citation: PaloAlto-Xbot),</t>
   </si>
   <si>
     <t>,(Citation: Android Changes to System Broadcasts)</t>
   </si>
   <si>
-    <t>(Citation: Bitdefender - Triout 2018),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Google Triada June 2019),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout eSurv),(Citation: lookout_abstractemu_1021),(Citation: Cylance Dust Storm),(Citation: Wandera-RedDrop),(Citation: proofpoint_flubot_0421),(Citation: cyble_drinik_1022),(Citation: SecureList - ViceLeaker 2019),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout Uyghur Campaign),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList BusyGasper),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList DVMap June 2017),(Citation: Lookout-Pegasus),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Volexity Insomnia),(Citation: Lookout-PegasusAndroid),(Citation: lookout_abstractemu_1021),(Citation: SWB Exodus March 2019),(Citation: Gooligan Citation),(Citation: Kaspersky-Skygofree),(Citation: Lookout-Adware),(Citation: Google Security Zen),(Citation: ArsTechnica-HummingBad),(Citation: PaloAlto-SpyDealer),(Citation: CheckPoint Agent Smith),(Citation: Lookout-BrainTest),(Citation: Lookout Uyghur Campaign),</t>
+    <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: Google Triada June 2019),(Citation: SecureList - ViceLeaker 2019),(Citation: Wandera-RedDrop),(Citation: cyble_drinik_1022),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout eSurv),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cylance Dust Storm),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender - Triout 2018),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: proofpoint_flubot_0421),</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList BusyGasper),(Citation: TrendMicro Coronavirus Updates),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: SWB Exodus March 2019),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Adware),(Citation: Volexity Insomnia),(Citation: PaloAlto-SpyDealer),(Citation: Gooligan Citation),(Citation: Lookout-BrainTest),(Citation: ArsTechnica-HummingBad),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Pegasus),(Citation: Kaspersky-Skygofree),(Citation: Google Security Zen),(Citation: CheckPoint Agent Smith),(Citation: SecureList DVMap June 2017),</t>
   </si>
   <si>
     <t>(Citation: Lookout-NotCompatible),(Citation: TrendMicro-DressCode),</t>
   </si>
   <si>
-    <t>(Citation: Bitdefender Mandrake),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Desert Scorpion),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Monokle),(Citation: Talos GPlayed),(Citation: CheckPoint Agent Smith),(Citation: CyberMerchants-FlexiSpy),(Citation: SecureList - ViceLeaker 2019),(Citation: Talos-WolfRAT),(Citation: Lookout Uyghur Campaign),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout FrozenCell),(Citation: Lookout Desert Scorpion),(Citation: Cylance Dust Storm),(Citation: Symantec GoldenCup),(Citation: Zscaler TikTok Spyware),(Citation: BlackBerry Bahamut),(Citation: Lookout Uyghur Campaign),</t>
-  </si>
-  <si>
-    <t>(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),(Citation: cyble_drinik_1022),(Citation: Zscaler TikTok Spyware),</t>
-  </si>
-  <si>
-    <t>(Citation: Sophos Red Alert 2.0),(Citation: Threat Fabric Exobot),(Citation: nccgroup_sharkbot_0322),(Citation: threatfabric_sova_0921),(Citation: Talos GPlayed),(Citation: cloudmark_tanglebot_0921),(Citation: cyble_drinik_1022),(Citation: Kaspersky Riltok June 2019),(Citation: PaloAlto-Xbot),(Citation: Bitdefender Mandrake),(Citation: Threat Fabric Cerberus),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout-Dendroid),(Citation: Lookout Dark Caracal Jan 2018),(Citation: PaloAlto-XcodeGhost),(Citation: Zscaler TikTok Spyware),(Citation: ThreatFabric Ginp),(Citation: proofpoint_flubot_0421),(Citation: Talos Gustuff Apr 2019),(Citation: Cybereason EventBot),(Citation: Proofpoint-Marcher),(Citation: Cofense Anubis),(Citation: securelist rotexy 2018),(Citation: trendmicro_tianyspy_0122),(Citation: Group IB Gustuff Mar 2019),(Citation: Android 12 Features)</t>
-  </si>
-  <si>
-    <t>(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Google Triada June 2019),(Citation: WhiteOps TERRACOTTA),(Citation: Google Security Zen),(Citation: Tripwire-MazarBOT),(Citation: Gooligan Citation),(Citation: Wandera-RedDrop),(Citation: ArsTechnica-HummingWhale),(Citation: ArsTechnica-HummingBad),(Citation: CheckPoint-Judy),(Citation: CheckPoint Agent Smith),(Citation: Kaspersky Triada June 2016),(Citation: Lookout-BrainTest),(Citation: Lookout-EnterpriseApps),(Citation: CheckPoint SimBad 2019),(Citation: Google Bread),</t>
+    <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: SecureList - ViceLeaker 2019),(Citation: Bitdefender Mandrake),(Citation: Talos-WolfRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-Monokle),(Citation: Lookout Uyghur Campaign),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout Desert Scorpion),(Citation: Zscaler TikTok Spyware),(Citation: Talos GPlayed),(Citation: CheckPoint Agent Smith),</t>
+  </si>
+  <si>
+    <t>(Citation: BlackBerry Bahamut),(Citation: Symantec GoldenCup),(Citation: Cylance Dust Storm),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: Lookout FrozenCell),(Citation: Zscaler TikTok Spyware),</t>
+  </si>
+  <si>
+    <t>(Citation: cyble_drinik_1022),(Citation: WhiteOps TERRACOTTA),(Citation: Zscaler TikTok Spyware),(Citation: Bitdefender Mandrake),</t>
+  </si>
+  <si>
+    <t>(Citation: Sophos Red Alert 2.0),(Citation: ThreatFabric Ginp),(Citation: securelist rotexy 2018),(Citation: PaloAlto-XcodeGhost),(Citation: Proofpoint-Marcher),(Citation: Threat Fabric Cerberus),(Citation: Kaspersky Riltok June 2019),(Citation: Talos GPlayed),(Citation: trendmicro_tianyspy_0122),(Citation: Bitdefender Mandrake),(Citation: cyble_drinik_1022),(Citation: Cofense Anubis),(Citation: Zscaler TikTok Spyware),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Dendroid),(Citation: nccgroup_sharkbot_0322),(Citation: WhiteOps TERRACOTTA),(Citation: Group IB Gustuff Mar 2019),(Citation: proofpoint_flubot_0421),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Cybereason EventBot),(Citation: Threat Fabric Exobot),(Citation: cloudmark_tanglebot_0921),(Citation: threatfabric_sova_0921),(Citation: PaloAlto-Xbot),(Citation: Android 12 Features)</t>
+  </si>
+  <si>
+    <t>(Citation: Google Triada June 2019),(Citation: Tripwire-MazarBOT),(Citation: Wandera-RedDrop),(Citation: WhiteOps TERRACOTTA),(Citation: Google Bread),(Citation: Lookout-BrainTest),(Citation: Gooligan Citation),(Citation: ArsTechnica-HummingBad),(Citation: CheckPoint-Judy),(Citation: CheckPoint SimBad 2019),(Citation: Google Security Zen),(Citation: Lookout-EnterpriseApps),(Citation: Kaspersky Triada June 2016),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: CheckPoint Agent Smith),(Citation: ArsTechnica-HummingWhale),</t>
   </si>
   <si>
     <t>(Citation: Lookout eSurv),(Citation: BlackBerry Bahamut),</t>
@@ -2275,106 +2275,106 @@
     <t>(Citation: CitizenLab Circles),(Citation: CSRIC-WG1-FinalReport)</t>
   </si>
   <si>
-    <t>(Citation: Bitdefender Mandrake),(Citation: nccgroup_sharkbot_0322),(Citation: lookout_abstractemu_1021),(Citation: Wandera-RedDrop),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Monokle),</t>
+    <t>(Citation: SecureList - ViceLeaker 2019),(Citation: Bitdefender Mandrake),(Citation: Wandera-RedDrop),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout-Monokle),(Citation: lookout_abstractemu_1021),</t>
   </si>
   <si>
     <t>,(Citation: Android 12 Features),(Citation: Samsung Keyboards)</t>
   </si>
   <si>
-    <t>(Citation: Bitdefender Mandrake),(Citation: ESET DEFENSOR ID),(Citation: Threat Fabric Cerberus),(Citation: cleafy_sova_1122),(Citation: nccgroup_sharkbot_0322),(Citation: WhiteOps TERRACOTTA),(Citation: Google Security Zen),(Citation: Talos Gustuff Apr 2019),(Citation: ThreatFabric Ginp),(Citation: SecurityIntelligence TrickMo),(Citation: Kaspersky Riltok June 2019),(Citation: CheckPoint Cerberus),</t>
+    <t>(Citation: ThreatFabric Ginp),(Citation: Bitdefender Mandrake),(Citation: ESET DEFENSOR ID),(Citation: nccgroup_sharkbot_0322),(Citation: WhiteOps TERRACOTTA),(Citation: Google Security Zen),(Citation: SecurityIntelligence TrickMo),(Citation: Threat Fabric Cerberus),(Citation: Kaspersky Riltok June 2019),(Citation: Talos Gustuff Apr 2019),(Citation: cleafy_sova_1122),(Citation: CheckPoint Cerberus),</t>
   </si>
   <si>
     <t>(Citation: Google Project Zero Insomnia),</t>
   </si>
   <si>
-    <t>(Citation: Threat Fabric Exobot),(Citation: FlexiSpy-Features),(Citation: Threat Fabric Cerberus),(Citation: nccgroup_sharkbot_0322),(Citation: Talos Gustuff Apr 2019),(Citation: threatfabric_sova_0921),(Citation: SecureList BusyGasper),(Citation: Cybereason EventBot),(Citation: BlackBerry Bahamut),(Citation: Cofense Anubis),(Citation: cyble_drinik_1022),(Citation: Lookout-Monokle),(Citation: Samsung Keyboards)</t>
-  </si>
-  <si>
-    <t>(Citation: Bitdefender - Triout 2018),(Citation: Lookout ViperRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: NYTimes-BackDoor),(Citation: Talos GPlayed),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-EnterpriseApps),(Citation: Palo Alto HenBox),(Citation: Symantec GoldenCup),(Citation: Bitdefender Mandrake),(Citation: CrowdStrike-Android),(Citation: Threat Fabric Cerberus),(Citation: SWB Exodus March 2019),(Citation: PaloAlto-SpyDealer),(Citation: SecureList BusyGasper),(Citation: TrendMicro-RCSAndroid),(Citation: Zscaler-SpyNote),(Citation: BlackBerry Bahamut),(Citation: CyberMerchants-FlexiSpy),(Citation: Kaspersky-WUC),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Pegasus),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout FrozenCell),(Citation: lookout_abstractemu_1021),(Citation: Kaspersky-Skygofree),(Citation: Zscaler TikTok Spyware),(Citation: CheckPoint-Charger),(Citation: Cofense Anubis),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Monokle),(Citation: Lookout Desert Scorpion),(Citation: Google Project Zero Insomnia),(Citation: Lookout eSurv),(Citation: Lookout-StealthMango),(Citation: TrendMicro Coronavirus Updates),(Citation: CSRIC5-WG10-FinalReport)</t>
-  </si>
-  <si>
-    <t>(Citation: WhiteOps TERRACOTTA),(Citation: Securelist Asacub),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Palo Alto HenBox),(Citation: Google Bread),(Citation: Lookout Uyghur Campaign),</t>
+    <t>(Citation: FlexiSpy-Features),(Citation: BlackBerry Bahamut),(Citation: Cybereason EventBot),(Citation: cyble_drinik_1022),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout-Monokle),(Citation: Cofense Anubis),(Citation: Threat Fabric Exobot),(Citation: SecureList BusyGasper),(Citation: Threat Fabric Cerberus),(Citation: Talos Gustuff Apr 2019),(Citation: threatfabric_sova_0921),(Citation: Samsung Keyboards)</t>
+  </si>
+  <si>
+    <t>(Citation: BlackBerry Bahamut),(Citation: SecureList - ViceLeaker 2019),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Pegasus),(Citation: Kaspersky-Skygofree),(Citation: CrowdStrike-Android),(Citation: Threat Fabric Cerberus),(Citation: Lookout FrozenCell),(Citation: Talos GPlayed),(Citation: CheckPoint-Charger),(Citation: Bitdefender Mandrake),(Citation: NYTimes-BackDoor),(Citation: Lookout eSurv),(Citation: Lookout-StealthMango),(Citation: Cofense Anubis),(Citation: Lookout Uyghur Campaign),(Citation: Palo Alto HenBox),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-EnterpriseApps),(Citation: CyberMerchants-FlexiSpy),(Citation: TrendMicro Coronavirus Updates),(Citation: Google Project Zero Insomnia),(Citation: Zscaler TikTok Spyware),(Citation: Kaspersky-WUC),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_abstractemu_1021),(Citation: Lookout Desert Scorpion),(Citation: SWB Exodus March 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Zscaler-SpyNote),(Citation: Symantec GoldenCup),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout-Monokle),(Citation: Lookout ViperRAT),(Citation: Bitdefender - Triout 2018),(Citation: SecureList BusyGasper),(Citation: cloudmark_tanglebot_0921),(Citation: CSRIC5-WG10-FinalReport)</t>
+  </si>
+  <si>
+    <t>(Citation: Securelist Asacub),(Citation: WhiteOps TERRACOTTA),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Palo Alto HenBox),(Citation: Lookout Uyghur Campaign),(Citation: Google Bread),</t>
   </si>
   <si>
     <t>(Citation: threatfabric_sova_0921),</t>
   </si>
   <si>
-    <t>(Citation: Sophos Red Alert 2.0),(Citation: Bitdefender Mandrake),(Citation: FortiGuard-FlexiSpy),(Citation: Volexity Insomnia),(Citation: SWB Exodus March 2019),(Citation: CheckPoint Cerberus),</t>
-  </si>
-  <si>
-    <t>(Citation: Sophos Red Alert 2.0),(Citation: Cybereason FakeSpy),(Citation: FortiGuard-FlexiSpy),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Volexity Insomnia),(Citation: nccgroup_sharkbot_0322),(Citation: Google Security Zen),(Citation: TrendMicro-Obad),(Citation: Talos GPlayed),(Citation: PaloAlto-WireLurker),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: cyble_drinik_1022),(Citation: Palo Alto HenBox),(Citation: Bitdefender Mandrake),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Threat Fabric Cerberus),(Citation: WhiteOps TERRACOTTA),(Citation: BlackBerry Bahamut),(Citation: Lookout-BrainTest),(Citation: SecureList DVMap June 2017),(Citation: Lookout Dark Caracal Jan 2018),(Citation: lookout_abstractemu_1021),(Citation: ThreatFabric Ginp),(Citation: proofpoint_flubot_0421),(Citation: Talos Gustuff Apr 2019),(Citation: SecurityIntelligence TrickMo),(Citation: CheckPoint-Charger),(Citation: Cybereason EventBot),(Citation: Lookout Uyghur Campaign),(Citation: Google Bread),(Citation: Lookout-Monokle),(Citation: securelist rotexy 2018),(Citation: Check Point-Joker),(Citation: Securelist Asacub),(Citation: trendmicro_tianyspy_0122),(Citation: Microsoft MalLockerB),(Citation: Talos-WolfRAT),(Citation: TrendMicro-XLoader),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-Pegasus),(Citation: securelist rotexy 2018),(Citation: Lookout Desert Scorpion),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout-PegasusAndroid),(Citation: Kaspersky-Skygofree),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Monokle),(Citation: PaloAlto-SpyDealer),(Citation: SecureList BusyGasper),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-StealthMango),(Citation: SecurityIntelligence TrickMo),(Citation: Kaspersky-WUC),(Citation: Lookout Uyghur Campaign),</t>
-  </si>
-  <si>
-    <t>(Citation: Bitdefender Mandrake),(Citation: threatfabric_sova_0921),(Citation: TrendMicro-Obad),(Citation: bitdefender_flubot_0524),</t>
-  </si>
-  <si>
-    <t>(Citation: securelist rotexy 2018),(Citation: Trend Micro Bouncing Golf 2019),(Citation: nccgroup_sharkbot_0322),(Citation: Zimperium z9),(Citation: paloalto_yispecter_1015),(Citation: CheckPoint Agent Smith),(Citation: Palo Alto HenBox),(Citation: Talos-WolfRAT),</t>
+    <t>(Citation: Sophos Red Alert 2.0),(Citation: Bitdefender Mandrake),(Citation: Volexity Insomnia),(Citation: FortiGuard-FlexiSpy),(Citation: CheckPoint Cerberus),(Citation: SWB Exodus March 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: Securelist Asacub),(Citation: BlackBerry Bahamut),(Citation: ThreatFabric Ginp),(Citation: Sophos Red Alert 2.0),(Citation: securelist rotexy 2018),(Citation: TrendMicro-Obad),(Citation: Lookout-BrainTest),(Citation: Threat Fabric Cerberus),(Citation: Talos GPlayed),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: trendmicro_tianyspy_0122),(Citation: SecureList DVMap June 2017),(Citation: CheckPoint-Charger),(Citation: Check Point-Joker),(Citation: Bitdefender Mandrake),(Citation: cyble_drinik_1022),(Citation: Google Security Zen),(Citation: FortiGuard-FlexiSpy),(Citation: Lookout Uyghur Campaign),(Citation: Palo Alto HenBox),(Citation: Talos Gustuff Apr 2019),(Citation: Google Bread),(Citation: Volexity Insomnia),(Citation: nccgroup_sharkbot_0322),(Citation: WhiteOps TERRACOTTA),(Citation: TrendMicro-XLoader),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cybereason FakeSpy),(Citation: lookout_abstractemu_1021),(Citation: SecurityIntelligence TrickMo),(Citation: PaloAlto-WireLurker),(Citation: proofpoint_flubot_0421),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Cybereason EventBot),(Citation: Microsoft MalLockerB),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout-Monokle),(Citation: Talos-WolfRAT),</t>
+  </si>
+  <si>
+    <t>(Citation: Kaspersky-WUC),(Citation: Lookout-PegasusAndroid),(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Monokle),(Citation: Lookout-Pegasus),(Citation: Kaspersky-Skygofree),(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-StealthMango),(Citation: SecurityIntelligence TrickMo),(Citation: SecureList BusyGasper),(Citation: Lookout Desert Scorpion),(Citation: Talos Gustuff Apr 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: threatfabric_sova_0921),(Citation: TrendMicro-Obad),(Citation: Bitdefender Mandrake),(Citation: bitdefender_flubot_0524),</t>
+  </si>
+  <si>
+    <t>(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),(Citation: Zimperium z9),(Citation: CheckPoint Agent Smith),(Citation: paloalto_yispecter_1015),(Citation: Talos-WolfRAT),</t>
   </si>
   <si>
     <t>(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Exobot),</t>
   </si>
   <si>
-    <t>(Citation: Google Security Zen),(Citation: Kaspersky Triada March 2016),(Citation: Google Project Zero Insomnia),(Citation: Google Triada June 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-DualToy),(Citation: PaloAlto-WireLurker),(Citation: Elcomsoft-iOSRestricted)</t>
-  </si>
-  <si>
-    <t>(Citation: Sophos Red Alert 2.0),(Citation: Threat Fabric Exobot),(Citation: Cybereason FakeSpy),(Citation: nccgroup_sharkbot_0322),(Citation: threatfabric_sova_0921),(Citation: Talos GPlayed),(Citation: cloudmark_tanglebot_0921),(Citation: cyble_drinik_1022),(Citation: Bitdefender Mandrake),(Citation: Threat Fabric Cerberus),(Citation: WhiteOps TERRACOTTA),(Citation: SecureList BusyGasper),(Citation: Lookout-Dendroid),(Citation: Zscaler TikTok Spyware),(Citation: ThreatFabric Ginp),(Citation: proofpoint_flubot_0421),(Citation: SecurityIntelligence TrickMo),(Citation: bitdefender_flubot_0524),(Citation: Cofense Anubis),(Citation: Lookout Uyghur Campaign),(Citation: securelist rotexy 2018),(Citation: Lookout Desert Scorpion),(Citation: Securelist Asacub),(Citation: Lookout-StealthMango),(Citation: TrendMicro Coronavirus Updates),(Citation: Talos-WolfRAT),(Citation: SMS KitKat)</t>
-  </si>
-  <si>
-    <t>(Citation: Sophos Red Alert 2.0),(Citation: Lookout ViperRAT),(Citation: Threat Fabric Exobot),(Citation: Cybereason FakeSpy),(Citation: Trend Micro Bouncing Golf 2019),(Citation: NYTimes-BackDoor),(Citation: nccgroup_sharkbot_0322),(Citation: threatfabric_sova_0921),(Citation: Talos GPlayed),(Citation: cloudmark_tanglebot_0921),(Citation: cyble_drinik_1022),(Citation: Lookout-EnterpriseApps),(Citation: Palo Alto HenBox),(Citation: Kaspersky Riltok June 2019),(Citation: Symantec GoldenCup),(Citation: Kaspersky Triada March 2016),(Citation: PaloAlto-Xbot),(Citation: Bitdefender Mandrake),(Citation: Threat Fabric Cerberus),(Citation: FireEye-RuMMS),(Citation: Cylance Dust Storm),(Citation: SWB Exodus March 2019),(Citation: Tripwire-MazarBOT),(Citation: PaloAlto-SpyDealer),(Citation: SecureList BusyGasper),(Citation: Lookout-Dendroid),(Citation: TrendMicro-RCSAndroid),(Citation: BlackBerry Bahamut),(Citation: Zscaler-SpyNote),(Citation: Kaspersky-WUC),(Citation: CyberMerchants-FlexiSpy),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Pegasus),(Citation: Lookout Dark Caracal Jan 2018),(Citation: FlexiSpy-Features),(Citation: Lookout FrozenCell),(Citation: Zscaler-SuperMarioRun),(Citation: lookout_abstractemu_1021),(Citation: Zscaler TikTok Spyware),(Citation: ThreatFabric Ginp),(Citation: proofpoint_flubot_0421),(Citation: Talos Gustuff Apr 2019),(Citation: SecurityIntelligence TrickMo),(Citation: Cybereason EventBot),(Citation: Lookout Uyghur Campaign),(Citation: Google Bread),(Citation: securelist rotexy 2018),(Citation: Lookout Desert Scorpion),(Citation: Google Project Zero Insomnia),(Citation: Securelist Asacub),(Citation: Lookout-StealthMango),(Citation: TrendMicro Coronavirus Updates),(Citation: Talos-WolfRAT),(Citation: TrendMicro-XLoader),</t>
+    <t>(Citation: Google Project Zero Insomnia),(Citation: Google Security Zen),(Citation: Google Triada June 2019),(Citation: Kaspersky Triada March 2016),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-WireLurker),(Citation: PaloAlto-DualToy),(Citation: Elcomsoft-iOSRestricted)</t>
+  </si>
+  <si>
+    <t>(Citation: Securelist Asacub),(Citation: Sophos Red Alert 2.0),(Citation: ThreatFabric Ginp),(Citation: securelist rotexy 2018),(Citation: bitdefender_flubot_0524),(Citation: Threat Fabric Cerberus),(Citation: Talos GPlayed),(Citation: Bitdefender Mandrake),(Citation: Talos-WolfRAT),(Citation: cyble_drinik_1022),(Citation: Lookout-StealthMango),(Citation: Cofense Anubis),(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro Coronavirus Updates),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Dendroid),(Citation: nccgroup_sharkbot_0322),(Citation: WhiteOps TERRACOTTA),(Citation: SecurityIntelligence TrickMo),(Citation: Cybereason FakeSpy),(Citation: Lookout Desert Scorpion),(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Exobot),(Citation: SecureList BusyGasper),(Citation: cloudmark_tanglebot_0921),(Citation: threatfabric_sova_0921),(Citation: SMS KitKat)</t>
+  </si>
+  <si>
+    <t>(Citation: FlexiSpy-Features),(Citation: Securelist Asacub),(Citation: BlackBerry Bahamut),(Citation: ThreatFabric Ginp),(Citation: Sophos Red Alert 2.0),(Citation: SecureList - ViceLeaker 2019),(Citation: Tripwire-MazarBOT),(Citation: PaloAlto-SpyDealer),(Citation: securelist rotexy 2018),(Citation: Lookout-Pegasus),(Citation: Threat Fabric Cerberus),(Citation: Lookout FrozenCell),(Citation: Kaspersky Riltok June 2019),(Citation: Talos GPlayed),(Citation: Bitdefender Mandrake),(Citation: Talos-WolfRAT),(Citation: NYTimes-BackDoor),(Citation: cyble_drinik_1022),(Citation: Cylance Dust Storm),(Citation: Lookout-StealthMango),(Citation: Lookout Uyghur Campaign),(Citation: Palo Alto HenBox),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-EnterpriseApps),(Citation: CyberMerchants-FlexiSpy),(Citation: TrendMicro Coronavirus Updates),(Citation: Google Project Zero Insomnia),(Citation: FireEye-RuMMS),(Citation: Talos Gustuff Apr 2019),(Citation: Zscaler TikTok Spyware),(Citation: Google Bread),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout-Dendroid),(Citation: Kaspersky-WUC),(Citation: Kaspersky Triada March 2016),(Citation: nccgroup_sharkbot_0322),(Citation: TrendMicro-XLoader),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cybereason FakeSpy),(Citation: lookout_abstractemu_1021),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout Desert Scorpion),(Citation: SWB Exodus March 2019),(Citation: proofpoint_flubot_0421),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Cybereason EventBot),(Citation: Zscaler-SpyNote),(Citation: Symantec GoldenCup),(Citation: Lookout ViperRAT),(Citation: Threat Fabric Exobot),(Citation: SecureList BusyGasper),(Citation: cloudmark_tanglebot_0921),(Citation: threatfabric_sova_0921),(Citation: PaloAlto-Xbot),</t>
   </si>
   <si>
     <t>(Citation: WhiteOps TERRACOTTA),(Citation: Talos GPlayed),(Citation: Zscaler TikTok Spyware),</t>
   </si>
   <si>
-    <t>(Citation: Bitdefender Mandrake),(Citation: ESET DEFENSOR ID),(Citation: FlexiSpy-Features),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cleafy_sova_1122),(Citation: SWB Exodus March 2019),(Citation: Zscaler TikTok Spyware),(Citation: ThreatFabric Ginp),(Citation: Lookout-Monokle),(Citation: PaloAlto-SpyDealer),(Citation: SecureList BusyGasper),(Citation: cloudmark_tanglebot_0921),(Citation: Cybereason EventBot),(Citation: SecurityIntelligence TrickMo),(Citation: Cofense Anubis),(Citation: cyble_drinik_1022),(Citation: Talos-WolfRAT),(Citation: Lookout Uyghur Campaign),(Citation: Nightwatch screencap April 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Talos Gustuff Apr 2019),(Citation: Threat Fabric Exobot),(Citation: Android Package Visibility)</t>
-  </si>
-  <si>
-    <t>(Citation: Sophos Red Alert 2.0),(Citation: Cybereason FakeSpy),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-PegasusAndroid),(Citation: paloalto_yispecter_1015),(Citation: Talos GPlayed),(Citation: cloudmark_tanglebot_0921),(Citation: Kaspersky Riltok June 2019),(Citation: Palo Alto HenBox),(Citation: Symantec GoldenCup),(Citation: Bitdefender Mandrake),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Threat Fabric Cerberus),(Citation: WhiteOps TERRACOTTA),(Citation: SWB Exodus March 2019),(Citation: CheckPoint Agent Smith),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: FlexiSpy-Features),(Citation: lookout_abstractemu_1021),(Citation: Zscaler TikTok Spyware),(Citation: ThreatFabric Ginp),(Citation: SecurityIntelligence TrickMo),(Citation: Cybereason EventBot),(Citation: Cofense Anubis),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Monokle),(Citation: securelist rotexy 2018),(Citation: ESET DEFENSOR ID),(Citation: Lookout Desert Scorpion),(Citation: Google Project Zero Insomnia),(Citation: cleafy_sova_1122),(Citation: Google Triada June 2019),(Citation: Lookout-StealthMango),(Citation: Talos-WolfRAT),(Citation: Android Package Visibility)</t>
-  </si>
-  <si>
-    <t>(Citation: Talos Gustuff Apr 2019),(Citation: threatfabric_sova_0921),(Citation: Google Bread),</t>
-  </si>
-  <si>
-    <t>,(Citation: IETF-PKCE),(Citation: Android App Links),(Citation: iOS Universal Links),(Citation: Trend Micro iOS URL Hijacking)</t>
+    <t>(Citation: FlexiSpy-Features),(Citation: Cybereason EventBot),(Citation: ThreatFabric Ginp),(Citation: Bitdefender Mandrake),(Citation: cyble_drinik_1022),(Citation: PaloAlto-SpyDealer),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-Monokle),(Citation: Cofense Anubis),(Citation: Lookout Uyghur Campaign),(Citation: SecurityIntelligence TrickMo),(Citation: SecureList BusyGasper),(Citation: Zscaler TikTok Spyware),(Citation: cloudmark_tanglebot_0921),(Citation: ESET DEFENSOR ID),(Citation: cleafy_sova_1122),(Citation: SWB Exodus March 2019),(Citation: Talos-WolfRAT),(Citation: Nightwatch screencap April 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Exobot),(Citation: Talos Gustuff Apr 2019),(Citation: Android Package Visibility)</t>
+  </si>
+  <si>
+    <t>(Citation: FlexiSpy-Features),(Citation: Sophos Red Alert 2.0),(Citation: ThreatFabric Ginp),(Citation: Lookout-PegasusAndroid),(Citation: SecureList - ViceLeaker 2019),(Citation: securelist rotexy 2018),(Citation: Threat Fabric Cerberus),(Citation: Kaspersky Riltok June 2019),(Citation: cleafy_sova_1122),(Citation: Talos GPlayed),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Bitdefender Mandrake),(Citation: Lookout-StealthMango),(Citation: Cofense Anubis),(Citation: Lookout Uyghur Campaign),(Citation: Palo Alto HenBox),(Citation: Google Project Zero Insomnia),(Citation: Zscaler TikTok Spyware),(Citation: CheckPoint Agent Smith),(Citation: WhiteOps TERRACOTTA),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cybereason FakeSpy),(Citation: lookout_abstractemu_1021),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout Desert Scorpion),(Citation: SWB Exodus March 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Cybereason EventBot),(Citation: Google Triada June 2019),(Citation: Symantec GoldenCup),(Citation: Lookout-Monokle),(Citation: cloudmark_tanglebot_0921),(Citation: ESET DEFENSOR ID),(Citation: paloalto_yispecter_1015),(Citation: Talos-WolfRAT),(Citation: Android Package Visibility)</t>
+  </si>
+  <si>
+    <t>(Citation: threatfabric_sova_0921),(Citation: Google Bread),(Citation: Talos Gustuff Apr 2019),</t>
+  </si>
+  <si>
+    <t>,(Citation: Trend Micro iOS URL Hijacking),(Citation: Android App Links),(Citation: iOS Universal Links),(Citation: IETF-PKCE)</t>
   </si>
   <si>
     <t>(Citation: CheckPoint Agent Smith),</t>
   </si>
   <si>
-    <t>(Citation: Lookout-Pegasus),(Citation: Bitdefender Mandrake),(Citation: Cybereason FakeSpy),(Citation: Lookout Desert Scorpion),(Citation: FortiGuard-FlexiSpy),(Citation: Lookout FrozenCell),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-PegasusAndroid),(Citation: SWB Exodus March 2019),(Citation: cleafy_sova_1122),(Citation: Kaspersky-Skygofree),(Citation: paloalto_yispecter_1015),(Citation: PaloAlto-SpyDealer),(Citation: threatfabric_sova_0921),(Citation: SecureList BusyGasper),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-StealthMango),(Citation: Lookout Uyghur Campaign),</t>
+    <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-PegasusAndroid),(Citation: Bitdefender Mandrake),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Pegasus),(Citation: Cybereason FakeSpy),(Citation: FortiGuard-FlexiSpy),(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro-RCSAndroid),(Citation: Kaspersky-Skygofree),(Citation: Lookout-StealthMango),(Citation: SecureList BusyGasper),(Citation: Lookout Desert Scorpion),(Citation: Lookout FrozenCell),(Citation: cleafy_sova_1122),(Citation: SWB Exodus March 2019),(Citation: paloalto_yispecter_1015),(Citation: threatfabric_sova_0921),</t>
   </si>
   <si>
     <t>,(Citation: Android-TrustedCA),(Citation: Symantec-iOSProfile2)</t>
   </si>
   <si>
-    <t>(Citation: Bitdefender - Triout 2018),(Citation: Cybereason FakeSpy),(Citation: FortiGuard-FlexiSpy),(Citation: ESET-Twitoor),(Citation: paloalto_yispecter_1015),(Citation: threatfabric_sova_0921),(Citation: cyble_drinik_1022),(Citation: Bitdefender Mandrake),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Threat Fabric Cerberus),(Citation: SecureList BusyGasper),(Citation: CheckPoint Agent Smith),(Citation: FlexiSpy-Features),(Citation: Zscaler TikTok Spyware),(Citation: ThreatFabric Ginp),(Citation: CheckPoint SimBad 2019),(Citation: Lookout Uyghur Campaign),(Citation: securelist rotexy 2018),(Citation: Lookout Desert Scorpion),(Citation: Group IB Gustuff Mar 2019),(Citation: LauncherApps getActivityList),(Citation: Android 10 Limitations to Hiding App Icons)</t>
-  </si>
-  <si>
-    <t>(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: Cybereason EventBot),(Citation: BlackBerry Bahamut),</t>
-  </si>
-  <si>
-    <t>(Citation: Trend Micro Anubis),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Bitdefender Mandrake),(Citation: Cybereason FakeSpy),(Citation: securelist rotexy 2018),(Citation: Threat Fabric Cerberus),(Citation: WhiteOps TERRACOTTA),(Citation: lookout_abstractemu_1021),(Citation: ThreatFabric Ginp),(Citation: Lookout-Dendroid),(Citation: SecurityIntelligence TrickMo),(Citation: BlackBerry Bahamut),(Citation: Palo Alto HenBox),(Citation: Talos-WolfRAT),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout ViperRAT),(Citation: Threat Fabric Exobot),(Citation: Cybereason FakeSpy),(Citation: Trend Micro Bouncing Golf 2019),(Citation: paloalto_yispecter_1015),(Citation: threatfabric_sova_0921),(Citation: Talos GPlayed),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Kaspersky Riltok June 2019),(Citation: Palo Alto HenBox),(Citation: TrendMicro-Anserver2),(Citation: Symantec GoldenCup),(Citation: Bitdefender Mandrake),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Threat Fabric Cerberus),(Citation: FireEye-RuMMS),(Citation: Wandera-RedDrop),(Citation: BlackBerry Bahamut),(Citation: Xiao-KeyRaider),(Citation: Kaspersky-WUC),(Citation: SecureList - ViceLeaker 2019),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: SecureList DVMap June 2017),(Citation: Lookout-Pegasus),(Citation: Lookout FrozenCell),(Citation: Lookout Dark Caracal Jan 2018),(Citation: lookout_abstractemu_1021),(Citation: Zscaler TikTok Spyware),(Citation: Talos Gustuff Apr 2019),(Citation: SecurityIntelligence TrickMo),(Citation: Cybereason EventBot),(Citation: Cofense Anubis),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Monokle),(Citation: securelist rotexy 2018),(Citation: Lookout Desert Scorpion),(Citation: Google Project Zero Insomnia),(Citation: Lookout eSurv),(Citation: Securelist Asacub),(Citation: trendmicro_tianyspy_0122),(Citation: TrendMicro Coronavirus Updates),(Citation: CheckPoint Cerberus),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout ViperRAT),(Citation: Threat Fabric Exobot),(Citation: Cybereason FakeSpy),(Citation: Lookout-PegasusAndroid),(Citation: paloalto_yispecter_1015),(Citation: Talos GPlayed),(Citation: Lookout-EnterpriseApps),(Citation: PaloAlto-DualToy),(Citation: Kaspersky Riltok June 2019),(Citation: Symantec GoldenCup),(Citation: TrendMicro-Anserver2),(Citation: FireEye-RuMMS),(Citation: WhiteOps TERRACOTTA),(Citation: SWB Exodus March 2019),(Citation: Wandera-RedDrop),(Citation: PaloAlto-SpyDealer),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout FrozenCell),(Citation: lookout_abstractemu_1021),(Citation: Talos Gustuff Apr 2019),(Citation: SecurityIntelligence TrickMo),(Citation: Cybereason EventBot),(Citation: Lookout-Monokle),(Citation: Google Bread),(Citation: Lookout Uyghur Campaign),(Citation: securelist rotexy 2018),(Citation: Google Project Zero Insomnia),(Citation: Securelist Asacub),(Citation: trendmicro_tianyspy_0122),(Citation: Lookout-StealthMango),(Citation: TrendMicro Coronavirus Updates),(Citation: Talos-WolfRAT),(Citation: TelephonyManager)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-Pegasus),(Citation: Lookout ViperRAT),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Cybereason FakeSpy),(Citation: FlexiSpy-Features),(Citation: SWB Exodus March 2019),(Citation: Lookout-Monokle),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList DVMap June 2017),(Citation: Google Security Zen),(Citation: FortiGuard-FlexiSpy),(Citation: Android-VerifiedBoot)</t>
+    <t>(Citation: FlexiSpy-Features),(Citation: ThreatFabric Ginp),(Citation: securelist rotexy 2018),(Citation: CheckPoint SimBad 2019),(Citation: Threat Fabric Cerberus),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Bitdefender Mandrake),(Citation: cyble_drinik_1022),(Citation: FortiGuard-FlexiSpy),(Citation: Lookout Uyghur Campaign),(Citation: Zscaler TikTok Spyware),(Citation: CheckPoint Agent Smith),(Citation: Cybereason FakeSpy),(Citation: Group IB Gustuff Mar 2019),(Citation: Lookout Desert Scorpion),(Citation: ESET-Twitoor),(Citation: Bitdefender - Triout 2018),(Citation: SecureList BusyGasper),(Citation: paloalto_yispecter_1015),(Citation: threatfabric_sova_0921),(Citation: Android 10 Limitations to Hiding App Icons),(Citation: LauncherApps getActivityList)</t>
+  </si>
+  <si>
+    <t>(Citation: nccgroup_sharkbot_0322),(Citation: BlackBerry Bahamut),(Citation: Cybereason EventBot),(Citation: securelist rotexy 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: BlackBerry Bahamut),(Citation: ThreatFabric Ginp),(Citation: Bitdefender Mandrake),(Citation: Trend Micro Anubis),(Citation: securelist rotexy 2018),(Citation: WhiteOps TERRACOTTA),(Citation: SecurityIntelligence TrickMo),(Citation: Cybereason FakeSpy),(Citation: lookout_abstractemu_1021),(Citation: Palo Alto HenBox),(Citation: Threat Fabric Cerberus),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Talos-WolfRAT),(Citation: Lookout-Dendroid),</t>
+  </si>
+  <si>
+    <t>(Citation: Securelist Asacub),(Citation: BlackBerry Bahamut),(Citation: SecureList - ViceLeaker 2019),(Citation: Wandera-RedDrop),(Citation: securelist rotexy 2018),(Citation: Lookout-Pegasus),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Threat Fabric Cerberus),(Citation: Lookout FrozenCell),(Citation: Kaspersky Riltok June 2019),(Citation: Talos GPlayed),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: trendmicro_tianyspy_0122),(Citation: SecureList DVMap June 2017),(Citation: Bitdefender Mandrake),(Citation: Lookout eSurv),(Citation: Cofense Anubis),(Citation: Lookout Uyghur Campaign),(Citation: Palo Alto HenBox),(Citation: TrendMicro-Anserver2),(Citation: Google Project Zero Insomnia),(Citation: FireEye-RuMMS),(Citation: TrendMicro Coronavirus Updates),(Citation: Zscaler TikTok Spyware),(Citation: Talos Gustuff Apr 2019),(Citation: Kaspersky-WUC),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cybereason FakeSpy),(Citation: lookout_abstractemu_1021),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout Desert Scorpion),(Citation: CheckPoint Cerberus),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Cybereason EventBot),(Citation: Symantec GoldenCup),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Xiao-KeyRaider),(Citation: Lookout-Monokle),(Citation: Threat Fabric Exobot),(Citation: Lookout ViperRAT),(Citation: paloalto_yispecter_1015),(Citation: threatfabric_sova_0921),</t>
+  </si>
+  <si>
+    <t>(Citation: Securelist Asacub),(Citation: Lookout-PegasusAndroid),(Citation: Wandera-RedDrop),(Citation: PaloAlto-SpyDealer),(Citation: securelist rotexy 2018),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout FrozenCell),(Citation: Kaspersky Riltok June 2019),(Citation: Talos GPlayed),(Citation: trendmicro_tianyspy_0122),(Citation: Lookout-StealthMango),(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro-Anserver2),(Citation: Google Project Zero Insomnia),(Citation: Lookout-EnterpriseApps),(Citation: TrendMicro Coronavirus Updates),(Citation: FireEye-RuMMS),(Citation: Talos Gustuff Apr 2019),(Citation: Google Bread),(Citation: WhiteOps TERRACOTTA),(Citation: SecurityIntelligence TrickMo),(Citation: Cybereason FakeSpy),(Citation: lookout_abstractemu_1021),(Citation: PaloAlto-DualToy),(Citation: SWB Exodus March 2019),(Citation: Cybereason EventBot),(Citation: Symantec GoldenCup),(Citation: Lookout-Monokle),(Citation: Lookout ViperRAT),(Citation: Threat Fabric Exobot),(Citation: paloalto_yispecter_1015),(Citation: Talos-WolfRAT),(Citation: TelephonyManager)</t>
+  </si>
+  <si>
+    <t>(Citation: FlexiSpy-Features),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Monokle),(Citation: Cybereason FakeSpy),(Citation: Lookout-Pegasus),(Citation: Lookout ViperRAT),(Citation: SWB Exodus March 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: Google Security Zen),(Citation: FortiGuard-FlexiSpy),(Citation: SecureList DVMap June 2017),(Citation: Android-VerifiedBoot)</t>
   </si>
   <si>
     <t>(Citation: threatfabric_sova_0921),(Citation: Android 10 Privacy Changes)</t>
@@ -2383,19 +2383,19 @@
     <t>(Citation: nccgroup_sharkbot_0322),(Citation: threatfabric_sova_0921),(Citation: SecurityIntelligence TrickMo),(Citation: Threat Fabric Cerberus),</t>
   </si>
   <si>
-    <t>(Citation: lookout_abstractemu_1021),(Citation: Zscaler TikTok Spyware),(Citation: SecureList BusyGasper),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Palo Alto HenBox),(Citation: Lookout Uyghur Campaign),</t>
-  </si>
-  <si>
-    <t>(Citation: proofpoint_flubot_0421),(Citation: SecureList BusyGasper),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout ViperRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-PegasusAndroid),(Citation: cloudmark_tanglebot_0921),(Citation: Palo Alto HenBox),(Citation: Symantec GoldenCup),(Citation: SWB Exodus March 2019),(Citation: PaloAlto-SpyDealer),(Citation: SecureList BusyGasper),(Citation: Lookout-Dendroid),(Citation: TrendMicro-RCSAndroid),(Citation: BlackBerry Bahamut),(Citation: CyberMerchants-FlexiSpy),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Zscaler-SuperMarioRun),(Citation: lookout_abstractemu_1021),(Citation: Kaspersky-Skygofree),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Monokle),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: Lookout-StealthMango),(Citation: TrendMicro Coronavirus Updates),(Citation: Talos-WolfRAT),(Citation: Android Capture Sensor 2019)</t>
+    <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: lookout_abstractemu_1021),(Citation: Palo Alto HenBox),(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),(Citation: Zscaler TikTok Spyware),</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList BusyGasper),(Citation: proofpoint_flubot_0421),</t>
+  </si>
+  <si>
+    <t>(Citation: BlackBerry Bahamut),(Citation: Lookout-PegasusAndroid),(Citation: SecureList - ViceLeaker 2019),(Citation: PaloAlto-SpyDealer),(Citation: Kaspersky-Skygofree),(Citation: Lookout-StealthMango),(Citation: Lookout Uyghur Campaign),(Citation: Palo Alto HenBox),(Citation: TrendMicro-RCSAndroid),(Citation: CyberMerchants-FlexiSpy),(Citation: TrendMicro Coronavirus Updates),(Citation: Zscaler TikTok Spyware),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout-Dendroid),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_abstractemu_1021),(Citation: Lookout Desert Scorpion),(Citation: SWB Exodus March 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Symantec GoldenCup),(Citation: Lookout-Monokle),(Citation: Lookout ViperRAT),(Citation: SecureList BusyGasper),(Citation: cloudmark_tanglebot_0921),(Citation: Talos-WolfRAT),(Citation: Android Capture Sensor 2019)</t>
   </si>
   <si>
     <t>(Citation: lookout_abstractemu_1021),</t>
   </si>
   <si>
-    <t>(Citation: Sophos Red Alert 2.0),(Citation: Bitdefender - Triout 2018),(Citation: Threat Fabric Exobot),(Citation: Cybereason FakeSpy),(Citation: Volexity Insomnia),(Citation: nccgroup_sharkbot_0322),(Citation: paloalto_yispecter_1015),(Citation: threatfabric_sova_0921),(Citation: Talos GPlayed),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Kaspersky Riltok June 2019),(Citation: Symantec GoldenCup),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: FireEye-RuMMS),(Citation: SWB Exodus March 2019),(Citation: Wandera-RedDrop),(Citation: Kaspersky-MobileMalware),(Citation: Kaspersky-WUC),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: lookout_abstractemu_1021),(Citation: Kaspersky-Skygofree),(Citation: Talos Gustuff Apr 2019),(Citation: proofpoint_flubot_0421),(Citation: SecurityIntelligence TrickMo),(Citation: Cybereason EventBot),(Citation: Lookout Uyghur Campaign),(Citation: Google Bread),(Citation: securelist rotexy 2018),(Citation: ESET DEFENSOR ID),(Citation: Securelist Asacub),(Citation: TrendMicro Coronavirus Updates),(Citation: CheckPoint Cerberus),</t>
+    <t>(Citation: Securelist Asacub),(Citation: Sophos Red Alert 2.0),(Citation: SecureList - ViceLeaker 2019),(Citation: Wandera-RedDrop),(Citation: securelist rotexy 2018),(Citation: Kaspersky-Skygofree),(Citation: Kaspersky Riltok June 2019),(Citation: Talos GPlayed),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout Uyghur Campaign),(Citation: FireEye-RuMMS),(Citation: TrendMicro Coronavirus Updates),(Citation: Talos Gustuff Apr 2019),(Citation: Google Bread),(Citation: Kaspersky-WUC),(Citation: Kaspersky-MobileMalware),(Citation: Volexity Insomnia),(Citation: nccgroup_sharkbot_0322),(Citation: SecurityIntelligence TrickMo),(Citation: Cybereason FakeSpy),(Citation: lookout_abstractemu_1021),(Citation: CheckPoint Cerberus),(Citation: SWB Exodus March 2019),(Citation: proofpoint_flubot_0421),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Cybereason EventBot),(Citation: Symantec GoldenCup),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Threat Fabric Exobot),(Citation: Bitdefender - Triout 2018),(Citation: ESET DEFENSOR ID),(Citation: paloalto_yispecter_1015),(Citation: threatfabric_sova_0921),</t>
   </si>
   <si>
     <t>source ID</t>

--- a/docs/mobile-attack-v13.1/mobile-attack-v13.1-techniques.xlsx
+++ b/docs/mobile-attack-v13.1/mobile-attack-v13.1-techniques.xlsx
@@ -2140,49 +2140,49 @@
     <t>,</t>
   </si>
   <si>
-    <t>(Citation: Check Point-Joker),(Citation: Bitdefender Mandrake),(Citation: Talos-WolfRAT),(Citation: nccgroup_sharkbot_0322),(Citation: lookout_abstractemu_1021),(Citation: TrendMicro Coronavirus Updates),(Citation: threatfabric_sova_0921),(Citation: proofpoint_flubot_0421),(Citation: Android Notification Listeners)</t>
+    <t>(Citation: threatfabric_sova_0921),(Citation: lookout_abstractemu_1021),(Citation: proofpoint_flubot_0421),(Citation: nccgroup_sharkbot_0322),(Citation: Check Point-Joker),(Citation: TrendMicro Coronavirus Updates),(Citation: Bitdefender Mandrake),(Citation: Talos-WolfRAT),(Citation: Android Notification Listeners)</t>
   </si>
   <si>
     <t>(Citation: Lookout-Monokle),</t>
   </si>
   <si>
-    <t>(Citation: Xiao-KeyRaider),(Citation: Skycure-Profiles),(Citation: threatfabric_sova_0921),</t>
+    <t>(Citation: Xiao-KeyRaider),(Citation: threatfabric_sova_0921),(Citation: Skycure-Profiles),</t>
   </si>
   <si>
     <t>(Citation: cyble_drinik_1022),(Citation: Lookout Uyghur Campaign),</t>
   </si>
   <si>
-    <t>(Citation: Securelist Asacub),(Citation: Google Triada June 2019),(Citation: Symantec GoldenCup),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cofense Anubis),(Citation: Lookout Desert Scorpion),(Citation: Lookout FrozenCell),(Citation: SWB Exodus March 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: nccgroup_sharkbot_0322),(Citation: Lookout eSurv),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: proofpoint_flubot_0421),</t>
-  </si>
-  <si>
-    <t>(Citation: BlackBerry Bahamut),(Citation: Lookout-PegasusAndroid),(Citation: SecureList - ViceLeaker 2019),(Citation: Wandera-RedDrop),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Pegasus),(Citation: Kaspersky-Skygofree),(Citation: Lookout FrozenCell),(Citation: Lookout eSurv),(Citation: Lookout-StealthMango),(Citation: Cofense Anubis),(Citation: Lookout Uyghur Campaign),(Citation: Palo Alto HenBox),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-EnterpriseApps),(Citation: CyberMerchants-FlexiSpy),(Citation: TrendMicro Coronavirus Updates),(Citation: Zscaler TikTok Spyware),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout-Dendroid),(Citation: TrendMicro-XLoader),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_abstractemu_1021),(Citation: Lookout Desert Scorpion),(Citation: SWB Exodus March 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Zscaler-SpyNote),(Citation: Symantec GoldenCup),(Citation: Lookout-Monokle),(Citation: Lookout ViperRAT),(Citation: Bitdefender - Triout 2018),(Citation: SecureList BusyGasper),(Citation: cloudmark_tanglebot_0921),(Citation: Talos-WolfRAT),(Citation: Android Capture Sensor 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: WhiteOps TERRACOTTA),(Citation: SecureList BusyGasper),(Citation: Bitdefender Mandrake),</t>
+    <t>(Citation: Securelist Asacub),(Citation: Symantec GoldenCup),(Citation: Lookout Desert Scorpion),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout FrozenCell),(Citation: SWB Exodus March 2019),(Citation: Cofense Anubis),(Citation: Google Triada June 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: proofpoint_flubot_0421),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout eSurv),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_abstractemu_1021),(Citation: Symantec GoldenCup),(Citation: Bitdefender - Triout 2018),(Citation: Lookout Desert Scorpion),(Citation: Lookout-Pegasus),(Citation: Lookout-PegasusAndroid),(Citation: SecureList - ViceLeaker 2019),(Citation: Zscaler TikTok Spyware),(Citation: CyberMerchants-FlexiSpy),(Citation: Kaspersky-Skygofree),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-Dendroid),(Citation: BlackBerry Bahamut),(Citation: Palo Alto HenBox),(Citation: TrendMicro-XLoader),(Citation: Lookout-Monokle),(Citation: Cofense Anubis),(Citation: TrendMicro Coronavirus Updates),(Citation: Zscaler-SuperMarioRun),(Citation: SecureList BusyGasper),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SWB Exodus March 2019),(Citation: Lookout-EnterpriseApps),(Citation: Lookout-StealthMango),(Citation: Wandera-RedDrop),(Citation: cloudmark_tanglebot_0921),(Citation: Talos-WolfRAT),(Citation: Lookout eSurv),(Citation: Lookout ViperRAT),(Citation: Lookout FrozenCell),(Citation: PaloAlto-SpyDealer),(Citation: Zscaler-SpyNote),(Citation: Android Capture Sensor 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList BusyGasper),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),</t>
   </si>
   <si>
     <t>(Citation: HackerNews-OldBoot),</t>
   </si>
   <si>
-    <t>(Citation: Cybereason EventBot),(Citation: Microsoft MalLockerB),(Citation: Lookout-PegasusAndroid),(Citation: PaloAlto-SpyDealer),(Citation: Zscaler-SpyNote),(Citation: WhiteOps TERRACOTTA),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cybereason FakeSpy),(Citation: Threat Fabric Exobot),(Citation: FortiGuard-FlexiSpy),(Citation: Palo Alto HenBox),(Citation: CheckPoint SimBad 2019),(Citation: SecurityIntelligence TrickMo),(Citation: Talos GPlayed),(Citation: Zscaler TikTok Spyware),(Citation: ESET DEFENSOR ID),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Android Changes to System Broadcasts)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Monokle),(Citation: Lookout-StealthMango),(Citation: CyberMerchants-FlexiSpy),(Citation: SWB Exodus March 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: cyble_drinik_1022),(Citation: Lookout-Monokle),(Citation: Cofense Anubis),(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),(Citation: cloudmark_tanglebot_0921),</t>
-  </si>
-  <si>
-    <t>(Citation: Sophos Red Alert 2.0),(Citation: Lookout-PegasusAndroid),(Citation: SecureList - ViceLeaker 2019),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Pegasus),(Citation: NYTimes-BackDoor),(Citation: cyble_drinik_1022),(Citation: Lookout-StealthMango),(Citation: Lookout Uyghur Campaign),(Citation: Palo Alto HenBox),(Citation: Lookout-EnterpriseApps),(Citation: Google Project Zero Insomnia),(Citation: TrendMicro Coronavirus Updates),(Citation: Zscaler TikTok Spyware),(Citation: Zscaler-SuperMarioRun),(Citation: Kaspersky-WUC),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_abstractemu_1021),(Citation: SWB Exodus March 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Monokle),(Citation: Lookout ViperRAT),(Citation: cloudmark_tanglebot_0921),(Citation: Talos-WolfRAT),</t>
+    <t>(Citation: SecurityIntelligence TrickMo),(Citation: Palo Alto HenBox),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Microsoft MalLockerB),(Citation: Threat Fabric Exobot),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Talos GPlayed),(Citation: Cybereason FakeSpy),(Citation: Lookout-PegasusAndroid),(Citation: FortiGuard-FlexiSpy),(Citation: Cybereason EventBot),(Citation: CheckPoint SimBad 2019),(Citation: PaloAlto-SpyDealer),(Citation: Zscaler-SpyNote),(Citation: Zscaler TikTok Spyware),(Citation: WhiteOps TERRACOTTA),(Citation: ESET DEFENSOR ID),(Citation: Android Changes to System Broadcasts)</t>
+  </si>
+  <si>
+    <t>(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Monokle),(Citation: SWB Exodus March 2019),(Citation: Lookout-StealthMango),</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList BusyGasper),(Citation: Lookout Uyghur Campaign),(Citation: cyble_drinik_1022),(Citation: Lookout-Monokle),(Citation: Cofense Anubis),(Citation: cloudmark_tanglebot_0921),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_abstractemu_1021),(Citation: Lookout-Pegasus),(Citation: Lookout-PegasusAndroid),(Citation: Sophos Red Alert 2.0),(Citation: SecureList - ViceLeaker 2019),(Citation: Zscaler TikTok Spyware),(Citation: Palo Alto HenBox),(Citation: Kaspersky-WUC),(Citation: Lookout-Monokle),(Citation: TrendMicro Coronavirus Updates),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SWB Exodus March 2019),(Citation: Lookout-StealthMango),(Citation: Lookout-EnterpriseApps),(Citation: cloudmark_tanglebot_0921),(Citation: Talos-WolfRAT),(Citation: NYTimes-BackDoor),(Citation: Lookout ViperRAT),(Citation: PaloAlto-SpyDealer),(Citation: cyble_drinik_1022),(Citation: Google Project Zero Insomnia),</t>
   </si>
   <si>
     <t>(Citation: PaloAlto-XcodeGhost),(Citation: Trend Micro Bouncing Golf 2019),(Citation: TrendMicro-RCSAndroid),(Citation: Android 10 Privacy Changes)</t>
   </si>
   <si>
-    <t>(Citation: BlackBerry Bahamut),(Citation: Bitdefender Mandrake),(Citation: paloalto_yispecter_1015),(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout Desert Scorpion),(Citation: trendmicro_tianyspy_0122),(Citation: SecureList DVMap June 2017),(Citation: Android-TrustedCA),(Citation: Symantec-iOSProfile2)</t>
+    <t>(Citation: SecureList DVMap June 2017),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: BlackBerry Bahamut),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: paloalto_yispecter_1015),(Citation: trendmicro_tianyspy_0122),(Citation: Bitdefender Mandrake),(Citation: Android-TrustedCA),(Citation: Symantec-iOSProfile2)</t>
   </si>
   <si>
     <t>(Citation: trendmicro_tianyspy_0122),</t>
@@ -2191,82 +2191,82 @@
     <t>(Citation: CheckPoint Agent Smith),(Citation: paloalto_yispecter_1015),</t>
   </si>
   <si>
-    <t>(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Adware),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Monokle),(Citation: Lookout-BrainTest),(Citation: Lookout-Pegasus),(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),</t>
+    <t>(Citation: SecureList BusyGasper),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Pegasus),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-BrainTest),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Monokle),(Citation: Lookout-Adware),</t>
   </si>
   <si>
     <t>(Citation: PaloAlto-XcodeGhost),(Citation: PaloAlto-XcodeGhost1),</t>
   </si>
   <si>
-    <t>(Citation: BankInfoSecurity-BackDoor),(Citation: Google Triada June 2019),(Citation: Krebs-Triada June 2019),(Citation: NYTimes-BackDoor),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout-StealthMango),(Citation: HackerNews-Allwinner),</t>
-  </si>
-  <si>
-    <t>(Citation: Securelist Asacub),(Citation: BlackBerry Bahamut),(Citation: ThreatFabric Ginp),(Citation: Lookout-PegasusAndroid),(Citation: Sophos Red Alert 2.0),(Citation: PaloAlto-SpyDealer),(Citation: securelist rotexy 2018),(Citation: Lookout-Pegasus),(Citation: Threat Fabric Cerberus),(Citation: Kaspersky Riltok June 2019),(Citation: Talos GPlayed),(Citation: CheckPoint-Charger),(Citation: Bitdefender Mandrake),(Citation: NYTimes-BackDoor),(Citation: Lookout eSurv),(Citation: Lookout-StealthMango),(Citation: Cofense Anubis),(Citation: Lookout Uyghur Campaign),(Citation: Palo Alto HenBox),(Citation: Lookout-EnterpriseApps),(Citation: CyberMerchants-FlexiSpy),(Citation: TrendMicro Coronavirus Updates),(Citation: Google Project Zero Insomnia),(Citation: Zscaler TikTok Spyware),(Citation: Talos Gustuff Apr 2019),(Citation: Kaspersky-WUC),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cybereason FakeSpy),(Citation: lookout_abstractemu_1021),(Citation: Lookout Desert Scorpion),(Citation: SWB Exodus March 2019),(Citation: proofpoint_flubot_0421),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Zscaler-SpyNote),(Citation: Symantec GoldenCup),(Citation: Lookout-Monokle),(Citation: Lookout ViperRAT),(Citation: Threat Fabric Exobot),(Citation: cloudmark_tanglebot_0921),(Citation: Talos-WolfRAT),</t>
+    <t>(Citation: NYTimes-BackDoor),(Citation: Krebs-Triada June 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: BankInfoSecurity-BackDoor),(Citation: HackerNews-Allwinner),(Citation: Lookout-StealthMango),(Citation: Google Triada June 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_abstractemu_1021),(Citation: Symantec GoldenCup),(Citation: Lookout Desert Scorpion),(Citation: Lookout-Pegasus),(Citation: Threat Fabric Exobot),(Citation: ThreatFabric Ginp),(Citation: Lookout-PegasusAndroid),(Citation: Cybereason FakeSpy),(Citation: Sophos Red Alert 2.0),(Citation: securelist rotexy 2018),(Citation: Zscaler TikTok Spyware),(Citation: CyberMerchants-FlexiSpy),(Citation: proofpoint_flubot_0421),(Citation: BlackBerry Bahamut),(Citation: Palo Alto HenBox),(Citation: Kaspersky-WUC),(Citation: Talos GPlayed),(Citation: CheckPoint-Charger),(Citation: Lookout-Monokle),(Citation: Cofense Anubis),(Citation: TrendMicro Coronavirus Updates),(Citation: Securelist Asacub),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos Gustuff Apr 2019),(Citation: SWB Exodus March 2019),(Citation: Threat Fabric Cerberus),(Citation: Lookout-EnterpriseApps),(Citation: Lookout-StealthMango),(Citation: cloudmark_tanglebot_0921),(Citation: Talos-WolfRAT),(Citation: Lookout eSurv),(Citation: NYTimes-BackDoor),(Citation: Lookout ViperRAT),(Citation: PaloAlto-SpyDealer),(Citation: Zscaler-SpyNote),(Citation: Kaspersky Riltok June 2019),(Citation: Bitdefender Mandrake),(Citation: Google Project Zero Insomnia),</t>
   </si>
   <si>
     <t>(Citation: cleafy_sova_1122),(Citation: Cofense Anubis),(Citation: PaloAlto-Xbot),</t>
   </si>
   <si>
-    <t>(Citation: FlexiSpy-Features),(Citation: BlackBerry Bahamut),(Citation: ThreatFabric Ginp),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout FrozenCell),(Citation: Talos GPlayed),(Citation: Trend Micro Anubis),(Citation: cyble_drinik_1022),(Citation: Lookout eSurv),(Citation: Cylance Dust Storm),(Citation: Cofense Anubis),(Citation: Lookout Uyghur Campaign),(Citation: Palo Alto HenBox),(Citation: TrendMicro-RCSAndroid),(Citation: Google Project Zero Insomnia),(Citation: Lookout-StealthMango),(Citation: TrendMicro Coronavirus Updates),(Citation: Zscaler TikTok Spyware),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Dendroid),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SecurityIntelligence TrickMo),(Citation: lookout_abstractemu_1021),(Citation: Lookout Desert Scorpion),(Citation: SWB Exodus March 2019),(Citation: Zscaler-SpyNote),(Citation: Symantec GoldenCup),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout-Monokle),(Citation: Lookout ViperRAT),(Citation: Bitdefender - Triout 2018),(Citation: SecureList BusyGasper),(Citation: cloudmark_tanglebot_0921),(Citation: Gooligan Citation),(Citation: Talos-WolfRAT),</t>
-  </si>
-  <si>
-    <t>(Citation: Sophos Red Alert 2.0),(Citation: Trend Micro Anubis),(Citation: Cofense Anubis),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: TrendMicro-Anserver),</t>
-  </si>
-  <si>
-    <t>(Citation: Securelist Asacub),(Citation: Sophos Red Alert 2.0),(Citation: TrendMicro-XLoader),(Citation: Threat Fabric Exobot),(Citation: lookout_abstractemu_1021),(Citation: Proofpoint-Marcher),(Citation: Talos GPlayed),(Citation: GoogleIO2016)</t>
-  </si>
-  <si>
-    <t>(Citation: securelist rotexy 2018),(Citation: Microsoft MalLockerB),(Citation: SecurityIntelligence TrickMo),</t>
-  </si>
-  <si>
-    <t>(Citation: Bitdefender Mandrake),(Citation: cyble_drinik_1022),(Citation: Google Security Zen),(Citation: Cofense Anubis),(Citation: lookout_abstractemu_1021),(Citation: Threat Fabric Cerberus),(Citation: proofpoint_flubot_0421),(Citation: SecureList DVMap June 2017),</t>
-  </si>
-  <si>
-    <t>(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: Bitdefender Mandrake),(Citation: proofpoint_flubot_0421),</t>
-  </si>
-  <si>
-    <t>(Citation: Sophos Red Alert 2.0),(Citation: BlackBerry Bahamut),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-BrainTest),(Citation: Kaspersky-Skygofree),(Citation: Xiao-ZergHelper),(Citation: Threat Fabric Cerberus),(Citation: Lookout FrozenCell),(Citation: Talos GPlayed),(Citation: SecureList DVMap June 2017),(Citation: Bitdefender Mandrake),(Citation: Trend Micro Anubis),(Citation: Lookout eSurv),(Citation: Google Security Zen),(Citation: Lookout Uyghur Campaign),(Citation: Palo Alto HenBox),(Citation: TrendMicro-RCSAndroid),(Citation: CheckPoint-Judy),(Citation: Google Bread),(Citation: nccgroup_sharkbot_0322),(Citation: WhiteOps TERRACOTTA),(Citation: lookout_abstractemu_1021),(Citation: Lookout Desert Scorpion),(Citation: SWB Exodus March 2019),(Citation: Cybereason EventBot),(Citation: Google Triada June 2019),(Citation: Symantec GoldenCup),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout ViperRAT),(Citation: SecureList BusyGasper),(Citation: paloalto_yispecter_1015),(Citation: Talos-WolfRAT),(Citation: Android 10 Execute)</t>
-  </si>
-  <si>
-    <t>(Citation: paloalto_yispecter_1015),(Citation: Lookout-Pegasus),(Citation: Lookout-StealthMango),(Citation: Volexity Insomnia),</t>
+    <t>(Citation: lookout_abstractemu_1021),(Citation: Symantec GoldenCup),(Citation: Bitdefender - Triout 2018),(Citation: Lookout Desert Scorpion),(Citation: ThreatFabric Ginp),(Citation: SecureList - ViceLeaker 2019),(Citation: Zscaler TikTok Spyware),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-Dendroid),(Citation: BlackBerry Bahamut),(Citation: Palo Alto HenBox),(Citation: Talos GPlayed),(Citation: Lookout-Monokle),(Citation: Cofense Anubis),(Citation: TrendMicro Coronavirus Updates),(Citation: Cylance Dust Storm),(Citation: Gooligan Citation),(Citation: SecureList BusyGasper),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout Uyghur Campaign),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos Gustuff Apr 2019),(Citation: SWB Exodus March 2019),(Citation: Lookout-StealthMango),(Citation: cloudmark_tanglebot_0921),(Citation: Talos-WolfRAT),(Citation: Lookout eSurv),(Citation: FlexiSpy-Features),(Citation: Lookout ViperRAT),(Citation: Lookout FrozenCell),(Citation: Zscaler-SpyNote),(Citation: Trend Micro Anubis),(Citation: cyble_drinik_1022),(Citation: Google Project Zero Insomnia),</t>
+  </si>
+  <si>
+    <t>(Citation: Sophos Red Alert 2.0),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Trend Micro Anubis),(Citation: Cofense Anubis),(Citation: TrendMicro-Anserver),</t>
+  </si>
+  <si>
+    <t>(Citation: Securelist Asacub),(Citation: lookout_abstractemu_1021),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: Sophos Red Alert 2.0),(Citation: Proofpoint-Marcher),(Citation: TrendMicro-XLoader),(Citation: GoogleIO2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft MalLockerB),(Citation: securelist rotexy 2018),(Citation: SecurityIntelligence TrickMo),</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList DVMap June 2017),(Citation: lookout_abstractemu_1021),(Citation: proofpoint_flubot_0421),(Citation: cyble_drinik_1022),(Citation: Google Security Zen),(Citation: Threat Fabric Cerberus),(Citation: Cofense Anubis),(Citation: Bitdefender Mandrake),</t>
+  </si>
+  <si>
+    <t>(Citation: proofpoint_flubot_0421),(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: Bitdefender Mandrake),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_abstractemu_1021),(Citation: Symantec GoldenCup),(Citation: Lookout Desert Scorpion),(Citation: Sophos Red Alert 2.0),(Citation: Kaspersky-Skygofree),(Citation: SecureList DVMap June 2017),(Citation: TrendMicro-RCSAndroid),(Citation: Palo Alto HenBox),(Citation: BlackBerry Bahamut),(Citation: nccgroup_sharkbot_0322),(Citation: Talos GPlayed),(Citation: Google Bread),(Citation: Google Triada June 2019),(Citation: SecureList BusyGasper),(Citation: Lookout Uyghur Campaign),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Xiao-ZergHelper),(Citation: Lookout-BrainTest),(Citation: CheckPoint-Judy),(Citation: paloalto_yispecter_1015),(Citation: SWB Exodus March 2019),(Citation: Threat Fabric Cerberus),(Citation: WhiteOps TERRACOTTA),(Citation: Talos-WolfRAT),(Citation: Lookout eSurv),(Citation: Lookout ViperRAT),(Citation: Lookout FrozenCell),(Citation: PaloAlto-SpyDealer),(Citation: Trend Micro Anubis),(Citation: Cybereason EventBot),(Citation: Google Security Zen),(Citation: Bitdefender Mandrake),(Citation: Android 10 Execute)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-Pegasus),(Citation: Lookout-StealthMango),(Citation: Volexity Insomnia),(Citation: paloalto_yispecter_1015),</t>
   </si>
   <si>
     <t>(Citation: ESET-Twitoor),</t>
   </si>
   <si>
-    <t>(Citation: CheckPoint-Charger),(Citation: Talos GPlayed),(Citation: Threat Fabric Exobot),(Citation: PaloAlto-Xbot),</t>
+    <t>(Citation: CheckPoint-Charger),(Citation: PaloAlto-Xbot),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),</t>
   </si>
   <si>
     <t>,(Citation: Android Changes to System Broadcasts)</t>
   </si>
   <si>
-    <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: Google Triada June 2019),(Citation: SecureList - ViceLeaker 2019),(Citation: Wandera-RedDrop),(Citation: cyble_drinik_1022),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout eSurv),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cylance Dust Storm),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender - Triout 2018),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: proofpoint_flubot_0421),</t>
+    <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Uyghur Campaign),(Citation: lookout_abstractemu_1021),(Citation: Bitdefender - Triout 2018),(Citation: proofpoint_flubot_0421),(Citation: Trend Micro Bouncing Golf 2019),(Citation: nccgroup_sharkbot_0322),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: cyble_drinik_1022),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout eSurv),(Citation: Cylance Dust Storm),(Citation: Wandera-RedDrop),(Citation: Google Triada June 2019),</t>
   </si>
   <si>
     <t>(Citation: SecureList BusyGasper),(Citation: TrendMicro Coronavirus Updates),</t>
   </si>
   <si>
-    <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: SWB Exodus March 2019),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Adware),(Citation: Volexity Insomnia),(Citation: PaloAlto-SpyDealer),(Citation: Gooligan Citation),(Citation: Lookout-BrainTest),(Citation: ArsTechnica-HummingBad),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Pegasus),(Citation: Kaspersky-Skygofree),(Citation: Google Security Zen),(Citation: CheckPoint Agent Smith),(Citation: SecureList DVMap June 2017),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-NotCompatible),(Citation: TrendMicro-DressCode),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: SecureList - ViceLeaker 2019),(Citation: Bitdefender Mandrake),(Citation: Talos-WolfRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-Monokle),(Citation: Lookout Uyghur Campaign),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout Desert Scorpion),(Citation: Zscaler TikTok Spyware),(Citation: Talos GPlayed),(Citation: CheckPoint Agent Smith),</t>
-  </si>
-  <si>
-    <t>(Citation: BlackBerry Bahamut),(Citation: Symantec GoldenCup),(Citation: Cylance Dust Storm),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: Lookout FrozenCell),(Citation: Zscaler TikTok Spyware),</t>
-  </si>
-  <si>
-    <t>(Citation: cyble_drinik_1022),(Citation: WhiteOps TERRACOTTA),(Citation: Zscaler TikTok Spyware),(Citation: Bitdefender Mandrake),</t>
-  </si>
-  <si>
-    <t>(Citation: Sophos Red Alert 2.0),(Citation: ThreatFabric Ginp),(Citation: securelist rotexy 2018),(Citation: PaloAlto-XcodeGhost),(Citation: Proofpoint-Marcher),(Citation: Threat Fabric Cerberus),(Citation: Kaspersky Riltok June 2019),(Citation: Talos GPlayed),(Citation: trendmicro_tianyspy_0122),(Citation: Bitdefender Mandrake),(Citation: cyble_drinik_1022),(Citation: Cofense Anubis),(Citation: Zscaler TikTok Spyware),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Dendroid),(Citation: nccgroup_sharkbot_0322),(Citation: WhiteOps TERRACOTTA),(Citation: Group IB Gustuff Mar 2019),(Citation: proofpoint_flubot_0421),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Cybereason EventBot),(Citation: Threat Fabric Exobot),(Citation: cloudmark_tanglebot_0921),(Citation: threatfabric_sova_0921),(Citation: PaloAlto-Xbot),(Citation: Android 12 Features)</t>
-  </si>
-  <si>
-    <t>(Citation: Google Triada June 2019),(Citation: Tripwire-MazarBOT),(Citation: Wandera-RedDrop),(Citation: WhiteOps TERRACOTTA),(Citation: Google Bread),(Citation: Lookout-BrainTest),(Citation: Gooligan Citation),(Citation: ArsTechnica-HummingBad),(Citation: CheckPoint-Judy),(Citation: CheckPoint SimBad 2019),(Citation: Google Security Zen),(Citation: Lookout-EnterpriseApps),(Citation: Kaspersky Triada June 2016),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: CheckPoint Agent Smith),(Citation: ArsTechnica-HummingWhale),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout eSurv),(Citation: BlackBerry Bahamut),</t>
+    <t>(Citation: CheckPoint Agent Smith),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SecureList DVMap June 2017),(Citation: Lookout Uyghur Campaign),(Citation: lookout_abstractemu_1021),(Citation: Lookout-Pegasus),(Citation: ArsTechnica-HummingBad),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-BrainTest),(Citation: PaloAlto-SpyDealer),(Citation: Volexity Insomnia),(Citation: Google Security Zen),(Citation: SWB Exodus March 2019),(Citation: Lookout-Adware),(Citation: Kaspersky-Skygofree),(Citation: Gooligan Citation),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro-DressCode),(Citation: Lookout-NotCompatible),</t>
+  </si>
+  <si>
+    <t>(Citation: CheckPoint Agent Smith),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos GPlayed),(Citation: Lookout-Monokle),(Citation: SecureList - ViceLeaker 2019),(Citation: Zscaler TikTok Spyware),(Citation: CyberMerchants-FlexiSpy),(Citation: Bitdefender Mandrake),(Citation: Talos-WolfRAT),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: Symantec GoldenCup),(Citation: Lookout Desert Scorpion),(Citation: BlackBerry Bahamut),(Citation: Lookout FrozenCell),(Citation: Zscaler TikTok Spyware),(Citation: Cylance Dust Storm),</t>
+  </si>
+  <si>
+    <t>(Citation: Bitdefender Mandrake),(Citation: Zscaler TikTok Spyware),(Citation: cyble_drinik_1022),(Citation: WhiteOps TERRACOTTA),</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Exobot),(Citation: ThreatFabric Ginp),(Citation: Sophos Red Alert 2.0),(Citation: PaloAlto-XcodeGhost),(Citation: securelist rotexy 2018),(Citation: trendmicro_tianyspy_0122),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Dendroid),(Citation: proofpoint_flubot_0421),(Citation: nccgroup_sharkbot_0322),(Citation: Talos GPlayed),(Citation: Cofense Anubis),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Group IB Gustuff Mar 2019),(Citation: threatfabric_sova_0921),(Citation: Talos Gustuff Apr 2019),(Citation: PaloAlto-Xbot),(Citation: Threat Fabric Cerberus),(Citation: WhiteOps TERRACOTTA),(Citation: cloudmark_tanglebot_0921),(Citation: Proofpoint-Marcher),(Citation: Kaspersky Riltok June 2019),(Citation: Cybereason EventBot),(Citation: cyble_drinik_1022),(Citation: Bitdefender Mandrake),(Citation: Android 12 Features)</t>
+  </si>
+  <si>
+    <t>(Citation: CheckPoint Agent Smith),(Citation: Tripwire-MazarBOT),(Citation: Wandera-RedDrop),(Citation: ArsTechnica-HummingBad),(Citation: Kaspersky Triada June 2016),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: CheckPoint SimBad 2019),(Citation: Lookout-BrainTest),(Citation: CheckPoint-Judy),(Citation: Google Security Zen),(Citation: WhiteOps TERRACOTTA),(Citation: ArsTechnica-HummingWhale),(Citation: Lookout-EnterpriseApps),(Citation: Google Bread),(Citation: Gooligan Citation),(Citation: Google Triada June 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: BlackBerry Bahamut),(Citation: Lookout eSurv),</t>
   </si>
   <si>
     <t>(Citation: paloalto_yispecter_1015),(Citation: Android-VerifiedBoot)</t>
@@ -2275,103 +2275,103 @@
     <t>(Citation: CitizenLab Circles),(Citation: CSRIC-WG1-FinalReport)</t>
   </si>
   <si>
-    <t>(Citation: SecureList - ViceLeaker 2019),(Citation: Bitdefender Mandrake),(Citation: Wandera-RedDrop),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout-Monokle),(Citation: lookout_abstractemu_1021),</t>
+    <t>(Citation: lookout_abstractemu_1021),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout-Monokle),(Citation: SecureList - ViceLeaker 2019),(Citation: Bitdefender Mandrake),(Citation: Wandera-RedDrop),</t>
   </si>
   <si>
     <t>,(Citation: Android 12 Features),(Citation: Samsung Keyboards)</t>
   </si>
   <si>
-    <t>(Citation: ThreatFabric Ginp),(Citation: Bitdefender Mandrake),(Citation: ESET DEFENSOR ID),(Citation: nccgroup_sharkbot_0322),(Citation: WhiteOps TERRACOTTA),(Citation: Google Security Zen),(Citation: SecurityIntelligence TrickMo),(Citation: Threat Fabric Cerberus),(Citation: Kaspersky Riltok June 2019),(Citation: Talos Gustuff Apr 2019),(Citation: cleafy_sova_1122),(Citation: CheckPoint Cerberus),</t>
+    <t>(Citation: SecurityIntelligence TrickMo),(Citation: nccgroup_sharkbot_0322),(Citation: Talos Gustuff Apr 2019),(Citation: ThreatFabric Ginp),(Citation: cleafy_sova_1122),(Citation: Kaspersky Riltok June 2019),(Citation: Google Security Zen),(Citation: Threat Fabric Cerberus),(Citation: CheckPoint Cerberus),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),(Citation: ESET DEFENSOR ID),</t>
   </si>
   <si>
     <t>(Citation: Google Project Zero Insomnia),</t>
   </si>
   <si>
-    <t>(Citation: FlexiSpy-Features),(Citation: BlackBerry Bahamut),(Citation: Cybereason EventBot),(Citation: cyble_drinik_1022),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout-Monokle),(Citation: Cofense Anubis),(Citation: Threat Fabric Exobot),(Citation: SecureList BusyGasper),(Citation: Threat Fabric Cerberus),(Citation: Talos Gustuff Apr 2019),(Citation: threatfabric_sova_0921),(Citation: Samsung Keyboards)</t>
-  </si>
-  <si>
-    <t>(Citation: BlackBerry Bahamut),(Citation: SecureList - ViceLeaker 2019),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Pegasus),(Citation: Kaspersky-Skygofree),(Citation: CrowdStrike-Android),(Citation: Threat Fabric Cerberus),(Citation: Lookout FrozenCell),(Citation: Talos GPlayed),(Citation: CheckPoint-Charger),(Citation: Bitdefender Mandrake),(Citation: NYTimes-BackDoor),(Citation: Lookout eSurv),(Citation: Lookout-StealthMango),(Citation: Cofense Anubis),(Citation: Lookout Uyghur Campaign),(Citation: Palo Alto HenBox),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-EnterpriseApps),(Citation: CyberMerchants-FlexiSpy),(Citation: TrendMicro Coronavirus Updates),(Citation: Google Project Zero Insomnia),(Citation: Zscaler TikTok Spyware),(Citation: Kaspersky-WUC),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_abstractemu_1021),(Citation: Lookout Desert Scorpion),(Citation: SWB Exodus March 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Zscaler-SpyNote),(Citation: Symantec GoldenCup),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout-Monokle),(Citation: Lookout ViperRAT),(Citation: Bitdefender - Triout 2018),(Citation: SecureList BusyGasper),(Citation: cloudmark_tanglebot_0921),(Citation: CSRIC5-WG10-FinalReport)</t>
-  </si>
-  <si>
-    <t>(Citation: Securelist Asacub),(Citation: WhiteOps TERRACOTTA),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Palo Alto HenBox),(Citation: Lookout Uyghur Campaign),(Citation: Google Bread),</t>
+    <t>(Citation: SecureList BusyGasper),(Citation: FlexiSpy-Features),(Citation: threatfabric_sova_0921),(Citation: BlackBerry Bahamut),(Citation: nccgroup_sharkbot_0322),(Citation: Threat Fabric Exobot),(Citation: Talos Gustuff Apr 2019),(Citation: Cybereason EventBot),(Citation: cyble_drinik_1022),(Citation: Lookout-Monokle),(Citation: Threat Fabric Cerberus),(Citation: Cofense Anubis),(Citation: Samsung Keyboards)</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_abstractemu_1021),(Citation: Symantec GoldenCup),(Citation: Bitdefender - Triout 2018),(Citation: Lookout Desert Scorpion),(Citation: Lookout-Pegasus),(Citation: SecureList - ViceLeaker 2019),(Citation: Zscaler TikTok Spyware),(Citation: CyberMerchants-FlexiSpy),(Citation: Kaspersky-Skygofree),(Citation: TrendMicro-RCSAndroid),(Citation: CrowdStrike-Android),(Citation: Palo Alto HenBox),(Citation: BlackBerry Bahamut),(Citation: Kaspersky-WUC),(Citation: Talos GPlayed),(Citation: CheckPoint-Charger),(Citation: Lookout-Monokle),(Citation: Cofense Anubis),(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList BusyGasper),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Uyghur Campaign),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SWB Exodus March 2019),(Citation: Threat Fabric Cerberus),(Citation: Lookout-EnterpriseApps),(Citation: Lookout-StealthMango),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout eSurv),(Citation: NYTimes-BackDoor),(Citation: Lookout ViperRAT),(Citation: Lookout FrozenCell),(Citation: PaloAlto-SpyDealer),(Citation: Zscaler-SpyNote),(Citation: Bitdefender Mandrake),(Citation: Google Project Zero Insomnia),(Citation: CSRIC5-WG10-FinalReport)</t>
+  </si>
+  <si>
+    <t>(Citation: Securelist Asacub),(Citation: Lookout Uyghur Campaign),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Palo Alto HenBox),(Citation: Google Bread),(Citation: WhiteOps TERRACOTTA),</t>
   </si>
   <si>
     <t>(Citation: threatfabric_sova_0921),</t>
   </si>
   <si>
-    <t>(Citation: Sophos Red Alert 2.0),(Citation: Bitdefender Mandrake),(Citation: Volexity Insomnia),(Citation: FortiGuard-FlexiSpy),(Citation: CheckPoint Cerberus),(Citation: SWB Exodus March 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: Securelist Asacub),(Citation: BlackBerry Bahamut),(Citation: ThreatFabric Ginp),(Citation: Sophos Red Alert 2.0),(Citation: securelist rotexy 2018),(Citation: TrendMicro-Obad),(Citation: Lookout-BrainTest),(Citation: Threat Fabric Cerberus),(Citation: Talos GPlayed),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: trendmicro_tianyspy_0122),(Citation: SecureList DVMap June 2017),(Citation: CheckPoint-Charger),(Citation: Check Point-Joker),(Citation: Bitdefender Mandrake),(Citation: cyble_drinik_1022),(Citation: Google Security Zen),(Citation: FortiGuard-FlexiSpy),(Citation: Lookout Uyghur Campaign),(Citation: Palo Alto HenBox),(Citation: Talos Gustuff Apr 2019),(Citation: Google Bread),(Citation: Volexity Insomnia),(Citation: nccgroup_sharkbot_0322),(Citation: WhiteOps TERRACOTTA),(Citation: TrendMicro-XLoader),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cybereason FakeSpy),(Citation: lookout_abstractemu_1021),(Citation: SecurityIntelligence TrickMo),(Citation: PaloAlto-WireLurker),(Citation: proofpoint_flubot_0421),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Cybereason EventBot),(Citation: Microsoft MalLockerB),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout-Monokle),(Citation: Talos-WolfRAT),</t>
-  </si>
-  <si>
-    <t>(Citation: Kaspersky-WUC),(Citation: Lookout-PegasusAndroid),(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Monokle),(Citation: Lookout-Pegasus),(Citation: Kaspersky-Skygofree),(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-StealthMango),(Citation: SecurityIntelligence TrickMo),(Citation: SecureList BusyGasper),(Citation: Lookout Desert Scorpion),(Citation: Talos Gustuff Apr 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: threatfabric_sova_0921),(Citation: TrendMicro-Obad),(Citation: Bitdefender Mandrake),(Citation: bitdefender_flubot_0524),</t>
-  </si>
-  <si>
-    <t>(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),(Citation: Zimperium z9),(Citation: CheckPoint Agent Smith),(Citation: paloalto_yispecter_1015),(Citation: Talos-WolfRAT),</t>
+    <t>(Citation: Sophos Red Alert 2.0),(Citation: FortiGuard-FlexiSpy),(Citation: SWB Exodus March 2019),(Citation: CheckPoint Cerberus),(Citation: Bitdefender Mandrake),(Citation: Volexity Insomnia),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_abstractemu_1021),(Citation: ThreatFabric Ginp),(Citation: Sophos Red Alert 2.0),(Citation: Cybereason FakeSpy),(Citation: PaloAlto-WireLurker),(Citation: securelist rotexy 2018),(Citation: trendmicro_tianyspy_0122),(Citation: SecureList DVMap June 2017),(Citation: proofpoint_flubot_0421),(Citation: BlackBerry Bahamut),(Citation: Palo Alto HenBox),(Citation: nccgroup_sharkbot_0322),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Talos GPlayed),(Citation: TrendMicro-XLoader),(Citation: CheckPoint-Charger),(Citation: Lookout-Monokle),(Citation: Google Bread),(Citation: Securelist Asacub),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout Uyghur Campaign),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Microsoft MalLockerB),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-BrainTest),(Citation: FortiGuard-FlexiSpy),(Citation: Threat Fabric Cerberus),(Citation: Volexity Insomnia),(Citation: WhiteOps TERRACOTTA),(Citation: TrendMicro-Obad),(Citation: Talos-WolfRAT),(Citation: Check Point-Joker),(Citation: Cybereason EventBot),(Citation: cyble_drinik_1022),(Citation: Google Security Zen),(Citation: Bitdefender Mandrake),</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList BusyGasper),(Citation: SecurityIntelligence TrickMo),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: Lookout-Pegasus),(Citation: nccgroup_sharkbot_0322),(Citation: Talos Gustuff Apr 2019),(Citation: Kaspersky-WUC),(Citation: Lookout-PegasusAndroid),(Citation: PaloAlto-SpyDealer),(Citation: securelist rotexy 2018),(Citation: Lookout-Monokle),(Citation: Lookout-StealthMango),(Citation: Kaspersky-Skygofree),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro-Obad),(Citation: bitdefender_flubot_0524),(Citation: threatfabric_sova_0921),(Citation: Bitdefender Mandrake),</t>
+  </si>
+  <si>
+    <t>(Citation: CheckPoint Agent Smith),(Citation: Palo Alto HenBox),(Citation: Trend Micro Bouncing Golf 2019),(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: paloalto_yispecter_1015),(Citation: Zimperium z9),(Citation: Talos-WolfRAT),</t>
   </si>
   <si>
     <t>(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Exobot),</t>
   </si>
   <si>
-    <t>(Citation: Google Project Zero Insomnia),(Citation: Google Security Zen),(Citation: Google Triada June 2019),(Citation: Kaspersky Triada March 2016),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-WireLurker),(Citation: PaloAlto-DualToy),(Citation: Elcomsoft-iOSRestricted)</t>
-  </si>
-  <si>
-    <t>(Citation: Securelist Asacub),(Citation: Sophos Red Alert 2.0),(Citation: ThreatFabric Ginp),(Citation: securelist rotexy 2018),(Citation: bitdefender_flubot_0524),(Citation: Threat Fabric Cerberus),(Citation: Talos GPlayed),(Citation: Bitdefender Mandrake),(Citation: Talos-WolfRAT),(Citation: cyble_drinik_1022),(Citation: Lookout-StealthMango),(Citation: Cofense Anubis),(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro Coronavirus Updates),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Dendroid),(Citation: nccgroup_sharkbot_0322),(Citation: WhiteOps TERRACOTTA),(Citation: SecurityIntelligence TrickMo),(Citation: Cybereason FakeSpy),(Citation: Lookout Desert Scorpion),(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Exobot),(Citation: SecureList BusyGasper),(Citation: cloudmark_tanglebot_0921),(Citation: threatfabric_sova_0921),(Citation: SMS KitKat)</t>
-  </si>
-  <si>
-    <t>(Citation: FlexiSpy-Features),(Citation: Securelist Asacub),(Citation: BlackBerry Bahamut),(Citation: ThreatFabric Ginp),(Citation: Sophos Red Alert 2.0),(Citation: SecureList - ViceLeaker 2019),(Citation: Tripwire-MazarBOT),(Citation: PaloAlto-SpyDealer),(Citation: securelist rotexy 2018),(Citation: Lookout-Pegasus),(Citation: Threat Fabric Cerberus),(Citation: Lookout FrozenCell),(Citation: Kaspersky Riltok June 2019),(Citation: Talos GPlayed),(Citation: Bitdefender Mandrake),(Citation: Talos-WolfRAT),(Citation: NYTimes-BackDoor),(Citation: cyble_drinik_1022),(Citation: Cylance Dust Storm),(Citation: Lookout-StealthMango),(Citation: Lookout Uyghur Campaign),(Citation: Palo Alto HenBox),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-EnterpriseApps),(Citation: CyberMerchants-FlexiSpy),(Citation: TrendMicro Coronavirus Updates),(Citation: Google Project Zero Insomnia),(Citation: FireEye-RuMMS),(Citation: Talos Gustuff Apr 2019),(Citation: Zscaler TikTok Spyware),(Citation: Google Bread),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout-Dendroid),(Citation: Kaspersky-WUC),(Citation: Kaspersky Triada March 2016),(Citation: nccgroup_sharkbot_0322),(Citation: TrendMicro-XLoader),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cybereason FakeSpy),(Citation: lookout_abstractemu_1021),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout Desert Scorpion),(Citation: SWB Exodus March 2019),(Citation: proofpoint_flubot_0421),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Cybereason EventBot),(Citation: Zscaler-SpyNote),(Citation: Symantec GoldenCup),(Citation: Lookout ViperRAT),(Citation: Threat Fabric Exobot),(Citation: SecureList BusyGasper),(Citation: cloudmark_tanglebot_0921),(Citation: threatfabric_sova_0921),(Citation: PaloAlto-Xbot),</t>
-  </si>
-  <si>
-    <t>(Citation: WhiteOps TERRACOTTA),(Citation: Talos GPlayed),(Citation: Zscaler TikTok Spyware),</t>
-  </si>
-  <si>
-    <t>(Citation: FlexiSpy-Features),(Citation: Cybereason EventBot),(Citation: ThreatFabric Ginp),(Citation: Bitdefender Mandrake),(Citation: cyble_drinik_1022),(Citation: PaloAlto-SpyDealer),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-Monokle),(Citation: Cofense Anubis),(Citation: Lookout Uyghur Campaign),(Citation: SecurityIntelligence TrickMo),(Citation: SecureList BusyGasper),(Citation: Zscaler TikTok Spyware),(Citation: cloudmark_tanglebot_0921),(Citation: ESET DEFENSOR ID),(Citation: cleafy_sova_1122),(Citation: SWB Exodus March 2019),(Citation: Talos-WolfRAT),(Citation: Nightwatch screencap April 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Exobot),(Citation: Talos Gustuff Apr 2019),(Citation: Android Package Visibility)</t>
-  </si>
-  <si>
-    <t>(Citation: FlexiSpy-Features),(Citation: Sophos Red Alert 2.0),(Citation: ThreatFabric Ginp),(Citation: Lookout-PegasusAndroid),(Citation: SecureList - ViceLeaker 2019),(Citation: securelist rotexy 2018),(Citation: Threat Fabric Cerberus),(Citation: Kaspersky Riltok June 2019),(Citation: cleafy_sova_1122),(Citation: Talos GPlayed),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Bitdefender Mandrake),(Citation: Lookout-StealthMango),(Citation: Cofense Anubis),(Citation: Lookout Uyghur Campaign),(Citation: Palo Alto HenBox),(Citation: Google Project Zero Insomnia),(Citation: Zscaler TikTok Spyware),(Citation: CheckPoint Agent Smith),(Citation: WhiteOps TERRACOTTA),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cybereason FakeSpy),(Citation: lookout_abstractemu_1021),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout Desert Scorpion),(Citation: SWB Exodus March 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Cybereason EventBot),(Citation: Google Triada June 2019),(Citation: Symantec GoldenCup),(Citation: Lookout-Monokle),(Citation: cloudmark_tanglebot_0921),(Citation: ESET DEFENSOR ID),(Citation: paloalto_yispecter_1015),(Citation: Talos-WolfRAT),(Citation: Android Package Visibility)</t>
+    <t>(Citation: Google Security Zen),(Citation: Google Triada June 2019),(Citation: Kaspersky Triada March 2016),(Citation: Google Project Zero Insomnia),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-DualToy),(Citation: PaloAlto-WireLurker),(Citation: Elcomsoft-iOSRestricted)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Desert Scorpion),(Citation: Threat Fabric Exobot),(Citation: ThreatFabric Ginp),(Citation: Sophos Red Alert 2.0),(Citation: Cybereason FakeSpy),(Citation: securelist rotexy 2018),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Dendroid),(Citation: proofpoint_flubot_0421),(Citation: nccgroup_sharkbot_0322),(Citation: Talos GPlayed),(Citation: Cofense Anubis),(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList BusyGasper),(Citation: Securelist Asacub),(Citation: SecurityIntelligence TrickMo),(Citation: threatfabric_sova_0921),(Citation: Lookout Uyghur Campaign),(Citation: bitdefender_flubot_0524),(Citation: Threat Fabric Cerberus),(Citation: Lookout-StealthMango),(Citation: WhiteOps TERRACOTTA),(Citation: cloudmark_tanglebot_0921),(Citation: Talos-WolfRAT),(Citation: cyble_drinik_1022),(Citation: Bitdefender Mandrake),(Citation: SMS KitKat)</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_abstractemu_1021),(Citation: Symantec GoldenCup),(Citation: Tripwire-MazarBOT),(Citation: Lookout Desert Scorpion),(Citation: Lookout-Pegasus),(Citation: Threat Fabric Exobot),(Citation: ThreatFabric Ginp),(Citation: Sophos Red Alert 2.0),(Citation: Cybereason FakeSpy),(Citation: securelist rotexy 2018),(Citation: SecureList - ViceLeaker 2019),(Citation: Zscaler TikTok Spyware),(Citation: CyberMerchants-FlexiSpy),(Citation: FireEye-RuMMS),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-Dendroid),(Citation: BlackBerry Bahamut),(Citation: proofpoint_flubot_0421),(Citation: Palo Alto HenBox),(Citation: nccgroup_sharkbot_0322),(Citation: Kaspersky-WUC),(Citation: Talos GPlayed),(Citation: TrendMicro-XLoader),(Citation: Cylance Dust Storm),(Citation: TrendMicro Coronavirus Updates),(Citation: Google Bread),(Citation: Zscaler-SuperMarioRun),(Citation: SecureList BusyGasper),(Citation: Securelist Asacub),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SecurityIntelligence TrickMo),(Citation: threatfabric_sova_0921),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos Gustuff Apr 2019),(Citation: PaloAlto-Xbot),(Citation: SWB Exodus March 2019),(Citation: Threat Fabric Cerberus),(Citation: Lookout-EnterpriseApps),(Citation: Lookout-StealthMango),(Citation: cloudmark_tanglebot_0921),(Citation: Talos-WolfRAT),(Citation: NYTimes-BackDoor),(Citation: FlexiSpy-Features),(Citation: Lookout ViperRAT),(Citation: Lookout FrozenCell),(Citation: PaloAlto-SpyDealer),(Citation: Zscaler-SpyNote),(Citation: Kaspersky Riltok June 2019),(Citation: Cybereason EventBot),(Citation: cyble_drinik_1022),(Citation: Kaspersky Triada March 2016),(Citation: Bitdefender Mandrake),(Citation: Google Project Zero Insomnia),</t>
+  </si>
+  <si>
+    <t>(Citation: Zscaler TikTok Spyware),(Citation: WhiteOps TERRACOTTA),(Citation: Talos GPlayed),</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList BusyGasper),(Citation: FlexiSpy-Features),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: ThreatFabric Ginp),(Citation: cleafy_sova_1122),(Citation: PaloAlto-SpyDealer),(Citation: Cybereason EventBot),(Citation: cyble_drinik_1022),(Citation: Lookout-Monokle),(Citation: Talos-WolfRAT),(Citation: Zscaler TikTok Spyware),(Citation: SWB Exodus March 2019),(Citation: Cofense Anubis),(Citation: Bitdefender Mandrake),(Citation: cloudmark_tanglebot_0921),(Citation: ESET DEFENSOR ID),(Citation: Nightwatch screencap April 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Talos Gustuff Apr 2019),(Citation: Threat Fabric Exobot),(Citation: Android Package Visibility)</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_abstractemu_1021),(Citation: Symantec GoldenCup),(Citation: Lookout Desert Scorpion),(Citation: ThreatFabric Ginp),(Citation: Lookout-PegasusAndroid),(Citation: Cybereason FakeSpy),(Citation: Sophos Red Alert 2.0),(Citation: securelist rotexy 2018),(Citation: SecureList - ViceLeaker 2019),(Citation: Zscaler TikTok Spyware),(Citation: Palo Alto HenBox),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Talos GPlayed),(Citation: cleafy_sova_1122),(Citation: Lookout-Monokle),(Citation: Cofense Anubis),(Citation: ESET DEFENSOR ID),(Citation: Google Triada June 2019),(Citation: CheckPoint Agent Smith),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: paloalto_yispecter_1015),(Citation: SWB Exodus March 2019),(Citation: Threat Fabric Cerberus),(Citation: Lookout-StealthMango),(Citation: WhiteOps TERRACOTTA),(Citation: cloudmark_tanglebot_0921),(Citation: Talos-WolfRAT),(Citation: FlexiSpy-Features),(Citation: Kaspersky Riltok June 2019),(Citation: Cybereason EventBot),(Citation: Bitdefender Mandrake),(Citation: Google Project Zero Insomnia),(Citation: Android Package Visibility)</t>
   </si>
   <si>
     <t>(Citation: threatfabric_sova_0921),(Citation: Google Bread),(Citation: Talos Gustuff Apr 2019),</t>
   </si>
   <si>
-    <t>,(Citation: Trend Micro iOS URL Hijacking),(Citation: Android App Links),(Citation: iOS Universal Links),(Citation: IETF-PKCE)</t>
+    <t>,(Citation: iOS Universal Links),(Citation: Android App Links),(Citation: Trend Micro iOS URL Hijacking),(Citation: IETF-PKCE)</t>
   </si>
   <si>
     <t>(Citation: CheckPoint Agent Smith),</t>
   </si>
   <si>
-    <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-PegasusAndroid),(Citation: Bitdefender Mandrake),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Pegasus),(Citation: Cybereason FakeSpy),(Citation: FortiGuard-FlexiSpy),(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro-RCSAndroid),(Citation: Kaspersky-Skygofree),(Citation: Lookout-StealthMango),(Citation: SecureList BusyGasper),(Citation: Lookout Desert Scorpion),(Citation: Lookout FrozenCell),(Citation: cleafy_sova_1122),(Citation: SWB Exodus March 2019),(Citation: paloalto_yispecter_1015),(Citation: threatfabric_sova_0921),</t>
+    <t>(Citation: SecureList BusyGasper),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Kaspersky-Skygofree),(Citation: threatfabric_sova_0921),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: Lookout-Pegasus),(Citation: Lookout FrozenCell),(Citation: Lookout-PegasusAndroid),(Citation: Cybereason FakeSpy),(Citation: cleafy_sova_1122),(Citation: FortiGuard-FlexiSpy),(Citation: PaloAlto-SpyDealer),(Citation: paloalto_yispecter_1015),(Citation: SWB Exodus March 2019),(Citation: Lookout-StealthMango),(Citation: Bitdefender Mandrake),</t>
   </si>
   <si>
     <t>,(Citation: Android-TrustedCA),(Citation: Symantec-iOSProfile2)</t>
   </si>
   <si>
-    <t>(Citation: FlexiSpy-Features),(Citation: ThreatFabric Ginp),(Citation: securelist rotexy 2018),(Citation: CheckPoint SimBad 2019),(Citation: Threat Fabric Cerberus),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Bitdefender Mandrake),(Citation: cyble_drinik_1022),(Citation: FortiGuard-FlexiSpy),(Citation: Lookout Uyghur Campaign),(Citation: Zscaler TikTok Spyware),(Citation: CheckPoint Agent Smith),(Citation: Cybereason FakeSpy),(Citation: Group IB Gustuff Mar 2019),(Citation: Lookout Desert Scorpion),(Citation: ESET-Twitoor),(Citation: Bitdefender - Triout 2018),(Citation: SecureList BusyGasper),(Citation: paloalto_yispecter_1015),(Citation: threatfabric_sova_0921),(Citation: Android 10 Limitations to Hiding App Icons),(Citation: LauncherApps getActivityList)</t>
-  </si>
-  <si>
-    <t>(Citation: nccgroup_sharkbot_0322),(Citation: BlackBerry Bahamut),(Citation: Cybereason EventBot),(Citation: securelist rotexy 2018),</t>
-  </si>
-  <si>
-    <t>(Citation: BlackBerry Bahamut),(Citation: ThreatFabric Ginp),(Citation: Bitdefender Mandrake),(Citation: Trend Micro Anubis),(Citation: securelist rotexy 2018),(Citation: WhiteOps TERRACOTTA),(Citation: SecurityIntelligence TrickMo),(Citation: Cybereason FakeSpy),(Citation: lookout_abstractemu_1021),(Citation: Palo Alto HenBox),(Citation: Threat Fabric Cerberus),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Talos-WolfRAT),(Citation: Lookout-Dendroid),</t>
-  </si>
-  <si>
-    <t>(Citation: Securelist Asacub),(Citation: BlackBerry Bahamut),(Citation: SecureList - ViceLeaker 2019),(Citation: Wandera-RedDrop),(Citation: securelist rotexy 2018),(Citation: Lookout-Pegasus),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Threat Fabric Cerberus),(Citation: Lookout FrozenCell),(Citation: Kaspersky Riltok June 2019),(Citation: Talos GPlayed),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: trendmicro_tianyspy_0122),(Citation: SecureList DVMap June 2017),(Citation: Bitdefender Mandrake),(Citation: Lookout eSurv),(Citation: Cofense Anubis),(Citation: Lookout Uyghur Campaign),(Citation: Palo Alto HenBox),(Citation: TrendMicro-Anserver2),(Citation: Google Project Zero Insomnia),(Citation: FireEye-RuMMS),(Citation: TrendMicro Coronavirus Updates),(Citation: Zscaler TikTok Spyware),(Citation: Talos Gustuff Apr 2019),(Citation: Kaspersky-WUC),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cybereason FakeSpy),(Citation: lookout_abstractemu_1021),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout Desert Scorpion),(Citation: CheckPoint Cerberus),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Cybereason EventBot),(Citation: Symantec GoldenCup),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Xiao-KeyRaider),(Citation: Lookout-Monokle),(Citation: Threat Fabric Exobot),(Citation: Lookout ViperRAT),(Citation: paloalto_yispecter_1015),(Citation: threatfabric_sova_0921),</t>
-  </si>
-  <si>
-    <t>(Citation: Securelist Asacub),(Citation: Lookout-PegasusAndroid),(Citation: Wandera-RedDrop),(Citation: PaloAlto-SpyDealer),(Citation: securelist rotexy 2018),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout FrozenCell),(Citation: Kaspersky Riltok June 2019),(Citation: Talos GPlayed),(Citation: trendmicro_tianyspy_0122),(Citation: Lookout-StealthMango),(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro-Anserver2),(Citation: Google Project Zero Insomnia),(Citation: Lookout-EnterpriseApps),(Citation: TrendMicro Coronavirus Updates),(Citation: FireEye-RuMMS),(Citation: Talos Gustuff Apr 2019),(Citation: Google Bread),(Citation: WhiteOps TERRACOTTA),(Citation: SecurityIntelligence TrickMo),(Citation: Cybereason FakeSpy),(Citation: lookout_abstractemu_1021),(Citation: PaloAlto-DualToy),(Citation: SWB Exodus March 2019),(Citation: Cybereason EventBot),(Citation: Symantec GoldenCup),(Citation: Lookout-Monokle),(Citation: Lookout ViperRAT),(Citation: Threat Fabric Exobot),(Citation: paloalto_yispecter_1015),(Citation: Talos-WolfRAT),(Citation: TelephonyManager)</t>
-  </si>
-  <si>
-    <t>(Citation: FlexiSpy-Features),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Monokle),(Citation: Cybereason FakeSpy),(Citation: Lookout-Pegasus),(Citation: Lookout ViperRAT),(Citation: SWB Exodus March 2019),</t>
+    <t>(Citation: Bitdefender - Triout 2018),(Citation: Lookout Desert Scorpion),(Citation: CheckPoint SimBad 2019),(Citation: ThreatFabric Ginp),(Citation: Cybereason FakeSpy),(Citation: securelist rotexy 2018),(Citation: Zscaler TikTok Spyware),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: SecureList BusyGasper),(Citation: CheckPoint Agent Smith),(Citation: Group IB Gustuff Mar 2019),(Citation: threatfabric_sova_0921),(Citation: Lookout Uyghur Campaign),(Citation: FortiGuard-FlexiSpy),(Citation: paloalto_yispecter_1015),(Citation: Threat Fabric Cerberus),(Citation: FlexiSpy-Features),(Citation: ESET-Twitoor),(Citation: cyble_drinik_1022),(Citation: Bitdefender Mandrake),(Citation: LauncherApps getActivityList),(Citation: Android 10 Limitations to Hiding App Icons)</t>
+  </si>
+  <si>
+    <t>(Citation: BlackBerry Bahamut),(Citation: Cybereason EventBot),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),</t>
+  </si>
+  <si>
+    <t>(Citation: SecurityIntelligence TrickMo),(Citation: lookout_abstractemu_1021),(Citation: Lookout-Dendroid),(Citation: BlackBerry Bahamut),(Citation: Palo Alto HenBox),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: ThreatFabric Ginp),(Citation: Cybereason FakeSpy),(Citation: Trend Micro Anubis),(Citation: securelist rotexy 2018),(Citation: Talos-WolfRAT),(Citation: Threat Fabric Cerberus),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_abstractemu_1021),(Citation: Symantec GoldenCup),(Citation: Lookout Desert Scorpion),(Citation: Lookout-Pegasus),(Citation: Threat Fabric Exobot),(Citation: Cybereason FakeSpy),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: securelist rotexy 2018),(Citation: SecureList - ViceLeaker 2019),(Citation: trendmicro_tianyspy_0122),(Citation: Zscaler TikTok Spyware),(Citation: FireEye-RuMMS),(Citation: SecureList DVMap June 2017),(Citation: Palo Alto HenBox),(Citation: BlackBerry Bahamut),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Kaspersky-WUC),(Citation: TrendMicro-Anserver2),(Citation: Talos GPlayed),(Citation: Lookout-Monokle),(Citation: Cofense Anubis),(Citation: TrendMicro Coronavirus Updates),(Citation: Securelist Asacub),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SecurityIntelligence TrickMo),(Citation: threatfabric_sova_0921),(Citation: Lookout Uyghur Campaign),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos Gustuff Apr 2019),(Citation: paloalto_yispecter_1015),(Citation: Threat Fabric Cerberus),(Citation: CheckPoint Cerberus),(Citation: Wandera-RedDrop),(Citation: Lookout eSurv),(Citation: Xiao-KeyRaider),(Citation: Lookout ViperRAT),(Citation: Lookout FrozenCell),(Citation: Kaspersky Riltok June 2019),(Citation: Cybereason EventBot),(Citation: Bitdefender Mandrake),(Citation: Google Project Zero Insomnia),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_abstractemu_1021),(Citation: Symantec GoldenCup),(Citation: Threat Fabric Exobot),(Citation: Lookout-PegasusAndroid),(Citation: PaloAlto-DualToy),(Citation: Cybereason FakeSpy),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: securelist rotexy 2018),(Citation: trendmicro_tianyspy_0122),(Citation: FireEye-RuMMS),(Citation: TrendMicro-Anserver2),(Citation: Talos GPlayed),(Citation: Lookout-Monokle),(Citation: TrendMicro Coronavirus Updates),(Citation: Google Bread),(Citation: Securelist Asacub),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout Uyghur Campaign),(Citation: Talos Gustuff Apr 2019),(Citation: paloalto_yispecter_1015),(Citation: SWB Exodus March 2019),(Citation: Lookout-EnterpriseApps),(Citation: Lookout-StealthMango),(Citation: Wandera-RedDrop),(Citation: WhiteOps TERRACOTTA),(Citation: Talos-WolfRAT),(Citation: Lookout ViperRAT),(Citation: Lookout FrozenCell),(Citation: PaloAlto-SpyDealer),(Citation: Kaspersky Riltok June 2019),(Citation: Cybereason EventBot),(Citation: Google Project Zero Insomnia),(Citation: TelephonyManager)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: FlexiSpy-Features),(Citation: Lookout ViperRAT),(Citation: Lookout-Pegasus),(Citation: Cybereason FakeSpy),(Citation: Lookout-Monokle),(Citation: SWB Exodus March 2019),</t>
   </si>
   <si>
     <t>(Citation: Google Security Zen),(Citation: FortiGuard-FlexiSpy),(Citation: SecureList DVMap June 2017),(Citation: Android-VerifiedBoot)</t>
@@ -2380,22 +2380,22 @@
     <t>(Citation: threatfabric_sova_0921),(Citation: Android 10 Privacy Changes)</t>
   </si>
   <si>
-    <t>(Citation: nccgroup_sharkbot_0322),(Citation: threatfabric_sova_0921),(Citation: SecurityIntelligence TrickMo),(Citation: Threat Fabric Cerberus),</t>
-  </si>
-  <si>
-    <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: lookout_abstractemu_1021),(Citation: Palo Alto HenBox),(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),(Citation: Zscaler TikTok Spyware),</t>
+    <t>(Citation: Threat Fabric Cerberus),(Citation: SecurityIntelligence TrickMo),(Citation: threatfabric_sova_0921),(Citation: nccgroup_sharkbot_0322),</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList BusyGasper),(Citation: Lookout Uyghur Campaign),(Citation: lookout_abstractemu_1021),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Palo Alto HenBox),(Citation: Zscaler TikTok Spyware),</t>
   </si>
   <si>
     <t>(Citation: SecureList BusyGasper),(Citation: proofpoint_flubot_0421),</t>
   </si>
   <si>
-    <t>(Citation: BlackBerry Bahamut),(Citation: Lookout-PegasusAndroid),(Citation: SecureList - ViceLeaker 2019),(Citation: PaloAlto-SpyDealer),(Citation: Kaspersky-Skygofree),(Citation: Lookout-StealthMango),(Citation: Lookout Uyghur Campaign),(Citation: Palo Alto HenBox),(Citation: TrendMicro-RCSAndroid),(Citation: CyberMerchants-FlexiSpy),(Citation: TrendMicro Coronavirus Updates),(Citation: Zscaler TikTok Spyware),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout-Dendroid),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_abstractemu_1021),(Citation: Lookout Desert Scorpion),(Citation: SWB Exodus March 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Symantec GoldenCup),(Citation: Lookout-Monokle),(Citation: Lookout ViperRAT),(Citation: SecureList BusyGasper),(Citation: cloudmark_tanglebot_0921),(Citation: Talos-WolfRAT),(Citation: Android Capture Sensor 2019)</t>
+    <t>(Citation: lookout_abstractemu_1021),(Citation: Symantec GoldenCup),(Citation: Lookout Desert Scorpion),(Citation: Lookout-PegasusAndroid),(Citation: SecureList - ViceLeaker 2019),(Citation: Zscaler TikTok Spyware),(Citation: CyberMerchants-FlexiSpy),(Citation: Kaspersky-Skygofree),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-Dendroid),(Citation: BlackBerry Bahamut),(Citation: Palo Alto HenBox),(Citation: Lookout-Monokle),(Citation: TrendMicro Coronavirus Updates),(Citation: Zscaler-SuperMarioRun),(Citation: SecureList BusyGasper),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SWB Exodus March 2019),(Citation: Lookout-StealthMango),(Citation: cloudmark_tanglebot_0921),(Citation: Talos-WolfRAT),(Citation: Lookout ViperRAT),(Citation: PaloAlto-SpyDealer),(Citation: Android Capture Sensor 2019)</t>
   </si>
   <si>
     <t>(Citation: lookout_abstractemu_1021),</t>
   </si>
   <si>
-    <t>(Citation: Securelist Asacub),(Citation: Sophos Red Alert 2.0),(Citation: SecureList - ViceLeaker 2019),(Citation: Wandera-RedDrop),(Citation: securelist rotexy 2018),(Citation: Kaspersky-Skygofree),(Citation: Kaspersky Riltok June 2019),(Citation: Talos GPlayed),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout Uyghur Campaign),(Citation: FireEye-RuMMS),(Citation: TrendMicro Coronavirus Updates),(Citation: Talos Gustuff Apr 2019),(Citation: Google Bread),(Citation: Kaspersky-WUC),(Citation: Kaspersky-MobileMalware),(Citation: Volexity Insomnia),(Citation: nccgroup_sharkbot_0322),(Citation: SecurityIntelligence TrickMo),(Citation: Cybereason FakeSpy),(Citation: lookout_abstractemu_1021),(Citation: CheckPoint Cerberus),(Citation: SWB Exodus March 2019),(Citation: proofpoint_flubot_0421),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Cybereason EventBot),(Citation: Symantec GoldenCup),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Threat Fabric Exobot),(Citation: Bitdefender - Triout 2018),(Citation: ESET DEFENSOR ID),(Citation: paloalto_yispecter_1015),(Citation: threatfabric_sova_0921),</t>
+    <t>(Citation: lookout_abstractemu_1021),(Citation: Symantec GoldenCup),(Citation: Bitdefender - Triout 2018),(Citation: Threat Fabric Exobot),(Citation: Sophos Red Alert 2.0),(Citation: Cybereason FakeSpy),(Citation: Kaspersky-MobileMalware),(Citation: securelist rotexy 2018),(Citation: SecureList - ViceLeaker 2019),(Citation: Kaspersky-Skygofree),(Citation: FireEye-RuMMS),(Citation: proofpoint_flubot_0421),(Citation: nccgroup_sharkbot_0322),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Kaspersky-WUC),(Citation: Talos GPlayed),(Citation: TrendMicro Coronavirus Updates),(Citation: Google Bread),(Citation: ESET DEFENSOR ID),(Citation: Securelist Asacub),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SecurityIntelligence TrickMo),(Citation: threatfabric_sova_0921),(Citation: Lookout Uyghur Campaign),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Talos Gustuff Apr 2019),(Citation: paloalto_yispecter_1015),(Citation: SWB Exodus March 2019),(Citation: CheckPoint Cerberus),(Citation: Volexity Insomnia),(Citation: Wandera-RedDrop),(Citation: Kaspersky Riltok June 2019),(Citation: Cybereason EventBot),</t>
   </si>
   <si>
     <t>source ID</t>

--- a/docs/mobile-attack-v13.1/mobile-attack-v13.1-techniques.xlsx
+++ b/docs/mobile-attack-v13.1/mobile-attack-v13.1-techniques.xlsx
@@ -2140,7 +2140,7 @@
     <t>,</t>
   </si>
   <si>
-    <t>(Citation: threatfabric_sova_0921),(Citation: lookout_abstractemu_1021),(Citation: proofpoint_flubot_0421),(Citation: nccgroup_sharkbot_0322),(Citation: Check Point-Joker),(Citation: TrendMicro Coronavirus Updates),(Citation: Bitdefender Mandrake),(Citation: Talos-WolfRAT),(Citation: Android Notification Listeners)</t>
+    <t>(Citation: proofpoint_flubot_0421),(Citation: TrendMicro Coronavirus Updates),(Citation: nccgroup_sharkbot_0322),(Citation: Check Point-Joker),(Citation: Bitdefender Mandrake),(Citation: Talos-WolfRAT),(Citation: threatfabric_sova_0921),(Citation: lookout_abstractemu_1021),(Citation: Android Notification Listeners)</t>
   </si>
   <si>
     <t>(Citation: Lookout-Monokle),</t>
@@ -2152,13 +2152,13 @@
     <t>(Citation: cyble_drinik_1022),(Citation: Lookout Uyghur Campaign),</t>
   </si>
   <si>
-    <t>(Citation: Securelist Asacub),(Citation: Symantec GoldenCup),(Citation: Lookout Desert Scorpion),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout FrozenCell),(Citation: SWB Exodus March 2019),(Citation: Cofense Anubis),(Citation: Google Triada June 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: proofpoint_flubot_0421),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout eSurv),</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_abstractemu_1021),(Citation: Symantec GoldenCup),(Citation: Bitdefender - Triout 2018),(Citation: Lookout Desert Scorpion),(Citation: Lookout-Pegasus),(Citation: Lookout-PegasusAndroid),(Citation: SecureList - ViceLeaker 2019),(Citation: Zscaler TikTok Spyware),(Citation: CyberMerchants-FlexiSpy),(Citation: Kaspersky-Skygofree),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-Dendroid),(Citation: BlackBerry Bahamut),(Citation: Palo Alto HenBox),(Citation: TrendMicro-XLoader),(Citation: Lookout-Monokle),(Citation: Cofense Anubis),(Citation: TrendMicro Coronavirus Updates),(Citation: Zscaler-SuperMarioRun),(Citation: SecureList BusyGasper),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SWB Exodus March 2019),(Citation: Lookout-EnterpriseApps),(Citation: Lookout-StealthMango),(Citation: Wandera-RedDrop),(Citation: cloudmark_tanglebot_0921),(Citation: Talos-WolfRAT),(Citation: Lookout eSurv),(Citation: Lookout ViperRAT),(Citation: Lookout FrozenCell),(Citation: PaloAlto-SpyDealer),(Citation: Zscaler-SpyNote),(Citation: Android Capture Sensor 2019)</t>
+    <t>(Citation: Lookout Desert Scorpion),(Citation: Lookout FrozenCell),(Citation: SWB Exodus March 2019),(Citation: Cofense Anubis),(Citation: Symantec GoldenCup),(Citation: Securelist Asacub),(Citation: Google Triada June 2019),(Citation: Trend Micro Bouncing Golf 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: proofpoint_flubot_0421),(Citation: Lookout Uyghur Campaign),(Citation: nccgroup_sharkbot_0322),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout eSurv),</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList BusyGasper),(Citation: TrendMicro Coronavirus Updates),(Citation: CyberMerchants-FlexiSpy),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-PegasusAndroid),(Citation: Zscaler-SpyNote),(Citation: Lookout-Pegasus),(Citation: Lookout eSurv),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout FrozenCell),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Dendroid),(Citation: Cofense Anubis),(Citation: Talos-WolfRAT),(Citation: Palo Alto HenBox),(Citation: Lookout-StealthMango),(Citation: Lookout-Monokle),(Citation: Zscaler-SuperMarioRun),(Citation: Kaspersky-Skygofree),(Citation: Lookout Desert Scorpion),(Citation: Wandera-RedDrop),(Citation: BlackBerry Bahamut),(Citation: Lookout Dark Caracal Jan 2018),(Citation: PaloAlto-SpyDealer),(Citation: Lookout ViperRAT),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender - Triout 2018),(Citation: SWB Exodus March 2019),(Citation: Lookout-EnterpriseApps),(Citation: Symantec GoldenCup),(Citation: TrendMicro-XLoader),(Citation: Zscaler TikTok Spyware),(Citation: lookout_abstractemu_1021),(Citation: Android Capture Sensor 2019)</t>
   </si>
   <si>
     <t>(Citation: SecureList BusyGasper),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),</t>
@@ -2167,103 +2167,103 @@
     <t>(Citation: HackerNews-OldBoot),</t>
   </si>
   <si>
-    <t>(Citation: SecurityIntelligence TrickMo),(Citation: Palo Alto HenBox),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Microsoft MalLockerB),(Citation: Threat Fabric Exobot),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Talos GPlayed),(Citation: Cybereason FakeSpy),(Citation: Lookout-PegasusAndroid),(Citation: FortiGuard-FlexiSpy),(Citation: Cybereason EventBot),(Citation: CheckPoint SimBad 2019),(Citation: PaloAlto-SpyDealer),(Citation: Zscaler-SpyNote),(Citation: Zscaler TikTok Spyware),(Citation: WhiteOps TERRACOTTA),(Citation: ESET DEFENSOR ID),(Citation: Android Changes to System Broadcasts)</t>
-  </si>
-  <si>
-    <t>(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Monokle),(Citation: SWB Exodus March 2019),(Citation: Lookout-StealthMango),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: Lookout Uyghur Campaign),(Citation: cyble_drinik_1022),(Citation: Lookout-Monokle),(Citation: Cofense Anubis),(Citation: cloudmark_tanglebot_0921),</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_abstractemu_1021),(Citation: Lookout-Pegasus),(Citation: Lookout-PegasusAndroid),(Citation: Sophos Red Alert 2.0),(Citation: SecureList - ViceLeaker 2019),(Citation: Zscaler TikTok Spyware),(Citation: Palo Alto HenBox),(Citation: Kaspersky-WUC),(Citation: Lookout-Monokle),(Citation: TrendMicro Coronavirus Updates),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SWB Exodus March 2019),(Citation: Lookout-StealthMango),(Citation: Lookout-EnterpriseApps),(Citation: cloudmark_tanglebot_0921),(Citation: Talos-WolfRAT),(Citation: NYTimes-BackDoor),(Citation: Lookout ViperRAT),(Citation: PaloAlto-SpyDealer),(Citation: cyble_drinik_1022),(Citation: Google Project Zero Insomnia),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-XcodeGhost),(Citation: Trend Micro Bouncing Golf 2019),(Citation: TrendMicro-RCSAndroid),(Citation: Android 10 Privacy Changes)</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList DVMap June 2017),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: BlackBerry Bahamut),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: paloalto_yispecter_1015),(Citation: trendmicro_tianyspy_0122),(Citation: Bitdefender Mandrake),(Citation: Android-TrustedCA),(Citation: Symantec-iOSProfile2)</t>
+    <t>(Citation: PaloAlto-SpyDealer),(Citation: Zscaler TikTok Spyware),(Citation: Cybereason FakeSpy),(Citation: SecurityIntelligence TrickMo),(Citation: FortiGuard-FlexiSpy),(Citation: Microsoft MalLockerB),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout-PegasusAndroid),(Citation: Cybereason EventBot),(Citation: CheckPoint SimBad 2019),(Citation: ESET DEFENSOR ID),(Citation: Palo Alto HenBox),(Citation: Zscaler-SpyNote),(Citation: WhiteOps TERRACOTTA),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Android Changes to System Broadcasts)</t>
+  </si>
+  <si>
+    <t>(Citation: SWB Exodus March 2019),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-StealthMango),(Citation: Lookout-Monokle),</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList BusyGasper),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout Uyghur Campaign),(Citation: Cofense Anubis),(Citation: cyble_drinik_1022),(Citation: Lookout-Monokle),</t>
+  </si>
+  <si>
+    <t>(Citation: Google Project Zero Insomnia),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Pegasus),(Citation: Sophos Red Alert 2.0),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cloudmark_tanglebot_0921),(Citation: SecureList - ViceLeaker 2019),(Citation: Talos-WolfRAT),(Citation: NYTimes-BackDoor),(Citation: Lookout-StealthMango),(Citation: Palo Alto HenBox),(Citation: Lookout-Monokle),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout Dark Caracal Jan 2018),(Citation: PaloAlto-SpyDealer),(Citation: Lookout ViperRAT),(Citation: Kaspersky-WUC),(Citation: Lookout Uyghur Campaign),(Citation: SWB Exodus March 2019),(Citation: cyble_drinik_1022),(Citation: Lookout-EnterpriseApps),(Citation: Zscaler TikTok Spyware),(Citation: lookout_abstractemu_1021),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-XcodeGhost),(Citation: TrendMicro-RCSAndroid),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Android 10 Privacy Changes)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Desert Scorpion),(Citation: SecureList DVMap June 2017),(Citation: Lookout Uyghur Campaign),(Citation: trendmicro_tianyspy_0122),(Citation: paloalto_yispecter_1015),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Bitdefender Mandrake),(Citation: BlackBerry Bahamut),(Citation: Android-TrustedCA),(Citation: Symantec-iOSProfile2)</t>
   </si>
   <si>
     <t>(Citation: trendmicro_tianyspy_0122),</t>
   </si>
   <si>
-    <t>(Citation: CheckPoint Agent Smith),(Citation: paloalto_yispecter_1015),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Pegasus),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-BrainTest),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Monokle),(Citation: Lookout-Adware),</t>
+    <t>(Citation: paloalto_yispecter_1015),(Citation: CheckPoint Agent Smith),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-SpyDealer),(Citation: SecureList BusyGasper),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Adware),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-BrainTest),(Citation: Lookout-Pegasus),(Citation: Lookout-Monokle),</t>
   </si>
   <si>
     <t>(Citation: PaloAlto-XcodeGhost),(Citation: PaloAlto-XcodeGhost1),</t>
   </si>
   <si>
-    <t>(Citation: NYTimes-BackDoor),(Citation: Krebs-Triada June 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: BankInfoSecurity-BackDoor),(Citation: HackerNews-Allwinner),(Citation: Lookout-StealthMango),(Citation: Google Triada June 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_abstractemu_1021),(Citation: Symantec GoldenCup),(Citation: Lookout Desert Scorpion),(Citation: Lookout-Pegasus),(Citation: Threat Fabric Exobot),(Citation: ThreatFabric Ginp),(Citation: Lookout-PegasusAndroid),(Citation: Cybereason FakeSpy),(Citation: Sophos Red Alert 2.0),(Citation: securelist rotexy 2018),(Citation: Zscaler TikTok Spyware),(Citation: CyberMerchants-FlexiSpy),(Citation: proofpoint_flubot_0421),(Citation: BlackBerry Bahamut),(Citation: Palo Alto HenBox),(Citation: Kaspersky-WUC),(Citation: Talos GPlayed),(Citation: CheckPoint-Charger),(Citation: Lookout-Monokle),(Citation: Cofense Anubis),(Citation: TrendMicro Coronavirus Updates),(Citation: Securelist Asacub),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos Gustuff Apr 2019),(Citation: SWB Exodus March 2019),(Citation: Threat Fabric Cerberus),(Citation: Lookout-EnterpriseApps),(Citation: Lookout-StealthMango),(Citation: cloudmark_tanglebot_0921),(Citation: Talos-WolfRAT),(Citation: Lookout eSurv),(Citation: NYTimes-BackDoor),(Citation: Lookout ViperRAT),(Citation: PaloAlto-SpyDealer),(Citation: Zscaler-SpyNote),(Citation: Kaspersky Riltok June 2019),(Citation: Bitdefender Mandrake),(Citation: Google Project Zero Insomnia),</t>
-  </si>
-  <si>
-    <t>(Citation: cleafy_sova_1122),(Citation: Cofense Anubis),(Citation: PaloAlto-Xbot),</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_abstractemu_1021),(Citation: Symantec GoldenCup),(Citation: Bitdefender - Triout 2018),(Citation: Lookout Desert Scorpion),(Citation: ThreatFabric Ginp),(Citation: SecureList - ViceLeaker 2019),(Citation: Zscaler TikTok Spyware),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-Dendroid),(Citation: BlackBerry Bahamut),(Citation: Palo Alto HenBox),(Citation: Talos GPlayed),(Citation: Lookout-Monokle),(Citation: Cofense Anubis),(Citation: TrendMicro Coronavirus Updates),(Citation: Cylance Dust Storm),(Citation: Gooligan Citation),(Citation: SecureList BusyGasper),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout Uyghur Campaign),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos Gustuff Apr 2019),(Citation: SWB Exodus March 2019),(Citation: Lookout-StealthMango),(Citation: cloudmark_tanglebot_0921),(Citation: Talos-WolfRAT),(Citation: Lookout eSurv),(Citation: FlexiSpy-Features),(Citation: Lookout ViperRAT),(Citation: Lookout FrozenCell),(Citation: Zscaler-SpyNote),(Citation: Trend Micro Anubis),(Citation: cyble_drinik_1022),(Citation: Google Project Zero Insomnia),</t>
-  </si>
-  <si>
-    <t>(Citation: Sophos Red Alert 2.0),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Trend Micro Anubis),(Citation: Cofense Anubis),(Citation: TrendMicro-Anserver),</t>
-  </si>
-  <si>
-    <t>(Citation: Securelist Asacub),(Citation: lookout_abstractemu_1021),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: Sophos Red Alert 2.0),(Citation: Proofpoint-Marcher),(Citation: TrendMicro-XLoader),(Citation: GoogleIO2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft MalLockerB),(Citation: securelist rotexy 2018),(Citation: SecurityIntelligence TrickMo),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList DVMap June 2017),(Citation: lookout_abstractemu_1021),(Citation: proofpoint_flubot_0421),(Citation: cyble_drinik_1022),(Citation: Google Security Zen),(Citation: Threat Fabric Cerberus),(Citation: Cofense Anubis),(Citation: Bitdefender Mandrake),</t>
-  </si>
-  <si>
-    <t>(Citation: proofpoint_flubot_0421),(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: Bitdefender Mandrake),</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_abstractemu_1021),(Citation: Symantec GoldenCup),(Citation: Lookout Desert Scorpion),(Citation: Sophos Red Alert 2.0),(Citation: Kaspersky-Skygofree),(Citation: SecureList DVMap June 2017),(Citation: TrendMicro-RCSAndroid),(Citation: Palo Alto HenBox),(Citation: BlackBerry Bahamut),(Citation: nccgroup_sharkbot_0322),(Citation: Talos GPlayed),(Citation: Google Bread),(Citation: Google Triada June 2019),(Citation: SecureList BusyGasper),(Citation: Lookout Uyghur Campaign),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Xiao-ZergHelper),(Citation: Lookout-BrainTest),(Citation: CheckPoint-Judy),(Citation: paloalto_yispecter_1015),(Citation: SWB Exodus March 2019),(Citation: Threat Fabric Cerberus),(Citation: WhiteOps TERRACOTTA),(Citation: Talos-WolfRAT),(Citation: Lookout eSurv),(Citation: Lookout ViperRAT),(Citation: Lookout FrozenCell),(Citation: PaloAlto-SpyDealer),(Citation: Trend Micro Anubis),(Citation: Cybereason EventBot),(Citation: Google Security Zen),(Citation: Bitdefender Mandrake),(Citation: Android 10 Execute)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-Pegasus),(Citation: Lookout-StealthMango),(Citation: Volexity Insomnia),(Citation: paloalto_yispecter_1015),</t>
+    <t>(Citation: HackerNews-Allwinner),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: NYTimes-BackDoor),(Citation: Krebs-Triada June 2019),(Citation: Lookout-StealthMango),(Citation: BankInfoSecurity-BackDoor),(Citation: Google Triada June 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: Google Project Zero Insomnia),(Citation: ThreatFabric Ginp),(Citation: TrendMicro Coronavirus Updates),(Citation: Threat Fabric Cerberus),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-PegasusAndroid),(Citation: Zscaler-SpyNote),(Citation: Lookout-Pegasus),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout eSurv),(Citation: Sophos Red Alert 2.0),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cloudmark_tanglebot_0921),(Citation: Cybereason FakeSpy),(Citation: Kaspersky Riltok June 2019),(Citation: Cofense Anubis),(Citation: CheckPoint-Charger),(Citation: Talos GPlayed),(Citation: Talos-WolfRAT),(Citation: NYTimes-BackDoor),(Citation: Palo Alto HenBox),(Citation: Lookout-StealthMango),(Citation: Lookout-Monokle),(Citation: Securelist Asacub),(Citation: Lookout Desert Scorpion),(Citation: BlackBerry Bahamut),(Citation: Lookout Dark Caracal Jan 2018),(Citation: PaloAlto-SpyDealer),(Citation: proofpoint_flubot_0421),(Citation: Lookout ViperRAT),(Citation: Kaspersky-WUC),(Citation: Lookout Uyghur Campaign),(Citation: SWB Exodus March 2019),(Citation: Threat Fabric Exobot),(Citation: Lookout-EnterpriseApps),(Citation: Symantec GoldenCup),(Citation: Bitdefender Mandrake),(Citation: securelist rotexy 2018),(Citation: Zscaler TikTok Spyware),(Citation: lookout_abstractemu_1021),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-Xbot),(Citation: cleafy_sova_1122),(Citation: Cofense Anubis),</t>
+  </si>
+  <si>
+    <t>(Citation: Google Project Zero Insomnia),(Citation: SecureList BusyGasper),(Citation: ThreatFabric Ginp),(Citation: SecurityIntelligence TrickMo),(Citation: TrendMicro Coronavirus Updates),(Citation: TrendMicro-RCSAndroid),(Citation: Zscaler-SpyNote),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout eSurv),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout FrozenCell),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Dendroid),(Citation: Cofense Anubis),(Citation: Talos GPlayed),(Citation: Talos-WolfRAT),(Citation: Palo Alto HenBox),(Citation: Lookout-StealthMango),(Citation: Gooligan Citation),(Citation: Lookout-Monokle),(Citation: Lookout Desert Scorpion),(Citation: Trend Micro Anubis),(Citation: Cylance Dust Storm),(Citation: BlackBerry Bahamut),(Citation: FlexiSpy-Features),(Citation: Lookout ViperRAT),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender - Triout 2018),(Citation: SWB Exodus March 2019),(Citation: cyble_drinik_1022),(Citation: Symantec GoldenCup),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Zscaler TikTok Spyware),(Citation: lookout_abstractemu_1021),</t>
+  </si>
+  <si>
+    <t>(Citation: Trend Micro Anubis),(Citation: Cofense Anubis),(Citation: TrendMicro-Anserver),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Sophos Red Alert 2.0),</t>
+  </si>
+  <si>
+    <t>(Citation: Proofpoint-Marcher),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: TrendMicro-XLoader),(Citation: Securelist Asacub),(Citation: Sophos Red Alert 2.0),(Citation: lookout_abstractemu_1021),(Citation: GoogleIO2016)</t>
+  </si>
+  <si>
+    <t>(Citation: securelist rotexy 2018),(Citation: Microsoft MalLockerB),(Citation: SecurityIntelligence TrickMo),</t>
+  </si>
+  <si>
+    <t>(Citation: Google Security Zen),(Citation: SecureList DVMap June 2017),(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Cerberus),(Citation: Cofense Anubis),(Citation: cyble_drinik_1022),(Citation: Bitdefender Mandrake),(Citation: lookout_abstractemu_1021),</t>
+  </si>
+  <si>
+    <t>(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),(Citation: Bitdefender Mandrake),</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList BusyGasper),(Citation: Threat Fabric Cerberus),(Citation: paloalto_yispecter_1015),(Citation: TrendMicro-RCSAndroid),(Citation: Xiao-ZergHelper),(Citation: Lookout eSurv),(Citation: Google Triada June 2019),(Citation: Sophos Red Alert 2.0),(Citation: Lookout FrozenCell),(Citation: CheckPoint-Judy),(Citation: Google Bread),(Citation: Talos GPlayed),(Citation: Talos-WolfRAT),(Citation: Palo Alto HenBox),(Citation: Kaspersky-Skygofree),(Citation: Lookout Desert Scorpion),(Citation: Google Security Zen),(Citation: Trend Micro Anubis),(Citation: Cybereason EventBot),(Citation: WhiteOps TERRACOTTA),(Citation: BlackBerry Bahamut),(Citation: PaloAlto-SpyDealer),(Citation: SecureList DVMap June 2017),(Citation: Lookout ViperRAT),(Citation: Lookout Uyghur Campaign),(Citation: nccgroup_sharkbot_0322),(Citation: SWB Exodus March 2019),(Citation: Symantec GoldenCup),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Bitdefender Mandrake),(Citation: Lookout-BrainTest),(Citation: lookout_abstractemu_1021),(Citation: Android 10 Execute)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-StealthMango),(Citation: Lookout-Pegasus),(Citation: Volexity Insomnia),(Citation: paloalto_yispecter_1015),</t>
   </si>
   <si>
     <t>(Citation: ESET-Twitoor),</t>
   </si>
   <si>
-    <t>(Citation: CheckPoint-Charger),(Citation: PaloAlto-Xbot),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),</t>
+    <t>(Citation: Threat Fabric Exobot),(Citation: CheckPoint-Charger),(Citation: PaloAlto-Xbot),(Citation: Talos GPlayed),</t>
   </si>
   <si>
     <t>,(Citation: Android Changes to System Broadcasts)</t>
   </si>
   <si>
-    <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Uyghur Campaign),(Citation: lookout_abstractemu_1021),(Citation: Bitdefender - Triout 2018),(Citation: proofpoint_flubot_0421),(Citation: Trend Micro Bouncing Golf 2019),(Citation: nccgroup_sharkbot_0322),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: cyble_drinik_1022),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout eSurv),(Citation: Cylance Dust Storm),(Citation: Wandera-RedDrop),(Citation: Google Triada June 2019),</t>
+    <t>(Citation: proofpoint_flubot_0421),(Citation: Lookout Uyghur Campaign),(Citation: nccgroup_sharkbot_0322),(Citation: Bitdefender - Triout 2018),(Citation: SecureList - ViceLeaker 2019),(Citation: cyble_drinik_1022),(Citation: Wandera-RedDrop),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cylance Dust Storm),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout eSurv),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Google Triada June 2019),(Citation: lookout_abstractemu_1021),</t>
   </si>
   <si>
     <t>(Citation: SecureList BusyGasper),(Citation: TrendMicro Coronavirus Updates),</t>
   </si>
   <si>
-    <t>(Citation: CheckPoint Agent Smith),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SecureList DVMap June 2017),(Citation: Lookout Uyghur Campaign),(Citation: lookout_abstractemu_1021),(Citation: Lookout-Pegasus),(Citation: ArsTechnica-HummingBad),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-BrainTest),(Citation: PaloAlto-SpyDealer),(Citation: Volexity Insomnia),(Citation: Google Security Zen),(Citation: SWB Exodus March 2019),(Citation: Lookout-Adware),(Citation: Kaspersky-Skygofree),(Citation: Gooligan Citation),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro-DressCode),(Citation: Lookout-NotCompatible),</t>
-  </si>
-  <si>
-    <t>(Citation: CheckPoint Agent Smith),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos GPlayed),(Citation: Lookout-Monokle),(Citation: SecureList - ViceLeaker 2019),(Citation: Zscaler TikTok Spyware),(Citation: CyberMerchants-FlexiSpy),(Citation: Bitdefender Mandrake),(Citation: Talos-WolfRAT),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: Symantec GoldenCup),(Citation: Lookout Desert Scorpion),(Citation: BlackBerry Bahamut),(Citation: Lookout FrozenCell),(Citation: Zscaler TikTok Spyware),(Citation: Cylance Dust Storm),</t>
-  </si>
-  <si>
-    <t>(Citation: Bitdefender Mandrake),(Citation: Zscaler TikTok Spyware),(Citation: cyble_drinik_1022),(Citation: WhiteOps TERRACOTTA),</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Exobot),(Citation: ThreatFabric Ginp),(Citation: Sophos Red Alert 2.0),(Citation: PaloAlto-XcodeGhost),(Citation: securelist rotexy 2018),(Citation: trendmicro_tianyspy_0122),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Dendroid),(Citation: proofpoint_flubot_0421),(Citation: nccgroup_sharkbot_0322),(Citation: Talos GPlayed),(Citation: Cofense Anubis),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Group IB Gustuff Mar 2019),(Citation: threatfabric_sova_0921),(Citation: Talos Gustuff Apr 2019),(Citation: PaloAlto-Xbot),(Citation: Threat Fabric Cerberus),(Citation: WhiteOps TERRACOTTA),(Citation: cloudmark_tanglebot_0921),(Citation: Proofpoint-Marcher),(Citation: Kaspersky Riltok June 2019),(Citation: Cybereason EventBot),(Citation: cyble_drinik_1022),(Citation: Bitdefender Mandrake),(Citation: Android 12 Features)</t>
-  </si>
-  <si>
-    <t>(Citation: CheckPoint Agent Smith),(Citation: Tripwire-MazarBOT),(Citation: Wandera-RedDrop),(Citation: ArsTechnica-HummingBad),(Citation: Kaspersky Triada June 2016),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: CheckPoint SimBad 2019),(Citation: Lookout-BrainTest),(Citation: CheckPoint-Judy),(Citation: Google Security Zen),(Citation: WhiteOps TERRACOTTA),(Citation: ArsTechnica-HummingWhale),(Citation: Lookout-EnterpriseApps),(Citation: Google Bread),(Citation: Gooligan Citation),(Citation: Google Triada June 2019),</t>
+    <t>(Citation: PaloAlto-SpyDealer),(Citation: Google Security Zen),(Citation: SecureList DVMap June 2017),(Citation: ArsTechnica-HummingBad),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Adware),(Citation: SWB Exodus March 2019),(Citation: Volexity Insomnia),(Citation: CheckPoint Agent Smith),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-BrainTest),(Citation: Lookout-Pegasus),(Citation: Gooligan Citation),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Kaspersky-Skygofree),(Citation: lookout_abstractemu_1021),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-NotCompatible),(Citation: TrendMicro-DressCode),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Desert Scorpion),(Citation: Lookout Uyghur Campaign),(Citation: SecureList - ViceLeaker 2019),(Citation: CheckPoint Agent Smith),(Citation: CyberMerchants-FlexiSpy),(Citation: Talos GPlayed),(Citation: Bitdefender Mandrake),(Citation: Talos-WolfRAT),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Monokle),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Trend Micro Bouncing Golf 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Desert Scorpion),(Citation: Lookout FrozenCell),(Citation: Lookout Uyghur Campaign),(Citation: Symantec GoldenCup),(Citation: Cylance Dust Storm),(Citation: BlackBerry Bahamut),(Citation: Zscaler TikTok Spyware),</t>
+  </si>
+  <si>
+    <t>(Citation: cyble_drinik_1022),(Citation: Zscaler TikTok Spyware),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),</t>
+  </si>
+  <si>
+    <t>(Citation: ThreatFabric Ginp),(Citation: Threat Fabric Cerberus),(Citation: PaloAlto-XcodeGhost),(Citation: Talos Gustuff Apr 2019),(Citation: Sophos Red Alert 2.0),(Citation: cloudmark_tanglebot_0921),(Citation: Kaspersky Riltok June 2019),(Citation: trendmicro_tianyspy_0122),(Citation: Lookout-Dendroid),(Citation: Cofense Anubis),(Citation: Talos GPlayed),(Citation: PaloAlto-Xbot),(Citation: Group IB Gustuff Mar 2019),(Citation: Cybereason EventBot),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout Dark Caracal Jan 2018),(Citation: threatfabric_sova_0921),(Citation: proofpoint_flubot_0421),(Citation: Proofpoint-Marcher),(Citation: nccgroup_sharkbot_0322),(Citation: cyble_drinik_1022),(Citation: Threat Fabric Exobot),(Citation: Bitdefender Mandrake),(Citation: securelist rotexy 2018),(Citation: Zscaler TikTok Spyware),(Citation: Android 12 Features)</t>
+  </si>
+  <si>
+    <t>(Citation: Google Security Zen),(Citation: ArsTechnica-HummingBad),(Citation: CheckPoint-Judy),(Citation: CheckPoint Agent Smith),(Citation: Google Bread),(Citation: ArsTechnica-HummingWhale),(Citation: Wandera-RedDrop),(Citation: Kaspersky Triada June 2016),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout-EnterpriseApps),(Citation: Tripwire-MazarBOT),(Citation: Lookout-BrainTest),(Citation: CheckPoint SimBad 2019),(Citation: WhiteOps TERRACOTTA),(Citation: Gooligan Citation),(Citation: Google Triada June 2019),</t>
   </si>
   <si>
     <t>(Citation: BlackBerry Bahamut),(Citation: Lookout eSurv),</t>
@@ -2275,127 +2275,127 @@
     <t>(Citation: CitizenLab Circles),(Citation: CSRIC-WG1-FinalReport)</t>
   </si>
   <si>
-    <t>(Citation: lookout_abstractemu_1021),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout-Monokle),(Citation: SecureList - ViceLeaker 2019),(Citation: Bitdefender Mandrake),(Citation: Wandera-RedDrop),</t>
+    <t>(Citation: nccgroup_sharkbot_0322),(Citation: SecureList - ViceLeaker 2019),(Citation: Wandera-RedDrop),(Citation: Bitdefender Mandrake),(Citation: Lookout-Monokle),(Citation: lookout_abstractemu_1021),</t>
   </si>
   <si>
     <t>,(Citation: Android 12 Features),(Citation: Samsung Keyboards)</t>
   </si>
   <si>
-    <t>(Citation: SecurityIntelligence TrickMo),(Citation: nccgroup_sharkbot_0322),(Citation: Talos Gustuff Apr 2019),(Citation: ThreatFabric Ginp),(Citation: cleafy_sova_1122),(Citation: Kaspersky Riltok June 2019),(Citation: Google Security Zen),(Citation: Threat Fabric Cerberus),(Citation: CheckPoint Cerberus),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),(Citation: ESET DEFENSOR ID),</t>
+    <t>(Citation: Google Security Zen),(Citation: Kaspersky Riltok June 2019),(Citation: ThreatFabric Ginp),(Citation: SecurityIntelligence TrickMo),(Citation: nccgroup_sharkbot_0322),(Citation: Threat Fabric Cerberus),(Citation: CheckPoint Cerberus),(Citation: cleafy_sova_1122),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),(Citation: ESET DEFENSOR ID),(Citation: Talos Gustuff Apr 2019),</t>
   </si>
   <si>
     <t>(Citation: Google Project Zero Insomnia),</t>
   </si>
   <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: FlexiSpy-Features),(Citation: threatfabric_sova_0921),(Citation: BlackBerry Bahamut),(Citation: nccgroup_sharkbot_0322),(Citation: Threat Fabric Exobot),(Citation: Talos Gustuff Apr 2019),(Citation: Cybereason EventBot),(Citation: cyble_drinik_1022),(Citation: Lookout-Monokle),(Citation: Threat Fabric Cerberus),(Citation: Cofense Anubis),(Citation: Samsung Keyboards)</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_abstractemu_1021),(Citation: Symantec GoldenCup),(Citation: Bitdefender - Triout 2018),(Citation: Lookout Desert Scorpion),(Citation: Lookout-Pegasus),(Citation: SecureList - ViceLeaker 2019),(Citation: Zscaler TikTok Spyware),(Citation: CyberMerchants-FlexiSpy),(Citation: Kaspersky-Skygofree),(Citation: TrendMicro-RCSAndroid),(Citation: CrowdStrike-Android),(Citation: Palo Alto HenBox),(Citation: BlackBerry Bahamut),(Citation: Kaspersky-WUC),(Citation: Talos GPlayed),(Citation: CheckPoint-Charger),(Citation: Lookout-Monokle),(Citation: Cofense Anubis),(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList BusyGasper),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Uyghur Campaign),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SWB Exodus March 2019),(Citation: Threat Fabric Cerberus),(Citation: Lookout-EnterpriseApps),(Citation: Lookout-StealthMango),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout eSurv),(Citation: NYTimes-BackDoor),(Citation: Lookout ViperRAT),(Citation: Lookout FrozenCell),(Citation: PaloAlto-SpyDealer),(Citation: Zscaler-SpyNote),(Citation: Bitdefender Mandrake),(Citation: Google Project Zero Insomnia),(Citation: CSRIC5-WG10-FinalReport)</t>
-  </si>
-  <si>
-    <t>(Citation: Securelist Asacub),(Citation: Lookout Uyghur Campaign),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Palo Alto HenBox),(Citation: Google Bread),(Citation: WhiteOps TERRACOTTA),</t>
+    <t>(Citation: Lookout-Monokle),(Citation: SecureList BusyGasper),(Citation: threatfabric_sova_0921),(Citation: nccgroup_sharkbot_0322),(Citation: Threat Fabric Cerberus),(Citation: Cofense Anubis),(Citation: cyble_drinik_1022),(Citation: Threat Fabric Exobot),(Citation: Cybereason EventBot),(Citation: BlackBerry Bahamut),(Citation: Talos Gustuff Apr 2019),(Citation: FlexiSpy-Features),(Citation: Samsung Keyboards)</t>
+  </si>
+  <si>
+    <t>(Citation: Google Project Zero Insomnia),(Citation: SecureList BusyGasper),(Citation: TrendMicro Coronavirus Updates),(Citation: Threat Fabric Cerberus),(Citation: CyberMerchants-FlexiSpy),(Citation: TrendMicro-RCSAndroid),(Citation: Zscaler-SpyNote),(Citation: Lookout-Pegasus),(Citation: Lookout eSurv),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout FrozenCell),(Citation: CrowdStrike-Android),(Citation: SecureList - ViceLeaker 2019),(Citation: Cofense Anubis),(Citation: CheckPoint-Charger),(Citation: Talos GPlayed),(Citation: NYTimes-BackDoor),(Citation: Palo Alto HenBox),(Citation: Lookout-StealthMango),(Citation: Lookout-Monokle),(Citation: Kaspersky-Skygofree),(Citation: Lookout Desert Scorpion),(Citation: BlackBerry Bahamut),(Citation: Lookout Dark Caracal Jan 2018),(Citation: PaloAlto-SpyDealer),(Citation: Lookout ViperRAT),(Citation: Kaspersky-WUC),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender - Triout 2018),(Citation: SWB Exodus March 2019),(Citation: Lookout-EnterpriseApps),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Symantec GoldenCup),(Citation: Bitdefender Mandrake),(Citation: Zscaler TikTok Spyware),(Citation: lookout_abstractemu_1021),(Citation: CSRIC5-WG10-FinalReport)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: Google Bread),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: WhiteOps TERRACOTTA),(Citation: Palo Alto HenBox),(Citation: Securelist Asacub),</t>
   </si>
   <si>
     <t>(Citation: threatfabric_sova_0921),</t>
   </si>
   <si>
-    <t>(Citation: Sophos Red Alert 2.0),(Citation: FortiGuard-FlexiSpy),(Citation: SWB Exodus March 2019),(Citation: CheckPoint Cerberus),(Citation: Bitdefender Mandrake),(Citation: Volexity Insomnia),</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_abstractemu_1021),(Citation: ThreatFabric Ginp),(Citation: Sophos Red Alert 2.0),(Citation: Cybereason FakeSpy),(Citation: PaloAlto-WireLurker),(Citation: securelist rotexy 2018),(Citation: trendmicro_tianyspy_0122),(Citation: SecureList DVMap June 2017),(Citation: proofpoint_flubot_0421),(Citation: BlackBerry Bahamut),(Citation: Palo Alto HenBox),(Citation: nccgroup_sharkbot_0322),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Talos GPlayed),(Citation: TrendMicro-XLoader),(Citation: CheckPoint-Charger),(Citation: Lookout-Monokle),(Citation: Google Bread),(Citation: Securelist Asacub),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout Uyghur Campaign),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Microsoft MalLockerB),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-BrainTest),(Citation: FortiGuard-FlexiSpy),(Citation: Threat Fabric Cerberus),(Citation: Volexity Insomnia),(Citation: WhiteOps TERRACOTTA),(Citation: TrendMicro-Obad),(Citation: Talos-WolfRAT),(Citation: Check Point-Joker),(Citation: Cybereason EventBot),(Citation: cyble_drinik_1022),(Citation: Google Security Zen),(Citation: Bitdefender Mandrake),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: SecurityIntelligence TrickMo),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: Lookout-Pegasus),(Citation: nccgroup_sharkbot_0322),(Citation: Talos Gustuff Apr 2019),(Citation: Kaspersky-WUC),(Citation: Lookout-PegasusAndroid),(Citation: PaloAlto-SpyDealer),(Citation: securelist rotexy 2018),(Citation: Lookout-Monokle),(Citation: Lookout-StealthMango),(Citation: Kaspersky-Skygofree),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro-Obad),(Citation: bitdefender_flubot_0524),(Citation: threatfabric_sova_0921),(Citation: Bitdefender Mandrake),</t>
-  </si>
-  <si>
-    <t>(Citation: CheckPoint Agent Smith),(Citation: Palo Alto HenBox),(Citation: Trend Micro Bouncing Golf 2019),(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: paloalto_yispecter_1015),(Citation: Zimperium z9),(Citation: Talos-WolfRAT),</t>
-  </si>
-  <si>
-    <t>(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Exobot),</t>
-  </si>
-  <si>
-    <t>(Citation: Google Security Zen),(Citation: Google Triada June 2019),(Citation: Kaspersky Triada March 2016),(Citation: Google Project Zero Insomnia),</t>
+    <t>(Citation: SWB Exodus March 2019),(Citation: FortiGuard-FlexiSpy),(Citation: CheckPoint Cerberus),(Citation: Volexity Insomnia),(Citation: Bitdefender Mandrake),(Citation: Sophos Red Alert 2.0),</t>
+  </si>
+  <si>
+    <t>(Citation: ThreatFabric Ginp),(Citation: SecurityIntelligence TrickMo),(Citation: Threat Fabric Cerberus),(Citation: FortiGuard-FlexiSpy),(Citation: Talos Gustuff Apr 2019),(Citation: Sophos Red Alert 2.0),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cybereason FakeSpy),(Citation: trendmicro_tianyspy_0122),(Citation: Volexity Insomnia),(Citation: Check Point-Joker),(Citation: Google Bread),(Citation: CheckPoint-Charger),(Citation: Talos GPlayed),(Citation: Talos-WolfRAT),(Citation: Palo Alto HenBox),(Citation: Lookout-Monokle),(Citation: Securelist Asacub),(Citation: Google Security Zen),(Citation: Microsoft MalLockerB),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Cybereason EventBot),(Citation: WhiteOps TERRACOTTA),(Citation: BlackBerry Bahamut),(Citation: Lookout Dark Caracal Jan 2018),(Citation: TrendMicro-Obad),(Citation: SecureList DVMap June 2017),(Citation: proofpoint_flubot_0421),(Citation: Lookout Uyghur Campaign),(Citation: nccgroup_sharkbot_0322),(Citation: cyble_drinik_1022),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Bitdefender Mandrake),(Citation: Lookout-BrainTest),(Citation: securelist rotexy 2018),(Citation: PaloAlto-WireLurker),(Citation: TrendMicro-XLoader),(Citation: lookout_abstractemu_1021),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Desert Scorpion),(Citation: Lookout-Monokle),(Citation: SecureList BusyGasper),(Citation: PaloAlto-SpyDealer),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout Uyghur Campaign),(Citation: Kaspersky-WUC),(Citation: nccgroup_sharkbot_0322),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-PegasusAndroid),(Citation: securelist rotexy 2018),(Citation: Lookout-StealthMango),(Citation: Lookout-Pegasus),(Citation: Talos Gustuff Apr 2019),(Citation: Kaspersky-Skygofree),</t>
+  </si>
+  <si>
+    <t>(Citation: bitdefender_flubot_0524),(Citation: threatfabric_sova_0921),(Citation: Bitdefender Mandrake),(Citation: TrendMicro-Obad),</t>
+  </si>
+  <si>
+    <t>(Citation: nccgroup_sharkbot_0322),(Citation: paloalto_yispecter_1015),(Citation: CheckPoint Agent Smith),(Citation: Zimperium z9),(Citation: securelist rotexy 2018),(Citation: Talos-WolfRAT),(Citation: Palo Alto HenBox),(Citation: Trend Micro Bouncing Golf 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Exobot),(Citation: proofpoint_flubot_0421),</t>
+  </si>
+  <si>
+    <t>(Citation: Google Security Zen),(Citation: Google Project Zero Insomnia),(Citation: Google Triada June 2019),(Citation: Kaspersky Triada March 2016),</t>
   </si>
   <si>
     <t>(Citation: PaloAlto-DualToy),(Citation: PaloAlto-WireLurker),(Citation: Elcomsoft-iOSRestricted)</t>
   </si>
   <si>
-    <t>(Citation: Lookout Desert Scorpion),(Citation: Threat Fabric Exobot),(Citation: ThreatFabric Ginp),(Citation: Sophos Red Alert 2.0),(Citation: Cybereason FakeSpy),(Citation: securelist rotexy 2018),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Dendroid),(Citation: proofpoint_flubot_0421),(Citation: nccgroup_sharkbot_0322),(Citation: Talos GPlayed),(Citation: Cofense Anubis),(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList BusyGasper),(Citation: Securelist Asacub),(Citation: SecurityIntelligence TrickMo),(Citation: threatfabric_sova_0921),(Citation: Lookout Uyghur Campaign),(Citation: bitdefender_flubot_0524),(Citation: Threat Fabric Cerberus),(Citation: Lookout-StealthMango),(Citation: WhiteOps TERRACOTTA),(Citation: cloudmark_tanglebot_0921),(Citation: Talos-WolfRAT),(Citation: cyble_drinik_1022),(Citation: Bitdefender Mandrake),(Citation: SMS KitKat)</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_abstractemu_1021),(Citation: Symantec GoldenCup),(Citation: Tripwire-MazarBOT),(Citation: Lookout Desert Scorpion),(Citation: Lookout-Pegasus),(Citation: Threat Fabric Exobot),(Citation: ThreatFabric Ginp),(Citation: Sophos Red Alert 2.0),(Citation: Cybereason FakeSpy),(Citation: securelist rotexy 2018),(Citation: SecureList - ViceLeaker 2019),(Citation: Zscaler TikTok Spyware),(Citation: CyberMerchants-FlexiSpy),(Citation: FireEye-RuMMS),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-Dendroid),(Citation: BlackBerry Bahamut),(Citation: proofpoint_flubot_0421),(Citation: Palo Alto HenBox),(Citation: nccgroup_sharkbot_0322),(Citation: Kaspersky-WUC),(Citation: Talos GPlayed),(Citation: TrendMicro-XLoader),(Citation: Cylance Dust Storm),(Citation: TrendMicro Coronavirus Updates),(Citation: Google Bread),(Citation: Zscaler-SuperMarioRun),(Citation: SecureList BusyGasper),(Citation: Securelist Asacub),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SecurityIntelligence TrickMo),(Citation: threatfabric_sova_0921),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos Gustuff Apr 2019),(Citation: PaloAlto-Xbot),(Citation: SWB Exodus March 2019),(Citation: Threat Fabric Cerberus),(Citation: Lookout-EnterpriseApps),(Citation: Lookout-StealthMango),(Citation: cloudmark_tanglebot_0921),(Citation: Talos-WolfRAT),(Citation: NYTimes-BackDoor),(Citation: FlexiSpy-Features),(Citation: Lookout ViperRAT),(Citation: Lookout FrozenCell),(Citation: PaloAlto-SpyDealer),(Citation: Zscaler-SpyNote),(Citation: Kaspersky Riltok June 2019),(Citation: Cybereason EventBot),(Citation: cyble_drinik_1022),(Citation: Kaspersky Triada March 2016),(Citation: Bitdefender Mandrake),(Citation: Google Project Zero Insomnia),</t>
-  </si>
-  <si>
-    <t>(Citation: Zscaler TikTok Spyware),(Citation: WhiteOps TERRACOTTA),(Citation: Talos GPlayed),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: FlexiSpy-Features),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: ThreatFabric Ginp),(Citation: cleafy_sova_1122),(Citation: PaloAlto-SpyDealer),(Citation: Cybereason EventBot),(Citation: cyble_drinik_1022),(Citation: Lookout-Monokle),(Citation: Talos-WolfRAT),(Citation: Zscaler TikTok Spyware),(Citation: SWB Exodus March 2019),(Citation: Cofense Anubis),(Citation: Bitdefender Mandrake),(Citation: cloudmark_tanglebot_0921),(Citation: ESET DEFENSOR ID),(Citation: Nightwatch screencap April 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Talos Gustuff Apr 2019),(Citation: Threat Fabric Exobot),(Citation: Android Package Visibility)</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_abstractemu_1021),(Citation: Symantec GoldenCup),(Citation: Lookout Desert Scorpion),(Citation: ThreatFabric Ginp),(Citation: Lookout-PegasusAndroid),(Citation: Cybereason FakeSpy),(Citation: Sophos Red Alert 2.0),(Citation: securelist rotexy 2018),(Citation: SecureList - ViceLeaker 2019),(Citation: Zscaler TikTok Spyware),(Citation: Palo Alto HenBox),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Talos GPlayed),(Citation: cleafy_sova_1122),(Citation: Lookout-Monokle),(Citation: Cofense Anubis),(Citation: ESET DEFENSOR ID),(Citation: Google Triada June 2019),(Citation: CheckPoint Agent Smith),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: paloalto_yispecter_1015),(Citation: SWB Exodus March 2019),(Citation: Threat Fabric Cerberus),(Citation: Lookout-StealthMango),(Citation: WhiteOps TERRACOTTA),(Citation: cloudmark_tanglebot_0921),(Citation: Talos-WolfRAT),(Citation: FlexiSpy-Features),(Citation: Kaspersky Riltok June 2019),(Citation: Cybereason EventBot),(Citation: Bitdefender Mandrake),(Citation: Google Project Zero Insomnia),(Citation: Android Package Visibility)</t>
-  </si>
-  <si>
-    <t>(Citation: threatfabric_sova_0921),(Citation: Google Bread),(Citation: Talos Gustuff Apr 2019),</t>
-  </si>
-  <si>
-    <t>,(Citation: iOS Universal Links),(Citation: Android App Links),(Citation: Trend Micro iOS URL Hijacking),(Citation: IETF-PKCE)</t>
+    <t>(Citation: SecureList BusyGasper),(Citation: ThreatFabric Ginp),(Citation: SecurityIntelligence TrickMo),(Citation: TrendMicro Coronavirus Updates),(Citation: bitdefender_flubot_0524),(Citation: Threat Fabric Cerberus),(Citation: Sophos Red Alert 2.0),(Citation: cloudmark_tanglebot_0921),(Citation: Cybereason FakeSpy),(Citation: Lookout-Dendroid),(Citation: Cofense Anubis),(Citation: Talos GPlayed),(Citation: Talos-WolfRAT),(Citation: Lookout-StealthMango),(Citation: Securelist Asacub),(Citation: Lookout Desert Scorpion),(Citation: WhiteOps TERRACOTTA),(Citation: threatfabric_sova_0921),(Citation: proofpoint_flubot_0421),(Citation: Lookout Uyghur Campaign),(Citation: nccgroup_sharkbot_0322),(Citation: cyble_drinik_1022),(Citation: Threat Fabric Exobot),(Citation: Bitdefender Mandrake),(Citation: securelist rotexy 2018),(Citation: Zscaler TikTok Spyware),(Citation: SMS KitKat)</t>
+  </si>
+  <si>
+    <t>(Citation: Google Project Zero Insomnia),(Citation: SecureList BusyGasper),(Citation: ThreatFabric Ginp),(Citation: SecurityIntelligence TrickMo),(Citation: TrendMicro Coronavirus Updates),(Citation: Threat Fabric Cerberus),(Citation: CyberMerchants-FlexiSpy),(Citation: TrendMicro-RCSAndroid),(Citation: Zscaler-SpyNote),(Citation: Lookout-Pegasus),(Citation: Talos Gustuff Apr 2019),(Citation: Sophos Red Alert 2.0),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cloudmark_tanglebot_0921),(Citation: Cybereason FakeSpy),(Citation: Lookout FrozenCell),(Citation: Kaspersky Riltok June 2019),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Dendroid),(Citation: Google Bread),(Citation: Talos GPlayed),(Citation: Talos-WolfRAT),(Citation: NYTimes-BackDoor),(Citation: Palo Alto HenBox),(Citation: Lookout-StealthMango),(Citation: Kaspersky Triada March 2016),(Citation: Securelist Asacub),(Citation: Zscaler-SuperMarioRun),(Citation: PaloAlto-Xbot),(Citation: Lookout Desert Scorpion),(Citation: Cylance Dust Storm),(Citation: Cybereason EventBot),(Citation: Tripwire-MazarBOT),(Citation: BlackBerry Bahamut),(Citation: Lookout Dark Caracal Jan 2018),(Citation: FlexiSpy-Features),(Citation: threatfabric_sova_0921),(Citation: PaloAlto-SpyDealer),(Citation: proofpoint_flubot_0421),(Citation: FireEye-RuMMS),(Citation: Lookout ViperRAT),(Citation: Kaspersky-WUC),(Citation: Lookout Uyghur Campaign),(Citation: nccgroup_sharkbot_0322),(Citation: SWB Exodus March 2019),(Citation: cyble_drinik_1022),(Citation: Threat Fabric Exobot),(Citation: Lookout-EnterpriseApps),(Citation: Symantec GoldenCup),(Citation: Bitdefender Mandrake),(Citation: securelist rotexy 2018),(Citation: TrendMicro-XLoader),(Citation: Zscaler TikTok Spyware),(Citation: lookout_abstractemu_1021),</t>
+  </si>
+  <si>
+    <t>(Citation: Talos GPlayed),(Citation: Zscaler TikTok Spyware),(Citation: WhiteOps TERRACOTTA),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-SpyDealer),(Citation: SecureList BusyGasper),(Citation: cloudmark_tanglebot_0921),(Citation: ThreatFabric Ginp),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout Uyghur Campaign),(Citation: SWB Exodus March 2019),(Citation: Cofense Anubis),(Citation: cyble_drinik_1022),(Citation: cleafy_sova_1122),(Citation: Bitdefender Mandrake),(Citation: Cybereason EventBot),(Citation: Talos-WolfRAT),(Citation: ESET DEFENSOR ID),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Monokle),(Citation: FlexiSpy-Features),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Nightwatch screencap April 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Exobot),(Citation: Talos Gustuff Apr 2019),(Citation: Android Package Visibility)</t>
+  </si>
+  <si>
+    <t>(Citation: Google Project Zero Insomnia),(Citation: ThreatFabric Ginp),(Citation: SecurityIntelligence TrickMo),(Citation: Threat Fabric Cerberus),(Citation: paloalto_yispecter_1015),(Citation: Lookout-PegasusAndroid),(Citation: cleafy_sova_1122),(Citation: Google Triada June 2019),(Citation: Sophos Red Alert 2.0),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cloudmark_tanglebot_0921),(Citation: Cybereason FakeSpy),(Citation: Kaspersky Riltok June 2019),(Citation: SecureList - ViceLeaker 2019),(Citation: Cofense Anubis),(Citation: Talos GPlayed),(Citation: Talos-WolfRAT),(Citation: ESET DEFENSOR ID),(Citation: Palo Alto HenBox),(Citation: Lookout-StealthMango),(Citation: Lookout-Monokle),(Citation: Lookout Desert Scorpion),(Citation: CheckPoint Agent Smith),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Cybereason EventBot),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout Dark Caracal Jan 2018),(Citation: FlexiSpy-Features),(Citation: Lookout Uyghur Campaign),(Citation: SWB Exodus March 2019),(Citation: Symantec GoldenCup),(Citation: Bitdefender Mandrake),(Citation: securelist rotexy 2018),(Citation: Zscaler TikTok Spyware),(Citation: lookout_abstractemu_1021),(Citation: Android Package Visibility)</t>
+  </si>
+  <si>
+    <t>(Citation: Google Bread),(Citation: Talos Gustuff Apr 2019),(Citation: threatfabric_sova_0921),</t>
+  </si>
+  <si>
+    <t>,(Citation: IETF-PKCE),(Citation: Android App Links),(Citation: iOS Universal Links),(Citation: Trend Micro iOS URL Hijacking)</t>
   </si>
   <si>
     <t>(Citation: CheckPoint Agent Smith),</t>
   </si>
   <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Kaspersky-Skygofree),(Citation: threatfabric_sova_0921),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: Lookout-Pegasus),(Citation: Lookout FrozenCell),(Citation: Lookout-PegasusAndroid),(Citation: Cybereason FakeSpy),(Citation: cleafy_sova_1122),(Citation: FortiGuard-FlexiSpy),(Citation: PaloAlto-SpyDealer),(Citation: paloalto_yispecter_1015),(Citation: SWB Exodus March 2019),(Citation: Lookout-StealthMango),(Citation: Bitdefender Mandrake),</t>
+    <t>(Citation: Lookout Desert Scorpion),(Citation: PaloAlto-SpyDealer),(Citation: SecureList BusyGasper),(Citation: Cybereason FakeSpy),(Citation: Lookout FrozenCell),(Citation: Lookout Uyghur Campaign),(Citation: SWB Exodus March 2019),(Citation: FortiGuard-FlexiSpy),(Citation: paloalto_yispecter_1015),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-PegasusAndroid),(Citation: Bitdefender Mandrake),(Citation: cleafy_sova_1122),(Citation: Lookout-StealthMango),(Citation: Lookout-Pegasus),(Citation: Lookout Dark Caracal Jan 2018),(Citation: threatfabric_sova_0921),(Citation: Kaspersky-Skygofree),</t>
   </si>
   <si>
     <t>,(Citation: Android-TrustedCA),(Citation: Symantec-iOSProfile2)</t>
   </si>
   <si>
-    <t>(Citation: Bitdefender - Triout 2018),(Citation: Lookout Desert Scorpion),(Citation: CheckPoint SimBad 2019),(Citation: ThreatFabric Ginp),(Citation: Cybereason FakeSpy),(Citation: securelist rotexy 2018),(Citation: Zscaler TikTok Spyware),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: SecureList BusyGasper),(Citation: CheckPoint Agent Smith),(Citation: Group IB Gustuff Mar 2019),(Citation: threatfabric_sova_0921),(Citation: Lookout Uyghur Campaign),(Citation: FortiGuard-FlexiSpy),(Citation: paloalto_yispecter_1015),(Citation: Threat Fabric Cerberus),(Citation: FlexiSpy-Features),(Citation: ESET-Twitoor),(Citation: cyble_drinik_1022),(Citation: Bitdefender Mandrake),(Citation: LauncherApps getActivityList),(Citation: Android 10 Limitations to Hiding App Icons)</t>
-  </si>
-  <si>
-    <t>(Citation: BlackBerry Bahamut),(Citation: Cybereason EventBot),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),</t>
-  </si>
-  <si>
-    <t>(Citation: SecurityIntelligence TrickMo),(Citation: lookout_abstractemu_1021),(Citation: Lookout-Dendroid),(Citation: BlackBerry Bahamut),(Citation: Palo Alto HenBox),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: ThreatFabric Ginp),(Citation: Cybereason FakeSpy),(Citation: Trend Micro Anubis),(Citation: securelist rotexy 2018),(Citation: Talos-WolfRAT),(Citation: Threat Fabric Cerberus),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_abstractemu_1021),(Citation: Symantec GoldenCup),(Citation: Lookout Desert Scorpion),(Citation: Lookout-Pegasus),(Citation: Threat Fabric Exobot),(Citation: Cybereason FakeSpy),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: securelist rotexy 2018),(Citation: SecureList - ViceLeaker 2019),(Citation: trendmicro_tianyspy_0122),(Citation: Zscaler TikTok Spyware),(Citation: FireEye-RuMMS),(Citation: SecureList DVMap June 2017),(Citation: Palo Alto HenBox),(Citation: BlackBerry Bahamut),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Kaspersky-WUC),(Citation: TrendMicro-Anserver2),(Citation: Talos GPlayed),(Citation: Lookout-Monokle),(Citation: Cofense Anubis),(Citation: TrendMicro Coronavirus Updates),(Citation: Securelist Asacub),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SecurityIntelligence TrickMo),(Citation: threatfabric_sova_0921),(Citation: Lookout Uyghur Campaign),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos Gustuff Apr 2019),(Citation: paloalto_yispecter_1015),(Citation: Threat Fabric Cerberus),(Citation: CheckPoint Cerberus),(Citation: Wandera-RedDrop),(Citation: Lookout eSurv),(Citation: Xiao-KeyRaider),(Citation: Lookout ViperRAT),(Citation: Lookout FrozenCell),(Citation: Kaspersky Riltok June 2019),(Citation: Cybereason EventBot),(Citation: Bitdefender Mandrake),(Citation: Google Project Zero Insomnia),</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_abstractemu_1021),(Citation: Symantec GoldenCup),(Citation: Threat Fabric Exobot),(Citation: Lookout-PegasusAndroid),(Citation: PaloAlto-DualToy),(Citation: Cybereason FakeSpy),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: securelist rotexy 2018),(Citation: trendmicro_tianyspy_0122),(Citation: FireEye-RuMMS),(Citation: TrendMicro-Anserver2),(Citation: Talos GPlayed),(Citation: Lookout-Monokle),(Citation: TrendMicro Coronavirus Updates),(Citation: Google Bread),(Citation: Securelist Asacub),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout Uyghur Campaign),(Citation: Talos Gustuff Apr 2019),(Citation: paloalto_yispecter_1015),(Citation: SWB Exodus March 2019),(Citation: Lookout-EnterpriseApps),(Citation: Lookout-StealthMango),(Citation: Wandera-RedDrop),(Citation: WhiteOps TERRACOTTA),(Citation: Talos-WolfRAT),(Citation: Lookout ViperRAT),(Citation: Lookout FrozenCell),(Citation: PaloAlto-SpyDealer),(Citation: Kaspersky Riltok June 2019),(Citation: Cybereason EventBot),(Citation: Google Project Zero Insomnia),(Citation: TelephonyManager)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: FlexiSpy-Features),(Citation: Lookout ViperRAT),(Citation: Lookout-Pegasus),(Citation: Cybereason FakeSpy),(Citation: Lookout-Monokle),(Citation: SWB Exodus March 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: Google Security Zen),(Citation: FortiGuard-FlexiSpy),(Citation: SecureList DVMap June 2017),(Citation: Android-VerifiedBoot)</t>
+    <t>(Citation: SecureList BusyGasper),(Citation: ThreatFabric Ginp),(Citation: Threat Fabric Cerberus),(Citation: FortiGuard-FlexiSpy),(Citation: paloalto_yispecter_1015),(Citation: Cybereason FakeSpy),(Citation: Lookout Desert Scorpion),(Citation: ESET-Twitoor),(Citation: CheckPoint Agent Smith),(Citation: Group IB Gustuff Mar 2019),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: threatfabric_sova_0921),(Citation: FlexiSpy-Features),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender - Triout 2018),(Citation: cyble_drinik_1022),(Citation: Bitdefender Mandrake),(Citation: securelist rotexy 2018),(Citation: CheckPoint SimBad 2019),(Citation: Zscaler TikTok Spyware),(Citation: Android 10 Limitations to Hiding App Icons),(Citation: LauncherApps getActivityList)</t>
+  </si>
+  <si>
+    <t>(Citation: BlackBerry Bahamut),(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: Cybereason EventBot),</t>
+  </si>
+  <si>
+    <t>(Citation: Trend Micro Anubis),(Citation: Cybereason FakeSpy),(Citation: ThreatFabric Ginp),(Citation: Palo Alto HenBox),(Citation: SecurityIntelligence TrickMo),(Citation: Threat Fabric Cerberus),(Citation: Lookout-Dendroid),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Bitdefender Mandrake),(Citation: securelist rotexy 2018),(Citation: WhiteOps TERRACOTTA),(Citation: Talos-WolfRAT),(Citation: BlackBerry Bahamut),(Citation: lookout_abstractemu_1021),</t>
+  </si>
+  <si>
+    <t>(Citation: Google Project Zero Insomnia),(Citation: SecurityIntelligence TrickMo),(Citation: TrendMicro Coronavirus Updates),(Citation: Threat Fabric Cerberus),(Citation: paloalto_yispecter_1015),(Citation: Lookout-Pegasus),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout eSurv),(Citation: TrendMicro-Anserver2),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cybereason FakeSpy),(Citation: Lookout FrozenCell),(Citation: Kaspersky Riltok June 2019),(Citation: trendmicro_tianyspy_0122),(Citation: Xiao-KeyRaider),(Citation: CheckPoint Cerberus),(Citation: SecureList - ViceLeaker 2019),(Citation: Cofense Anubis),(Citation: Talos GPlayed),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Palo Alto HenBox),(Citation: Lookout-Monokle),(Citation: Securelist Asacub),(Citation: Lookout Desert Scorpion),(Citation: Wandera-RedDrop),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Cybereason EventBot),(Citation: BlackBerry Bahamut),(Citation: Lookout Dark Caracal Jan 2018),(Citation: threatfabric_sova_0921),(Citation: SecureList DVMap June 2017),(Citation: FireEye-RuMMS),(Citation: Lookout ViperRAT),(Citation: Kaspersky-WUC),(Citation: Lookout Uyghur Campaign),(Citation: Threat Fabric Exobot),(Citation: Symantec GoldenCup),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Bitdefender Mandrake),(Citation: securelist rotexy 2018),(Citation: Zscaler TikTok Spyware),(Citation: lookout_abstractemu_1021),</t>
+  </si>
+  <si>
+    <t>(Citation: Google Project Zero Insomnia),(Citation: SecurityIntelligence TrickMo),(Citation: TrendMicro Coronavirus Updates),(Citation: paloalto_yispecter_1015),(Citation: Lookout-PegasusAndroid),(Citation: Talos Gustuff Apr 2019),(Citation: TrendMicro-Anserver2),(Citation: Cybereason FakeSpy),(Citation: Lookout FrozenCell),(Citation: Kaspersky Riltok June 2019),(Citation: trendmicro_tianyspy_0122),(Citation: Google Bread),(Citation: Talos GPlayed),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Talos-WolfRAT),(Citation: Lookout-StealthMango),(Citation: Lookout-Monokle),(Citation: Securelist Asacub),(Citation: Wandera-RedDrop),(Citation: Cybereason EventBot),(Citation: WhiteOps TERRACOTTA),(Citation: PaloAlto-SpyDealer),(Citation: PaloAlto-DualToy),(Citation: FireEye-RuMMS),(Citation: Lookout ViperRAT),(Citation: Lookout Uyghur Campaign),(Citation: SWB Exodus March 2019),(Citation: Threat Fabric Exobot),(Citation: Symantec GoldenCup),(Citation: Lookout-EnterpriseApps),(Citation: securelist rotexy 2018),(Citation: lookout_abstractemu_1021),(Citation: TelephonyManager)</t>
+  </si>
+  <si>
+    <t>(Citation: Cybereason FakeSpy),(Citation: Lookout ViperRAT),(Citation: SWB Exodus March 2019),(Citation: Lookout-Pegasus),(Citation: Lookout-Monokle),(Citation: Lookout Dark Caracal Jan 2018),(Citation: FlexiSpy-Features),</t>
+  </si>
+  <si>
+    <t>(Citation: Google Security Zen),(Citation: SecureList DVMap June 2017),(Citation: FortiGuard-FlexiSpy),(Citation: Android-VerifiedBoot)</t>
   </si>
   <si>
     <t>(Citation: threatfabric_sova_0921),(Citation: Android 10 Privacy Changes)</t>
   </si>
   <si>
-    <t>(Citation: Threat Fabric Cerberus),(Citation: SecurityIntelligence TrickMo),(Citation: threatfabric_sova_0921),(Citation: nccgroup_sharkbot_0322),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: Lookout Uyghur Campaign),(Citation: lookout_abstractemu_1021),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Palo Alto HenBox),(Citation: Zscaler TikTok Spyware),</t>
+    <t>(Citation: nccgroup_sharkbot_0322),(Citation: Threat Fabric Cerberus),(Citation: threatfabric_sova_0921),(Citation: SecurityIntelligence TrickMo),</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList BusyGasper),(Citation: Lookout Uyghur Campaign),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Palo Alto HenBox),(Citation: Zscaler TikTok Spyware),(Citation: lookout_abstractemu_1021),</t>
   </si>
   <si>
     <t>(Citation: SecureList BusyGasper),(Citation: proofpoint_flubot_0421),</t>
   </si>
   <si>
-    <t>(Citation: lookout_abstractemu_1021),(Citation: Symantec GoldenCup),(Citation: Lookout Desert Scorpion),(Citation: Lookout-PegasusAndroid),(Citation: SecureList - ViceLeaker 2019),(Citation: Zscaler TikTok Spyware),(Citation: CyberMerchants-FlexiSpy),(Citation: Kaspersky-Skygofree),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-Dendroid),(Citation: BlackBerry Bahamut),(Citation: Palo Alto HenBox),(Citation: Lookout-Monokle),(Citation: TrendMicro Coronavirus Updates),(Citation: Zscaler-SuperMarioRun),(Citation: SecureList BusyGasper),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SWB Exodus March 2019),(Citation: Lookout-StealthMango),(Citation: cloudmark_tanglebot_0921),(Citation: Talos-WolfRAT),(Citation: Lookout ViperRAT),(Citation: PaloAlto-SpyDealer),(Citation: Android Capture Sensor 2019)</t>
+    <t>(Citation: SecureList BusyGasper),(Citation: TrendMicro Coronavirus Updates),(Citation: CyberMerchants-FlexiSpy),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-PegasusAndroid),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cloudmark_tanglebot_0921),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Dendroid),(Citation: Talos-WolfRAT),(Citation: Palo Alto HenBox),(Citation: Lookout-StealthMango),(Citation: Lookout-Monokle),(Citation: Zscaler-SuperMarioRun),(Citation: Kaspersky-Skygofree),(Citation: Lookout Desert Scorpion),(Citation: BlackBerry Bahamut),(Citation: Lookout Dark Caracal Jan 2018),(Citation: PaloAlto-SpyDealer),(Citation: Lookout ViperRAT),(Citation: Lookout Uyghur Campaign),(Citation: SWB Exodus March 2019),(Citation: Symantec GoldenCup),(Citation: Zscaler TikTok Spyware),(Citation: lookout_abstractemu_1021),(Citation: Android Capture Sensor 2019)</t>
   </si>
   <si>
     <t>(Citation: lookout_abstractemu_1021),</t>
   </si>
   <si>
-    <t>(Citation: lookout_abstractemu_1021),(Citation: Symantec GoldenCup),(Citation: Bitdefender - Triout 2018),(Citation: Threat Fabric Exobot),(Citation: Sophos Red Alert 2.0),(Citation: Cybereason FakeSpy),(Citation: Kaspersky-MobileMalware),(Citation: securelist rotexy 2018),(Citation: SecureList - ViceLeaker 2019),(Citation: Kaspersky-Skygofree),(Citation: FireEye-RuMMS),(Citation: proofpoint_flubot_0421),(Citation: nccgroup_sharkbot_0322),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Kaspersky-WUC),(Citation: Talos GPlayed),(Citation: TrendMicro Coronavirus Updates),(Citation: Google Bread),(Citation: ESET DEFENSOR ID),(Citation: Securelist Asacub),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SecurityIntelligence TrickMo),(Citation: threatfabric_sova_0921),(Citation: Lookout Uyghur Campaign),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Talos Gustuff Apr 2019),(Citation: paloalto_yispecter_1015),(Citation: SWB Exodus March 2019),(Citation: CheckPoint Cerberus),(Citation: Volexity Insomnia),(Citation: Wandera-RedDrop),(Citation: Kaspersky Riltok June 2019),(Citation: Cybereason EventBot),</t>
+    <t>(Citation: SecurityIntelligence TrickMo),(Citation: TrendMicro Coronavirus Updates),(Citation: paloalto_yispecter_1015),(Citation: Talos Gustuff Apr 2019),(Citation: Sophos Red Alert 2.0),(Citation: Cybereason FakeSpy),(Citation: Kaspersky Riltok June 2019),(Citation: SecureList - ViceLeaker 2019),(Citation: CheckPoint Cerberus),(Citation: Volexity Insomnia),(Citation: Google Bread),(Citation: Talos GPlayed),(Citation: ESET DEFENSOR ID),(Citation: Securelist Asacub),(Citation: Kaspersky-Skygofree),(Citation: Kaspersky-MobileMalware),(Citation: Wandera-RedDrop),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Cybereason EventBot),(Citation: Lookout Dark Caracal Jan 2018),(Citation: threatfabric_sova_0921),(Citation: proofpoint_flubot_0421),(Citation: FireEye-RuMMS),(Citation: Kaspersky-WUC),(Citation: Lookout Uyghur Campaign),(Citation: nccgroup_sharkbot_0322),(Citation: Bitdefender - Triout 2018),(Citation: SWB Exodus March 2019),(Citation: Threat Fabric Exobot),(Citation: Symantec GoldenCup),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: securelist rotexy 2018),(Citation: lookout_abstractemu_1021),</t>
   </si>
   <si>
     <t>source ID</t>

--- a/docs/mobile-attack-v13.1/mobile-attack-v13.1-techniques.xlsx
+++ b/docs/mobile-attack-v13.1/mobile-attack-v13.1-techniques.xlsx
@@ -2140,49 +2140,49 @@
     <t>,</t>
   </si>
   <si>
-    <t>(Citation: proofpoint_flubot_0421),(Citation: TrendMicro Coronavirus Updates),(Citation: nccgroup_sharkbot_0322),(Citation: Check Point-Joker),(Citation: Bitdefender Mandrake),(Citation: Talos-WolfRAT),(Citation: threatfabric_sova_0921),(Citation: lookout_abstractemu_1021),(Citation: Android Notification Listeners)</t>
+    <t>(Citation: TrendMicro Coronavirus Updates),(Citation: lookout_abstractemu_1021),(Citation: Check Point-Joker),(Citation: nccgroup_sharkbot_0322),(Citation: threatfabric_sova_0921),(Citation: Bitdefender Mandrake),(Citation: proofpoint_flubot_0421),(Citation: Talos-WolfRAT),(Citation: Android Notification Listeners)</t>
   </si>
   <si>
     <t>(Citation: Lookout-Monokle),</t>
   </si>
   <si>
-    <t>(Citation: Xiao-KeyRaider),(Citation: threatfabric_sova_0921),(Citation: Skycure-Profiles),</t>
-  </si>
-  <si>
-    <t>(Citation: cyble_drinik_1022),(Citation: Lookout Uyghur Campaign),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Desert Scorpion),(Citation: Lookout FrozenCell),(Citation: SWB Exodus March 2019),(Citation: Cofense Anubis),(Citation: Symantec GoldenCup),(Citation: Securelist Asacub),(Citation: Google Triada June 2019),(Citation: Trend Micro Bouncing Golf 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: proofpoint_flubot_0421),(Citation: Lookout Uyghur Campaign),(Citation: nccgroup_sharkbot_0322),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout eSurv),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: TrendMicro Coronavirus Updates),(Citation: CyberMerchants-FlexiSpy),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-PegasusAndroid),(Citation: Zscaler-SpyNote),(Citation: Lookout-Pegasus),(Citation: Lookout eSurv),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout FrozenCell),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Dendroid),(Citation: Cofense Anubis),(Citation: Talos-WolfRAT),(Citation: Palo Alto HenBox),(Citation: Lookout-StealthMango),(Citation: Lookout-Monokle),(Citation: Zscaler-SuperMarioRun),(Citation: Kaspersky-Skygofree),(Citation: Lookout Desert Scorpion),(Citation: Wandera-RedDrop),(Citation: BlackBerry Bahamut),(Citation: Lookout Dark Caracal Jan 2018),(Citation: PaloAlto-SpyDealer),(Citation: Lookout ViperRAT),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender - Triout 2018),(Citation: SWB Exodus March 2019),(Citation: Lookout-EnterpriseApps),(Citation: Symantec GoldenCup),(Citation: TrendMicro-XLoader),(Citation: Zscaler TikTok Spyware),(Citation: lookout_abstractemu_1021),(Citation: Android Capture Sensor 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),</t>
+    <t>(Citation: Skycure-Profiles),(Citation: Xiao-KeyRaider),(Citation: threatfabric_sova_0921),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: cyble_drinik_1022),</t>
+  </si>
+  <si>
+    <t>(Citation: Cofense Anubis),(Citation: Lookout Desert Scorpion),(Citation: Securelist Asacub),(Citation: Symantec GoldenCup),(Citation: Lookout FrozenCell),(Citation: SWB Exodus March 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Google Triada June 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: nccgroup_sharkbot_0322),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: proofpoint_flubot_0421),(Citation: Lookout eSurv),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_abstractemu_1021),(Citation: Lookout-Dendroid),(Citation: Lookout Dark Caracal Jan 2018),(Citation: BlackBerry Bahamut),(Citation: Palo Alto HenBox),(Citation: Lookout eSurv),(Citation: Zscaler-SpyNote),(Citation: Lookout ViperRAT),(Citation: TrendMicro Coronavirus Updates),(Citation: Talos-WolfRAT),(Citation: Lookout Desert Scorpion),(Citation: Symantec GoldenCup),(Citation: Lookout-EnterpriseApps),(Citation: Lookout-StealthMango),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cloudmark_tanglebot_0921),(Citation: Bitdefender - Triout 2018),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout Uyghur Campaign),(Citation: Cofense Anubis),(Citation: Lookout-Pegasus),(Citation: Wandera-RedDrop),(Citation: SecureList BusyGasper),(Citation: Kaspersky-Skygofree),(Citation: Lookout-PegasusAndroid),(Citation: PaloAlto-SpyDealer),(Citation: SWB Exodus March 2019),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Monokle),(Citation: SecureList - ViceLeaker 2019),(Citation: TrendMicro-RCSAndroid),(Citation: TrendMicro-XLoader),(Citation: Lookout FrozenCell),(Citation: CyberMerchants-FlexiSpy),(Citation: Android Capture Sensor 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),(Citation: SecureList BusyGasper),</t>
   </si>
   <si>
     <t>(Citation: HackerNews-OldBoot),</t>
   </si>
   <si>
-    <t>(Citation: PaloAlto-SpyDealer),(Citation: Zscaler TikTok Spyware),(Citation: Cybereason FakeSpy),(Citation: SecurityIntelligence TrickMo),(Citation: FortiGuard-FlexiSpy),(Citation: Microsoft MalLockerB),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout-PegasusAndroid),(Citation: Cybereason EventBot),(Citation: CheckPoint SimBad 2019),(Citation: ESET DEFENSOR ID),(Citation: Palo Alto HenBox),(Citation: Zscaler-SpyNote),(Citation: WhiteOps TERRACOTTA),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Android Changes to System Broadcasts)</t>
-  </si>
-  <si>
-    <t>(Citation: SWB Exodus March 2019),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-StealthMango),(Citation: Lookout-Monokle),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout Uyghur Campaign),(Citation: Cofense Anubis),(Citation: cyble_drinik_1022),(Citation: Lookout-Monokle),</t>
-  </si>
-  <si>
-    <t>(Citation: Google Project Zero Insomnia),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Pegasus),(Citation: Sophos Red Alert 2.0),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cloudmark_tanglebot_0921),(Citation: SecureList - ViceLeaker 2019),(Citation: Talos-WolfRAT),(Citation: NYTimes-BackDoor),(Citation: Lookout-StealthMango),(Citation: Palo Alto HenBox),(Citation: Lookout-Monokle),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout Dark Caracal Jan 2018),(Citation: PaloAlto-SpyDealer),(Citation: Lookout ViperRAT),(Citation: Kaspersky-WUC),(Citation: Lookout Uyghur Campaign),(Citation: SWB Exodus March 2019),(Citation: cyble_drinik_1022),(Citation: Lookout-EnterpriseApps),(Citation: Zscaler TikTok Spyware),(Citation: lookout_abstractemu_1021),</t>
+    <t>(Citation: Cybereason FakeSpy),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout-PegasusAndroid),(Citation: FortiGuard-FlexiSpy),(Citation: WhiteOps TERRACOTTA),(Citation: ESET DEFENSOR ID),(Citation: PaloAlto-SpyDealer),(Citation: Palo Alto HenBox),(Citation: Microsoft MalLockerB),(Citation: Zscaler TikTok Spyware),(Citation: Trend Micro Bouncing Golf 2019),(Citation: CheckPoint SimBad 2019),(Citation: Cybereason EventBot),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Zscaler-SpyNote),(Citation: Android Changes to System Broadcasts)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-Monokle),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-StealthMango),(Citation: SWB Exodus March 2019),(Citation: CyberMerchants-FlexiSpy),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: Cofense Anubis),(Citation: Lookout-Monokle),(Citation: cyble_drinik_1022),(Citation: SecureList BusyGasper),(Citation: cloudmark_tanglebot_0921),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_abstractemu_1021),(Citation: Google Project Zero Insomnia),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Palo Alto HenBox),(Citation: Talos-WolfRAT),(Citation: Lookout ViperRAT),(Citation: TrendMicro Coronavirus Updates),(Citation: NYTimes-BackDoor),(Citation: Lookout-EnterpriseApps),(Citation: Lookout-StealthMango),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cloudmark_tanglebot_0921),(Citation: Sophos Red Alert 2.0),(Citation: Lookout-Pegasus),(Citation: Lookout Uyghur Campaign),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout-PegasusAndroid),(Citation: Kaspersky-WUC),(Citation: PaloAlto-SpyDealer),(Citation: SWB Exodus March 2019),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Monokle),(Citation: SecureList - ViceLeaker 2019),(Citation: cyble_drinik_1022),</t>
   </si>
   <si>
     <t>(Citation: PaloAlto-XcodeGhost),(Citation: TrendMicro-RCSAndroid),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Android 10 Privacy Changes)</t>
   </si>
   <si>
-    <t>(Citation: Lookout Desert Scorpion),(Citation: SecureList DVMap June 2017),(Citation: Lookout Uyghur Campaign),(Citation: trendmicro_tianyspy_0122),(Citation: paloalto_yispecter_1015),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Bitdefender Mandrake),(Citation: BlackBerry Bahamut),(Citation: Android-TrustedCA),(Citation: Symantec-iOSProfile2)</t>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: trendmicro_tianyspy_0122),(Citation: Bitdefender Mandrake),(Citation: BlackBerry Bahamut),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: paloalto_yispecter_1015),(Citation: SecureList DVMap June 2017),(Citation: Android-TrustedCA),(Citation: Symantec-iOSProfile2)</t>
   </si>
   <si>
     <t>(Citation: trendmicro_tianyspy_0122),</t>
@@ -2191,79 +2191,79 @@
     <t>(Citation: paloalto_yispecter_1015),(Citation: CheckPoint Agent Smith),</t>
   </si>
   <si>
-    <t>(Citation: PaloAlto-SpyDealer),(Citation: SecureList BusyGasper),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Adware),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-BrainTest),(Citation: Lookout-Pegasus),(Citation: Lookout-Monokle),</t>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Monokle),(Citation: SecureList BusyGasper),(Citation: Lookout-PegasusAndroid),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-BrainTest),(Citation: Lookout-Adware),(Citation: Lookout-Pegasus),</t>
   </si>
   <si>
     <t>(Citation: PaloAlto-XcodeGhost),(Citation: PaloAlto-XcodeGhost1),</t>
   </si>
   <si>
-    <t>(Citation: HackerNews-Allwinner),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: NYTimes-BackDoor),(Citation: Krebs-Triada June 2019),(Citation: Lookout-StealthMango),(Citation: BankInfoSecurity-BackDoor),(Citation: Google Triada June 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: Google Project Zero Insomnia),(Citation: ThreatFabric Ginp),(Citation: TrendMicro Coronavirus Updates),(Citation: Threat Fabric Cerberus),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-PegasusAndroid),(Citation: Zscaler-SpyNote),(Citation: Lookout-Pegasus),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout eSurv),(Citation: Sophos Red Alert 2.0),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cloudmark_tanglebot_0921),(Citation: Cybereason FakeSpy),(Citation: Kaspersky Riltok June 2019),(Citation: Cofense Anubis),(Citation: CheckPoint-Charger),(Citation: Talos GPlayed),(Citation: Talos-WolfRAT),(Citation: NYTimes-BackDoor),(Citation: Palo Alto HenBox),(Citation: Lookout-StealthMango),(Citation: Lookout-Monokle),(Citation: Securelist Asacub),(Citation: Lookout Desert Scorpion),(Citation: BlackBerry Bahamut),(Citation: Lookout Dark Caracal Jan 2018),(Citation: PaloAlto-SpyDealer),(Citation: proofpoint_flubot_0421),(Citation: Lookout ViperRAT),(Citation: Kaspersky-WUC),(Citation: Lookout Uyghur Campaign),(Citation: SWB Exodus March 2019),(Citation: Threat Fabric Exobot),(Citation: Lookout-EnterpriseApps),(Citation: Symantec GoldenCup),(Citation: Bitdefender Mandrake),(Citation: securelist rotexy 2018),(Citation: Zscaler TikTok Spyware),(Citation: lookout_abstractemu_1021),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-Xbot),(Citation: cleafy_sova_1122),(Citation: Cofense Anubis),</t>
-  </si>
-  <si>
-    <t>(Citation: Google Project Zero Insomnia),(Citation: SecureList BusyGasper),(Citation: ThreatFabric Ginp),(Citation: SecurityIntelligence TrickMo),(Citation: TrendMicro Coronavirus Updates),(Citation: TrendMicro-RCSAndroid),(Citation: Zscaler-SpyNote),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout eSurv),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout FrozenCell),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Dendroid),(Citation: Cofense Anubis),(Citation: Talos GPlayed),(Citation: Talos-WolfRAT),(Citation: Palo Alto HenBox),(Citation: Lookout-StealthMango),(Citation: Gooligan Citation),(Citation: Lookout-Monokle),(Citation: Lookout Desert Scorpion),(Citation: Trend Micro Anubis),(Citation: Cylance Dust Storm),(Citation: BlackBerry Bahamut),(Citation: FlexiSpy-Features),(Citation: Lookout ViperRAT),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender - Triout 2018),(Citation: SWB Exodus March 2019),(Citation: cyble_drinik_1022),(Citation: Symantec GoldenCup),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Zscaler TikTok Spyware),(Citation: lookout_abstractemu_1021),</t>
-  </si>
-  <si>
-    <t>(Citation: Trend Micro Anubis),(Citation: Cofense Anubis),(Citation: TrendMicro-Anserver),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Sophos Red Alert 2.0),</t>
-  </si>
-  <si>
-    <t>(Citation: Proofpoint-Marcher),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: TrendMicro-XLoader),(Citation: Securelist Asacub),(Citation: Sophos Red Alert 2.0),(Citation: lookout_abstractemu_1021),(Citation: GoogleIO2016)</t>
-  </si>
-  <si>
-    <t>(Citation: securelist rotexy 2018),(Citation: Microsoft MalLockerB),(Citation: SecurityIntelligence TrickMo),</t>
-  </si>
-  <si>
-    <t>(Citation: Google Security Zen),(Citation: SecureList DVMap June 2017),(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Cerberus),(Citation: Cofense Anubis),(Citation: cyble_drinik_1022),(Citation: Bitdefender Mandrake),(Citation: lookout_abstractemu_1021),</t>
-  </si>
-  <si>
-    <t>(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),(Citation: Bitdefender Mandrake),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: Threat Fabric Cerberus),(Citation: paloalto_yispecter_1015),(Citation: TrendMicro-RCSAndroid),(Citation: Xiao-ZergHelper),(Citation: Lookout eSurv),(Citation: Google Triada June 2019),(Citation: Sophos Red Alert 2.0),(Citation: Lookout FrozenCell),(Citation: CheckPoint-Judy),(Citation: Google Bread),(Citation: Talos GPlayed),(Citation: Talos-WolfRAT),(Citation: Palo Alto HenBox),(Citation: Kaspersky-Skygofree),(Citation: Lookout Desert Scorpion),(Citation: Google Security Zen),(Citation: Trend Micro Anubis),(Citation: Cybereason EventBot),(Citation: WhiteOps TERRACOTTA),(Citation: BlackBerry Bahamut),(Citation: PaloAlto-SpyDealer),(Citation: SecureList DVMap June 2017),(Citation: Lookout ViperRAT),(Citation: Lookout Uyghur Campaign),(Citation: nccgroup_sharkbot_0322),(Citation: SWB Exodus March 2019),(Citation: Symantec GoldenCup),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Bitdefender Mandrake),(Citation: Lookout-BrainTest),(Citation: lookout_abstractemu_1021),(Citation: Android 10 Execute)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-StealthMango),(Citation: Lookout-Pegasus),(Citation: Volexity Insomnia),(Citation: paloalto_yispecter_1015),</t>
+    <t>(Citation: BankInfoSecurity-BackDoor),(Citation: NYTimes-BackDoor),(Citation: HackerNews-Allwinner),(Citation: Krebs-Triada June 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout-StealthMango),(Citation: Google Triada June 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_abstractemu_1021),(Citation: Talos GPlayed),(Citation: Google Project Zero Insomnia),(Citation: Lookout Dark Caracal Jan 2018),(Citation: BlackBerry Bahamut),(Citation: Palo Alto HenBox),(Citation: ThreatFabric Ginp),(Citation: proofpoint_flubot_0421),(Citation: CheckPoint-Charger),(Citation: Threat Fabric Cerberus),(Citation: Kaspersky Riltok June 2019),(Citation: Lookout eSurv),(Citation: Zscaler-SpyNote),(Citation: Lookout ViperRAT),(Citation: TrendMicro Coronavirus Updates),(Citation: Talos-WolfRAT),(Citation: Lookout Desert Scorpion),(Citation: securelist rotexy 2018),(Citation: Securelist Asacub),(Citation: Symantec GoldenCup),(Citation: NYTimes-BackDoor),(Citation: Lookout-EnterpriseApps),(Citation: Lookout-StealthMango),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cloudmark_tanglebot_0921),(Citation: Sophos Red Alert 2.0),(Citation: Lookout-Pegasus),(Citation: Lookout Uyghur Campaign),(Citation: Cofense Anubis),(Citation: Threat Fabric Exobot),(Citation: Lookout-PegasusAndroid),(Citation: Kaspersky-WUC),(Citation: PaloAlto-SpyDealer),(Citation: SWB Exodus March 2019),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Monokle),(Citation: Cybereason FakeSpy),(Citation: Talos Gustuff Apr 2019),(Citation: Bitdefender Mandrake),(Citation: CyberMerchants-FlexiSpy),</t>
+  </si>
+  <si>
+    <t>(Citation: Cofense Anubis),(Citation: PaloAlto-Xbot),(Citation: cleafy_sova_1122),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_abstractemu_1021),(Citation: Lookout-Dendroid),(Citation: Talos GPlayed),(Citation: Google Project Zero Insomnia),(Citation: BlackBerry Bahamut),(Citation: Palo Alto HenBox),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: ThreatFabric Ginp),(Citation: Gooligan Citation),(Citation: Lookout eSurv),(Citation: Zscaler-SpyNote),(Citation: Lookout ViperRAT),(Citation: TrendMicro Coronavirus Updates),(Citation: Talos-WolfRAT),(Citation: Lookout Desert Scorpion),(Citation: SecurityIntelligence TrickMo),(Citation: Symantec GoldenCup),(Citation: Cylance Dust Storm),(Citation: Lookout-StealthMango),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cloudmark_tanglebot_0921),(Citation: Bitdefender - Triout 2018),(Citation: Lookout Uyghur Campaign),(Citation: Cofense Anubis),(Citation: SecureList BusyGasper),(Citation: SWB Exodus March 2019),(Citation: Trend Micro Anubis),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Monokle),(Citation: SecureList - ViceLeaker 2019),(Citation: cyble_drinik_1022),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout FrozenCell),(Citation: Talos Gustuff Apr 2019),(Citation: FlexiSpy-Features),</t>
+  </si>
+  <si>
+    <t>(Citation: Cofense Anubis),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: TrendMicro-Anserver),(Citation: Trend Micro Anubis),(Citation: Sophos Red Alert 2.0),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_abstractemu_1021),(Citation: Threat Fabric Exobot),(Citation: Proofpoint-Marcher),(Citation: Securelist Asacub),(Citation: Talos GPlayed),(Citation: TrendMicro-XLoader),(Citation: Sophos Red Alert 2.0),(Citation: GoogleIO2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft MalLockerB),(Citation: SecurityIntelligence TrickMo),(Citation: securelist rotexy 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: Cofense Anubis),(Citation: lookout_abstractemu_1021),(Citation: cyble_drinik_1022),(Citation: Google Security Zen),(Citation: Bitdefender Mandrake),(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Cerberus),(Citation: SecureList DVMap June 2017),</t>
+  </si>
+  <si>
+    <t>(Citation: Bitdefender Mandrake),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_abstractemu_1021),(Citation: Talos GPlayed),(Citation: Google Security Zen),(Citation: BlackBerry Bahamut),(Citation: Palo Alto HenBox),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Threat Fabric Cerberus),(Citation: Lookout eSurv),(Citation: Talos-WolfRAT),(Citation: Lookout ViperRAT),(Citation: Lookout Desert Scorpion),(Citation: Symantec GoldenCup),(Citation: WhiteOps TERRACOTTA),(Citation: Sophos Red Alert 2.0),(Citation: Cybereason EventBot),(Citation: Lookout Uyghur Campaign),(Citation: CheckPoint-Judy),(Citation: SecureList BusyGasper),(Citation: Kaspersky-Skygofree),(Citation: PaloAlto-SpyDealer),(Citation: SWB Exodus March 2019),(Citation: Trend Micro Anubis),(Citation: Google Triada June 2019),(Citation: paloalto_yispecter_1015),(Citation: SecureList DVMap June 2017),(Citation: Xiao-ZergHelper),(Citation: Google Bread),(Citation: nccgroup_sharkbot_0322),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout FrozenCell),(Citation: Bitdefender Mandrake),(Citation: Lookout-BrainTest),(Citation: Android 10 Execute)</t>
+  </si>
+  <si>
+    <t>(Citation: Volexity Insomnia),(Citation: paloalto_yispecter_1015),(Citation: Lookout-StealthMango),(Citation: Lookout-Pegasus),</t>
   </si>
   <si>
     <t>(Citation: ESET-Twitoor),</t>
   </si>
   <si>
-    <t>(Citation: Threat Fabric Exobot),(Citation: CheckPoint-Charger),(Citation: PaloAlto-Xbot),(Citation: Talos GPlayed),</t>
+    <t>(Citation: CheckPoint-Charger),(Citation: PaloAlto-Xbot),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),</t>
   </si>
   <si>
     <t>,(Citation: Android Changes to System Broadcasts)</t>
   </si>
   <si>
-    <t>(Citation: proofpoint_flubot_0421),(Citation: Lookout Uyghur Campaign),(Citation: nccgroup_sharkbot_0322),(Citation: Bitdefender - Triout 2018),(Citation: SecureList - ViceLeaker 2019),(Citation: cyble_drinik_1022),(Citation: Wandera-RedDrop),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cylance Dust Storm),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout eSurv),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Google Triada June 2019),(Citation: lookout_abstractemu_1021),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: TrendMicro Coronavirus Updates),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-SpyDealer),(Citation: Google Security Zen),(Citation: SecureList DVMap June 2017),(Citation: ArsTechnica-HummingBad),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Adware),(Citation: SWB Exodus March 2019),(Citation: Volexity Insomnia),(Citation: CheckPoint Agent Smith),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-BrainTest),(Citation: Lookout-Pegasus),(Citation: Gooligan Citation),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Kaspersky-Skygofree),(Citation: lookout_abstractemu_1021),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-NotCompatible),(Citation: TrendMicro-DressCode),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Desert Scorpion),(Citation: Lookout Uyghur Campaign),(Citation: SecureList - ViceLeaker 2019),(Citation: CheckPoint Agent Smith),(Citation: CyberMerchants-FlexiSpy),(Citation: Talos GPlayed),(Citation: Bitdefender Mandrake),(Citation: Talos-WolfRAT),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Monokle),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Trend Micro Bouncing Golf 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Desert Scorpion),(Citation: Lookout FrozenCell),(Citation: Lookout Uyghur Campaign),(Citation: Symantec GoldenCup),(Citation: Cylance Dust Storm),(Citation: BlackBerry Bahamut),(Citation: Zscaler TikTok Spyware),</t>
-  </si>
-  <si>
-    <t>(Citation: cyble_drinik_1022),(Citation: Zscaler TikTok Spyware),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),</t>
-  </si>
-  <si>
-    <t>(Citation: ThreatFabric Ginp),(Citation: Threat Fabric Cerberus),(Citation: PaloAlto-XcodeGhost),(Citation: Talos Gustuff Apr 2019),(Citation: Sophos Red Alert 2.0),(Citation: cloudmark_tanglebot_0921),(Citation: Kaspersky Riltok June 2019),(Citation: trendmicro_tianyspy_0122),(Citation: Lookout-Dendroid),(Citation: Cofense Anubis),(Citation: Talos GPlayed),(Citation: PaloAlto-Xbot),(Citation: Group IB Gustuff Mar 2019),(Citation: Cybereason EventBot),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout Dark Caracal Jan 2018),(Citation: threatfabric_sova_0921),(Citation: proofpoint_flubot_0421),(Citation: Proofpoint-Marcher),(Citation: nccgroup_sharkbot_0322),(Citation: cyble_drinik_1022),(Citation: Threat Fabric Exobot),(Citation: Bitdefender Mandrake),(Citation: securelist rotexy 2018),(Citation: Zscaler TikTok Spyware),(Citation: Android 12 Features)</t>
-  </si>
-  <si>
-    <t>(Citation: Google Security Zen),(Citation: ArsTechnica-HummingBad),(Citation: CheckPoint-Judy),(Citation: CheckPoint Agent Smith),(Citation: Google Bread),(Citation: ArsTechnica-HummingWhale),(Citation: Wandera-RedDrop),(Citation: Kaspersky Triada June 2016),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout-EnterpriseApps),(Citation: Tripwire-MazarBOT),(Citation: Lookout-BrainTest),(Citation: CheckPoint SimBad 2019),(Citation: WhiteOps TERRACOTTA),(Citation: Gooligan Citation),(Citation: Google Triada June 2019),</t>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: lookout_abstractemu_1021),(Citation: SecureList - ViceLeaker 2019),(Citation: Wandera-RedDrop),(Citation: cyble_drinik_1022),(Citation: Trend Micro Bouncing Golf 2019),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout Dark Caracal Jan 2018),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Cylance Dust Storm),(Citation: proofpoint_flubot_0421),(Citation: Google Triada June 2019),(Citation: Bitdefender - Triout 2018),(Citation: Lookout eSurv),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList BusyGasper),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: lookout_abstractemu_1021),(Citation: ArsTechnica-HummingBad),(Citation: Kaspersky-Skygofree),(Citation: Lookout-PegasusAndroid),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Google Security Zen),(Citation: Lookout-BrainTest),(Citation: SWB Exodus March 2019),(Citation: Lookout-Adware),(Citation: Volexity Insomnia),(Citation: Gooligan Citation),(Citation: SecureList DVMap June 2017),(Citation: CheckPoint Agent Smith),(Citation: Lookout-Pegasus),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro-DressCode),(Citation: Lookout-NotCompatible),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Monokle),(Citation: Lookout Desert Scorpion),(Citation: SecureList - ViceLeaker 2019),(Citation: Talos GPlayed),(Citation: Talos-WolfRAT),(Citation: Bitdefender Mandrake),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Trend Micro Bouncing Golf 2019),(Citation: CyberMerchants-FlexiSpy),(Citation: Zscaler TikTok Spyware),(Citation: CheckPoint Agent Smith),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: Symantec GoldenCup),(Citation: Lookout FrozenCell),(Citation: BlackBerry Bahamut),(Citation: Cylance Dust Storm),(Citation: Zscaler TikTok Spyware),</t>
+  </si>
+  <si>
+    <t>(Citation: Bitdefender Mandrake),(Citation: Zscaler TikTok Spyware),(Citation: cyble_drinik_1022),(Citation: WhiteOps TERRACOTTA),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-Dendroid),(Citation: Talos GPlayed),(Citation: Lookout Dark Caracal Jan 2018),(Citation: ThreatFabric Ginp),(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Cerberus),(Citation: Kaspersky Riltok June 2019),(Citation: securelist rotexy 2018),(Citation: PaloAlto-XcodeGhost),(Citation: trendmicro_tianyspy_0122),(Citation: Group IB Gustuff Mar 2019),(Citation: threatfabric_sova_0921),(Citation: WhiteOps TERRACOTTA),(Citation: cloudmark_tanglebot_0921),(Citation: Sophos Red Alert 2.0),(Citation: Cybereason EventBot),(Citation: Cofense Anubis),(Citation: Threat Fabric Exobot),(Citation: Proofpoint-Marcher),(Citation: Zscaler TikTok Spyware),(Citation: cyble_drinik_1022),(Citation: nccgroup_sharkbot_0322),(Citation: Talos Gustuff Apr 2019),(Citation: Bitdefender Mandrake),(Citation: PaloAlto-Xbot),(Citation: Android 12 Features)</t>
+  </si>
+  <si>
+    <t>(Citation: Google Bread),(Citation: Wandera-RedDrop),(Citation: ArsTechnica-HummingBad),(Citation: CheckPoint-Judy),(Citation: Kaspersky Triada June 2016),(Citation: Google Triada June 2019),(Citation: WhiteOps TERRACOTTA),(Citation: Tripwire-MazarBOT),(Citation: Lookout-EnterpriseApps),(Citation: Google Security Zen),(Citation: Lookout-BrainTest),(Citation: ArsTechnica-HummingWhale),(Citation: CheckPoint SimBad 2019),(Citation: Gooligan Citation),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: CheckPoint Agent Smith),</t>
   </si>
   <si>
     <t>(Citation: BlackBerry Bahamut),(Citation: Lookout eSurv),</t>
@@ -2275,43 +2275,43 @@
     <t>(Citation: CitizenLab Circles),(Citation: CSRIC-WG1-FinalReport)</t>
   </si>
   <si>
-    <t>(Citation: nccgroup_sharkbot_0322),(Citation: SecureList - ViceLeaker 2019),(Citation: Wandera-RedDrop),(Citation: Bitdefender Mandrake),(Citation: Lookout-Monokle),(Citation: lookout_abstractemu_1021),</t>
-  </si>
-  <si>
-    <t>,(Citation: Android 12 Features),(Citation: Samsung Keyboards)</t>
-  </si>
-  <si>
-    <t>(Citation: Google Security Zen),(Citation: Kaspersky Riltok June 2019),(Citation: ThreatFabric Ginp),(Citation: SecurityIntelligence TrickMo),(Citation: nccgroup_sharkbot_0322),(Citation: Threat Fabric Cerberus),(Citation: CheckPoint Cerberus),(Citation: cleafy_sova_1122),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),(Citation: ESET DEFENSOR ID),(Citation: Talos Gustuff Apr 2019),</t>
+    <t>(Citation: lookout_abstractemu_1021),(Citation: Lookout-Monokle),(Citation: SecureList - ViceLeaker 2019),(Citation: Wandera-RedDrop),(Citation: nccgroup_sharkbot_0322),(Citation: Bitdefender Mandrake),</t>
+  </si>
+  <si>
+    <t>,(Citation: Samsung Keyboards),(Citation: Android 12 Features)</t>
+  </si>
+  <si>
+    <t>(Citation: cleafy_sova_1122),(Citation: CheckPoint Cerberus),(Citation: nccgroup_sharkbot_0322),(Citation: SecurityIntelligence TrickMo),(Citation: WhiteOps TERRACOTTA),(Citation: ESET DEFENSOR ID),(Citation: Google Security Zen),(Citation: Talos Gustuff Apr 2019),(Citation: Bitdefender Mandrake),(Citation: ThreatFabric Ginp),(Citation: Threat Fabric Cerberus),(Citation: Kaspersky Riltok June 2019),</t>
   </si>
   <si>
     <t>(Citation: Google Project Zero Insomnia),</t>
   </si>
   <si>
-    <t>(Citation: Lookout-Monokle),(Citation: SecureList BusyGasper),(Citation: threatfabric_sova_0921),(Citation: nccgroup_sharkbot_0322),(Citation: Threat Fabric Cerberus),(Citation: Cofense Anubis),(Citation: cyble_drinik_1022),(Citation: Threat Fabric Exobot),(Citation: Cybereason EventBot),(Citation: BlackBerry Bahamut),(Citation: Talos Gustuff Apr 2019),(Citation: FlexiSpy-Features),(Citation: Samsung Keyboards)</t>
-  </si>
-  <si>
-    <t>(Citation: Google Project Zero Insomnia),(Citation: SecureList BusyGasper),(Citation: TrendMicro Coronavirus Updates),(Citation: Threat Fabric Cerberus),(Citation: CyberMerchants-FlexiSpy),(Citation: TrendMicro-RCSAndroid),(Citation: Zscaler-SpyNote),(Citation: Lookout-Pegasus),(Citation: Lookout eSurv),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout FrozenCell),(Citation: CrowdStrike-Android),(Citation: SecureList - ViceLeaker 2019),(Citation: Cofense Anubis),(Citation: CheckPoint-Charger),(Citation: Talos GPlayed),(Citation: NYTimes-BackDoor),(Citation: Palo Alto HenBox),(Citation: Lookout-StealthMango),(Citation: Lookout-Monokle),(Citation: Kaspersky-Skygofree),(Citation: Lookout Desert Scorpion),(Citation: BlackBerry Bahamut),(Citation: Lookout Dark Caracal Jan 2018),(Citation: PaloAlto-SpyDealer),(Citation: Lookout ViperRAT),(Citation: Kaspersky-WUC),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender - Triout 2018),(Citation: SWB Exodus March 2019),(Citation: Lookout-EnterpriseApps),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Symantec GoldenCup),(Citation: Bitdefender Mandrake),(Citation: Zscaler TikTok Spyware),(Citation: lookout_abstractemu_1021),(Citation: CSRIC5-WG10-FinalReport)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: Google Bread),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: WhiteOps TERRACOTTA),(Citation: Palo Alto HenBox),(Citation: Securelist Asacub),</t>
+    <t>(Citation: Cofense Anubis),(Citation: Lookout-Monokle),(Citation: cyble_drinik_1022),(Citation: Threat Fabric Exobot),(Citation: SecureList BusyGasper),(Citation: nccgroup_sharkbot_0322),(Citation: threatfabric_sova_0921),(Citation: Talos Gustuff Apr 2019),(Citation: FlexiSpy-Features),(Citation: BlackBerry Bahamut),(Citation: Threat Fabric Cerberus),(Citation: Cybereason EventBot),(Citation: Samsung Keyboards)</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_abstractemu_1021),(Citation: Talos GPlayed),(Citation: Google Project Zero Insomnia),(Citation: Lookout Dark Caracal Jan 2018),(Citation: BlackBerry Bahamut),(Citation: Palo Alto HenBox),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: CheckPoint-Charger),(Citation: Threat Fabric Cerberus),(Citation: Lookout eSurv),(Citation: Zscaler-SpyNote),(Citation: Lookout ViperRAT),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout Desert Scorpion),(Citation: Symantec GoldenCup),(Citation: NYTimes-BackDoor),(Citation: Lookout-EnterpriseApps),(Citation: Lookout-StealthMango),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cloudmark_tanglebot_0921),(Citation: Bitdefender - Triout 2018),(Citation: Lookout-Pegasus),(Citation: Lookout Uyghur Campaign),(Citation: Cofense Anubis),(Citation: SecureList BusyGasper),(Citation: Kaspersky-Skygofree),(Citation: Kaspersky-WUC),(Citation: PaloAlto-SpyDealer),(Citation: SWB Exodus March 2019),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Monokle),(Citation: SecureList - ViceLeaker 2019),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout FrozenCell),(Citation: Bitdefender Mandrake),(Citation: CrowdStrike-Android),(Citation: CyberMerchants-FlexiSpy),(Citation: CSRIC5-WG10-FinalReport)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: Google Bread),(Citation: Securelist Asacub),(Citation: WhiteOps TERRACOTTA),(Citation: Palo Alto HenBox),(Citation: CYBERWARCON CHEMISTGAMES),</t>
   </si>
   <si>
     <t>(Citation: threatfabric_sova_0921),</t>
   </si>
   <si>
-    <t>(Citation: SWB Exodus March 2019),(Citation: FortiGuard-FlexiSpy),(Citation: CheckPoint Cerberus),(Citation: Volexity Insomnia),(Citation: Bitdefender Mandrake),(Citation: Sophos Red Alert 2.0),</t>
-  </si>
-  <si>
-    <t>(Citation: ThreatFabric Ginp),(Citation: SecurityIntelligence TrickMo),(Citation: Threat Fabric Cerberus),(Citation: FortiGuard-FlexiSpy),(Citation: Talos Gustuff Apr 2019),(Citation: Sophos Red Alert 2.0),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cybereason FakeSpy),(Citation: trendmicro_tianyspy_0122),(Citation: Volexity Insomnia),(Citation: Check Point-Joker),(Citation: Google Bread),(Citation: CheckPoint-Charger),(Citation: Talos GPlayed),(Citation: Talos-WolfRAT),(Citation: Palo Alto HenBox),(Citation: Lookout-Monokle),(Citation: Securelist Asacub),(Citation: Google Security Zen),(Citation: Microsoft MalLockerB),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Cybereason EventBot),(Citation: WhiteOps TERRACOTTA),(Citation: BlackBerry Bahamut),(Citation: Lookout Dark Caracal Jan 2018),(Citation: TrendMicro-Obad),(Citation: SecureList DVMap June 2017),(Citation: proofpoint_flubot_0421),(Citation: Lookout Uyghur Campaign),(Citation: nccgroup_sharkbot_0322),(Citation: cyble_drinik_1022),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Bitdefender Mandrake),(Citation: Lookout-BrainTest),(Citation: securelist rotexy 2018),(Citation: PaloAlto-WireLurker),(Citation: TrendMicro-XLoader),(Citation: lookout_abstractemu_1021),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Desert Scorpion),(Citation: Lookout-Monokle),(Citation: SecureList BusyGasper),(Citation: PaloAlto-SpyDealer),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout Uyghur Campaign),(Citation: Kaspersky-WUC),(Citation: nccgroup_sharkbot_0322),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-PegasusAndroid),(Citation: securelist rotexy 2018),(Citation: Lookout-StealthMango),(Citation: Lookout-Pegasus),(Citation: Talos Gustuff Apr 2019),(Citation: Kaspersky-Skygofree),</t>
-  </si>
-  <si>
-    <t>(Citation: bitdefender_flubot_0524),(Citation: threatfabric_sova_0921),(Citation: Bitdefender Mandrake),(Citation: TrendMicro-Obad),</t>
-  </si>
-  <si>
-    <t>(Citation: nccgroup_sharkbot_0322),(Citation: paloalto_yispecter_1015),(Citation: CheckPoint Agent Smith),(Citation: Zimperium z9),(Citation: securelist rotexy 2018),(Citation: Talos-WolfRAT),(Citation: Palo Alto HenBox),(Citation: Trend Micro Bouncing Golf 2019),</t>
+    <t>(Citation: CheckPoint Cerberus),(Citation: FortiGuard-FlexiSpy),(Citation: Bitdefender Mandrake),(Citation: SWB Exodus March 2019),(Citation: Volexity Insomnia),(Citation: Sophos Red Alert 2.0),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_abstractemu_1021),(Citation: Talos GPlayed),(Citation: Google Security Zen),(Citation: Lookout Dark Caracal Jan 2018),(Citation: BlackBerry Bahamut),(Citation: Palo Alto HenBox),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: ThreatFabric Ginp),(Citation: proofpoint_flubot_0421),(Citation: CheckPoint-Charger),(Citation: Threat Fabric Cerberus),(Citation: Volexity Insomnia),(Citation: Microsoft MalLockerB),(Citation: Talos-WolfRAT),(Citation: SecurityIntelligence TrickMo),(Citation: securelist rotexy 2018),(Citation: Securelist Asacub),(Citation: trendmicro_tianyspy_0122),(Citation: WhiteOps TERRACOTTA),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Sophos Red Alert 2.0),(Citation: Cybereason EventBot),(Citation: Lookout Uyghur Campaign),(Citation: FortiGuard-FlexiSpy),(Citation: TrendMicro-Obad),(Citation: SecureList DVMap June 2017),(Citation: Lookout-Monokle),(Citation: Check Point-Joker),(Citation: Google Bread),(Citation: Cybereason FakeSpy),(Citation: cyble_drinik_1022),(Citation: nccgroup_sharkbot_0322),(Citation: TrendMicro-XLoader),(Citation: Talos Gustuff Apr 2019),(Citation: Bitdefender Mandrake),(Citation: Lookout-BrainTest),(Citation: PaloAlto-WireLurker),(Citation: WeLiveSecurity AdDisplayAshas),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Monokle),(Citation: Lookout Desert Scorpion),(Citation: nccgroup_sharkbot_0322),(Citation: SecureList BusyGasper),(Citation: securelist rotexy 2018),(Citation: Kaspersky-Skygofree),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout-PegasusAndroid),(Citation: TrendMicro-RCSAndroid),(Citation: Kaspersky-WUC),(Citation: Talos Gustuff Apr 2019),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-StealthMango),(Citation: Lookout-Pegasus),</t>
+  </si>
+  <si>
+    <t>(Citation: bitdefender_flubot_0524),(Citation: Bitdefender Mandrake),(Citation: TrendMicro-Obad),(Citation: threatfabric_sova_0921),</t>
+  </si>
+  <si>
+    <t>(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: Zimperium z9),(Citation: Talos-WolfRAT),(Citation: Palo Alto HenBox),(Citation: Trend Micro Bouncing Golf 2019),(Citation: paloalto_yispecter_1015),(Citation: CheckPoint Agent Smith),</t>
   </si>
   <si>
     <t>(Citation: Threat Fabric Exobot),(Citation: proofpoint_flubot_0421),</t>
@@ -2320,82 +2320,82 @@
     <t>(Citation: Google Security Zen),(Citation: Google Project Zero Insomnia),(Citation: Google Triada June 2019),(Citation: Kaspersky Triada March 2016),</t>
   </si>
   <si>
-    <t>(Citation: PaloAlto-DualToy),(Citation: PaloAlto-WireLurker),(Citation: Elcomsoft-iOSRestricted)</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: ThreatFabric Ginp),(Citation: SecurityIntelligence TrickMo),(Citation: TrendMicro Coronavirus Updates),(Citation: bitdefender_flubot_0524),(Citation: Threat Fabric Cerberus),(Citation: Sophos Red Alert 2.0),(Citation: cloudmark_tanglebot_0921),(Citation: Cybereason FakeSpy),(Citation: Lookout-Dendroid),(Citation: Cofense Anubis),(Citation: Talos GPlayed),(Citation: Talos-WolfRAT),(Citation: Lookout-StealthMango),(Citation: Securelist Asacub),(Citation: Lookout Desert Scorpion),(Citation: WhiteOps TERRACOTTA),(Citation: threatfabric_sova_0921),(Citation: proofpoint_flubot_0421),(Citation: Lookout Uyghur Campaign),(Citation: nccgroup_sharkbot_0322),(Citation: cyble_drinik_1022),(Citation: Threat Fabric Exobot),(Citation: Bitdefender Mandrake),(Citation: securelist rotexy 2018),(Citation: Zscaler TikTok Spyware),(Citation: SMS KitKat)</t>
-  </si>
-  <si>
-    <t>(Citation: Google Project Zero Insomnia),(Citation: SecureList BusyGasper),(Citation: ThreatFabric Ginp),(Citation: SecurityIntelligence TrickMo),(Citation: TrendMicro Coronavirus Updates),(Citation: Threat Fabric Cerberus),(Citation: CyberMerchants-FlexiSpy),(Citation: TrendMicro-RCSAndroid),(Citation: Zscaler-SpyNote),(Citation: Lookout-Pegasus),(Citation: Talos Gustuff Apr 2019),(Citation: Sophos Red Alert 2.0),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cloudmark_tanglebot_0921),(Citation: Cybereason FakeSpy),(Citation: Lookout FrozenCell),(Citation: Kaspersky Riltok June 2019),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Dendroid),(Citation: Google Bread),(Citation: Talos GPlayed),(Citation: Talos-WolfRAT),(Citation: NYTimes-BackDoor),(Citation: Palo Alto HenBox),(Citation: Lookout-StealthMango),(Citation: Kaspersky Triada March 2016),(Citation: Securelist Asacub),(Citation: Zscaler-SuperMarioRun),(Citation: PaloAlto-Xbot),(Citation: Lookout Desert Scorpion),(Citation: Cylance Dust Storm),(Citation: Cybereason EventBot),(Citation: Tripwire-MazarBOT),(Citation: BlackBerry Bahamut),(Citation: Lookout Dark Caracal Jan 2018),(Citation: FlexiSpy-Features),(Citation: threatfabric_sova_0921),(Citation: PaloAlto-SpyDealer),(Citation: proofpoint_flubot_0421),(Citation: FireEye-RuMMS),(Citation: Lookout ViperRAT),(Citation: Kaspersky-WUC),(Citation: Lookout Uyghur Campaign),(Citation: nccgroup_sharkbot_0322),(Citation: SWB Exodus March 2019),(Citation: cyble_drinik_1022),(Citation: Threat Fabric Exobot),(Citation: Lookout-EnterpriseApps),(Citation: Symantec GoldenCup),(Citation: Bitdefender Mandrake),(Citation: securelist rotexy 2018),(Citation: TrendMicro-XLoader),(Citation: Zscaler TikTok Spyware),(Citation: lookout_abstractemu_1021),</t>
-  </si>
-  <si>
-    <t>(Citation: Talos GPlayed),(Citation: Zscaler TikTok Spyware),(Citation: WhiteOps TERRACOTTA),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-SpyDealer),(Citation: SecureList BusyGasper),(Citation: cloudmark_tanglebot_0921),(Citation: ThreatFabric Ginp),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout Uyghur Campaign),(Citation: SWB Exodus March 2019),(Citation: Cofense Anubis),(Citation: cyble_drinik_1022),(Citation: cleafy_sova_1122),(Citation: Bitdefender Mandrake),(Citation: Cybereason EventBot),(Citation: Talos-WolfRAT),(Citation: ESET DEFENSOR ID),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Monokle),(Citation: FlexiSpy-Features),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Nightwatch screencap April 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Exobot),(Citation: Talos Gustuff Apr 2019),(Citation: Android Package Visibility)</t>
-  </si>
-  <si>
-    <t>(Citation: Google Project Zero Insomnia),(Citation: ThreatFabric Ginp),(Citation: SecurityIntelligence TrickMo),(Citation: Threat Fabric Cerberus),(Citation: paloalto_yispecter_1015),(Citation: Lookout-PegasusAndroid),(Citation: cleafy_sova_1122),(Citation: Google Triada June 2019),(Citation: Sophos Red Alert 2.0),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cloudmark_tanglebot_0921),(Citation: Cybereason FakeSpy),(Citation: Kaspersky Riltok June 2019),(Citation: SecureList - ViceLeaker 2019),(Citation: Cofense Anubis),(Citation: Talos GPlayed),(Citation: Talos-WolfRAT),(Citation: ESET DEFENSOR ID),(Citation: Palo Alto HenBox),(Citation: Lookout-StealthMango),(Citation: Lookout-Monokle),(Citation: Lookout Desert Scorpion),(Citation: CheckPoint Agent Smith),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Cybereason EventBot),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout Dark Caracal Jan 2018),(Citation: FlexiSpy-Features),(Citation: Lookout Uyghur Campaign),(Citation: SWB Exodus March 2019),(Citation: Symantec GoldenCup),(Citation: Bitdefender Mandrake),(Citation: securelist rotexy 2018),(Citation: Zscaler TikTok Spyware),(Citation: lookout_abstractemu_1021),(Citation: Android Package Visibility)</t>
-  </si>
-  <si>
-    <t>(Citation: Google Bread),(Citation: Talos Gustuff Apr 2019),(Citation: threatfabric_sova_0921),</t>
-  </si>
-  <si>
-    <t>,(Citation: IETF-PKCE),(Citation: Android App Links),(Citation: iOS Universal Links),(Citation: Trend Micro iOS URL Hijacking)</t>
+    <t>(Citation: PaloAlto-WireLurker),(Citation: PaloAlto-DualToy),(Citation: Elcomsoft-iOSRestricted)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-Dendroid),(Citation: Talos GPlayed),(Citation: ThreatFabric Ginp),(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Cerberus),(Citation: Talos-WolfRAT),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout Desert Scorpion),(Citation: SecurityIntelligence TrickMo),(Citation: securelist rotexy 2018),(Citation: Securelist Asacub),(Citation: threatfabric_sova_0921),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout-StealthMango),(Citation: cloudmark_tanglebot_0921),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Uyghur Campaign),(Citation: Cofense Anubis),(Citation: Threat Fabric Exobot),(Citation: SecureList BusyGasper),(Citation: Zscaler TikTok Spyware),(Citation: Cybereason FakeSpy),(Citation: cyble_drinik_1022),(Citation: nccgroup_sharkbot_0322),(Citation: bitdefender_flubot_0524),(Citation: Bitdefender Mandrake),(Citation: SMS KitKat)</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_abstractemu_1021),(Citation: Lookout-Dendroid),(Citation: Talos GPlayed),(Citation: Google Project Zero Insomnia),(Citation: FireEye-RuMMS),(Citation: Lookout Dark Caracal Jan 2018),(Citation: BlackBerry Bahamut),(Citation: Palo Alto HenBox),(Citation: ThreatFabric Ginp),(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Cerberus),(Citation: Kaspersky Riltok June 2019),(Citation: Zscaler-SpyNote),(Citation: Lookout ViperRAT),(Citation: TrendMicro Coronavirus Updates),(Citation: Talos-WolfRAT),(Citation: Lookout Desert Scorpion),(Citation: SecurityIntelligence TrickMo),(Citation: securelist rotexy 2018),(Citation: Securelist Asacub),(Citation: Symantec GoldenCup),(Citation: NYTimes-BackDoor),(Citation: threatfabric_sova_0921),(Citation: Lookout-EnterpriseApps),(Citation: Cylance Dust Storm),(Citation: Lookout-StealthMango),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cloudmark_tanglebot_0921),(Citation: Sophos Red Alert 2.0),(Citation: Cybereason EventBot),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Pegasus),(Citation: Threat Fabric Exobot),(Citation: SecureList BusyGasper),(Citation: Kaspersky-WUC),(Citation: Tripwire-MazarBOT),(Citation: PaloAlto-SpyDealer),(Citation: Kaspersky Triada March 2016),(Citation: SWB Exodus March 2019),(Citation: Zscaler TikTok Spyware),(Citation: Cybereason FakeSpy),(Citation: Google Bread),(Citation: SecureList - ViceLeaker 2019),(Citation: cyble_drinik_1022),(Citation: nccgroup_sharkbot_0322),(Citation: TrendMicro-RCSAndroid),(Citation: TrendMicro-XLoader),(Citation: Lookout FrozenCell),(Citation: Talos Gustuff Apr 2019),(Citation: FlexiSpy-Features),(Citation: Bitdefender Mandrake),(Citation: PaloAlto-Xbot),(Citation: CyberMerchants-FlexiSpy),</t>
+  </si>
+  <si>
+    <t>(Citation: Zscaler TikTok Spyware),(Citation: WhiteOps TERRACOTTA),(Citation: Talos GPlayed),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: Cofense Anubis),(Citation: Lookout-Monokle),(Citation: cleafy_sova_1122),(Citation: cyble_drinik_1022),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SecureList BusyGasper),(Citation: SecurityIntelligence TrickMo),(Citation: ESET DEFENSOR ID),(Citation: PaloAlto-SpyDealer),(Citation: Bitdefender Mandrake),(Citation: FlexiSpy-Features),(Citation: SWB Exodus March 2019),(Citation: ThreatFabric Ginp),(Citation: cloudmark_tanglebot_0921),(Citation: Cybereason EventBot),(Citation: Zscaler TikTok Spyware),(Citation: Talos-WolfRAT),(Citation: Nightwatch screencap April 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Talos Gustuff Apr 2019),(Citation: Threat Fabric Exobot),(Citation: Android Package Visibility)</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_abstractemu_1021),(Citation: cleafy_sova_1122),(Citation: Talos GPlayed),(Citation: Google Project Zero Insomnia),(Citation: ESET DEFENSOR ID),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Palo Alto HenBox),(Citation: ThreatFabric Ginp),(Citation: Threat Fabric Cerberus),(Citation: Kaspersky Riltok June 2019),(Citation: Talos-WolfRAT),(Citation: Lookout Desert Scorpion),(Citation: SecurityIntelligence TrickMo),(Citation: securelist rotexy 2018),(Citation: Symantec GoldenCup),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout-StealthMango),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cloudmark_tanglebot_0921),(Citation: Sophos Red Alert 2.0),(Citation: Cybereason EventBot),(Citation: CheckPoint Agent Smith),(Citation: Lookout Uyghur Campaign),(Citation: Cofense Anubis),(Citation: Lookout-PegasusAndroid),(Citation: SWB Exodus March 2019),(Citation: Google Triada June 2019),(Citation: paloalto_yispecter_1015),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Monokle),(Citation: Cybereason FakeSpy),(Citation: SecureList - ViceLeaker 2019),(Citation: Bitdefender Mandrake),(Citation: FlexiSpy-Features),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Android Package Visibility)</t>
+  </si>
+  <si>
+    <t>(Citation: Talos Gustuff Apr 2019),(Citation: Google Bread),(Citation: threatfabric_sova_0921),</t>
+  </si>
+  <si>
+    <t>,(Citation: IETF-PKCE),(Citation: Android App Links),(Citation: Trend Micro iOS URL Hijacking),(Citation: iOS Universal Links)</t>
   </si>
   <si>
     <t>(Citation: CheckPoint Agent Smith),</t>
   </si>
   <si>
-    <t>(Citation: Lookout Desert Scorpion),(Citation: PaloAlto-SpyDealer),(Citation: SecureList BusyGasper),(Citation: Cybereason FakeSpy),(Citation: Lookout FrozenCell),(Citation: Lookout Uyghur Campaign),(Citation: SWB Exodus March 2019),(Citation: FortiGuard-FlexiSpy),(Citation: paloalto_yispecter_1015),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-PegasusAndroid),(Citation: Bitdefender Mandrake),(Citation: cleafy_sova_1122),(Citation: Lookout-StealthMango),(Citation: Lookout-Pegasus),(Citation: Lookout Dark Caracal Jan 2018),(Citation: threatfabric_sova_0921),(Citation: Kaspersky-Skygofree),</t>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: Cybereason FakeSpy),(Citation: cleafy_sova_1122),(Citation: SecureList BusyGasper),(Citation: Kaspersky-Skygofree),(Citation: Lookout-PegasusAndroid),(Citation: FortiGuard-FlexiSpy),(Citation: TrendMicro-RCSAndroid),(Citation: threatfabric_sova_0921),(Citation: Lookout FrozenCell),(Citation: PaloAlto-SpyDealer),(Citation: Bitdefender Mandrake),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SWB Exodus March 2019),(Citation: Lookout-StealthMango),(Citation: paloalto_yispecter_1015),(Citation: Lookout-Pegasus),</t>
   </si>
   <si>
     <t>,(Citation: Android-TrustedCA),(Citation: Symantec-iOSProfile2)</t>
   </si>
   <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: ThreatFabric Ginp),(Citation: Threat Fabric Cerberus),(Citation: FortiGuard-FlexiSpy),(Citation: paloalto_yispecter_1015),(Citation: Cybereason FakeSpy),(Citation: Lookout Desert Scorpion),(Citation: ESET-Twitoor),(Citation: CheckPoint Agent Smith),(Citation: Group IB Gustuff Mar 2019),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: threatfabric_sova_0921),(Citation: FlexiSpy-Features),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender - Triout 2018),(Citation: cyble_drinik_1022),(Citation: Bitdefender Mandrake),(Citation: securelist rotexy 2018),(Citation: CheckPoint SimBad 2019),(Citation: Zscaler TikTok Spyware),(Citation: Android 10 Limitations to Hiding App Icons),(Citation: LauncherApps getActivityList)</t>
-  </si>
-  <si>
-    <t>(Citation: BlackBerry Bahamut),(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: Cybereason EventBot),</t>
-  </si>
-  <si>
-    <t>(Citation: Trend Micro Anubis),(Citation: Cybereason FakeSpy),(Citation: ThreatFabric Ginp),(Citation: Palo Alto HenBox),(Citation: SecurityIntelligence TrickMo),(Citation: Threat Fabric Cerberus),(Citation: Lookout-Dendroid),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Bitdefender Mandrake),(Citation: securelist rotexy 2018),(Citation: WhiteOps TERRACOTTA),(Citation: Talos-WolfRAT),(Citation: BlackBerry Bahamut),(Citation: lookout_abstractemu_1021),</t>
-  </si>
-  <si>
-    <t>(Citation: Google Project Zero Insomnia),(Citation: SecurityIntelligence TrickMo),(Citation: TrendMicro Coronavirus Updates),(Citation: Threat Fabric Cerberus),(Citation: paloalto_yispecter_1015),(Citation: Lookout-Pegasus),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout eSurv),(Citation: TrendMicro-Anserver2),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cybereason FakeSpy),(Citation: Lookout FrozenCell),(Citation: Kaspersky Riltok June 2019),(Citation: trendmicro_tianyspy_0122),(Citation: Xiao-KeyRaider),(Citation: CheckPoint Cerberus),(Citation: SecureList - ViceLeaker 2019),(Citation: Cofense Anubis),(Citation: Talos GPlayed),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Palo Alto HenBox),(Citation: Lookout-Monokle),(Citation: Securelist Asacub),(Citation: Lookout Desert Scorpion),(Citation: Wandera-RedDrop),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Cybereason EventBot),(Citation: BlackBerry Bahamut),(Citation: Lookout Dark Caracal Jan 2018),(Citation: threatfabric_sova_0921),(Citation: SecureList DVMap June 2017),(Citation: FireEye-RuMMS),(Citation: Lookout ViperRAT),(Citation: Kaspersky-WUC),(Citation: Lookout Uyghur Campaign),(Citation: Threat Fabric Exobot),(Citation: Symantec GoldenCup),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Bitdefender Mandrake),(Citation: securelist rotexy 2018),(Citation: Zscaler TikTok Spyware),(Citation: lookout_abstractemu_1021),</t>
-  </si>
-  <si>
-    <t>(Citation: Google Project Zero Insomnia),(Citation: SecurityIntelligence TrickMo),(Citation: TrendMicro Coronavirus Updates),(Citation: paloalto_yispecter_1015),(Citation: Lookout-PegasusAndroid),(Citation: Talos Gustuff Apr 2019),(Citation: TrendMicro-Anserver2),(Citation: Cybereason FakeSpy),(Citation: Lookout FrozenCell),(Citation: Kaspersky Riltok June 2019),(Citation: trendmicro_tianyspy_0122),(Citation: Google Bread),(Citation: Talos GPlayed),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Talos-WolfRAT),(Citation: Lookout-StealthMango),(Citation: Lookout-Monokle),(Citation: Securelist Asacub),(Citation: Wandera-RedDrop),(Citation: Cybereason EventBot),(Citation: WhiteOps TERRACOTTA),(Citation: PaloAlto-SpyDealer),(Citation: PaloAlto-DualToy),(Citation: FireEye-RuMMS),(Citation: Lookout ViperRAT),(Citation: Lookout Uyghur Campaign),(Citation: SWB Exodus March 2019),(Citation: Threat Fabric Exobot),(Citation: Symantec GoldenCup),(Citation: Lookout-EnterpriseApps),(Citation: securelist rotexy 2018),(Citation: lookout_abstractemu_1021),(Citation: TelephonyManager)</t>
-  </si>
-  <si>
-    <t>(Citation: Cybereason FakeSpy),(Citation: Lookout ViperRAT),(Citation: SWB Exodus March 2019),(Citation: Lookout-Pegasus),(Citation: Lookout-Monokle),(Citation: Lookout Dark Caracal Jan 2018),(Citation: FlexiSpy-Features),</t>
-  </si>
-  <si>
-    <t>(Citation: Google Security Zen),(Citation: SecureList DVMap June 2017),(Citation: FortiGuard-FlexiSpy),(Citation: Android-VerifiedBoot)</t>
+    <t>(Citation: ThreatFabric Ginp),(Citation: CheckPoint SimBad 2019),(Citation: Threat Fabric Cerberus),(Citation: Lookout Desert Scorpion),(Citation: securelist rotexy 2018),(Citation: Group IB Gustuff Mar 2019),(Citation: threatfabric_sova_0921),(Citation: Bitdefender - Triout 2018),(Citation: CheckPoint Agent Smith),(Citation: Lookout Uyghur Campaign),(Citation: ESET-Twitoor),(Citation: SecureList BusyGasper),(Citation: FortiGuard-FlexiSpy),(Citation: paloalto_yispecter_1015),(Citation: Zscaler TikTok Spyware),(Citation: Cybereason FakeSpy),(Citation: cyble_drinik_1022),(Citation: Bitdefender Mandrake),(Citation: FlexiSpy-Features),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: LauncherApps getActivityList),(Citation: Android 10 Limitations to Hiding App Icons)</t>
+  </si>
+  <si>
+    <t>(Citation: BlackBerry Bahamut),(Citation: Cybereason EventBot),(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_abstractemu_1021),(Citation: Cybereason FakeSpy),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout-Dendroid),(Citation: securelist rotexy 2018),(Citation: WhiteOps TERRACOTTA),(Citation: Bitdefender Mandrake),(Citation: BlackBerry Bahamut),(Citation: Palo Alto HenBox),(Citation: ThreatFabric Ginp),(Citation: Trend Micro Anubis),(Citation: Threat Fabric Cerberus),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Talos-WolfRAT),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_abstractemu_1021),(Citation: Talos GPlayed),(Citation: Google Project Zero Insomnia),(Citation: FireEye-RuMMS),(Citation: Lookout Dark Caracal Jan 2018),(Citation: BlackBerry Bahamut),(Citation: Palo Alto HenBox),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Threat Fabric Cerberus),(Citation: Kaspersky Riltok June 2019),(Citation: Lookout eSurv),(Citation: Lookout ViperRAT),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout Desert Scorpion),(Citation: SecurityIntelligence TrickMo),(Citation: securelist rotexy 2018),(Citation: Securelist Asacub),(Citation: Symantec GoldenCup),(Citation: trendmicro_tianyspy_0122),(Citation: threatfabric_sova_0921),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cybereason EventBot),(Citation: Lookout-Pegasus),(Citation: Lookout Uyghur Campaign),(Citation: Cofense Anubis),(Citation: Wandera-RedDrop),(Citation: Threat Fabric Exobot),(Citation: Kaspersky-WUC),(Citation: Xiao-KeyRaider),(Citation: paloalto_yispecter_1015),(Citation: SecureList DVMap June 2017),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Monokle),(Citation: Cybereason FakeSpy),(Citation: SecureList - ViceLeaker 2019),(Citation: CheckPoint Cerberus),(Citation: TrendMicro-Anserver2),(Citation: Lookout FrozenCell),(Citation: Talos Gustuff Apr 2019),(Citation: Bitdefender Mandrake),(Citation: WeLiveSecurity AdDisplayAshas),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_abstractemu_1021),(Citation: Talos GPlayed),(Citation: Google Project Zero Insomnia),(Citation: FireEye-RuMMS),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: PaloAlto-DualToy),(Citation: Kaspersky Riltok June 2019),(Citation: Talos-WolfRAT),(Citation: Lookout ViperRAT),(Citation: TrendMicro Coronavirus Updates),(Citation: SecurityIntelligence TrickMo),(Citation: securelist rotexy 2018),(Citation: Securelist Asacub),(Citation: Symantec GoldenCup),(Citation: trendmicro_tianyspy_0122),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout-EnterpriseApps),(Citation: Lookout-StealthMango),(Citation: Cybereason EventBot),(Citation: Lookout Uyghur Campaign),(Citation: Wandera-RedDrop),(Citation: Threat Fabric Exobot),(Citation: Lookout-PegasusAndroid),(Citation: PaloAlto-SpyDealer),(Citation: SWB Exodus March 2019),(Citation: paloalto_yispecter_1015),(Citation: Lookout-Monokle),(Citation: Cybereason FakeSpy),(Citation: Google Bread),(Citation: TrendMicro-Anserver2),(Citation: Lookout FrozenCell),(Citation: Talos Gustuff Apr 2019),(Citation: TelephonyManager)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-Monokle),(Citation: Cybereason FakeSpy),(Citation: Lookout ViperRAT),(Citation: Lookout Dark Caracal Jan 2018),(Citation: FlexiSpy-Features),(Citation: SWB Exodus March 2019),(Citation: Lookout-Pegasus),</t>
+  </si>
+  <si>
+    <t>(Citation: Google Security Zen),(Citation: FortiGuard-FlexiSpy),(Citation: SecureList DVMap June 2017),(Citation: Android-VerifiedBoot)</t>
   </si>
   <si>
     <t>(Citation: threatfabric_sova_0921),(Citation: Android 10 Privacy Changes)</t>
   </si>
   <si>
-    <t>(Citation: nccgroup_sharkbot_0322),(Citation: Threat Fabric Cerberus),(Citation: threatfabric_sova_0921),(Citation: SecurityIntelligence TrickMo),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: Lookout Uyghur Campaign),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Palo Alto HenBox),(Citation: Zscaler TikTok Spyware),(Citation: lookout_abstractemu_1021),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: proofpoint_flubot_0421),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: TrendMicro Coronavirus Updates),(Citation: CyberMerchants-FlexiSpy),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-PegasusAndroid),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cloudmark_tanglebot_0921),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Dendroid),(Citation: Talos-WolfRAT),(Citation: Palo Alto HenBox),(Citation: Lookout-StealthMango),(Citation: Lookout-Monokle),(Citation: Zscaler-SuperMarioRun),(Citation: Kaspersky-Skygofree),(Citation: Lookout Desert Scorpion),(Citation: BlackBerry Bahamut),(Citation: Lookout Dark Caracal Jan 2018),(Citation: PaloAlto-SpyDealer),(Citation: Lookout ViperRAT),(Citation: Lookout Uyghur Campaign),(Citation: SWB Exodus March 2019),(Citation: Symantec GoldenCup),(Citation: Zscaler TikTok Spyware),(Citation: lookout_abstractemu_1021),(Citation: Android Capture Sensor 2019)</t>
+    <t>(Citation: SecurityIntelligence TrickMo),(Citation: Threat Fabric Cerberus),(Citation: threatfabric_sova_0921),(Citation: nccgroup_sharkbot_0322),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: lookout_abstractemu_1021),(Citation: SecureList BusyGasper),(Citation: Palo Alto HenBox),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Zscaler TikTok Spyware),</t>
+  </si>
+  <si>
+    <t>(Citation: proofpoint_flubot_0421),(Citation: SecureList BusyGasper),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_abstractemu_1021),(Citation: Lookout-Dendroid),(Citation: Lookout Dark Caracal Jan 2018),(Citation: BlackBerry Bahamut),(Citation: Palo Alto HenBox),(Citation: Talos-WolfRAT),(Citation: Lookout ViperRAT),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout Desert Scorpion),(Citation: Symantec GoldenCup),(Citation: Lookout-StealthMango),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cloudmark_tanglebot_0921),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),(Citation: Kaspersky-Skygofree),(Citation: Lookout-PegasusAndroid),(Citation: PaloAlto-SpyDealer),(Citation: SWB Exodus March 2019),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Monokle),(Citation: SecureList - ViceLeaker 2019),(Citation: TrendMicro-RCSAndroid),(Citation: CyberMerchants-FlexiSpy),(Citation: Android Capture Sensor 2019)</t>
   </si>
   <si>
     <t>(Citation: lookout_abstractemu_1021),</t>
   </si>
   <si>
-    <t>(Citation: SecurityIntelligence TrickMo),(Citation: TrendMicro Coronavirus Updates),(Citation: paloalto_yispecter_1015),(Citation: Talos Gustuff Apr 2019),(Citation: Sophos Red Alert 2.0),(Citation: Cybereason FakeSpy),(Citation: Kaspersky Riltok June 2019),(Citation: SecureList - ViceLeaker 2019),(Citation: CheckPoint Cerberus),(Citation: Volexity Insomnia),(Citation: Google Bread),(Citation: Talos GPlayed),(Citation: ESET DEFENSOR ID),(Citation: Securelist Asacub),(Citation: Kaspersky-Skygofree),(Citation: Kaspersky-MobileMalware),(Citation: Wandera-RedDrop),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Cybereason EventBot),(Citation: Lookout Dark Caracal Jan 2018),(Citation: threatfabric_sova_0921),(Citation: proofpoint_flubot_0421),(Citation: FireEye-RuMMS),(Citation: Kaspersky-WUC),(Citation: Lookout Uyghur Campaign),(Citation: nccgroup_sharkbot_0322),(Citation: Bitdefender - Triout 2018),(Citation: SWB Exodus March 2019),(Citation: Threat Fabric Exobot),(Citation: Symantec GoldenCup),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: securelist rotexy 2018),(Citation: lookout_abstractemu_1021),</t>
+    <t>(Citation: lookout_abstractemu_1021),(Citation: Talos GPlayed),(Citation: FireEye-RuMMS),(Citation: ESET DEFENSOR ID),(Citation: Lookout Dark Caracal Jan 2018),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: proofpoint_flubot_0421),(Citation: Volexity Insomnia),(Citation: Kaspersky Riltok June 2019),(Citation: TrendMicro Coronavirus Updates),(Citation: SecurityIntelligence TrickMo),(Citation: securelist rotexy 2018),(Citation: Securelist Asacub),(Citation: Symantec GoldenCup),(Citation: threatfabric_sova_0921),(Citation: Sophos Red Alert 2.0),(Citation: Cybereason EventBot),(Citation: Bitdefender - Triout 2018),(Citation: Lookout Uyghur Campaign),(Citation: Wandera-RedDrop),(Citation: Threat Fabric Exobot),(Citation: Kaspersky-Skygofree),(Citation: Kaspersky-WUC),(Citation: SWB Exodus March 2019),(Citation: paloalto_yispecter_1015),(Citation: Cybereason FakeSpy),(Citation: Google Bread),(Citation: SecureList - ViceLeaker 2019),(Citation: CheckPoint Cerberus),(Citation: nccgroup_sharkbot_0322),(Citation: Kaspersky-MobileMalware),(Citation: Talos Gustuff Apr 2019),(Citation: WeLiveSecurity AdDisplayAshas),</t>
   </si>
   <si>
     <t>source ID</t>
